--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="525" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E0915075-A7EA-40CC-BC47-715EE8FEAADA}"/>
+  <xr:revisionPtr revIDLastSave="545" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3570245B-25B6-4669-BDFF-781DB760EE8F}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="493" uniqueCount="118">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -133,9 +133,6 @@
     <t>CloudWeb-Server</t>
   </si>
   <si>
-    <t>G0/1/0</t>
-  </si>
-  <si>
     <t>RT-Wan</t>
   </si>
   <si>
@@ -154,12 +151,6 @@
     <t>RT-3</t>
   </si>
   <si>
-    <t>G0/1/1</t>
-  </si>
-  <si>
-    <t>G0/1/2</t>
-  </si>
-  <si>
     <t>Edificio 2</t>
   </si>
   <si>
@@ -380,6 +371,24 @@
   </si>
   <si>
     <t>GeralE2-Phone1</t>
+  </si>
+  <si>
+    <t>G6/0</t>
+  </si>
+  <si>
+    <t>G7/0</t>
+  </si>
+  <si>
+    <t>G4/0(Fibra)</t>
+  </si>
+  <si>
+    <t>G5/0</t>
+  </si>
+  <si>
+    <t>RT-WAN</t>
+  </si>
+  <si>
+    <t>G5/0(Fibra)</t>
   </si>
 </sst>
 </file>
@@ -844,6 +853,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -871,19 +888,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -893,7 +903,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1210,8 +1219,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F286A72-55C7-45FC-BA31-552B8F8C6C3B}">
   <dimension ref="B1:M90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E70" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1221,17 +1230,19 @@
     <col min="5" max="5" width="7.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" customWidth="1"/>
     <col min="7" max="7" width="21.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="24.44140625" customWidth="1"/>
+    <col min="12" max="12" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="37"/>
+      <c r="C2" s="40"/>
+      <c r="D2" s="41"/>
     </row>
     <row r="3" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -1252,7 +1263,7 @@
       <c r="H3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="40"/>
+      <c r="I3" s="42"/>
       <c r="J3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1264,39 +1275,39 @@
       </c>
     </row>
     <row r="4" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B4" s="32">
+      <c r="B4" s="36">
         <v>10</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="33" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="F4" s="38" t="s">
+      <c r="F4" s="29" t="s">
         <v>24</v>
       </c>
       <c r="G4" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="39" t="s">
+      <c r="H4" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="41"/>
+      <c r="I4" s="43"/>
       <c r="J4" s="18" t="s">
         <v>24</v>
       </c>
       <c r="K4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="38" t="s">
-        <v>26</v>
+      <c r="L4" s="29" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B5" s="33"/>
-      <c r="C5" s="30"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
@@ -1310,7 +1321,7 @@
       <c r="H5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="41"/>
+      <c r="I5" s="43"/>
       <c r="J5" s="20" t="s">
         <v>24</v>
       </c>
@@ -1322,8 +1333,8 @@
       </c>
     </row>
     <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="34"/>
-      <c r="C6" s="31"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>
@@ -1337,7 +1348,7 @@
       <c r="H6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="41"/>
+      <c r="I6" s="43"/>
       <c r="J6" s="20" t="s">
         <v>24</v>
       </c>
@@ -1345,7 +1356,7 @@
         <v>27</v>
       </c>
       <c r="L6" s="21" t="s">
-        <v>28</v>
+        <v>113</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1362,7 +1373,7 @@
       <c r="H7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I7" s="41"/>
+      <c r="I7" s="43"/>
       <c r="J7" s="20" t="s">
         <v>24</v>
       </c>
@@ -1393,7 +1404,7 @@
       <c r="H8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="41"/>
+      <c r="I8" s="43"/>
       <c r="J8" s="20" t="s">
         <v>24</v>
       </c>
@@ -1418,7 +1429,7 @@
       <c r="H9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="41"/>
+      <c r="I9" s="43"/>
       <c r="J9" s="20" t="s">
         <v>24</v>
       </c>
@@ -1447,17 +1458,17 @@
         <v>27</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I10" s="41"/>
+        <v>114</v>
+      </c>
+      <c r="I10" s="43"/>
       <c r="J10" s="20" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L10" s="21" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1466,23 +1477,23 @@
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I11" s="43"/>
+      <c r="J11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G11" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I11" s="41"/>
-      <c r="J11" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="21" t="s">
-        <v>35</v>
-      </c>
       <c r="L11" s="21" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1497,23 +1508,23 @@
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G12" s="21" t="s">
+      <c r="H12" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="I12" s="43"/>
+      <c r="J12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="21" t="s">
         <v>35</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I12" s="41"/>
-      <c r="J12" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>58</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="13" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1522,23 +1533,23 @@
       <c r="D13" s="2"/>
       <c r="E13" s="1"/>
       <c r="F13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G13" s="21" t="s">
-        <v>35</v>
-      </c>
       <c r="H13" s="22" t="s">
-        <v>39</v>
-      </c>
-      <c r="I13" s="41"/>
+        <v>114</v>
+      </c>
+      <c r="I13" s="43"/>
       <c r="J13" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K13" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L13" s="21" t="s">
-        <v>26</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1553,23 +1564,23 @@
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G14" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="G14" s="21" t="s">
-        <v>35</v>
-      </c>
       <c r="H14" s="22" t="s">
-        <v>40</v>
-      </c>
-      <c r="I14" s="41"/>
+        <v>117</v>
+      </c>
+      <c r="I14" s="43"/>
       <c r="J14" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K14" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L14" s="21" t="s">
-        <v>26</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1578,23 +1589,23 @@
       <c r="D15" s="2"/>
       <c r="E15" s="1"/>
       <c r="F15" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G15" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="I15" s="43"/>
+      <c r="J15" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="41"/>
-      <c r="J15" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="21" t="s">
-        <v>38</v>
-      </c>
       <c r="L15" s="21" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1609,23 +1620,23 @@
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I16" s="41"/>
+        <v>112</v>
+      </c>
+      <c r="I16" s="43"/>
       <c r="J16" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K16" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L16" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1634,23 +1645,23 @@
       <c r="D17" s="2"/>
       <c r="E17" s="1"/>
       <c r="F17" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G17" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I17" s="43"/>
       <c r="J17" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K17" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L17" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1665,23 +1676,23 @@
       </c>
       <c r="E18" s="1"/>
       <c r="F18" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G18" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="41"/>
+        <v>40</v>
+      </c>
+      <c r="I18" s="43"/>
       <c r="J18" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K18" s="21" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L18" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1690,23 +1701,23 @@
       <c r="D19" s="2"/>
       <c r="E19" s="1"/>
       <c r="F19" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I19" s="43"/>
       <c r="J19" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K19" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L19" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1721,23 +1732,23 @@
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="43"/>
+      <c r="J20" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="G20" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="H20" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="41"/>
-      <c r="J20" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K20" s="21" t="s">
-        <v>103</v>
-      </c>
-      <c r="L20" s="21" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="21" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1746,23 +1757,23 @@
       <c r="D21" s="2"/>
       <c r="E21" s="1"/>
       <c r="F21" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I21" s="43"/>
       <c r="J21" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K21" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L21" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="22" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1777,23 +1788,23 @@
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I22" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I22" s="43"/>
       <c r="J22" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K22" s="21" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L22" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.3">
@@ -1802,23 +1813,23 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" s="43"/>
+      <c r="J23" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="L23" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="G23" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="41"/>
-      <c r="J23" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K23" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="L23" s="21" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.3">
@@ -1827,371 +1838,371 @@
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I24" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I24" s="43"/>
       <c r="J24" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K24" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L24" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F25" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G25" s="21" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I25" s="43"/>
       <c r="J25" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K25" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L25" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F26" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G26" s="21" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I26" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I26" s="43"/>
       <c r="J26" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K26" s="21" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L26" s="21" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F27" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G27" s="21" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H27" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="43"/>
+      <c r="J27" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K27" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I27" s="41"/>
-      <c r="J27" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K27" s="21" t="s">
-        <v>52</v>
-      </c>
       <c r="L27" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F28" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G28" s="21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="H28" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="43"/>
+      <c r="J28" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K28" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="I28" s="41"/>
-      <c r="J28" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K28" s="21" t="s">
-        <v>52</v>
-      </c>
       <c r="L28" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F29" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" s="43"/>
+      <c r="J29" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="G29" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I29" s="41"/>
-      <c r="J29" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K29" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="L29" s="21" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F30" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I30" s="43"/>
       <c r="J30" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K30" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L30" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F31" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G31" s="21" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I31" s="43"/>
       <c r="J31" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K31" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="L31" s="21" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
       <c r="F32" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G32" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" s="43"/>
+      <c r="J32" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="21" t="s">
         <v>42</v>
-      </c>
-      <c r="G32" s="21" t="s">
-        <v>108</v>
-      </c>
-      <c r="H32" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="41"/>
-      <c r="J32" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K32" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="L32" s="21" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="33" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F33" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G33" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" s="43"/>
+      <c r="J33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K33" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="H33" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I33" s="41"/>
-      <c r="J33" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K33" s="21" t="s">
-        <v>54</v>
-      </c>
       <c r="L33" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F34" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G34" s="21" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I34" s="43"/>
       <c r="J34" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K34" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="L34" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F35" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I35" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I35" s="43"/>
       <c r="J35" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K35" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="L35" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="36" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F36" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I36" s="43"/>
       <c r="J36" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K36" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L36" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F37" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G37" s="21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="H37" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" s="43"/>
+      <c r="J37" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="I37" s="41"/>
-      <c r="J37" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="K37" s="21" t="s">
-        <v>53</v>
-      </c>
       <c r="L37" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F38" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G38" s="21" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I38" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I38" s="43"/>
       <c r="J38" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K38" s="21" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="L38" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F39" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G39" s="21"/>
       <c r="H39" s="22"/>
-      <c r="I39" s="41"/>
+      <c r="I39" s="43"/>
       <c r="J39" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K39" s="21"/>
       <c r="L39" s="21"/>
     </row>
     <row r="40" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F40" s="21" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G40" s="21"/>
       <c r="H40" s="22"/>
-      <c r="I40" s="41"/>
+      <c r="I40" s="43"/>
       <c r="J40" s="20" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K40" s="21"/>
       <c r="L40" s="21"/>
     </row>
     <row r="41" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F41" s="24" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G41" s="24"/>
       <c r="H41" s="25"/>
-      <c r="I41" s="41"/>
+      <c r="I41" s="43"/>
       <c r="J41" s="23" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K41" s="24"/>
       <c r="L41" s="24"/>
     </row>
     <row r="42" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F42" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="G42" s="44"/>
-      <c r="H42" s="44"/>
-      <c r="I42" s="44"/>
-      <c r="J42" s="44"/>
-      <c r="K42" s="44"/>
-      <c r="L42" s="45"/>
+      <c r="F42" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="G42" s="45"/>
+      <c r="H42" s="45"/>
+      <c r="I42" s="45"/>
+      <c r="J42" s="45"/>
+      <c r="K42" s="45"/>
+      <c r="L42" s="46"/>
     </row>
     <row r="43" spans="4:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D43" s="42"/>
+      <c r="D43" s="31"/>
       <c r="F43" s="14" t="s">
         <v>22</v>
       </c>
@@ -2201,7 +2212,7 @@
       <c r="H43" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="I43" s="40"/>
+      <c r="I43" s="42"/>
       <c r="J43" s="15" t="s">
         <v>22</v>
       </c>
@@ -2214,863 +2225,863 @@
     </row>
     <row r="44" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F44" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G44" s="21" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="I44" s="41"/>
+        <v>112</v>
+      </c>
+      <c r="I44" s="43"/>
       <c r="J44" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K44" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L44" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F45" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G45" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I45" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I45" s="43"/>
       <c r="J45" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K45" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L45" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="46" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F46" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G46" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I46" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I46" s="43"/>
       <c r="J46" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K46" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L46" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="47" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F47" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G47" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I47" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I47" s="43"/>
       <c r="J47" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K47" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L47" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="4:12" x14ac:dyDescent="0.3">
       <c r="F48" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G48" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I48" s="43"/>
       <c r="J48" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K48" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L48" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="49" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F49" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G49" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I49" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I49" s="43"/>
       <c r="J49" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K49" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L49" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="50" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F50" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G50" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I50" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I50" s="43"/>
       <c r="J50" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K50" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L50" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F51" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G51" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I51" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I51" s="43"/>
       <c r="J51" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K51" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="L51" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="52" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F52" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G52" s="21" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I52" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I52" s="43"/>
       <c r="J52" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K52" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="L52" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F53" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G53" s="21" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="H53" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I53" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I53" s="43"/>
       <c r="J53" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K53" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="L53" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="54" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F54" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G54" s="21" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="I54" s="41"/>
+        <v>47</v>
+      </c>
+      <c r="I54" s="43"/>
       <c r="J54" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K54" s="21" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="L54" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F55" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G55" s="21" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I55" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I55" s="43"/>
       <c r="J55" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K55" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L55" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="56" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F56" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="H56" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" s="43"/>
+      <c r="J56" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="L56" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="G56" s="21" t="s">
-        <v>71</v>
-      </c>
-      <c r="H56" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I56" s="41"/>
-      <c r="J56" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K56" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="L56" s="21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="57" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F57" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G57" s="21" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="H57" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I57" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I57" s="43"/>
       <c r="J57" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K57" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L57" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="58" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F58" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G58" s="21" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H58" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I58" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I58" s="43"/>
       <c r="J58" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K58" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L58" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F59" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G59" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H59" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I59" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I59" s="43"/>
       <c r="J59" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K59" s="21" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L59" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="60" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F60" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G60" s="21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H60" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I60" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I60" s="43"/>
       <c r="J60" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K60" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L60" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F61" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G61" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="H61" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" s="43"/>
+      <c r="J61" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="L61" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="G61" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="H61" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I61" s="41"/>
-      <c r="J61" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K61" s="21" t="s">
-        <v>110</v>
-      </c>
-      <c r="L61" s="21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="62" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F62" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G62" s="21" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H62" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I62" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I62" s="43"/>
       <c r="J62" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K62" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L62" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F63" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G63" s="21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H63" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I63" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I63" s="43"/>
       <c r="J63" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K63" s="21" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L63" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="64" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F64" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G64" s="21" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H64" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I64" s="43"/>
       <c r="J64" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K64" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L64" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F65" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G65" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="H65" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" s="43"/>
+      <c r="J65" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="L65" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="G65" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="H65" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I65" s="41"/>
-      <c r="J65" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K65" s="21" t="s">
-        <v>60</v>
-      </c>
-      <c r="L65" s="21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="66" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F66" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G66" s="21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H66" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I66" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I66" s="43"/>
       <c r="J66" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K66" s="21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="L66" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="67" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F67" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G67" s="21" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H67" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I67" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I67" s="43"/>
       <c r="J67" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K67" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L67" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F68" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G68" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="H68" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" s="43"/>
+      <c r="J68" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K68" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="L68" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="G68" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H68" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I68" s="41"/>
-      <c r="J68" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K68" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="L68" s="21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="69" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F69" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G69" s="21" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H69" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I69" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I69" s="43"/>
       <c r="J69" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K69" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L69" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F70" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G70" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H70" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I70" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I70" s="43"/>
       <c r="J70" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K70" s="21" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="L70" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="71" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F71" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G71" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H71" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I71" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I71" s="43"/>
       <c r="J71" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K71" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L71" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F72" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G72" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="H72" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" s="43"/>
+      <c r="J72" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K72" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="L72" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="G72" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="H72" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I72" s="41"/>
-      <c r="J72" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K72" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="L72" s="21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="73" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F73" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G73" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H73" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I73" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I73" s="43"/>
       <c r="J73" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K73" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="L73" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F74" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G74" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H74" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I74" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I74" s="43"/>
       <c r="J74" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K74" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L74" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F75" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G75" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="H75" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" s="43"/>
+      <c r="J75" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="L75" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="G75" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="H75" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I75" s="41"/>
-      <c r="J75" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K75" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="L75" s="21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="76" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F76" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G76" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H76" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I76" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I76" s="43"/>
       <c r="J76" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K76" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L76" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="77" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F77" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G77" s="21" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H77" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I77" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I77" s="43"/>
       <c r="J77" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K77" s="21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L77" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="78" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F78" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G78" s="21" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H78" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I78" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I78" s="43"/>
       <c r="J78" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K78" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L78" s="21" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F79" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G79" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="H79" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" s="43"/>
+      <c r="J79" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="K79" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="L79" s="21" t="s">
         <v>41</v>
-      </c>
-      <c r="G79" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="H79" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I79" s="41"/>
-      <c r="J79" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="K79" s="21" t="s">
-        <v>64</v>
-      </c>
-      <c r="L79" s="21" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="80" spans="6:12" x14ac:dyDescent="0.3">
       <c r="F80" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G80" s="21" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H80" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I80" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I80" s="43"/>
       <c r="J80" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K80" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L80" s="21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="81" spans="5:13" x14ac:dyDescent="0.3">
       <c r="F81" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G81" s="21" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H81" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I81" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I81" s="43"/>
       <c r="J81" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K81" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L81" s="21" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="82" spans="5:13" x14ac:dyDescent="0.3">
       <c r="F82" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G82" s="21" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H82" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="I82" s="41"/>
+        <v>46</v>
+      </c>
+      <c r="I82" s="43"/>
       <c r="J82" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K82" s="21" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L82" s="21" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="83" spans="5:13" x14ac:dyDescent="0.3">
       <c r="F83" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H83" s="22"/>
-      <c r="I83" s="41"/>
+      <c r="I83" s="43"/>
       <c r="J83" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K83" s="21"/>
       <c r="L83" s="21"/>
     </row>
     <row r="84" spans="5:13" x14ac:dyDescent="0.3">
       <c r="F84" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G84" s="21"/>
       <c r="H84" s="22"/>
-      <c r="I84" s="41"/>
+      <c r="I84" s="43"/>
       <c r="J84" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K84" s="21"/>
       <c r="L84" s="21"/>
     </row>
     <row r="85" spans="5:13" x14ac:dyDescent="0.3">
       <c r="F85" s="21" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="G85" s="21"/>
       <c r="H85" s="22"/>
-      <c r="I85" s="41"/>
+      <c r="I85" s="43"/>
       <c r="J85" s="20" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K85" s="21"/>
       <c r="L85" s="21"/>
     </row>
     <row r="86" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E86" s="46"/>
+      <c r="E86" s="32"/>
       <c r="F86" s="4"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
@@ -3078,10 +3089,10 @@
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
       <c r="L86" s="4"/>
-      <c r="M86" s="46"/>
+      <c r="M86" s="32"/>
     </row>
     <row r="87" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E87" s="46"/>
+      <c r="E87" s="32"/>
       <c r="F87" s="4"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
@@ -3089,10 +3100,10 @@
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
       <c r="L87" s="4"/>
-      <c r="M87" s="46"/>
+      <c r="M87" s="32"/>
     </row>
     <row r="88" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E88" s="46"/>
+      <c r="E88" s="32"/>
       <c r="F88" s="4"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
@@ -3100,10 +3111,10 @@
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
       <c r="L88" s="4"/>
-      <c r="M88" s="46"/>
+      <c r="M88" s="32"/>
     </row>
     <row r="89" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E89" s="46"/>
+      <c r="E89" s="32"/>
       <c r="F89" s="4"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
@@ -3111,10 +3122,10 @@
       <c r="J89" s="4"/>
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="46"/>
+      <c r="M89" s="32"/>
     </row>
     <row r="90" spans="5:13" x14ac:dyDescent="0.3">
-      <c r="E90" s="46"/>
+      <c r="E90" s="32"/>
       <c r="F90" s="4"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
@@ -3122,16 +3133,16 @@
       <c r="J90" s="4"/>
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
-      <c r="M90" s="46"/>
+      <c r="M90" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="I43:I85"/>
     <mergeCell ref="C4:C6"/>
     <mergeCell ref="B4:B6"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="I3:I41"/>
     <mergeCell ref="F42:L42"/>
-    <mergeCell ref="I43:I85"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="609" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2FE29D5E-90B0-4C2E-81C4-26307476B2E1}"/>
+  <xr:revisionPtr revIDLastSave="778" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E7AF456-A773-4450-9606-5F0DB1733ACE}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
-    <sheet name="Folha1" sheetId="2" r:id="rId2"/>
+    <sheet name="Rede" sheetId="3" r:id="rId2"/>
+    <sheet name="VLAN" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="496" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="128">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -396,6 +397,30 @@
   </si>
   <si>
     <t>Edifício 1</t>
+  </si>
+  <si>
+    <t>Sistemas Auxiliares</t>
+  </si>
+  <si>
+    <t>Edifício 2</t>
+  </si>
+  <si>
+    <t>Departamento de Informática</t>
+  </si>
+  <si>
+    <t>Departamento de Serviços Academicos</t>
+  </si>
+  <si>
+    <t>Conselho de Gestão</t>
+  </si>
+  <si>
+    <t>Gestão de Equipamentos de Rede</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -433,7 +458,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -752,11 +777,68 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -839,31 +921,36 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -875,41 +962,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1226,8 +1339,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F286A72-55C7-45FC-BA31-552B8F8C6C3B}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1243,30 +1356,30 @@
     <col min="11" max="11" width="15.5546875" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
     <col min="14" max="14" width="11.44140625" customWidth="1"/>
-    <col min="15" max="15" width="21.109375" customWidth="1"/>
+    <col min="15" max="15" width="22.5546875" customWidth="1"/>
     <col min="16" max="16" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="41"/>
-      <c r="J2" s="39" t="s">
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+      <c r="J2" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="40"/>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40"/>
-      <c r="P2" s="41"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="44"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
@@ -1278,7 +1391,7 @@
       <c r="D3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="42"/>
+      <c r="E3" s="32"/>
       <c r="F3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1297,7 +1410,7 @@
       <c r="L3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="42"/>
+      <c r="M3" s="32"/>
       <c r="N3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1319,7 +1432,7 @@
       <c r="D4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="43"/>
+      <c r="E4" s="57"/>
       <c r="F4" s="18" t="s">
         <v>24</v>
       </c>
@@ -1338,7 +1451,7 @@
       <c r="L4" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="43"/>
+      <c r="M4" s="57"/>
       <c r="N4" s="20" t="s">
         <v>33</v>
       </c>
@@ -1360,7 +1473,7 @@
       <c r="D5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="43"/>
+      <c r="E5" s="57"/>
       <c r="F5" s="20" t="s">
         <v>24</v>
       </c>
@@ -1379,7 +1492,7 @@
       <c r="L5" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="M5" s="43"/>
+      <c r="M5" s="57"/>
       <c r="N5" s="20" t="s">
         <v>33</v>
       </c>
@@ -1401,7 +1514,7 @@
       <c r="D6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="43"/>
+      <c r="E6" s="57"/>
       <c r="F6" s="20" t="s">
         <v>24</v>
       </c>
@@ -1420,7 +1533,7 @@
       <c r="L6" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="M6" s="43"/>
+      <c r="M6" s="57"/>
       <c r="N6" s="20" t="s">
         <v>39</v>
       </c>
@@ -1442,7 +1555,7 @@
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="43"/>
+      <c r="E7" s="57"/>
       <c r="F7" s="20" t="s">
         <v>24</v>
       </c>
@@ -1461,7 +1574,7 @@
       <c r="L7" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="43"/>
+      <c r="M7" s="33"/>
       <c r="N7" s="20" t="s">
         <v>38</v>
       </c>
@@ -1483,7 +1596,7 @@
       <c r="D8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="43"/>
+      <c r="E8" s="57"/>
       <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
@@ -1493,6 +1606,7 @@
       <c r="H8" s="21" t="s">
         <v>26</v>
       </c>
+      <c r="M8" s="58"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -1505,7 +1619,7 @@
       <c r="D9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="43"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="20" t="s">
         <v>24</v>
       </c>
@@ -1527,8 +1641,8 @@
       <c r="D10" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="43"/>
-      <c r="F10" s="54" t="s">
+      <c r="E10" s="57"/>
+      <c r="F10" s="41" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="21" t="s">
@@ -1537,25 +1651,25 @@
       <c r="H10" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="J10" s="39" t="s">
+      <c r="J10" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40"/>
-      <c r="M10" s="40"/>
-      <c r="N10" s="40"/>
-      <c r="O10" s="40"/>
-      <c r="P10" s="41"/>
-    </row>
-    <row r="11" spans="1:16" s="48" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="45"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="46"/>
-      <c r="H11" s="46"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="44"/>
+    </row>
+    <row r="11" spans="1:16" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="35"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
       <c r="J11" s="14" t="s">
         <v>22</v>
       </c>
@@ -1565,7 +1679,7 @@
       <c r="L11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="42"/>
+      <c r="M11" s="32"/>
       <c r="N11" s="15" t="s">
         <v>22</v>
       </c>
@@ -1576,25 +1690,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="48" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45"/>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
+    <row r="12" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="35"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
       <c r="J12" s="19" t="s">
         <v>39</v>
       </c>
       <c r="K12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="44" t="s">
+      <c r="L12" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="M12" s="43"/>
+      <c r="M12" s="56"/>
       <c r="N12" s="18" t="s">
         <v>38</v>
       </c>
@@ -1605,15 +1719,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="48" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="45"/>
-      <c r="B13" s="50"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="51"/>
+    <row r="13" spans="1:16" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="35"/>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="40"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="50"/>
-      <c r="G13" s="50"/>
-      <c r="H13" s="51"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="40"/>
       <c r="J13" s="21" t="s">
         <v>39</v>
       </c>
@@ -1623,7 +1737,7 @@
       <c r="L13" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="43"/>
+      <c r="M13" s="56"/>
       <c r="N13" s="20" t="s">
         <v>39</v>
       </c>
@@ -1636,15 +1750,15 @@
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="39" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="53"/>
+      <c r="B14" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="45"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="46"/>
       <c r="J14" s="21" t="s">
         <v>39</v>
       </c>
@@ -1654,7 +1768,7 @@
       <c r="L14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="43"/>
+      <c r="M14" s="57"/>
       <c r="N14" s="20" t="s">
         <v>39</v>
       </c>
@@ -1676,7 +1790,7 @@
       <c r="D15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="42"/>
+      <c r="E15" s="32"/>
       <c r="F15" s="15" t="s">
         <v>22</v>
       </c>
@@ -1695,7 +1809,7 @@
       <c r="L15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="43"/>
+      <c r="M15" s="57"/>
       <c r="N15" s="20" t="s">
         <v>39</v>
       </c>
@@ -1717,7 +1831,7 @@
       <c r="D16" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="43"/>
+      <c r="E16" s="56"/>
       <c r="F16" s="20" t="s">
         <v>38</v>
       </c>
@@ -1736,7 +1850,7 @@
       <c r="L16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="43"/>
+      <c r="M16" s="33"/>
       <c r="N16" s="20" t="s">
         <v>39</v>
       </c>
@@ -1758,7 +1872,7 @@
       <c r="D17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="43"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="20" t="s">
         <v>38</v>
       </c>
@@ -1777,7 +1891,7 @@
       <c r="L17" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="43"/>
+      <c r="M17" s="57"/>
       <c r="N17" s="20" t="s">
         <v>39</v>
       </c>
@@ -1799,7 +1913,7 @@
       <c r="D18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="43"/>
+      <c r="E18" s="57"/>
       <c r="F18" s="20" t="s">
         <v>38</v>
       </c>
@@ -1818,7 +1932,7 @@
       <c r="L18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="43"/>
+      <c r="M18" s="57"/>
       <c r="N18" s="20" t="s">
         <v>39</v>
       </c>
@@ -1840,7 +1954,7 @@
       <c r="D19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="43"/>
+      <c r="E19" s="33"/>
       <c r="F19" s="20" t="s">
         <v>38</v>
       </c>
@@ -1859,7 +1973,7 @@
       <c r="L19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="43"/>
+      <c r="M19" s="33"/>
       <c r="N19" s="20" t="s">
         <v>39</v>
       </c>
@@ -1881,7 +1995,7 @@
       <c r="D20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="43"/>
+      <c r="E20" s="56"/>
       <c r="F20" s="20" t="s">
         <v>38</v>
       </c>
@@ -1900,7 +2014,7 @@
       <c r="L20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="43"/>
+      <c r="M20" s="57"/>
       <c r="N20" s="20" t="s">
         <v>39</v>
       </c>
@@ -1922,7 +2036,7 @@
       <c r="D21" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="43"/>
+      <c r="E21" s="57"/>
       <c r="F21" s="20" t="s">
         <v>38</v>
       </c>
@@ -1941,7 +2055,7 @@
       <c r="L21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="43"/>
+      <c r="M21" s="57"/>
       <c r="N21" s="20" t="s">
         <v>39</v>
       </c>
@@ -1963,7 +2077,7 @@
       <c r="D22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="43"/>
+      <c r="E22" s="33"/>
       <c r="F22" s="20" t="s">
         <v>38</v>
       </c>
@@ -1982,7 +2096,7 @@
       <c r="L22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="43"/>
+      <c r="M22" s="33"/>
       <c r="N22" s="20" t="s">
         <v>39</v>
       </c>
@@ -2004,7 +2118,7 @@
       <c r="D23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="43"/>
+      <c r="E23" s="56"/>
       <c r="F23" s="20" t="s">
         <v>38</v>
       </c>
@@ -2023,7 +2137,7 @@
       <c r="L23" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="43"/>
+      <c r="M23" s="56"/>
       <c r="N23" s="20" t="s">
         <v>39</v>
       </c>
@@ -2044,7 +2158,7 @@
       <c r="D24" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="43"/>
+      <c r="E24" s="57"/>
       <c r="F24" s="20" t="s">
         <v>38</v>
       </c>
@@ -2063,7 +2177,7 @@
       <c r="L24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="43"/>
+      <c r="M24" s="57"/>
       <c r="N24" s="20" t="s">
         <v>39</v>
       </c>
@@ -2084,7 +2198,7 @@
       <c r="D25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="43"/>
+      <c r="E25" s="57"/>
       <c r="F25" s="20" t="s">
         <v>38</v>
       </c>
@@ -2103,7 +2217,7 @@
       <c r="L25" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="43"/>
+      <c r="M25" s="57"/>
       <c r="N25" s="20" t="s">
         <v>39</v>
       </c>
@@ -2124,7 +2238,7 @@
       <c r="D26" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="57"/>
       <c r="F26" s="20" t="s">
         <v>38</v>
       </c>
@@ -2143,7 +2257,7 @@
       <c r="L26" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="43"/>
+      <c r="M26" s="33"/>
       <c r="N26" s="20" t="s">
         <v>39</v>
       </c>
@@ -2164,7 +2278,7 @@
       <c r="D27" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="20" t="s">
         <v>38</v>
       </c>
@@ -2183,7 +2297,7 @@
       <c r="L27" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M27" s="43"/>
+      <c r="M27" s="57"/>
       <c r="N27" s="20" t="s">
         <v>39</v>
       </c>
@@ -2204,7 +2318,7 @@
       <c r="D28" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="57"/>
       <c r="F28" s="20" t="s">
         <v>38</v>
       </c>
@@ -2223,7 +2337,7 @@
       <c r="L28" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="43"/>
+      <c r="M28" s="57"/>
       <c r="N28" s="20" t="s">
         <v>39</v>
       </c>
@@ -2244,7 +2358,7 @@
       <c r="D29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="20" t="s">
         <v>38</v>
       </c>
@@ -2263,7 +2377,7 @@
       <c r="L29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="43"/>
+      <c r="M29" s="57"/>
       <c r="N29" s="20" t="s">
         <v>39</v>
       </c>
@@ -2284,7 +2398,7 @@
       <c r="D30" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="56"/>
       <c r="F30" s="20" t="s">
         <v>38</v>
       </c>
@@ -2303,7 +2417,7 @@
       <c r="L30" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M30" s="43"/>
+      <c r="M30" s="33"/>
       <c r="N30" s="20" t="s">
         <v>39</v>
       </c>
@@ -2324,7 +2438,7 @@
       <c r="D31" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="43"/>
+      <c r="E31" s="57"/>
       <c r="F31" s="20" t="s">
         <v>38</v>
       </c>
@@ -2343,7 +2457,7 @@
       <c r="L31" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M31" s="43"/>
+      <c r="M31" s="56"/>
       <c r="N31" s="20" t="s">
         <v>39</v>
       </c>
@@ -2364,7 +2478,7 @@
       <c r="D32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="43"/>
+      <c r="E32" s="33"/>
       <c r="F32" s="20" t="s">
         <v>38</v>
       </c>
@@ -2383,7 +2497,7 @@
       <c r="L32" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M32" s="43"/>
+      <c r="M32" s="57"/>
       <c r="N32" s="20" t="s">
         <v>39</v>
       </c>
@@ -2404,7 +2518,7 @@
       <c r="D33" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="43"/>
+      <c r="E33" s="56"/>
       <c r="F33" s="20" t="s">
         <v>38</v>
       </c>
@@ -2423,7 +2537,7 @@
       <c r="L33" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M33" s="43"/>
+      <c r="M33" s="33"/>
       <c r="N33" s="20" t="s">
         <v>39</v>
       </c>
@@ -2444,7 +2558,7 @@
       <c r="D34" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="43"/>
+      <c r="E34" s="57"/>
       <c r="F34" s="20" t="s">
         <v>38</v>
       </c>
@@ -2463,7 +2577,7 @@
       <c r="L34" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M34" s="43"/>
+      <c r="M34" s="57"/>
       <c r="N34" s="20" t="s">
         <v>39</v>
       </c>
@@ -2484,7 +2598,7 @@
       <c r="D35" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="43"/>
+      <c r="E35" s="56"/>
       <c r="F35" s="20" t="s">
         <v>38</v>
       </c>
@@ -2503,7 +2617,7 @@
       <c r="L35" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M35" s="43"/>
+      <c r="M35" s="57"/>
       <c r="N35" s="20" t="s">
         <v>39</v>
       </c>
@@ -2524,7 +2638,7 @@
       <c r="D36" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="43"/>
+      <c r="E36" s="56"/>
       <c r="F36" s="20" t="s">
         <v>38</v>
       </c>
@@ -2545,7 +2659,7 @@
       <c r="D37" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="43"/>
+      <c r="E37" s="56"/>
       <c r="F37" s="20" t="s">
         <v>38</v>
       </c>
@@ -2566,7 +2680,7 @@
       <c r="D38" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="43"/>
+      <c r="E38" s="56"/>
       <c r="F38" s="20" t="s">
         <v>38</v>
       </c>
@@ -2587,7 +2701,7 @@
       <c r="D39" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="43"/>
+      <c r="E39" s="56"/>
       <c r="F39" s="20" t="s">
         <v>38</v>
       </c>
@@ -2608,7 +2722,7 @@
       <c r="D40" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="43"/>
+      <c r="E40" s="56"/>
       <c r="F40" s="20" t="s">
         <v>38</v>
       </c>
@@ -2629,7 +2743,7 @@
       <c r="D41" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="43"/>
+      <c r="E41" s="57"/>
       <c r="F41" s="20" t="s">
         <v>38</v>
       </c>
@@ -2650,7 +2764,7 @@
       <c r="D42" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="43"/>
+      <c r="E42" s="57"/>
       <c r="F42" s="20" t="s">
         <v>38</v>
       </c>
@@ -2671,7 +2785,7 @@
       <c r="D43" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="43"/>
+      <c r="E43" s="33"/>
       <c r="F43" s="20" t="s">
         <v>38</v>
       </c>
@@ -2692,7 +2806,7 @@
       <c r="D44" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="43"/>
+      <c r="E44" s="56"/>
       <c r="F44" s="20" t="s">
         <v>38</v>
       </c>
@@ -2713,7 +2827,7 @@
       <c r="D45" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="43"/>
+      <c r="E45" s="57"/>
       <c r="F45" s="20" t="s">
         <v>38</v>
       </c>
@@ -2734,7 +2848,7 @@
       <c r="D46" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="43"/>
+      <c r="E46" s="57"/>
       <c r="F46" s="20" t="s">
         <v>38</v>
       </c>
@@ -2765,7 +2879,7 @@
       <c r="D47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="43"/>
+      <c r="E47" s="33"/>
       <c r="F47" s="20" t="s">
         <v>38</v>
       </c>
@@ -2796,7 +2910,7 @@
       <c r="D48" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="43"/>
+      <c r="E48" s="57"/>
       <c r="F48" s="20" t="s">
         <v>38</v>
       </c>
@@ -2827,7 +2941,7 @@
       <c r="D49" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="43"/>
+      <c r="E49" s="33"/>
       <c r="F49" s="20" t="s">
         <v>38</v>
       </c>
@@ -2858,7 +2972,7 @@
       <c r="D50" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="43"/>
+      <c r="E50" s="56"/>
       <c r="F50" s="20" t="s">
         <v>38</v>
       </c>
@@ -2870,13 +2984,13 @@
       </c>
       <c r="L50" s="27"/>
       <c r="M50" s="27"/>
-      <c r="N50" s="50"/>
-      <c r="O50" s="50"/>
-      <c r="P50" s="51"/>
+      <c r="N50" s="39"/>
+      <c r="O50" s="39"/>
+      <c r="P50" s="40"/>
       <c r="Q50" s="23"/>
-      <c r="R50" s="50"/>
-      <c r="S50" s="50"/>
-      <c r="T50" s="51"/>
+      <c r="R50" s="39"/>
+      <c r="S50" s="39"/>
+      <c r="T50" s="40"/>
       <c r="U50" s="27"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -2889,7 +3003,7 @@
       <c r="D51" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="43"/>
+      <c r="E51" s="56"/>
       <c r="F51" s="20" t="s">
         <v>38</v>
       </c>
@@ -2920,7 +3034,7 @@
       <c r="D52" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="43"/>
+      <c r="E52" s="57"/>
       <c r="F52" s="20" t="s">
         <v>38</v>
       </c>
@@ -2951,7 +3065,7 @@
       <c r="D53" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="43"/>
+      <c r="E53" s="33"/>
       <c r="F53" s="20" t="s">
         <v>38</v>
       </c>
@@ -2982,8 +3096,8 @@
       <c r="D54" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="43"/>
-      <c r="F54" s="54" t="s">
+      <c r="E54" s="56"/>
+      <c r="F54" s="41" t="s">
         <v>38</v>
       </c>
       <c r="G54" s="21" t="s">
@@ -3008,7 +3122,7 @@
       <c r="B55" s="4"/>
       <c r="C55" s="27"/>
       <c r="D55" s="4"/>
-      <c r="E55" s="23"/>
+      <c r="E55" s="59"/>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
@@ -3609,10 +3723,9 @@
       <c r="U94" s="27"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="4">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J2:P2"/>
-    <mergeCell ref="B12:H12"/>
     <mergeCell ref="J10:P10"/>
     <mergeCell ref="B14:H14"/>
   </mergeCells>
@@ -3623,11 +3736,203 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
+  <dimension ref="B2:M17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.88671875" customWidth="1"/>
+    <col min="5" max="6" width="33.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11" style="27" customWidth="1"/>
+    <col min="8" max="8" width="11.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B2" s="60">
+        <v>128</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60">
+        <v>64</v>
+      </c>
+      <c r="F2" s="60"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="60">
+        <v>32</v>
+      </c>
+      <c r="I2" s="60">
+        <v>16</v>
+      </c>
+      <c r="J2" s="60">
+        <v>8</v>
+      </c>
+      <c r="K2" s="60">
+        <v>4</v>
+      </c>
+      <c r="L2" s="60">
+        <v>2</v>
+      </c>
+      <c r="M2" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="40"/>
+      <c r="E7" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="G7" s="40"/>
+      <c r="H7" s="65" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="30" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="34"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="63"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="66"/>
+      <c r="I8" s="63"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="22"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="64" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="64"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="64"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="22"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="64" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="64"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="64"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="22"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="64" t="s">
+        <v>122</v>
+      </c>
+      <c r="F11" s="64"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="64"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C12" s="22"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="64" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="64"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="67"/>
+      <c r="I12" s="64"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="62"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F13" s="64"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="64"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E14" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="67"/>
+      <c r="I14" s="22"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E15" s="22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="E16" s="62" t="s">
+        <v>125</v>
+      </c>
+      <c r="F16" s="62"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="62"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
+      <c r="H17" s="67"/>
+      <c r="I17" s="67"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46D577-AC6F-4505-860C-EE5869797CC5}">
   <dimension ref="B1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="B22" sqref="B4:B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3638,11 +3943,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="53" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="38"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
     </row>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -3656,10 +3961,10 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="33">
+      <c r="B4" s="50">
         <v>10</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="47" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -3667,15 +3972,15 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="35"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="49"/>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="778" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3E7AF456-A773-4450-9606-5F0DB1733ACE}"/>
+  <xr:revisionPtr revIDLastSave="925" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6BA0BBC-0263-4108-9007-49E51524B070}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="146">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -421,6 +421,60 @@
   </si>
   <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>Servidores</t>
+  </si>
+  <si>
+    <t>F0/24</t>
+  </si>
+  <si>
+    <t>F0/23</t>
+  </si>
+  <si>
+    <t>NºIP's</t>
+  </si>
+  <si>
+    <t>3+2</t>
+  </si>
+  <si>
+    <t>130+2</t>
+  </si>
+  <si>
+    <t>5+2</t>
+  </si>
+  <si>
+    <t>4+2</t>
+  </si>
+  <si>
+    <t>12+2</t>
+  </si>
+  <si>
+    <t>8+2</t>
+  </si>
+  <si>
+    <t>100+2</t>
+  </si>
+  <si>
+    <t>1+2</t>
+  </si>
+  <si>
+    <t>10+2</t>
+  </si>
+  <si>
+    <t>7+2</t>
+  </si>
+  <si>
+    <t>29+2</t>
+  </si>
+  <si>
+    <t>44+2</t>
+  </si>
+  <si>
+    <t>6+2</t>
+  </si>
+  <si>
+    <t>9+2</t>
   </si>
 </sst>
 </file>
@@ -458,7 +512,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -814,31 +868,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -921,12 +955,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -953,45 +981,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1011,18 +1000,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1339,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F286A72-55C7-45FC-BA31-552B8F8C6C3B}">
   <dimension ref="A1:U94"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="K54" sqref="K54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1362,24 +1384,24 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
-      <c r="J2" s="42" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="49"/>
+      <c r="J2" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="44"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="49"/>
     </row>
     <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="14" t="s">
@@ -1391,7 +1413,7 @@
       <c r="D3" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1410,7 +1432,7 @@
       <c r="L3" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M3" s="32"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="15" t="s">
         <v>22</v>
       </c>
@@ -1432,7 +1454,7 @@
       <c r="D4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="57"/>
+      <c r="E4" s="42"/>
       <c r="F4" s="18" t="s">
         <v>24</v>
       </c>
@@ -1451,7 +1473,7 @@
       <c r="L4" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="M4" s="57"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="20" t="s">
         <v>33</v>
       </c>
@@ -1473,7 +1495,7 @@
       <c r="D5" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="57"/>
+      <c r="E5" s="42"/>
       <c r="F5" s="20" t="s">
         <v>24</v>
       </c>
@@ -1492,7 +1514,7 @@
       <c r="L5" s="22" t="s">
         <v>113</v>
       </c>
-      <c r="M5" s="57"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="20" t="s">
         <v>33</v>
       </c>
@@ -1514,7 +1536,7 @@
       <c r="D6" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="57"/>
+      <c r="E6" s="42"/>
       <c r="F6" s="20" t="s">
         <v>24</v>
       </c>
@@ -1533,7 +1555,7 @@
       <c r="L6" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="M6" s="57"/>
+      <c r="M6" s="42"/>
       <c r="N6" s="20" t="s">
         <v>39</v>
       </c>
@@ -1555,7 +1577,7 @@
       <c r="D7" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="57"/>
+      <c r="E7" s="42"/>
       <c r="F7" s="20" t="s">
         <v>24</v>
       </c>
@@ -1574,7 +1596,7 @@
       <c r="L7" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="M7" s="33"/>
+      <c r="M7" s="31"/>
       <c r="N7" s="20" t="s">
         <v>38</v>
       </c>
@@ -1596,7 +1618,7 @@
       <c r="D8" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="57"/>
+      <c r="E8" s="42"/>
       <c r="F8" s="20" t="s">
         <v>24</v>
       </c>
@@ -1606,7 +1628,7 @@
       <c r="H8" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="M8" s="58"/>
+      <c r="M8" s="43"/>
     </row>
     <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
@@ -1619,7 +1641,7 @@
       <c r="D9" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="57"/>
+      <c r="E9" s="42"/>
       <c r="F9" s="20" t="s">
         <v>24</v>
       </c>
@@ -1641,8 +1663,8 @@
       <c r="D10" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="41" t="s">
+      <c r="E10" s="42"/>
+      <c r="F10" s="39" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="21" t="s">
@@ -1651,25 +1673,25 @@
       <c r="H10" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="J10" s="42" t="s">
+      <c r="J10" s="47" t="s">
         <v>119</v>
       </c>
-      <c r="K10" s="43"/>
-      <c r="L10" s="43"/>
-      <c r="M10" s="43"/>
-      <c r="N10" s="43"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="44"/>
-    </row>
-    <row r="11" spans="1:16" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-      <c r="H11" s="36"/>
+      <c r="K10" s="48"/>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+      <c r="N10" s="48"/>
+      <c r="O10" s="48"/>
+      <c r="P10" s="49"/>
+    </row>
+    <row r="11" spans="1:16" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="34"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
       <c r="J11" s="14" t="s">
         <v>22</v>
       </c>
@@ -1679,7 +1701,7 @@
       <c r="L11" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="M11" s="32"/>
+      <c r="M11" s="30"/>
       <c r="N11" s="15" t="s">
         <v>22</v>
       </c>
@@ -1690,8 +1712,8 @@
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="35"/>
+    <row r="12" spans="1:16" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
       <c r="B12" s="26"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
@@ -1705,10 +1727,10 @@
       <c r="K12" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="L12" s="34" t="s">
+      <c r="L12" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="M12" s="56"/>
+      <c r="M12" s="41"/>
       <c r="N12" s="18" t="s">
         <v>38</v>
       </c>
@@ -1719,15 +1741,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:16" s="38" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="35"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="40"/>
+    <row r="13" spans="1:16" s="36" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="33"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="23"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="40"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="38"/>
       <c r="J13" s="21" t="s">
         <v>39</v>
       </c>
@@ -1737,7 +1759,7 @@
       <c r="L13" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="M13" s="56"/>
+      <c r="M13" s="41"/>
       <c r="N13" s="20" t="s">
         <v>39</v>
       </c>
@@ -1750,15 +1772,15 @@
     </row>
     <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
-      <c r="B14" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="45"/>
-      <c r="D14" s="45"/>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="46"/>
+      <c r="B14" s="47" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="51"/>
       <c r="J14" s="21" t="s">
         <v>39</v>
       </c>
@@ -1768,7 +1790,7 @@
       <c r="L14" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M14" s="57"/>
+      <c r="M14" s="42"/>
       <c r="N14" s="20" t="s">
         <v>39</v>
       </c>
@@ -1790,7 +1812,7 @@
       <c r="D15" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="32"/>
+      <c r="E15" s="30"/>
       <c r="F15" s="15" t="s">
         <v>22</v>
       </c>
@@ -1809,7 +1831,7 @@
       <c r="L15" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="M15" s="57"/>
+      <c r="M15" s="42"/>
       <c r="N15" s="20" t="s">
         <v>39</v>
       </c>
@@ -1831,7 +1853,7 @@
       <c r="D16" s="22" t="s">
         <v>112</v>
       </c>
-      <c r="E16" s="56"/>
+      <c r="E16" s="41"/>
       <c r="F16" s="20" t="s">
         <v>38</v>
       </c>
@@ -1850,7 +1872,7 @@
       <c r="L16" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M16" s="33"/>
+      <c r="M16" s="31"/>
       <c r="N16" s="20" t="s">
         <v>39</v>
       </c>
@@ -1872,7 +1894,7 @@
       <c r="D17" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E17" s="57"/>
+      <c r="E17" s="42"/>
       <c r="F17" s="20" t="s">
         <v>38</v>
       </c>
@@ -1891,7 +1913,7 @@
       <c r="L17" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M17" s="57"/>
+      <c r="M17" s="42"/>
       <c r="N17" s="20" t="s">
         <v>39</v>
       </c>
@@ -1913,7 +1935,7 @@
       <c r="D18" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="57"/>
+      <c r="E18" s="42"/>
       <c r="F18" s="20" t="s">
         <v>38</v>
       </c>
@@ -1932,7 +1954,7 @@
       <c r="L18" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M18" s="57"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="20" t="s">
         <v>39</v>
       </c>
@@ -1954,7 +1976,7 @@
       <c r="D19" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E19" s="33"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="20" t="s">
         <v>38</v>
       </c>
@@ -1973,7 +1995,7 @@
       <c r="L19" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M19" s="33"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="20" t="s">
         <v>39</v>
       </c>
@@ -1995,7 +2017,7 @@
       <c r="D20" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E20" s="56"/>
+      <c r="E20" s="41"/>
       <c r="F20" s="20" t="s">
         <v>38</v>
       </c>
@@ -2014,7 +2036,7 @@
       <c r="L20" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M20" s="57"/>
+      <c r="M20" s="42"/>
       <c r="N20" s="20" t="s">
         <v>39</v>
       </c>
@@ -2036,7 +2058,7 @@
       <c r="D21" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E21" s="57"/>
+      <c r="E21" s="42"/>
       <c r="F21" s="20" t="s">
         <v>38</v>
       </c>
@@ -2055,7 +2077,7 @@
       <c r="L21" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M21" s="57"/>
+      <c r="M21" s="42"/>
       <c r="N21" s="20" t="s">
         <v>39</v>
       </c>
@@ -2077,7 +2099,7 @@
       <c r="D22" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E22" s="33"/>
+      <c r="E22" s="31"/>
       <c r="F22" s="20" t="s">
         <v>38</v>
       </c>
@@ -2096,7 +2118,7 @@
       <c r="L22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M22" s="33"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="20" t="s">
         <v>39</v>
       </c>
@@ -2118,7 +2140,7 @@
       <c r="D23" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E23" s="56"/>
+      <c r="E23" s="41"/>
       <c r="F23" s="20" t="s">
         <v>38</v>
       </c>
@@ -2137,7 +2159,7 @@
       <c r="L23" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M23" s="56"/>
+      <c r="M23" s="41"/>
       <c r="N23" s="20" t="s">
         <v>39</v>
       </c>
@@ -2158,7 +2180,7 @@
       <c r="D24" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E24" s="57"/>
+      <c r="E24" s="42"/>
       <c r="F24" s="20" t="s">
         <v>38</v>
       </c>
@@ -2177,7 +2199,7 @@
       <c r="L24" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M24" s="57"/>
+      <c r="M24" s="42"/>
       <c r="N24" s="20" t="s">
         <v>39</v>
       </c>
@@ -2198,7 +2220,7 @@
       <c r="D25" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E25" s="57"/>
+      <c r="E25" s="42"/>
       <c r="F25" s="20" t="s">
         <v>38</v>
       </c>
@@ -2217,7 +2239,7 @@
       <c r="L25" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M25" s="57"/>
+      <c r="M25" s="42"/>
       <c r="N25" s="20" t="s">
         <v>39</v>
       </c>
@@ -2238,7 +2260,7 @@
       <c r="D26" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="E26" s="57"/>
+      <c r="E26" s="42"/>
       <c r="F26" s="20" t="s">
         <v>38</v>
       </c>
@@ -2257,7 +2279,7 @@
       <c r="L26" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M26" s="33"/>
+      <c r="M26" s="31"/>
       <c r="N26" s="20" t="s">
         <v>39</v>
       </c>
@@ -2278,7 +2300,7 @@
       <c r="D27" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E27" s="33"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="20" t="s">
         <v>38</v>
       </c>
@@ -2297,7 +2319,7 @@
       <c r="L27" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M27" s="57"/>
+      <c r="M27" s="42"/>
       <c r="N27" s="20" t="s">
         <v>39</v>
       </c>
@@ -2318,7 +2340,7 @@
       <c r="D28" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E28" s="57"/>
+      <c r="E28" s="42"/>
       <c r="F28" s="20" t="s">
         <v>38</v>
       </c>
@@ -2337,7 +2359,7 @@
       <c r="L28" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M28" s="57"/>
+      <c r="M28" s="42"/>
       <c r="N28" s="20" t="s">
         <v>39</v>
       </c>
@@ -2358,7 +2380,7 @@
       <c r="D29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E29" s="33"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="20" t="s">
         <v>38</v>
       </c>
@@ -2377,7 +2399,7 @@
       <c r="L29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="M29" s="57"/>
+      <c r="M29" s="42"/>
       <c r="N29" s="20" t="s">
         <v>39</v>
       </c>
@@ -2398,7 +2420,7 @@
       <c r="D30" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E30" s="56"/>
+      <c r="E30" s="41"/>
       <c r="F30" s="20" t="s">
         <v>38</v>
       </c>
@@ -2417,7 +2439,7 @@
       <c r="L30" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="M30" s="33"/>
+      <c r="M30" s="31"/>
       <c r="N30" s="20" t="s">
         <v>39</v>
       </c>
@@ -2438,7 +2460,7 @@
       <c r="D31" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="57"/>
+      <c r="E31" s="42"/>
       <c r="F31" s="20" t="s">
         <v>38</v>
       </c>
@@ -2454,11 +2476,11 @@
       <c r="K31" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="L31" s="22" t="s">
+      <c r="L31" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="M31" s="56"/>
-      <c r="N31" s="20" t="s">
+      <c r="M31" s="44"/>
+      <c r="N31" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O31" s="21" t="s">
@@ -2478,7 +2500,7 @@
       <c r="D32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="33"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="20" t="s">
         <v>38</v>
       </c>
@@ -2494,11 +2516,11 @@
       <c r="K32" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="L32" s="22" t="s">
+      <c r="L32" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="M32" s="57"/>
-      <c r="N32" s="20" t="s">
+      <c r="M32" s="23"/>
+      <c r="N32" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O32" s="21" t="s">
@@ -2518,7 +2540,7 @@
       <c r="D33" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="56"/>
+      <c r="E33" s="41"/>
       <c r="F33" s="20" t="s">
         <v>38</v>
       </c>
@@ -2534,11 +2556,11 @@
       <c r="K33" s="21" t="s">
         <v>49</v>
       </c>
-      <c r="L33" s="22" t="s">
+      <c r="L33" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="M33" s="33"/>
-      <c r="N33" s="20" t="s">
+      <c r="M33" s="23"/>
+      <c r="N33" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O33" s="21" t="s">
@@ -2558,7 +2580,7 @@
       <c r="D34" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E34" s="57"/>
+      <c r="E34" s="42"/>
       <c r="F34" s="20" t="s">
         <v>38</v>
       </c>
@@ -2574,11 +2596,11 @@
       <c r="K34" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="L34" s="22" t="s">
+      <c r="L34" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="M34" s="57"/>
-      <c r="N34" s="20" t="s">
+      <c r="M34" s="23"/>
+      <c r="N34" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O34" s="21" t="s">
@@ -2598,7 +2620,7 @@
       <c r="D35" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E35" s="56"/>
+      <c r="E35" s="41"/>
       <c r="F35" s="20" t="s">
         <v>38</v>
       </c>
@@ -2614,11 +2636,11 @@
       <c r="K35" s="21" t="s">
         <v>50</v>
       </c>
-      <c r="L35" s="22" t="s">
+      <c r="L35" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="M35" s="57"/>
-      <c r="N35" s="20" t="s">
+      <c r="M35" s="23"/>
+      <c r="N35" s="21" t="s">
         <v>39</v>
       </c>
       <c r="O35" s="21" t="s">
@@ -2638,7 +2660,7 @@
       <c r="D36" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E36" s="56"/>
+      <c r="E36" s="41"/>
       <c r="F36" s="20" t="s">
         <v>38</v>
       </c>
@@ -2648,6 +2670,25 @@
       <c r="H36" s="21" t="s">
         <v>40</v>
       </c>
+      <c r="J36" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K36" s="46" t="s">
+        <v>52</v>
+      </c>
+      <c r="L36" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="M36" s="23"/>
+      <c r="N36" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="P36" s="46" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="37" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B37" s="21" t="s">
@@ -2659,7 +2700,7 @@
       <c r="D37" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E37" s="56"/>
+      <c r="E37" s="41"/>
       <c r="F37" s="20" t="s">
         <v>38</v>
       </c>
@@ -2669,6 +2710,25 @@
       <c r="H37" s="21" t="s">
         <v>41</v>
       </c>
+      <c r="J37" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K37" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="L37" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="M37" s="23"/>
+      <c r="N37" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="O37" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="P37" s="46" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="38" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B38" s="21" t="s">
@@ -2680,7 +2740,7 @@
       <c r="D38" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E38" s="56"/>
+      <c r="E38" s="41"/>
       <c r="F38" s="20" t="s">
         <v>38</v>
       </c>
@@ -2690,6 +2750,25 @@
       <c r="H38" s="21" t="s">
         <v>42</v>
       </c>
+      <c r="J38" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="K38" s="46" t="s">
+        <v>100</v>
+      </c>
+      <c r="L38" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="M38" s="23"/>
+      <c r="N38" s="46" t="s">
+        <v>39</v>
+      </c>
+      <c r="O38" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="P38" s="46" t="s">
+        <v>130</v>
+      </c>
     </row>
     <row r="39" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B39" s="21" t="s">
@@ -2701,7 +2780,7 @@
       <c r="D39" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E39" s="56"/>
+      <c r="E39" s="41"/>
       <c r="F39" s="20" t="s">
         <v>38</v>
       </c>
@@ -2711,6 +2790,13 @@
       <c r="H39" s="21" t="s">
         <v>40</v>
       </c>
+      <c r="J39" s="34"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="23"/>
+      <c r="N39" s="34"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
     </row>
     <row r="40" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B40" s="21" t="s">
@@ -2722,7 +2808,7 @@
       <c r="D40" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="56"/>
+      <c r="E40" s="41"/>
       <c r="F40" s="20" t="s">
         <v>38</v>
       </c>
@@ -2732,6 +2818,13 @@
       <c r="H40" s="21" t="s">
         <v>41</v>
       </c>
+      <c r="J40" s="27"/>
+      <c r="K40" s="27"/>
+      <c r="L40" s="27"/>
+      <c r="M40" s="27"/>
+      <c r="N40" s="27"/>
+      <c r="O40" s="27"/>
+      <c r="P40" s="27"/>
     </row>
     <row r="41" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B41" s="21" t="s">
@@ -2743,7 +2836,7 @@
       <c r="D41" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E41" s="57"/>
+      <c r="E41" s="42"/>
       <c r="F41" s="20" t="s">
         <v>38</v>
       </c>
@@ -2753,6 +2846,13 @@
       <c r="H41" s="21" t="s">
         <v>42</v>
       </c>
+      <c r="J41" s="27"/>
+      <c r="K41" s="27"/>
+      <c r="L41" s="27"/>
+      <c r="M41" s="27"/>
+      <c r="N41" s="27"/>
+      <c r="O41" s="27"/>
+      <c r="P41" s="27"/>
     </row>
     <row r="42" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B42" s="21" t="s">
@@ -2764,7 +2864,7 @@
       <c r="D42" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E42" s="57"/>
+      <c r="E42" s="42"/>
       <c r="F42" s="20" t="s">
         <v>38</v>
       </c>
@@ -2774,6 +2874,13 @@
       <c r="H42" s="21" t="s">
         <v>43</v>
       </c>
+      <c r="J42" s="27"/>
+      <c r="K42" s="27"/>
+      <c r="L42" s="27"/>
+      <c r="M42" s="27"/>
+      <c r="N42" s="27"/>
+      <c r="O42" s="27"/>
+      <c r="P42" s="27"/>
     </row>
     <row r="43" spans="2:21" x14ac:dyDescent="0.3">
       <c r="B43" s="21" t="s">
@@ -2785,7 +2892,7 @@
       <c r="D43" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E43" s="33"/>
+      <c r="E43" s="31"/>
       <c r="F43" s="20" t="s">
         <v>38</v>
       </c>
@@ -2806,7 +2913,7 @@
       <c r="D44" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E44" s="56"/>
+      <c r="E44" s="41"/>
       <c r="F44" s="20" t="s">
         <v>38</v>
       </c>
@@ -2827,7 +2934,7 @@
       <c r="D45" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E45" s="57"/>
+      <c r="E45" s="42"/>
       <c r="F45" s="20" t="s">
         <v>38</v>
       </c>
@@ -2848,7 +2955,7 @@
       <c r="D46" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E46" s="57"/>
+      <c r="E46" s="42"/>
       <c r="F46" s="20" t="s">
         <v>38</v>
       </c>
@@ -2879,7 +2986,7 @@
       <c r="D47" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E47" s="33"/>
+      <c r="E47" s="31"/>
       <c r="F47" s="20" t="s">
         <v>38</v>
       </c>
@@ -2910,7 +3017,7 @@
       <c r="D48" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E48" s="57"/>
+      <c r="E48" s="42"/>
       <c r="F48" s="20" t="s">
         <v>38</v>
       </c>
@@ -2941,7 +3048,7 @@
       <c r="D49" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E49" s="33"/>
+      <c r="E49" s="31"/>
       <c r="F49" s="20" t="s">
         <v>38</v>
       </c>
@@ -2972,7 +3079,7 @@
       <c r="D50" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E50" s="56"/>
+      <c r="E50" s="41"/>
       <c r="F50" s="20" t="s">
         <v>38</v>
       </c>
@@ -2984,13 +3091,13 @@
       </c>
       <c r="L50" s="27"/>
       <c r="M50" s="27"/>
-      <c r="N50" s="39"/>
-      <c r="O50" s="39"/>
-      <c r="P50" s="40"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="37"/>
+      <c r="P50" s="38"/>
       <c r="Q50" s="23"/>
-      <c r="R50" s="39"/>
-      <c r="S50" s="39"/>
-      <c r="T50" s="40"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="37"/>
+      <c r="T50" s="38"/>
       <c r="U50" s="27"/>
     </row>
     <row r="51" spans="1:21" x14ac:dyDescent="0.3">
@@ -3003,7 +3110,7 @@
       <c r="D51" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E51" s="56"/>
+      <c r="E51" s="41"/>
       <c r="F51" s="20" t="s">
         <v>38</v>
       </c>
@@ -3034,7 +3141,7 @@
       <c r="D52" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E52" s="57"/>
+      <c r="E52" s="42"/>
       <c r="F52" s="20" t="s">
         <v>38</v>
       </c>
@@ -3065,7 +3172,7 @@
       <c r="D53" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E53" s="33"/>
+      <c r="E53" s="31"/>
       <c r="F53" s="20" t="s">
         <v>38</v>
       </c>
@@ -3096,8 +3203,8 @@
       <c r="D54" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E54" s="56"/>
-      <c r="F54" s="41" t="s">
+      <c r="E54" s="41"/>
+      <c r="F54" s="39" t="s">
         <v>38</v>
       </c>
       <c r="G54" s="21" t="s">
@@ -3119,13 +3226,25 @@
     </row>
     <row r="55" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A55" s="27"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="27"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
+      <c r="B55" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="46" t="s">
+        <v>107</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="E55" s="44"/>
+      <c r="F55" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G55" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="H55" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="I55" s="27"/>
       <c r="J55" s="27"/>
       <c r="L55" s="27"/>
@@ -3141,13 +3260,25 @@
     </row>
     <row r="56" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A56" s="27"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
+      <c r="B56" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="E56" s="23"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
+      <c r="F56" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G56" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="21" t="s">
+        <v>129</v>
+      </c>
       <c r="I56" s="27"/>
       <c r="J56" s="27"/>
       <c r="L56" s="27"/>
@@ -3163,13 +3294,25 @@
     </row>
     <row r="57" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A57" s="27"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
+      <c r="B57" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="E57" s="23"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
+      <c r="F57" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="G57" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="H57" s="21" t="s">
+        <v>130</v>
+      </c>
       <c r="I57" s="27"/>
       <c r="J57" s="27"/>
       <c r="L57" s="27"/>
@@ -3737,189 +3880,260 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
-  <dimension ref="B2:M17"/>
+  <dimension ref="A2:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.88671875" customWidth="1"/>
-    <col min="5" max="6" width="33.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11" style="27" customWidth="1"/>
-    <col min="8" max="8" width="11.109375" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="45"/>
+    <col min="2" max="2" width="28.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="45" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="45" customWidth="1"/>
+    <col min="6" max="6" width="33.5546875" style="45" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20" style="45" customWidth="1"/>
+    <col min="9" max="9" width="11" style="4" customWidth="1"/>
+    <col min="10" max="10" width="28.6640625" style="45" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.44140625" style="45" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="45"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="60">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="45">
         <v>128</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60">
+      <c r="C2" s="45">
         <v>64</v>
       </c>
-      <c r="F2" s="60"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="60">
+      <c r="D2" s="45">
         <v>32</v>
       </c>
-      <c r="I2" s="60">
+      <c r="E2" s="45">
         <v>16</v>
       </c>
-      <c r="J2" s="60">
+      <c r="F2" s="45">
         <v>8</v>
       </c>
-      <c r="K2" s="60">
+      <c r="G2" s="45">
         <v>4</v>
       </c>
-      <c r="L2" s="60">
+      <c r="H2" s="45">
         <v>2</v>
       </c>
-      <c r="M2" s="60">
+      <c r="I2" s="45">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="D7" s="40" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="40"/>
-      <c r="E7" s="31" t="s">
+      <c r="E7" s="38"/>
+      <c r="F7" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="F7" s="30" t="s">
+      <c r="G7" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="H7" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="40"/>
-      <c r="H7" s="65" t="s">
+      <c r="I7" s="38"/>
+      <c r="J7" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="K7" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="L7" s="40" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="63" t="s">
+      <c r="C8" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="19"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="63"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="66"/>
-      <c r="I8" s="63"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G8" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="19"/>
+      <c r="J8" s="61" t="s">
+        <v>125</v>
+      </c>
+      <c r="K8" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="L8" s="19"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="64" t="s">
+      <c r="C9" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="21"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="64"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="64"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G9" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="J9" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L9" s="21"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="22"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="64" t="s">
+      <c r="C10" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="21"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="64"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="67"/>
-      <c r="I10" s="64"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G10" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4">
+        <v>13</v>
+      </c>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="22"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="64" t="s">
+      <c r="C11" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="21"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="21" t="s">
         <v>122</v>
       </c>
-      <c r="F11" s="64"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="64"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="G11" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="C12" s="22"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="64" t="s">
+      <c r="C12" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="21"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="F12" s="64"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="67"/>
-      <c r="I12" s="64"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="61" t="s">
+      <c r="G12" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="H12" s="21"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="62"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="64" t="s">
+      <c r="C13" s="46" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="46"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="21" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="64"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="64"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E14" s="22" t="s">
+      <c r="G13" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C14" s="45">
+        <v>175</v>
+      </c>
+      <c r="F14" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="67"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E15" s="22" t="s">
+      <c r="G14" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F15" s="21" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="22"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="E16" s="62" t="s">
+      <c r="G15" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="J15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="F16" s="46" t="s">
         <v>125</v>
       </c>
-      <c r="F16" s="62"/>
-      <c r="G16" s="36"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="62"/>
-    </row>
-    <row r="17" spans="8:9" x14ac:dyDescent="0.3">
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
+      <c r="G16" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="4"/>
+      <c r="L16" s="34"/>
+    </row>
+    <row r="17" spans="7:12" x14ac:dyDescent="0.3">
+      <c r="G17" s="45">
+        <v>233</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="L17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3943,11 +4157,11 @@
   <sheetData>
     <row r="1" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="60"/>
     </row>
     <row r="3" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -3961,10 +4175,10 @@
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B4" s="50">
+      <c r="B4" s="55">
         <v>10</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="52" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="9" t="s">
@@ -3972,15 +4186,15 @@
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" s="51"/>
-      <c r="C5" s="48"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="53"/>
       <c r="D5" s="12" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="52"/>
-      <c r="C6" s="49"/>
+      <c r="B6" s="57"/>
+      <c r="C6" s="54"/>
       <c r="D6" s="5" t="s">
         <v>14</v>
       </c>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1431" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5925BF14-DCF8-4E39-8231-6740DA5CCC2D}"/>
+  <xr:revisionPtr revIDLastSave="1484" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA9EDA6D-55BE-425D-A2FF-A6F0CCE0BF0D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -962,7 +962,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1051,91 +1051,100 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1452,10 +1461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F286A72-55C7-45FC-BA31-552B8F8C6C3B}">
-  <dimension ref="A1:U94"/>
+  <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,37 +1479,41 @@
     <col min="8" max="8" width="11.7109375" style="24" customWidth="1"/>
     <col min="9" max="9" width="9.140625" style="24"/>
     <col min="10" max="10" width="12.28515625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="15.5703125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="24" customWidth="1"/>
     <col min="13" max="13" width="9.140625" style="24"/>
     <col min="14" max="14" width="11.42578125" style="24" customWidth="1"/>
-    <col min="15" max="15" width="22.5703125" style="24" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="11.42578125" style="24" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="24"/>
+    <col min="17" max="18" width="9.140625" style="24"/>
+    <col min="19" max="19" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.140625" style="24"/>
+    <col min="23" max="23" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="34"/>
-      <c r="J2" s="30" t="s">
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="53"/>
+      <c r="J2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="34"/>
-    </row>
-    <row r="3" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="52"/>
+      <c r="L2" s="52"/>
+      <c r="M2" s="52"/>
+      <c r="N2" s="52"/>
+      <c r="O2" s="52"/>
+      <c r="P2" s="53"/>
+    </row>
+    <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1510,7 +1523,7 @@
       <c r="D3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="35"/>
+      <c r="E3" s="30"/>
       <c r="F3" s="10" t="s">
         <v>16</v>
       </c>
@@ -1529,7 +1542,7 @@
       <c r="L3" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="35"/>
+      <c r="M3" s="30"/>
       <c r="N3" s="10" t="s">
         <v>16</v>
       </c>
@@ -1540,7 +1553,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
@@ -1550,7 +1563,7 @@
       <c r="D4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="36"/>
+      <c r="E4" s="31"/>
       <c r="F4" s="12" t="s">
         <v>18</v>
       </c>
@@ -1569,7 +1582,7 @@
       <c r="L4" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="36"/>
+      <c r="M4" s="31"/>
       <c r="N4" s="14" t="s">
         <v>27</v>
       </c>
@@ -1580,7 +1593,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
@@ -1590,7 +1603,7 @@
       <c r="D5" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="36"/>
+      <c r="E5" s="31"/>
       <c r="F5" s="14" t="s">
         <v>18</v>
       </c>
@@ -1609,7 +1622,7 @@
       <c r="L5" s="16" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="36"/>
+      <c r="M5" s="31"/>
       <c r="N5" s="14" t="s">
         <v>27</v>
       </c>
@@ -1620,7 +1633,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
@@ -1630,7 +1643,7 @@
       <c r="D6" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="36"/>
+      <c r="E6" s="31"/>
       <c r="F6" s="14" t="s">
         <v>18</v>
       </c>
@@ -1649,7 +1662,7 @@
       <c r="L6" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="36"/>
+      <c r="M6" s="31"/>
       <c r="N6" s="14" t="s">
         <v>33</v>
       </c>
@@ -1660,7 +1673,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
@@ -1670,7 +1683,7 @@
       <c r="D7" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="36"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="14" t="s">
         <v>18</v>
       </c>
@@ -1689,7 +1702,7 @@
       <c r="L7" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="37"/>
+      <c r="M7" s="32"/>
       <c r="N7" s="14" t="s">
         <v>32</v>
       </c>
@@ -1700,7 +1713,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
@@ -1710,7 +1723,7 @@
       <c r="D8" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="36"/>
+      <c r="E8" s="31"/>
       <c r="F8" s="14" t="s">
         <v>18</v>
       </c>
@@ -1720,9 +1733,9 @@
       <c r="H8" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="38"/>
-    </row>
-    <row r="9" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="M8" s="33"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1732,7 +1745,7 @@
       <c r="D9" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="36"/>
+      <c r="E9" s="31"/>
       <c r="F9" s="14" t="s">
         <v>18</v>
       </c>
@@ -1743,7 +1756,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
@@ -1753,7 +1766,7 @@
       <c r="D10" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="36"/>
+      <c r="E10" s="31"/>
       <c r="F10" s="23" t="s">
         <v>18</v>
       </c>
@@ -1764,8 +1777,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:16" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -1774,7 +1787,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="2:16" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
@@ -1783,28 +1796,45 @@
       <c r="G13" s="21"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="30" t="s">
+    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="35"/>
+      <c r="S14" s="35"/>
+      <c r="T14" s="35"/>
+      <c r="U14" s="35"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="35"/>
+      <c r="X14" s="35"/>
+      <c r="Y14" s="35"/>
+    </row>
+    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="34"/>
-      <c r="J15" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="31"/>
-      <c r="L15" s="31"/>
-      <c r="M15" s="31"/>
-      <c r="N15" s="31"/>
-      <c r="O15" s="31"/>
-      <c r="P15" s="32"/>
-    </row>
-    <row r="16" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="53"/>
+      <c r="J15" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="54"/>
+      <c r="L15" s="54"/>
+      <c r="M15" s="54"/>
+      <c r="N15" s="54"/>
+      <c r="O15" s="54"/>
+      <c r="P15" s="55"/>
+      <c r="R15" s="61"/>
+      <c r="S15" s="61"/>
+      <c r="T15" s="61"/>
+      <c r="U15" s="61"/>
+      <c r="V15" s="61"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="61"/>
+      <c r="Y15" s="35"/>
+    </row>
+    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
@@ -1814,7 +1844,7 @@
       <c r="D16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="36"/>
+      <c r="E16" s="31"/>
       <c r="F16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1833,7 +1863,7 @@
       <c r="L16" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="35"/>
+      <c r="M16" s="30"/>
       <c r="N16" s="10" t="s">
         <v>16</v>
       </c>
@@ -1843,8 +1873,19 @@
       <c r="P16" s="29" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="22"/>
+      <c r="U16" s="35"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="22"/>
+      <c r="Y16" s="35"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A17" s="24">
+        <v>1</v>
+      </c>
       <c r="B17" s="13" t="s">
         <v>33</v>
       </c>
@@ -1854,7 +1895,7 @@
       <c r="D17" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="36"/>
+      <c r="E17" s="31"/>
       <c r="F17" s="12" t="s">
         <v>32</v>
       </c>
@@ -1873,7 +1914,7 @@
       <c r="L17" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="M17" s="39"/>
+      <c r="M17" s="34"/>
       <c r="N17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1883,8 +1924,20 @@
       <c r="P17" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R17" s="35"/>
+      <c r="S17" s="35"/>
+      <c r="T17" s="35"/>
+      <c r="U17" s="35"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="35"/>
+      <c r="X17" s="35"/>
+      <c r="Y17" s="35"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A18" s="24">
+        <f>A17+1</f>
+        <v>2</v>
+      </c>
       <c r="B18" s="15" t="s">
         <v>33</v>
       </c>
@@ -1894,7 +1947,7 @@
       <c r="D18" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="36"/>
+      <c r="E18" s="31"/>
       <c r="F18" s="14" t="s">
         <v>33</v>
       </c>
@@ -1913,7 +1966,7 @@
       <c r="L18" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="36"/>
+      <c r="M18" s="31"/>
       <c r="N18" s="14" t="s">
         <v>32</v>
       </c>
@@ -1923,8 +1976,20 @@
       <c r="P18" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R18" s="35"/>
+      <c r="S18" s="35"/>
+      <c r="T18" s="35"/>
+      <c r="U18" s="35"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="35"/>
+      <c r="X18" s="35"/>
+      <c r="Y18" s="35"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A19" s="24">
+        <f t="shared" ref="A19:A58" si="0">A18+1</f>
+        <v>3</v>
+      </c>
       <c r="B19" s="15" t="s">
         <v>33</v>
       </c>
@@ -1934,7 +1999,7 @@
       <c r="D19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="36"/>
+      <c r="E19" s="31"/>
       <c r="F19" s="14" t="s">
         <v>33</v>
       </c>
@@ -1953,7 +2018,7 @@
       <c r="L19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="36"/>
+      <c r="M19" s="31"/>
       <c r="N19" s="14" t="s">
         <v>32</v>
       </c>
@@ -1963,8 +2028,20 @@
       <c r="P19" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="35"/>
+      <c r="X19" s="35"/>
+      <c r="Y19" s="35"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A20" s="24">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
       <c r="B20" s="15" t="s">
         <v>33</v>
       </c>
@@ -1974,7 +2051,7 @@
       <c r="D20" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="36"/>
+      <c r="E20" s="31"/>
       <c r="F20" s="14" t="s">
         <v>33</v>
       </c>
@@ -1993,7 +2070,7 @@
       <c r="L20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="37"/>
+      <c r="M20" s="39"/>
       <c r="N20" s="14" t="s">
         <v>32</v>
       </c>
@@ -2003,26 +2080,38 @@
       <c r="P20" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="35"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="35"/>
+      <c r="X20" s="35"/>
+      <c r="Y20" s="35"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A21" s="24">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
       <c r="B21" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E21" s="36"/>
+        <v>41</v>
+      </c>
+      <c r="E21" s="31"/>
       <c r="F21" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G21" s="15" t="s">
-        <v>94</v>
+        <v>45</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J21" s="15" t="s">
         <v>32</v>
@@ -2033,7 +2122,7 @@
       <c r="L21" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="39"/>
+      <c r="M21" s="34"/>
       <c r="N21" s="14" t="s">
         <v>32</v>
       </c>
@@ -2043,26 +2132,38 @@
       <c r="P21" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="35"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="35"/>
+      <c r="X21" s="35"/>
+      <c r="Y21" s="35"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A22" s="24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
       <c r="B22" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E22" s="36"/>
-      <c r="F22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="15" t="s">
-        <v>94</v>
+        <v>46</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J22" s="15" t="s">
         <v>32</v>
@@ -2073,7 +2174,7 @@
       <c r="L22" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="36"/>
+      <c r="M22" s="31"/>
       <c r="N22" s="14" t="s">
         <v>32</v>
       </c>
@@ -2083,26 +2184,38 @@
       <c r="P22" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="35"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="35"/>
+      <c r="X22" s="35"/>
+      <c r="Y22" s="35"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A23" s="24">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
       <c r="B23" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>85</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="15" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J23" s="15" t="s">
         <v>32</v>
@@ -2113,7 +2226,7 @@
       <c r="L23" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="37"/>
+      <c r="M23" s="39"/>
       <c r="N23" s="14" t="s">
         <v>32</v>
       </c>
@@ -2123,26 +2236,38 @@
       <c r="P23" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
+      <c r="T23" s="35"/>
+      <c r="U23" s="35"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="35"/>
+      <c r="X23" s="35"/>
+      <c r="Y23" s="35"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A24" s="24">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
       <c r="B24" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E24" s="31"/>
+      <c r="F24" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J24" s="15" t="s">
         <v>32</v>
@@ -2153,7 +2278,7 @@
       <c r="L24" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="39"/>
+      <c r="M24" s="34"/>
       <c r="N24" s="14" t="s">
         <v>32</v>
       </c>
@@ -2163,26 +2288,38 @@
       <c r="P24" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
+      <c r="T24" s="35"/>
+      <c r="U24" s="35"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="35"/>
+      <c r="X24" s="35"/>
+      <c r="Y24" s="35"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A25" s="24">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
       <c r="B25" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E25" s="36"/>
-      <c r="F25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="31"/>
+      <c r="F25" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="J25" s="15" t="s">
         <v>32</v>
@@ -2193,7 +2330,7 @@
       <c r="L25" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="36"/>
+      <c r="M25" s="31"/>
       <c r="N25" s="14" t="s">
         <v>32</v>
       </c>
@@ -2203,26 +2340,38 @@
       <c r="P25" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="35"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="35"/>
+      <c r="X25" s="35"/>
+      <c r="Y25" s="35"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A26" s="24">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
       <c r="B26" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="31"/>
+      <c r="F26" s="15" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="15" t="s">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="J26" s="15" t="s">
         <v>32</v>
@@ -2233,7 +2382,7 @@
       <c r="L26" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="36"/>
+      <c r="M26" s="31"/>
       <c r="N26" s="14" t="s">
         <v>32</v>
       </c>
@@ -2243,26 +2392,38 @@
       <c r="P26" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B27" s="15" t="s">
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="35"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="35"/>
+      <c r="X26" s="35"/>
+      <c r="Y26" s="35"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A27" s="24">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="B27" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="36"/>
-      <c r="F27" s="14" t="s">
+      <c r="C27" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E27" s="31"/>
+      <c r="F27" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="15" t="s">
+      <c r="G27" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>38</v>
+      <c r="H27" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="J27" s="15" t="s">
         <v>32</v>
@@ -2273,7 +2434,7 @@
       <c r="L27" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="36"/>
+      <c r="M27" s="31"/>
       <c r="N27" s="14" t="s">
         <v>32</v>
       </c>
@@ -2283,143 +2444,191 @@
       <c r="P27" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B28" s="15" t="s">
+      <c r="R27" s="35"/>
+      <c r="S27" s="35"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="35"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="35"/>
+      <c r="X27" s="35"/>
+      <c r="Y27" s="35"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A28" s="24">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="B28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="D28" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E28" s="36"/>
-      <c r="F28" s="14" t="s">
+      <c r="C28" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>121</v>
+      </c>
+      <c r="E28" s="31"/>
+      <c r="F28" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H28" s="15" t="s">
-        <v>39</v>
+      <c r="G28" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="25" t="s">
+        <v>121</v>
       </c>
       <c r="J28" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K28" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M28" s="37"/>
-      <c r="N28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="L28" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="M28" s="34"/>
+      <c r="N28" s="15" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="15" t="s">
         <v>56</v>
       </c>
       <c r="P28" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
+      <c r="T28" s="35"/>
+      <c r="U28" s="35"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="35"/>
+      <c r="X28" s="35"/>
+      <c r="Y28" s="35"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A29" s="24">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="B29" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="14" t="s">
+      <c r="C29" s="25" t="s">
+        <v>94</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="25" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="15" t="s">
-        <v>34</v>
+      <c r="G29" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="H29" s="25" t="s">
+        <v>122</v>
       </c>
       <c r="J29" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K29" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="L29" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M29" s="36"/>
-      <c r="N29" s="14" t="s">
+      <c r="K29" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="L29" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="M29" s="34"/>
+      <c r="N29" s="15" t="s">
         <v>32</v>
       </c>
       <c r="O29" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P29" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+      <c r="R29" s="35"/>
+      <c r="S29" s="20"/>
+      <c r="T29" s="35"/>
+      <c r="U29" s="35"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="35"/>
+      <c r="X29" s="35"/>
+      <c r="Y29" s="35"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A30" s="24">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
       <c r="B30" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D30" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="36"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G30" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H30" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J30" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K30" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="L30" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="M30" s="37"/>
-      <c r="N30" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="L30" s="15" t="s">
+        <v>122</v>
+      </c>
+      <c r="M30" s="34"/>
+      <c r="N30" s="15" t="s">
         <v>32</v>
       </c>
       <c r="O30" s="15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="P30" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+      <c r="R30" s="35"/>
+      <c r="S30" s="35"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="35"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="35"/>
+      <c r="X30" s="35"/>
+      <c r="Y30" s="35"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A31" s="24">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
       <c r="B31" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D31" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="36"/>
+      <c r="E31" s="31"/>
       <c r="F31" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G31" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H31" s="15" t="s">
         <v>36</v>
@@ -2428,7 +2637,7 @@
         <v>32</v>
       </c>
       <c r="K31" s="15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="L31" s="16" t="s">
         <v>40</v>
@@ -2441,25 +2650,37 @@
         <v>56</v>
       </c>
       <c r="P31" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R31" s="35"/>
+      <c r="S31" s="35"/>
+      <c r="T31" s="35"/>
+      <c r="U31" s="35"/>
+      <c r="V31" s="35"/>
+      <c r="W31" s="35"/>
+      <c r="X31" s="35"/>
+      <c r="Y31" s="35"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A32" s="24">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
       <c r="B32" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D32" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="36"/>
+      <c r="E32" s="31"/>
       <c r="F32" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H32" s="15" t="s">
         <v>34</v>
@@ -2468,12 +2689,12 @@
         <v>32</v>
       </c>
       <c r="K32" s="15" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="L32" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="36"/>
+      <c r="M32" s="31"/>
       <c r="N32" s="14" t="s">
         <v>32</v>
       </c>
@@ -2481,25 +2702,37 @@
         <v>56</v>
       </c>
       <c r="P32" s="15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="R32" s="35"/>
+      <c r="S32" s="35"/>
+      <c r="T32" s="35"/>
+      <c r="U32" s="35"/>
+      <c r="V32" s="35"/>
+      <c r="W32" s="35"/>
+      <c r="X32" s="35"/>
+      <c r="Y32" s="35"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A33" s="24">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
       <c r="B33" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="D33" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="36"/>
+      <c r="E33" s="31"/>
       <c r="F33" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G33" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H33" s="15" t="s">
         <v>35</v>
@@ -2508,33 +2741,45 @@
         <v>32</v>
       </c>
       <c r="K33" s="15" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="L33" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="37"/>
+      <c r="M33" s="39"/>
       <c r="N33" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O33" s="15" t="s">
-        <v>101</v>
+        <v>56</v>
       </c>
       <c r="P33" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="R33" s="35"/>
+      <c r="S33" s="35"/>
+      <c r="T33" s="35"/>
+      <c r="U33" s="35"/>
+      <c r="V33" s="35"/>
+      <c r="W33" s="35"/>
+      <c r="X33" s="35"/>
+      <c r="Y33" s="35"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A34" s="24">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
       <c r="B34" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D34" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="36"/>
+      <c r="E34" s="31"/>
       <c r="F34" s="14" t="s">
         <v>33</v>
       </c>
@@ -2542,93 +2787,117 @@
         <v>44</v>
       </c>
       <c r="H34" s="15" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="J34" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K34" s="15" t="s">
-        <v>103</v>
+        <v>66</v>
       </c>
       <c r="L34" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="39"/>
+      <c r="M34" s="34"/>
       <c r="N34" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O34" s="15" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="P34" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R34" s="35"/>
+      <c r="S34" s="35"/>
+      <c r="T34" s="35"/>
+      <c r="U34" s="35"/>
+      <c r="V34" s="35"/>
+      <c r="W34" s="35"/>
+      <c r="X34" s="35"/>
+      <c r="Y34" s="35"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A35" s="24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
       <c r="B35" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="D35" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="36"/>
+        <v>40</v>
+      </c>
+      <c r="E35" s="31"/>
       <c r="F35" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G35" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H35" s="15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J35" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K35" s="15" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="L35" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="36"/>
+      <c r="M35" s="34"/>
       <c r="N35" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O35" s="15" t="s">
-        <v>101</v>
+        <v>52</v>
       </c>
       <c r="P35" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="36" spans="2:21" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R35" s="35"/>
+      <c r="S35" s="35"/>
+      <c r="T35" s="35"/>
+      <c r="U35" s="35"/>
+      <c r="V35" s="35"/>
+      <c r="W35" s="35"/>
+      <c r="X35" s="35"/>
+      <c r="Y35" s="35"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A36" s="24">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
       <c r="B36" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G36" s="15" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="H36" s="15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J36" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K36" s="15" t="s">
-        <v>105</v>
+        <v>73</v>
       </c>
       <c r="L36" s="16" t="s">
         <v>40</v>
@@ -2638,282 +2907,366 @@
         <v>32</v>
       </c>
       <c r="O36" s="15" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="P36" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R36" s="35"/>
+      <c r="S36" s="35"/>
+      <c r="T36" s="35"/>
+      <c r="U36" s="35"/>
+      <c r="V36" s="35"/>
+      <c r="W36" s="35"/>
+      <c r="X36" s="35"/>
+      <c r="Y36" s="35"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A37" s="24">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
       <c r="B37" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="D37" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E37" s="31"/>
+      <c r="F37" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="J37" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K37" s="15" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="L37" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M37" s="39"/>
+      <c r="M37" s="31"/>
       <c r="N37" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O37" s="15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="P37" s="15" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R37" s="35"/>
+      <c r="S37" s="35"/>
+      <c r="T37" s="35"/>
+      <c r="U37" s="35"/>
+      <c r="V37" s="35"/>
+      <c r="W37" s="35"/>
+      <c r="X37" s="35"/>
+      <c r="Y37" s="35"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A38" s="24">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
       <c r="B38" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C38" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="31"/>
+      <c r="F38" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G38" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D38" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="15" t="s">
-        <v>47</v>
-      </c>
       <c r="H38" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J38" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K38" s="15" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="L38" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="39"/>
+      <c r="M38" s="34"/>
       <c r="N38" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O38" s="15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P38" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="R38" s="35"/>
+      <c r="S38" s="35"/>
+      <c r="T38" s="35"/>
+      <c r="U38" s="35"/>
+      <c r="V38" s="35"/>
+      <c r="W38" s="35"/>
+      <c r="X38" s="35"/>
+      <c r="Y38" s="35"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A39" s="24">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
       <c r="B39" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E39" s="36"/>
-      <c r="F39" s="15" t="s">
+        <v>99</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="31"/>
+      <c r="F39" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G39" s="15" t="s">
         <v>44</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J39" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K39" s="15" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
       <c r="L39" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="39"/>
+      <c r="M39" s="34"/>
       <c r="N39" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O39" s="15" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="P39" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="R39" s="35"/>
+      <c r="S39" s="35"/>
+      <c r="T39" s="35"/>
+      <c r="U39" s="35"/>
+      <c r="V39" s="35"/>
+      <c r="W39" s="35"/>
+      <c r="X39" s="35"/>
+      <c r="Y39" s="35"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A40" s="24">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
       <c r="B40" s="15" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="D40" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="E40" s="36"/>
-      <c r="F40" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="31"/>
+      <c r="F40" s="14" t="s">
         <v>33</v>
       </c>
       <c r="G40" s="15" t="s">
-        <v>48</v>
+        <v>94</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="J40" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K40" s="15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="L40" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M40" s="39"/>
+      <c r="M40" s="34"/>
       <c r="N40" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O40" s="15" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="P40" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B41" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="R40" s="35"/>
+      <c r="S40" s="35"/>
+      <c r="T40" s="35"/>
+      <c r="U40" s="35"/>
+      <c r="V40" s="35"/>
+      <c r="W40" s="35"/>
+      <c r="X40" s="35"/>
+      <c r="Y40" s="35"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A41" s="24">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="B41" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D41" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E41" s="36"/>
-      <c r="F41" s="25" t="s">
+      <c r="C41" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="31"/>
+      <c r="F41" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="25" t="s">
+      <c r="G41" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="H41" s="25" t="s">
-        <v>121</v>
+      <c r="H41" s="15" t="s">
+        <v>37</v>
       </c>
       <c r="J41" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K41" s="15" t="s">
-        <v>70</v>
+        <v>105</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M41" s="39"/>
+      <c r="M41" s="34"/>
       <c r="N41" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O41" s="15" t="s">
-        <v>52</v>
+        <v>101</v>
       </c>
       <c r="P41" s="15" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B42" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="R41" s="35"/>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="35"/>
+      <c r="X41" s="35"/>
+      <c r="Y41" s="35"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A42" s="24">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="B42" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="D42" s="25" t="s">
-        <v>121</v>
-      </c>
-      <c r="E42" s="36"/>
-      <c r="F42" s="25" t="s">
+      <c r="C42" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="31"/>
+      <c r="F42" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="25" t="s">
-        <v>121</v>
+      <c r="G42" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="H42" s="15" t="s">
+        <v>38</v>
       </c>
       <c r="J42" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K42" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="L42" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M42" s="36"/>
+      <c r="M42" s="34"/>
       <c r="N42" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O42" s="15" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P42" s="15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B43" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="R42" s="35"/>
+      <c r="S42" s="35"/>
+      <c r="T42" s="35"/>
+      <c r="U42" s="35"/>
+      <c r="V42" s="35"/>
+      <c r="W42" s="35"/>
+      <c r="X42" s="35"/>
+      <c r="Y42" s="35"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A43" s="24">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="B43" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="25" t="s">
+      <c r="C43" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="31"/>
+      <c r="F43" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G43" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="D43" s="25" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="36"/>
-      <c r="F43" s="25" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H43" s="25" t="s">
-        <v>122</v>
+      <c r="H43" s="15" t="s">
+        <v>39</v>
       </c>
       <c r="J43" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K43" s="15" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L43" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M43" s="36"/>
+      <c r="M43" s="34"/>
       <c r="N43" s="14" t="s">
         <v>32</v>
       </c>
@@ -2921,20 +3274,32 @@
         <v>52</v>
       </c>
       <c r="P43" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="R43" s="35"/>
+      <c r="S43" s="35"/>
+      <c r="T43" s="35"/>
+      <c r="U43" s="35"/>
+      <c r="V43" s="35"/>
+      <c r="W43" s="35"/>
+      <c r="X43" s="35"/>
+      <c r="Y43" s="35"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A44" s="24">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
       <c r="J44" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K44" s="15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L44" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M44" s="37"/>
+      <c r="M44" s="34"/>
       <c r="N44" s="14" t="s">
         <v>32</v>
       </c>
@@ -2942,15 +3307,27 @@
         <v>54</v>
       </c>
       <c r="P44" s="15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="R44" s="35"/>
+      <c r="S44" s="35"/>
+      <c r="T44" s="35"/>
+      <c r="U44" s="35"/>
+      <c r="V44" s="35"/>
+      <c r="W44" s="35"/>
+      <c r="X44" s="35"/>
+      <c r="Y44" s="35"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A45" s="24">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
       <c r="J45" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K45" s="15" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L45" s="16" t="s">
         <v>40</v>
@@ -2960,127 +3337,167 @@
         <v>32</v>
       </c>
       <c r="O45" s="15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P45" s="15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R45" s="35"/>
+      <c r="S45" s="35"/>
+      <c r="T45" s="35"/>
+      <c r="U45" s="35"/>
+      <c r="V45" s="35"/>
+      <c r="W45" s="35"/>
+      <c r="X45" s="35"/>
+      <c r="Y45" s="35"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A46" s="24">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
       <c r="J46" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K46" s="15" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="L46" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="36"/>
+      <c r="M46" s="34"/>
       <c r="N46" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O46" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P46" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Q46" s="2"/>
-      <c r="R46" s="2"/>
-      <c r="S46" s="2"/>
-      <c r="T46" s="2"/>
-      <c r="U46" s="2"/>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R46" s="35"/>
+      <c r="S46" s="35"/>
+      <c r="T46" s="35"/>
+      <c r="U46" s="35"/>
+      <c r="V46" s="35"/>
+      <c r="W46" s="35"/>
+      <c r="X46" s="35"/>
+      <c r="Y46" s="35"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A47" s="24">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
       <c r="J47" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K47" s="15" t="s">
-        <v>76</v>
+        <v>102</v>
       </c>
       <c r="L47" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="36"/>
+      <c r="M47" s="39"/>
       <c r="N47" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O47" s="15" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
       <c r="P47" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="Q47" s="2"/>
-      <c r="R47" s="2"/>
-      <c r="S47" s="2"/>
-      <c r="T47" s="2"/>
-      <c r="U47" s="2"/>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="R47" s="35"/>
+      <c r="S47" s="35"/>
+      <c r="T47" s="35"/>
+      <c r="U47" s="35"/>
+      <c r="V47" s="35"/>
+      <c r="W47" s="35"/>
+      <c r="X47" s="35"/>
+      <c r="Y47" s="35"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A48" s="24">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
       <c r="J48" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K48" s="15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="L48" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M48" s="37"/>
+      <c r="M48" s="31"/>
       <c r="N48" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O48" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P48" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="R48" s="35"/>
+      <c r="S48" s="35"/>
+      <c r="T48" s="35"/>
+      <c r="U48" s="35"/>
+      <c r="V48" s="35"/>
+      <c r="W48" s="35"/>
+      <c r="X48" s="35"/>
+      <c r="Y48" s="35"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A49" s="24">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
       <c r="J49" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K49" s="15" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="L49" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M49" s="36"/>
+      <c r="M49" s="31"/>
       <c r="N49" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O49" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P49" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="2"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R49" s="35"/>
+      <c r="S49" s="35"/>
+      <c r="T49" s="35"/>
+      <c r="U49" s="35"/>
+      <c r="V49" s="35"/>
+      <c r="W49" s="35"/>
+      <c r="X49" s="35"/>
+      <c r="Y49" s="35"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A50" s="24">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
       <c r="J50" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K50" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L50" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="37"/>
+      <c r="M50" s="31"/>
       <c r="N50" s="14" t="s">
         <v>32</v>
       </c>
@@ -3088,208 +3505,260 @@
         <v>53</v>
       </c>
       <c r="P50" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="2"/>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="R50" s="35"/>
+      <c r="S50" s="35"/>
+      <c r="T50" s="35"/>
+      <c r="U50" s="35"/>
+      <c r="V50" s="35"/>
+      <c r="W50" s="35"/>
+      <c r="X50" s="35"/>
+      <c r="Y50" s="35"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A51" s="24">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
       <c r="J51" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K51" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="L51" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="L51" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="M51" s="39"/>
-      <c r="N51" s="14" t="s">
+      <c r="M51" s="34"/>
+      <c r="N51" s="23" t="s">
         <v>32</v>
       </c>
       <c r="O51" s="15" t="s">
         <v>55</v>
       </c>
       <c r="P51" s="15" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="R51" s="35"/>
+      <c r="S51" s="35"/>
+      <c r="T51" s="35"/>
+      <c r="U51" s="35"/>
+      <c r="V51" s="35"/>
+      <c r="W51" s="35"/>
+      <c r="X51" s="35"/>
+      <c r="Y51" s="35"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A52" s="24">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
       <c r="J52" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K52" s="15" t="s">
-        <v>81</v>
+        <v>104</v>
       </c>
       <c r="L52" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M52" s="39"/>
+      <c r="M52" s="31"/>
       <c r="N52" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O52" s="15" t="s">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="P52" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q52" s="2"/>
-      <c r="R52" s="2"/>
-      <c r="S52" s="2"/>
-      <c r="T52" s="2"/>
-      <c r="U52" s="2"/>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="R52" s="35"/>
+      <c r="S52" s="35"/>
+      <c r="T52" s="35"/>
+      <c r="U52" s="35"/>
+      <c r="V52" s="35"/>
+      <c r="W52" s="35"/>
+      <c r="X52" s="35"/>
+      <c r="Y52" s="35"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A53" s="24">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
       <c r="J53" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K53" s="15" t="s">
-        <v>82</v>
+        <v>68</v>
       </c>
       <c r="L53" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M53" s="39"/>
+      <c r="M53" s="34"/>
       <c r="N53" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O53" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="P53" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="Q53" s="2"/>
-      <c r="R53" s="2"/>
-      <c r="S53" s="2"/>
-      <c r="T53" s="2"/>
-      <c r="U53" s="2"/>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R53" s="35"/>
+      <c r="S53" s="35"/>
+      <c r="T53" s="35"/>
+      <c r="U53" s="35"/>
+      <c r="V53" s="35"/>
+      <c r="W53" s="35"/>
+      <c r="X53" s="35"/>
+      <c r="Y53" s="35"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A54" s="24">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
       <c r="J54" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K54" s="15" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="L54" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="39"/>
+      <c r="M54" s="31"/>
       <c r="N54" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O54" s="15" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P54" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A55" s="2"/>
+        <v>38</v>
+      </c>
+      <c r="R54" s="35"/>
+      <c r="S54" s="35"/>
+      <c r="T54" s="35"/>
+      <c r="U54" s="35"/>
+      <c r="V54" s="35"/>
+      <c r="W54" s="35"/>
+      <c r="X54" s="35"/>
+      <c r="Y54" s="35"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A55" s="24">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
       <c r="I55" s="2"/>
       <c r="J55" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K55" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="L55" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L55" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="M55" s="39"/>
-      <c r="N55" s="23" t="s">
+      <c r="M55" s="31"/>
+      <c r="N55" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O55" s="15" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="P55" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q55" s="2"/>
-      <c r="R55" s="2"/>
-      <c r="S55" s="2"/>
-      <c r="T55" s="2"/>
-      <c r="U55" s="2"/>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A56" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="R55" s="35"/>
+      <c r="S55" s="35"/>
+      <c r="T55" s="35"/>
+      <c r="U55" s="35"/>
+      <c r="V55" s="35"/>
+      <c r="W55" s="35"/>
+      <c r="X55" s="35"/>
+      <c r="Y55" s="35"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A56" s="24">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
       <c r="I56" s="2"/>
       <c r="J56" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="K56" s="25" t="s">
-        <v>101</v>
-      </c>
-      <c r="L56" s="15" t="s">
-        <v>121</v>
+      <c r="K56" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="L56" s="16" t="s">
+        <v>40</v>
       </c>
       <c r="M56" s="39"/>
-      <c r="N56" s="15" t="s">
+      <c r="N56" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O56" s="15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="P56" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q56" s="2"/>
-      <c r="R56" s="2"/>
-      <c r="S56" s="2"/>
-      <c r="T56" s="2"/>
-      <c r="U56" s="2"/>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A57" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="R56" s="35"/>
+      <c r="S56" s="35"/>
+      <c r="T56" s="35"/>
+      <c r="U56" s="35"/>
+      <c r="V56" s="35"/>
+      <c r="W56" s="35"/>
+      <c r="X56" s="35"/>
+      <c r="Y56" s="35"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A57" s="24">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
       <c r="I57" s="2"/>
       <c r="J57" s="15" t="s">
         <v>32</v>
       </c>
       <c r="K57" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="L57" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="M57" s="39"/>
-      <c r="N57" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="L57" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M57" s="34"/>
+      <c r="N57" s="14" t="s">
         <v>32</v>
       </c>
       <c r="O57" s="15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="P57" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q57" s="2"/>
-      <c r="R57" s="2"/>
-      <c r="S57" s="2"/>
-      <c r="T57" s="2"/>
-      <c r="U57" s="2"/>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A58" s="2"/>
+        <v>37</v>
+      </c>
+      <c r="R57" s="35"/>
+      <c r="S57" s="35"/>
+      <c r="T57" s="35"/>
+      <c r="U57" s="35"/>
+      <c r="V57" s="35"/>
+      <c r="W57" s="35"/>
+      <c r="X57" s="35"/>
+      <c r="Y57" s="35"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A58" s="24">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="38"/>
+      <c r="E58" s="33"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
@@ -3298,28 +3767,31 @@
         <v>32</v>
       </c>
       <c r="K58" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="L58" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="M58" s="34"/>
+      <c r="N58" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="L58" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="M58" s="39"/>
-      <c r="N58" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="15" t="s">
-        <v>60</v>
-      </c>
       <c r="P58" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="R58" s="35"/>
+      <c r="S58" s="35"/>
+      <c r="T58" s="35"/>
+      <c r="U58" s="35"/>
+      <c r="V58" s="35"/>
+      <c r="W58" s="35"/>
+      <c r="X58" s="35"/>
+      <c r="Y58" s="35"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3336,12 +3808,16 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
-    </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="R59" s="35"/>
+      <c r="S59" s="35"/>
+      <c r="T59" s="35"/>
+      <c r="U59" s="35"/>
+      <c r="V59" s="35"/>
+      <c r="W59" s="35"/>
+      <c r="X59" s="35"/>
+      <c r="Y59" s="35"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3363,7 +3839,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3378,7 +3854,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -3393,7 +3869,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -3405,19 +3881,22 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
-      <c r="N64" s="2"/>
-      <c r="O64" s="2"/>
-      <c r="P64" s="2"/>
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A65" s="35"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="35"/>
+      <c r="D65" s="35"/>
+      <c r="E65" s="35"/>
+      <c r="F65" s="35"/>
+      <c r="G65" s="35"/>
+      <c r="H65" s="35"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -3429,7 +3908,15 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A66" s="35"/>
+      <c r="B66" s="35"/>
+      <c r="C66" s="35"/>
+      <c r="D66" s="35"/>
+      <c r="E66" s="35"/>
+      <c r="F66" s="35"/>
+      <c r="G66" s="35"/>
+      <c r="H66" s="35"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -3441,7 +3928,15 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="35"/>
+      <c r="B67" s="35"/>
+      <c r="C67" s="35"/>
+      <c r="D67" s="35"/>
+      <c r="E67" s="35"/>
+      <c r="F67" s="35"/>
+      <c r="G67" s="35"/>
+      <c r="H67" s="35"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -3453,7 +3948,15 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A68" s="35"/>
+      <c r="B68" s="35"/>
+      <c r="C68" s="35"/>
+      <c r="D68" s="35"/>
+      <c r="E68" s="35"/>
+      <c r="F68" s="35"/>
+      <c r="G68" s="35"/>
+      <c r="H68" s="35"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -3465,7 +3968,15 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="35"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="35"/>
+      <c r="D69" s="35"/>
+      <c r="E69" s="35"/>
+      <c r="F69" s="35"/>
+      <c r="G69" s="35"/>
+      <c r="H69" s="35"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -3477,7 +3988,15 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A70" s="35"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="35"/>
+      <c r="D70" s="35"/>
+      <c r="E70" s="35"/>
+      <c r="F70" s="35"/>
+      <c r="G70" s="35"/>
+      <c r="H70" s="35"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -3489,7 +4008,15 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A71" s="35"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="35"/>
+      <c r="D71" s="35"/>
+      <c r="E71" s="35"/>
+      <c r="F71" s="35"/>
+      <c r="G71" s="35"/>
+      <c r="H71" s="35"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -3501,7 +4028,15 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A72" s="35"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="35"/>
+      <c r="D72" s="35"/>
+      <c r="E72" s="35"/>
+      <c r="F72" s="35"/>
+      <c r="G72" s="35"/>
+      <c r="H72" s="35"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -3513,7 +4048,15 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A73" s="35"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="35"/>
+      <c r="D73" s="35"/>
+      <c r="E73" s="35"/>
+      <c r="F73" s="35"/>
+      <c r="G73" s="35"/>
+      <c r="H73" s="35"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -3525,7 +4068,15 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A74" s="35"/>
+      <c r="B74" s="35"/>
+      <c r="C74" s="35"/>
+      <c r="D74" s="35"/>
+      <c r="E74" s="35"/>
+      <c r="F74" s="35"/>
+      <c r="G74" s="35"/>
+      <c r="H74" s="35"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -3537,7 +4088,15 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A75" s="35"/>
+      <c r="B75" s="35"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="35"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -3549,7 +4108,15 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A76" s="35"/>
+      <c r="B76" s="20"/>
+      <c r="C76" s="20"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="20"/>
+      <c r="G76" s="20"/>
+      <c r="H76" s="20"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -3561,7 +4128,15 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A77" s="35"/>
+      <c r="B77" s="20"/>
+      <c r="C77" s="20"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="20"/>
+      <c r="G77" s="20"/>
+      <c r="H77" s="20"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -3573,7 +4148,15 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A78" s="35"/>
+      <c r="B78" s="20"/>
+      <c r="C78" s="20"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="35"/>
+      <c r="F78" s="20"/>
+      <c r="G78" s="20"/>
+      <c r="H78" s="20"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -3585,7 +4168,15 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A79" s="35"/>
+      <c r="B79" s="35"/>
+      <c r="C79" s="35"/>
+      <c r="D79" s="35"/>
+      <c r="E79" s="35"/>
+      <c r="F79" s="35"/>
+      <c r="G79" s="35"/>
+      <c r="H79" s="35"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -3597,7 +4188,15 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="12:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A80" s="35"/>
+      <c r="B80" s="35"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -3610,6 +4209,14 @@
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A81" s="35"/>
+      <c r="B81" s="35"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -3622,6 +4229,14 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A82" s="35"/>
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -3634,6 +4249,14 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A83" s="35"/>
+      <c r="B83" s="35"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -3646,6 +4269,14 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A84" s="35"/>
+      <c r="B84" s="35"/>
+      <c r="C84" s="35"/>
+      <c r="D84" s="35"/>
+      <c r="E84" s="35"/>
+      <c r="F84" s="35"/>
+      <c r="G84" s="35"/>
+      <c r="H84" s="35"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -3658,7 +4289,14 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="2"/>
+      <c r="A85" s="35"/>
+      <c r="B85" s="35"/>
+      <c r="C85" s="35"/>
+      <c r="D85" s="35"/>
+      <c r="E85" s="35"/>
+      <c r="F85" s="35"/>
+      <c r="G85" s="35"/>
+      <c r="H85" s="35"/>
       <c r="I85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -3672,7 +4310,14 @@
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A86" s="2"/>
+      <c r="A86" s="35"/>
+      <c r="B86" s="35"/>
+      <c r="C86" s="35"/>
+      <c r="D86" s="35"/>
+      <c r="E86" s="35"/>
+      <c r="F86" s="35"/>
+      <c r="G86" s="35"/>
+      <c r="H86" s="35"/>
       <c r="I86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -3686,7 +4331,14 @@
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A87" s="2"/>
+      <c r="A87" s="35"/>
+      <c r="B87" s="35"/>
+      <c r="C87" s="35"/>
+      <c r="D87" s="35"/>
+      <c r="E87" s="35"/>
+      <c r="F87" s="35"/>
+      <c r="G87" s="35"/>
+      <c r="H87" s="35"/>
       <c r="I87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -3700,7 +4352,14 @@
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A88" s="2"/>
+      <c r="A88" s="35"/>
+      <c r="B88" s="35"/>
+      <c r="C88" s="35"/>
+      <c r="D88" s="35"/>
+      <c r="E88" s="35"/>
+      <c r="F88" s="35"/>
+      <c r="G88" s="35"/>
+      <c r="H88" s="35"/>
       <c r="I88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -3714,7 +4373,14 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" s="2"/>
+      <c r="A89" s="35"/>
+      <c r="B89" s="35"/>
+      <c r="C89" s="35"/>
+      <c r="D89" s="35"/>
+      <c r="E89" s="35"/>
+      <c r="F89" s="35"/>
+      <c r="G89" s="35"/>
+      <c r="H89" s="35"/>
       <c r="I89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -3728,6 +4394,14 @@
       <c r="U89" s="2"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A90" s="35"/>
+      <c r="B90" s="35"/>
+      <c r="C90" s="35"/>
+      <c r="D90" s="35"/>
+      <c r="E90" s="35"/>
+      <c r="F90" s="35"/>
+      <c r="G90" s="35"/>
+      <c r="H90" s="35"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -3740,6 +4414,14 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A91" s="35"/>
+      <c r="B91" s="35"/>
+      <c r="C91" s="35"/>
+      <c r="D91" s="35"/>
+      <c r="E91" s="35"/>
+      <c r="F91" s="35"/>
+      <c r="G91" s="35"/>
+      <c r="H91" s="35"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -3752,6 +4434,14 @@
       <c r="U91" s="2"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A92" s="35"/>
+      <c r="B92" s="35"/>
+      <c r="C92" s="35"/>
+      <c r="D92" s="35"/>
+      <c r="E92" s="35"/>
+      <c r="F92" s="35"/>
+      <c r="G92" s="35"/>
+      <c r="H92" s="35"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -3764,6 +4454,14 @@
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A93" s="35"/>
+      <c r="B93" s="35"/>
+      <c r="C93" s="35"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="35"/>
+      <c r="F93" s="35"/>
+      <c r="G93" s="35"/>
+      <c r="H93" s="35"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -3776,6 +4474,14 @@
       <c r="U93" s="2"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A94" s="35"/>
+      <c r="B94" s="35"/>
+      <c r="C94" s="35"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="35"/>
+      <c r="F94" s="35"/>
+      <c r="G94" s="35"/>
+      <c r="H94" s="35"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -3787,12 +4493,23 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A95" s="35"/>
+      <c r="B95" s="35"/>
+      <c r="C95" s="35"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="35"/>
+      <c r="F95" s="35"/>
+      <c r="G95" s="35"/>
+      <c r="H95" s="35"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="J2:P2"/>
     <mergeCell ref="B15:H15"/>
     <mergeCell ref="J15:P15"/>
+    <mergeCell ref="R15:X15"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3802,10 +4519,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
-  <dimension ref="B5:L32"/>
+  <dimension ref="B1:L28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3825,291 +4542,422 @@
     <col min="13" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="30" t="s">
+    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="51" t="s">
         <v>113</v>
       </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="F6" s="30" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="F2" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="G6" s="31"/>
-      <c r="H6" s="32"/>
-      <c r="J6" s="30" t="s">
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
+      <c r="J2" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="31"/>
-      <c r="L6" s="32"/>
-    </row>
-    <row r="7" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="4" t="s">
+      <c r="K2" s="54"/>
+      <c r="L2" s="55"/>
+    </row>
+    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C3" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D3" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="E7" s="22"/>
-      <c r="F7" s="4" t="s">
+      <c r="E3" s="22"/>
+      <c r="F3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="G7" s="28" t="s">
+      <c r="G3" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>147</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="4" t="s">
+      <c r="I3" s="22"/>
+      <c r="J3" s="4" t="s">
         <v>143</v>
       </c>
-      <c r="K7" s="28" t="s">
+      <c r="K3" s="28" t="s">
         <v>123</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L3" s="4" t="s">
         <v>152</v>
       </c>
     </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" s="42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H4" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="K4" s="42" t="s">
+        <v>124</v>
+      </c>
+      <c r="L4" s="47" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="58"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="G5" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="H5" s="58"/>
+      <c r="J5" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="K5" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="43" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="58"/>
+      <c r="J6" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="K6" s="2">
+        <v>13</v>
+      </c>
+      <c r="L6" s="2"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="48" t="s">
+        <v>117</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>132</v>
+      </c>
+      <c r="H8" s="58"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="59"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="48" t="s">
+        <v>118</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C10" s="24">
+        <v>175</v>
+      </c>
+      <c r="F10" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="H10" s="58"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F11" s="48" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="H11" s="58"/>
+      <c r="J11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F12" s="49" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="59"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="2"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="F13" s="22" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="24">
+        <v>233</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="L13" s="2"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="56" t="s">
+        <v>151</v>
+      </c>
+      <c r="C15" s="56"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="56"/>
+      <c r="G15" s="56"/>
+      <c r="H15" s="56"/>
+      <c r="I15" s="56"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="41">
+        <v>128</v>
+      </c>
+      <c r="C16" s="41">
+        <v>64</v>
+      </c>
+      <c r="D16" s="41">
+        <v>32</v>
+      </c>
+      <c r="E16" s="41">
+        <v>16</v>
+      </c>
+      <c r="F16" s="41">
+        <v>8</v>
+      </c>
+      <c r="G16" s="41">
         <v>4</v>
       </c>
-      <c r="C8" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="55" t="s">
+      <c r="H16" s="41">
+        <v>2</v>
+      </c>
+      <c r="I16" s="41">
+        <v>1</v>
+      </c>
+      <c r="J16" s="41" t="s">
+        <v>145</v>
+      </c>
+      <c r="K16" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" s="24">
+        <v>1</v>
+      </c>
+      <c r="C17" s="24">
+        <v>1</v>
+      </c>
+      <c r="D17" s="24">
+        <v>1</v>
+      </c>
+      <c r="E17" s="24">
+        <v>1</v>
+      </c>
+      <c r="F17" s="24">
+        <v>1</v>
+      </c>
+      <c r="G17" s="24">
+        <v>1</v>
+      </c>
+      <c r="H17" s="24">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" s="24">
+        <v>1</v>
+      </c>
+      <c r="C18" s="24">
+        <v>1</v>
+      </c>
+      <c r="D18" s="24">
+        <v>1</v>
+      </c>
+      <c r="E18" s="24">
+        <v>1</v>
+      </c>
+      <c r="F18" s="24">
+        <v>1</v>
+      </c>
+      <c r="G18" s="24">
+        <v>1</v>
+      </c>
+      <c r="H18" s="24">
+        <v>1</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="K18" s="24">
+        <f>K17*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" s="24">
+        <v>1</v>
+      </c>
+      <c r="C19" s="24">
+        <v>1</v>
+      </c>
+      <c r="D19" s="24">
+        <v>1</v>
+      </c>
+      <c r="E19" s="24">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1</v>
+      </c>
+      <c r="H19" s="24">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="24">
+        <f t="shared" ref="K19:K25" si="0">K18*2</f>
         <v>4</v>
       </c>
-      <c r="G8" s="50" t="s">
-        <v>129</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>154</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>124</v>
-      </c>
-      <c r="L8" s="55" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="51" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" s="51" t="s">
-        <v>130</v>
-      </c>
-      <c r="H9" s="46"/>
-      <c r="J9" s="45" t="s">
-        <v>120</v>
-      </c>
-      <c r="K9" s="53" t="s">
-        <v>136</v>
-      </c>
-      <c r="L9" s="45" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="51" t="s">
-        <v>126</v>
-      </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="56" t="s">
-        <v>5</v>
-      </c>
-      <c r="G10" s="51" t="s">
-        <v>131</v>
-      </c>
-      <c r="H10" s="46"/>
-      <c r="J10" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="K10" s="2">
-        <v>13</v>
-      </c>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>127</v>
-      </c>
-      <c r="H11" s="46"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>128</v>
-      </c>
-      <c r="D12" s="46"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="56" t="s">
-        <v>117</v>
-      </c>
-      <c r="G12" s="51" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="46"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-    </row>
-    <row r="13" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="54" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="43"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="G13" s="52" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" s="46"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B14" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="24">
-        <v>175</v>
-      </c>
-      <c r="F14" s="56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="H14" s="46"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F15" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="51" t="s">
-        <v>135</v>
-      </c>
-      <c r="H15" s="46"/>
-      <c r="J15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="57" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="53" t="s">
-        <v>128</v>
-      </c>
-      <c r="H16" s="43"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="2"/>
-      <c r="L16" s="20"/>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F17" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="24">
-        <v>233</v>
-      </c>
-      <c r="J17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B19" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B20" s="48">
-        <v>128</v>
-      </c>
-      <c r="C20" s="48">
-        <v>64</v>
-      </c>
-      <c r="D20" s="48">
-        <v>32</v>
-      </c>
-      <c r="E20" s="48">
-        <v>16</v>
-      </c>
-      <c r="F20" s="48">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" s="24">
+        <v>1</v>
+      </c>
+      <c r="C20" s="24">
+        <v>1</v>
+      </c>
+      <c r="D20" s="24">
+        <v>1</v>
+      </c>
+      <c r="E20" s="24">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24">
+        <v>0</v>
+      </c>
+      <c r="H20" s="24">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" s="24">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="G20" s="48">
-        <v>4</v>
-      </c>
-      <c r="H20" s="48">
-        <v>2</v>
-      </c>
-      <c r="I20" s="48">
-        <v>1</v>
-      </c>
-      <c r="J20" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="K20" s="48" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B21" s="24">
         <v>1</v>
       </c>
@@ -4123,25 +4971,26 @@
         <v>1</v>
       </c>
       <c r="F21" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" s="24" t="s">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="K21" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B22" s="24">
         <v>1</v>
       </c>
@@ -4152,29 +5001,29 @@
         <v>1</v>
       </c>
       <c r="E22" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" s="2">
         <v>0</v>
       </c>
       <c r="J22" s="24" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="K22" s="24">
-        <f>K21*2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B23" s="24">
         <v>1</v>
       </c>
@@ -4182,16 +5031,16 @@
         <v>1</v>
       </c>
       <c r="D23" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="24">
         <v>0</v>
@@ -4200,28 +5049,28 @@
         <v>0</v>
       </c>
       <c r="J23" s="24" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="K23" s="24">
-        <f t="shared" ref="K23:K29" si="0">K22*2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B24" s="24">
         <v>1</v>
       </c>
       <c r="C24" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D24" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24" s="24">
         <v>0</v>
@@ -4233,25 +5082,25 @@
         <v>0</v>
       </c>
       <c r="J24" s="24" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="K24" s="24">
         <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B25" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C25" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D25" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25" s="24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="24">
         <v>0</v>
@@ -4266,173 +5115,41 @@
         <v>0</v>
       </c>
       <c r="J25" s="24" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="K25" s="24">
         <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B26" s="24">
-        <v>1</v>
-      </c>
-      <c r="C26" s="24">
-        <v>1</v>
-      </c>
-      <c r="D26" s="24">
-        <v>1</v>
-      </c>
-      <c r="E26" s="24">
-        <v>0</v>
-      </c>
-      <c r="F26" s="24">
-        <v>0</v>
-      </c>
-      <c r="G26" s="24">
-        <v>0</v>
-      </c>
-      <c r="H26" s="24">
-        <v>0</v>
-      </c>
-      <c r="I26" s="2">
-        <v>0</v>
-      </c>
-      <c r="J26" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="K26" s="24">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B27" s="24">
-        <v>1</v>
-      </c>
-      <c r="C27" s="24">
-        <v>1</v>
-      </c>
-      <c r="D27" s="24">
-        <v>0</v>
-      </c>
-      <c r="E27" s="24">
-        <v>0</v>
-      </c>
-      <c r="F27" s="24">
-        <v>0</v>
-      </c>
-      <c r="G27" s="24">
-        <v>0</v>
-      </c>
-      <c r="H27" s="24">
-        <v>0</v>
-      </c>
-      <c r="I27" s="2">
-        <v>0</v>
-      </c>
-      <c r="J27" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="K27" s="24">
-        <f t="shared" si="0"/>
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B28" s="24">
-        <v>1</v>
-      </c>
-      <c r="C28" s="24">
-        <v>0</v>
-      </c>
-      <c r="D28" s="24">
-        <v>0</v>
-      </c>
-      <c r="E28" s="24">
-        <v>0</v>
-      </c>
-      <c r="F28" s="24">
-        <v>0</v>
-      </c>
-      <c r="G28" s="24">
-        <v>0</v>
-      </c>
-      <c r="H28" s="24">
-        <v>0</v>
-      </c>
-      <c r="I28" s="2">
-        <v>0</v>
-      </c>
-      <c r="J28" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="K28" s="24">
-        <f t="shared" si="0"/>
-        <v>128</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B29" s="24">
-        <v>0</v>
-      </c>
-      <c r="C29" s="24">
-        <v>0</v>
-      </c>
-      <c r="D29" s="24">
-        <v>0</v>
-      </c>
-      <c r="E29" s="24">
-        <v>0</v>
-      </c>
-      <c r="F29" s="24">
-        <v>0</v>
-      </c>
-      <c r="G29" s="24">
-        <v>0</v>
-      </c>
-      <c r="H29" s="24">
-        <v>0</v>
-      </c>
-      <c r="I29" s="2">
-        <v>0</v>
-      </c>
-      <c r="J29" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="K29" s="24">
-        <f t="shared" si="0"/>
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B31" s="48"/>
-      <c r="C31" s="48"/>
-      <c r="D31" s="48"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="48"/>
-      <c r="G31" s="48"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="48"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B32" s="48"/>
-      <c r="C32" s="48"/>
-      <c r="D32" s="48"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="48"/>
-      <c r="G32" s="48"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="48"/>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+      <c r="F28" s="41"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="41"/>
+      <c r="I28" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="D8:D13"/>
-    <mergeCell ref="H8:H16"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="B15:I15"/>
+    <mergeCell ref="D4:D9"/>
+    <mergeCell ref="H4:H12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4459,20 +5176,20 @@
     <col min="9" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="30" t="s">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="51" t="s">
         <v>138</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="55"/>
+      <c r="F2" s="51" t="s">
         <v>139</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="32"/>
-    </row>
-    <row r="3" spans="2:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
+    </row>
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
@@ -4497,20 +5214,20 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="42">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="57">
         <v>11</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="57" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="57">
         <v>21</v>
       </c>
-      <c r="G4" s="42" t="s">
+      <c r="G4" s="57" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -4522,15 +5239,15 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="41" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="58"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="41" t="s">
+      <c r="F5" s="58"/>
+      <c r="G5" s="58"/>
+      <c r="H5" s="36" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="2"/>
@@ -4539,14 +5256,14 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
@@ -4556,7 +5273,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
@@ -4569,20 +5286,20 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="42">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="57">
         <v>12</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="57" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="42">
+      <c r="F8" s="57">
         <v>22</v>
       </c>
-      <c r="G8" s="42" t="s">
+      <c r="G8" s="57" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -4594,15 +5311,15 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="47" t="s">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="47" t="s">
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="40" t="s">
         <v>12</v>
       </c>
       <c r="I9" s="2"/>
@@ -4611,7 +5328,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
@@ -4624,20 +5341,20 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="44">
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="37">
         <v>13</v>
       </c>
-      <c r="C11" s="44" t="s">
+      <c r="C11" s="37" t="s">
         <v>5</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="37">
         <v>23</v>
       </c>
-      <c r="G11" s="44" t="s">
+      <c r="G11" s="37" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="7" t="s">
@@ -4649,7 +5366,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="26"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
@@ -4662,18 +5379,18 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="42">
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="57">
         <v>14</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="57" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="F13" s="42">
+      <c r="F13" s="57">
         <v>24</v>
       </c>
-      <c r="G13" s="42" t="s">
+      <c r="G13" s="57" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -4685,15 +5402,15 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="43"/>
-      <c r="C14" s="43"/>
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="43"/>
-      <c r="H14" s="47" t="s">
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="40" t="s">
         <v>14</v>
       </c>
       <c r="I14" s="2"/>
@@ -4702,7 +5419,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -4715,20 +5432,20 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="44">
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="37">
         <v>15</v>
       </c>
-      <c r="C16" s="44" t="s">
+      <c r="C16" s="37" t="s">
         <v>7</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F16" s="44">
+      <c r="F16" s="37">
         <v>25</v>
       </c>
-      <c r="G16" s="44" t="s">
+      <c r="G16" s="37" t="s">
         <v>114</v>
       </c>
       <c r="H16" s="7" t="s">
@@ -4740,7 +5457,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
@@ -4753,20 +5470,20 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="44">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="37">
         <v>16</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="44">
+      <c r="F18" s="37">
         <v>26</v>
       </c>
-      <c r="G18" s="44" t="s">
+      <c r="G18" s="37" t="s">
         <v>8</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -4778,7 +5495,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -4793,35 +5510,35 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="44">
+      <c r="F20" s="37">
         <v>27</v>
       </c>
-      <c r="G20" s="44" t="s">
+      <c r="G20" s="37" t="s">
         <v>117</v>
       </c>
       <c r="H20" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="32"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="55"/>
       <c r="E21" s="2"/>
       <c r="F21" s="26"/>
       <c r="G21" s="2"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="27" t="s">
         <v>0</v>
@@ -4836,19 +5553,19 @@
       <c r="F22" s="6">
         <v>28</v>
       </c>
-      <c r="G22" s="44" t="s">
+      <c r="G22" s="37" t="s">
         <v>118</v>
       </c>
       <c r="H22" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
-      <c r="B23" s="44">
+      <c r="B23" s="37">
         <v>91</v>
       </c>
-      <c r="C23" s="44" t="s">
+      <c r="C23" s="37" t="s">
         <v>8</v>
       </c>
       <c r="D23" s="7" t="s">
@@ -4860,40 +5577,40 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:13" s="24" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="44">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="37">
         <v>92</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="37" t="s">
         <v>120</v>
       </c>
       <c r="D25" s="7" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="26" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="60"/>
+      <c r="C29" s="60"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -4901,9 +5618,9 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="60"/>
+      <c r="C30" s="60"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -4911,7 +5628,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -4921,7 +5638,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:13" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -4930,7 +5647,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -4939,7 +5656,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -4948,7 +5665,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -4957,21 +5674,27 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="42" spans="2:8" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="G8:G9"/>
@@ -4983,12 +5706,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1484" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA9EDA6D-55BE-425D-A2FF-A6F0CCE0BF0D}"/>
+  <xr:revisionPtr revIDLastSave="1787" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13664BCE-7D19-445A-8124-9F677979EB4C}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="193">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -411,48 +411,6 @@
     <t>NºIP's</t>
   </si>
   <si>
-    <t>3+2</t>
-  </si>
-  <si>
-    <t>130+2</t>
-  </si>
-  <si>
-    <t>5+2</t>
-  </si>
-  <si>
-    <t>4+2</t>
-  </si>
-  <si>
-    <t>12+2</t>
-  </si>
-  <si>
-    <t>8+2</t>
-  </si>
-  <si>
-    <t>100+2</t>
-  </si>
-  <si>
-    <t>1+2</t>
-  </si>
-  <si>
-    <t>10+2</t>
-  </si>
-  <si>
-    <t>7+2</t>
-  </si>
-  <si>
-    <t>29+2</t>
-  </si>
-  <si>
-    <t>44+2</t>
-  </si>
-  <si>
-    <t>6+2</t>
-  </si>
-  <si>
-    <t>9+2</t>
-  </si>
-  <si>
     <t>Tabela VLAN's Edificio 1</t>
   </si>
   <si>
@@ -477,12 +435,6 @@
     <t>/</t>
   </si>
   <si>
-    <t>192.168.1.0 /24</t>
-  </si>
-  <si>
-    <t>192.168.2.0 /24</t>
-  </si>
-  <si>
     <t>/32</t>
   </si>
   <si>
@@ -495,21 +447,9 @@
     <t>4º Octeto</t>
   </si>
   <si>
-    <t>192.168.9.0 /28</t>
-  </si>
-  <si>
-    <t>192.168.1.0 - 255 /24</t>
-  </si>
-  <si>
-    <t>192.168.2.0 - 255 /24</t>
-  </si>
-  <si>
     <t>192.168.9.0 - 15 /28</t>
   </si>
   <si>
-    <t>192.168.9.16 - 31 /28</t>
-  </si>
-  <si>
     <t>/30</t>
   </si>
   <si>
@@ -526,13 +466,163 @@
   </si>
   <si>
     <t>/25</t>
+  </si>
+  <si>
+    <t>192.168.0.0 /23</t>
+  </si>
+  <si>
+    <t>3+3</t>
+  </si>
+  <si>
+    <t>130+3</t>
+  </si>
+  <si>
+    <t>5+3</t>
+  </si>
+  <si>
+    <t>4+3</t>
+  </si>
+  <si>
+    <t>12+3</t>
+  </si>
+  <si>
+    <t>9+3</t>
+  </si>
+  <si>
+    <t>8+3</t>
+  </si>
+  <si>
+    <t>100+3</t>
+  </si>
+  <si>
+    <t>1+3</t>
+  </si>
+  <si>
+    <t>10+3</t>
+  </si>
+  <si>
+    <t>7+3</t>
+  </si>
+  <si>
+    <t>29+3</t>
+  </si>
+  <si>
+    <t>44+3</t>
+  </si>
+  <si>
+    <t>6+3</t>
+  </si>
+  <si>
+    <t>192.168.2.0 /23</t>
+  </si>
+  <si>
+    <t>192.168.1.0 - 15 /28</t>
+  </si>
+  <si>
+    <t>192.168.1.16 - 31 /28</t>
+  </si>
+  <si>
+    <t>192.168.1.32 - 39 /29</t>
+  </si>
+  <si>
+    <t>192.168.1.40 - 47 /29</t>
+  </si>
+  <si>
+    <t>192.168.1.48 - 55 /29</t>
+  </si>
+  <si>
+    <t>192.168.2.0 - 127 /25</t>
+  </si>
+  <si>
+    <t>192.168.3.0 - 63 /26</t>
+  </si>
+  <si>
+    <t>192.168.3.64 - 95 /27</t>
+  </si>
+  <si>
+    <t>192.168.0.0 - 255 /24</t>
+  </si>
+  <si>
+    <t>192.168.3.128 - 143 /28</t>
+  </si>
+  <si>
+    <t>192.168.3.112 - 127 /28</t>
+  </si>
+  <si>
+    <t>192.168.3.96 - 111 /28</t>
+  </si>
+  <si>
+    <t>192.168.3.144 - 159 /28</t>
+  </si>
+  <si>
+    <t>192.168.3.160 - 167 /29</t>
+  </si>
+  <si>
+    <t>192.168.3.168 - 171 /30</t>
+  </si>
+  <si>
+    <t>192.168.9.16 - 23 /29</t>
+  </si>
+  <si>
+    <t>192.168.9.0 /24</t>
+  </si>
+  <si>
+    <t>Interligação entre Routers</t>
+  </si>
+  <si>
+    <t>RT-Internet&lt;-&gt;RT-ISP</t>
+  </si>
+  <si>
+    <t>RT-Cloud&lt;-&gt;RT-ISP</t>
+  </si>
+  <si>
+    <t>RT-ISP&lt;-&gt;RT-WAN</t>
+  </si>
+  <si>
+    <t>RT-WAN&lt;-&gt;RT-1</t>
+  </si>
+  <si>
+    <t>RT-1&lt;-&gt;RT-2</t>
+  </si>
+  <si>
+    <t>RT-1&lt;-&gt;RT-3</t>
+  </si>
+  <si>
+    <t>RT-2&lt;-&gt;RT-3</t>
+  </si>
+  <si>
+    <t>10.10.10.0 - 3/30</t>
+  </si>
+  <si>
+    <t>10.10.10.4 - 7 /30</t>
+  </si>
+  <si>
+    <t>10.10.10.8 - 11 /30</t>
+  </si>
+  <si>
+    <t>10.10.10.12 - 15 /30</t>
+  </si>
+  <si>
+    <t>10.10.10.16 - 19 /30</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>10.10.10.20 - 23 /30</t>
+  </si>
+  <si>
+    <t>10.10.10.24 - 27 /30</t>
+  </si>
+  <si>
+    <t>IP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +644,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -563,7 +660,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="32">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -958,11 +1055,182 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1084,34 +1352,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1129,7 +1403,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1144,7 +1418,70 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1463,57 +1800,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F286A72-55C7-45FC-BA31-552B8F8C6C3B}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
+    <col min="1" max="1" width="8.88671875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="24"/>
     <col min="6" max="6" width="11" style="24" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="24"/>
-    <col min="10" max="10" width="12.28515625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="24" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="24" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="24"/>
+    <col min="10" max="10" width="12.33203125" style="24" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="24" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="24"/>
-    <col min="14" max="14" width="11.42578125" style="24" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="24" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="24"/>
-    <col min="19" max="19" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.140625" style="24"/>
-    <col min="23" max="23" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="24"/>
+    <col min="13" max="13" width="9.109375" style="24"/>
+    <col min="14" max="14" width="11.44140625" style="24" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="24" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" style="24"/>
+    <col min="19" max="19" width="22.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.109375" style="24"/>
+    <col min="23" max="23" width="22.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="53"/>
-      <c r="J2" s="51" t="s">
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="55"/>
+      <c r="J2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="52"/>
-      <c r="O2" s="52"/>
-      <c r="P2" s="53"/>
-    </row>
-    <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="54"/>
+      <c r="L2" s="54"/>
+      <c r="M2" s="54"/>
+      <c r="N2" s="54"/>
+      <c r="O2" s="54"/>
+      <c r="P2" s="55"/>
+    </row>
+    <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1553,7 +1890,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
@@ -1593,7 +1930,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
@@ -1633,7 +1970,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
@@ -1673,7 +2010,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
@@ -1713,7 +2050,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
@@ -1735,7 +2072,7 @@
       </c>
       <c r="M8" s="33"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
@@ -1756,7 +2093,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
@@ -1777,8 +2114,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -1787,7 +2124,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
@@ -1796,7 +2133,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
@@ -1806,35 +2143,35 @@
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
     </row>
-    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="51" t="s">
+    <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
-      <c r="F15" s="52"/>
-      <c r="G15" s="52"/>
-      <c r="H15" s="53"/>
-      <c r="J15" s="51" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="54"/>
-      <c r="L15" s="54"/>
-      <c r="M15" s="54"/>
-      <c r="N15" s="54"/>
-      <c r="O15" s="54"/>
-      <c r="P15" s="55"/>
-      <c r="R15" s="61"/>
-      <c r="S15" s="61"/>
-      <c r="T15" s="61"/>
-      <c r="U15" s="61"/>
-      <c r="V15" s="61"/>
-      <c r="W15" s="61"/>
-      <c r="X15" s="61"/>
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="54"/>
+      <c r="G15" s="54"/>
+      <c r="H15" s="55"/>
+      <c r="J15" s="53" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56"/>
+      <c r="N15" s="56"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="57"/>
+      <c r="R15" s="58"/>
+      <c r="S15" s="58"/>
+      <c r="T15" s="58"/>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="58"/>
+      <c r="X15" s="58"/>
       <c r="Y15" s="35"/>
     </row>
-    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
@@ -1882,7 +2219,7 @@
       <c r="X16" s="22"/>
       <c r="Y16" s="35"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="24">
         <v>1</v>
       </c>
@@ -1933,7 +2270,7 @@
       <c r="X17" s="35"/>
       <c r="Y17" s="35"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="24">
         <f>A17+1</f>
         <v>2</v>
@@ -1985,7 +2322,7 @@
       <c r="X18" s="35"/>
       <c r="Y18" s="35"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="24">
         <f t="shared" ref="A19:A58" si="0">A18+1</f>
         <v>3</v>
@@ -2037,7 +2374,7 @@
       <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2089,7 +2426,7 @@
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2141,7 +2478,7 @@
       <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2193,7 +2530,7 @@
       <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2245,7 +2582,7 @@
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2297,7 +2634,7 @@
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2349,7 +2686,7 @@
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2401,7 +2738,7 @@
       <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2453,7 +2790,7 @@
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2505,7 +2842,7 @@
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2557,7 +2894,7 @@
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2609,7 +2946,7 @@
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -2661,7 +2998,7 @@
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -2713,7 +3050,7 @@
       <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="24">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -2765,7 +3102,7 @@
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -2817,7 +3154,7 @@
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="24">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -2869,7 +3206,7 @@
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -2921,7 +3258,7 @@
       <c r="X36" s="35"/>
       <c r="Y36" s="35"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -2973,7 +3310,7 @@
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3025,7 +3362,7 @@
       <c r="X38" s="35"/>
       <c r="Y38" s="35"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3077,7 +3414,7 @@
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="24">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3129,7 +3466,7 @@
       <c r="X40" s="35"/>
       <c r="Y40" s="35"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3181,7 +3518,7 @@
       <c r="X41" s="35"/>
       <c r="Y41" s="35"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="24">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3233,7 +3570,7 @@
       <c r="X42" s="35"/>
       <c r="Y42" s="35"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="24">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3285,7 +3622,7 @@
       <c r="X43" s="35"/>
       <c r="Y43" s="35"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="24">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3318,7 +3655,7 @@
       <c r="X44" s="35"/>
       <c r="Y44" s="35"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="24">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3351,7 +3688,7 @@
       <c r="X45" s="35"/>
       <c r="Y45" s="35"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3384,7 +3721,7 @@
       <c r="X46" s="35"/>
       <c r="Y46" s="35"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="24">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3417,7 +3754,7 @@
       <c r="X47" s="35"/>
       <c r="Y47" s="35"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="24">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3450,7 +3787,7 @@
       <c r="X48" s="35"/>
       <c r="Y48" s="35"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="24">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3483,7 +3820,7 @@
       <c r="X49" s="35"/>
       <c r="Y49" s="35"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="24">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3516,7 +3853,7 @@
       <c r="X50" s="35"/>
       <c r="Y50" s="35"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="24">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3549,7 +3886,7 @@
       <c r="X51" s="35"/>
       <c r="Y51" s="35"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="24">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3582,7 +3919,7 @@
       <c r="X52" s="35"/>
       <c r="Y52" s="35"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="24">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3615,7 +3952,7 @@
       <c r="X53" s="35"/>
       <c r="Y53" s="35"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="24">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3648,7 +3985,7 @@
       <c r="X54" s="35"/>
       <c r="Y54" s="35"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="24">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3682,7 +4019,7 @@
       <c r="X55" s="35"/>
       <c r="Y55" s="35"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="24">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3716,7 +4053,7 @@
       <c r="X56" s="35"/>
       <c r="Y56" s="35"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="24">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3750,7 +4087,7 @@
       <c r="X57" s="35"/>
       <c r="Y57" s="35"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="24">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3791,7 +4128,7 @@
       <c r="X58" s="35"/>
       <c r="Y58" s="35"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3817,7 +4154,7 @@
       <c r="X59" s="35"/>
       <c r="Y59" s="35"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3839,7 +4176,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3854,7 +4191,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -3869,7 +4206,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -3881,14 +4218,14 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="35"/>
       <c r="B65" s="35"/>
       <c r="C65" s="35"/>
@@ -3908,7 +4245,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="35"/>
       <c r="B66" s="35"/>
       <c r="C66" s="35"/>
@@ -3928,7 +4265,7 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="35"/>
       <c r="B67" s="35"/>
       <c r="C67" s="35"/>
@@ -3948,7 +4285,7 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="35"/>
       <c r="B68" s="35"/>
       <c r="C68" s="35"/>
@@ -3968,7 +4305,7 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="35"/>
       <c r="B69" s="35"/>
       <c r="C69" s="35"/>
@@ -3988,7 +4325,7 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="35"/>
       <c r="B70" s="35"/>
       <c r="C70" s="35"/>
@@ -4008,7 +4345,7 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="35"/>
       <c r="B71" s="35"/>
       <c r="C71" s="35"/>
@@ -4028,7 +4365,7 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="35"/>
       <c r="B72" s="35"/>
       <c r="C72" s="35"/>
@@ -4048,7 +4385,7 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="35"/>
       <c r="B73" s="35"/>
       <c r="C73" s="35"/>
@@ -4068,7 +4405,7 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="35"/>
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
@@ -4088,7 +4425,7 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="35"/>
       <c r="B75" s="35"/>
       <c r="C75" s="35"/>
@@ -4108,7 +4445,7 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="35"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -4128,7 +4465,7 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="35"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -4148,7 +4485,7 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="35"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -4168,7 +4505,7 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="35"/>
       <c r="B79" s="35"/>
       <c r="C79" s="35"/>
@@ -4188,7 +4525,7 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="35"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
@@ -4208,7 +4545,7 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="35"/>
       <c r="B81" s="35"/>
       <c r="C81" s="35"/>
@@ -4228,7 +4565,7 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="35"/>
       <c r="B82" s="35"/>
       <c r="C82" s="35"/>
@@ -4248,7 +4585,7 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="35"/>
       <c r="B83" s="35"/>
       <c r="C83" s="35"/>
@@ -4268,7 +4605,7 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="35"/>
       <c r="B84" s="35"/>
       <c r="C84" s="35"/>
@@ -4288,7 +4625,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="35"/>
       <c r="B85" s="35"/>
       <c r="C85" s="35"/>
@@ -4309,7 +4646,7 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="35"/>
       <c r="B86" s="35"/>
       <c r="C86" s="35"/>
@@ -4330,7 +4667,7 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="35"/>
       <c r="B87" s="35"/>
       <c r="C87" s="35"/>
@@ -4351,7 +4688,7 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="35"/>
       <c r="B88" s="35"/>
       <c r="C88" s="35"/>
@@ -4372,7 +4709,7 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="35"/>
       <c r="B89" s="35"/>
       <c r="C89" s="35"/>
@@ -4393,7 +4730,7 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="35"/>
       <c r="B90" s="35"/>
       <c r="C90" s="35"/>
@@ -4413,7 +4750,7 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="35"/>
       <c r="B91" s="35"/>
       <c r="C91" s="35"/>
@@ -4433,7 +4770,7 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="35"/>
       <c r="B92" s="35"/>
       <c r="C92" s="35"/>
@@ -4453,7 +4790,7 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="35"/>
       <c r="B93" s="35"/>
       <c r="C93" s="35"/>
@@ -4473,7 +4810,7 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="35"/>
       <c r="B94" s="35"/>
       <c r="C94" s="35"/>
@@ -4493,7 +4830,7 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="35"/>
       <c r="B95" s="35"/>
       <c r="C95" s="35"/>
@@ -4519,637 +4856,1011 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
-  <dimension ref="B1:L28"/>
+  <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="24"/>
-    <col min="2" max="2" width="31.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="36.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="24" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="15.42578125" style="24" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="36.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="51" customWidth="1"/>
+    <col min="10" max="10" width="36.109375" style="24" customWidth="1"/>
+    <col min="11" max="11" width="17.6640625" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="24" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="24"/>
+    <col min="13" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="53" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="F2" s="51" t="s">
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="F2" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
-      <c r="J2" s="51" t="s">
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+      <c r="J2" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="55"/>
-    </row>
-    <row r="3" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K2" s="56"/>
+      <c r="L2" s="57"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="48" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="E3" s="52"/>
+      <c r="F3" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="H3" s="69" t="s">
+        <v>158</v>
+      </c>
+      <c r="I3" s="52"/>
+      <c r="J3" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3" s="47" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="44" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="79" t="s">
+        <v>167</v>
+      </c>
+      <c r="E4" s="51"/>
+      <c r="F4" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="70" t="s">
+        <v>151</v>
+      </c>
+      <c r="H4" s="80" t="s">
+        <v>164</v>
+      </c>
+      <c r="J4" s="76" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="L4" s="77" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="D5" s="81" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="51"/>
+      <c r="F5" s="67" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" s="81" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" s="74" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="64" t="s">
+        <v>144</v>
+      </c>
+      <c r="L5" s="75" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" s="51"/>
+      <c r="F6" s="67" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="K6" s="51">
+        <v>15</v>
+      </c>
+      <c r="L6" s="51"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="D7" s="36" t="s">
+        <v>161</v>
+      </c>
+      <c r="E7" s="51"/>
+      <c r="F7" s="67" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="H7" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="J7" s="51"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="45" t="s">
         <v>147</v>
       </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="4" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="D8" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" s="51"/>
+      <c r="F8" s="67" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="71" t="s">
+        <v>154</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>169</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>176</v>
+      </c>
+      <c r="K8" s="57"/>
+      <c r="L8" s="82"/>
+      <c r="M8" s="51"/>
+    </row>
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="50" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="D9" s="40" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>148</v>
+      </c>
+      <c r="H9" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="K9" s="48" t="s">
+        <v>192</v>
+      </c>
+      <c r="L9" s="52"/>
+      <c r="M9" s="51"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="C10" s="24">
+        <v>181</v>
+      </c>
+      <c r="F10" s="67" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>150</v>
+      </c>
+      <c r="H10" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="J10" s="70" t="s">
+        <v>177</v>
+      </c>
+      <c r="K10" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="L10" s="51"/>
+      <c r="M10" s="51"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F11" s="67" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>147</v>
+      </c>
+      <c r="H11" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="J11" s="71" t="s">
+        <v>178</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="38" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="47" t="s">
+      <c r="H12" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="I12" s="20"/>
+      <c r="J12" s="71" t="s">
+        <v>179</v>
+      </c>
+      <c r="K12" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" s="24">
+        <v>242</v>
+      </c>
+      <c r="J13" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F14" s="52"/>
+      <c r="J14" s="71" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F15" s="52"/>
+      <c r="I15" s="51" t="s">
+        <v>189</v>
+      </c>
+      <c r="J15" s="71" t="s">
+        <v>182</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+    </row>
+    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="52"/>
+      <c r="J16" s="46" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="53" t="s">
+        <v>135</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="56"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="57"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="4">
+        <v>128</v>
+      </c>
+      <c r="C20" s="4">
+        <v>64</v>
+      </c>
+      <c r="D20" s="4">
+        <v>32</v>
+      </c>
+      <c r="E20" s="4">
+        <v>16</v>
+      </c>
+      <c r="F20" s="4">
+        <v>8</v>
+      </c>
+      <c r="G20" s="4">
         <v>4</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="D4" s="57" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="47" t="s">
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>1</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="83">
+        <v>1</v>
+      </c>
+      <c r="C21" s="70">
+        <v>1</v>
+      </c>
+      <c r="D21" s="41">
+        <v>1</v>
+      </c>
+      <c r="E21" s="70">
+        <v>1</v>
+      </c>
+      <c r="F21" s="41">
+        <v>1</v>
+      </c>
+      <c r="G21" s="70">
+        <v>1</v>
+      </c>
+      <c r="H21" s="41">
+        <v>1</v>
+      </c>
+      <c r="I21" s="70">
+        <v>1</v>
+      </c>
+      <c r="J21" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" s="70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="67">
+        <v>1</v>
+      </c>
+      <c r="C22" s="45">
+        <v>1</v>
+      </c>
+      <c r="D22" s="42">
+        <v>1</v>
+      </c>
+      <c r="E22" s="45">
+        <v>1</v>
+      </c>
+      <c r="F22" s="42">
+        <v>1</v>
+      </c>
+      <c r="G22" s="45">
+        <v>1</v>
+      </c>
+      <c r="H22" s="42">
+        <v>1</v>
+      </c>
+      <c r="I22" s="45">
+        <v>0</v>
+      </c>
+      <c r="J22" s="42" t="s">
+        <v>133</v>
+      </c>
+      <c r="K22" s="45">
+        <f>K21*2</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="67">
+        <v>1</v>
+      </c>
+      <c r="C23" s="45">
+        <v>1</v>
+      </c>
+      <c r="D23" s="42">
+        <v>1</v>
+      </c>
+      <c r="E23" s="45">
+        <v>1</v>
+      </c>
+      <c r="F23" s="42">
+        <v>1</v>
+      </c>
+      <c r="G23" s="45">
+        <v>1</v>
+      </c>
+      <c r="H23" s="42">
+        <v>0</v>
+      </c>
+      <c r="I23" s="45">
+        <v>0</v>
+      </c>
+      <c r="J23" s="42" t="s">
+        <v>137</v>
+      </c>
+      <c r="K23" s="45">
+        <f t="shared" ref="K23:K29" si="0">K22*2</f>
         <v>4</v>
       </c>
-      <c r="G4" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="H4" s="57" t="s">
-        <v>154</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>119</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>124</v>
-      </c>
-      <c r="L4" s="47" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="48" t="s">
-        <v>3</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="H5" s="58"/>
-      <c r="J5" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="K5" s="45" t="s">
-        <v>136</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="43" t="s">
-        <v>126</v>
-      </c>
-      <c r="D6" s="58"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="43" t="s">
-        <v>131</v>
-      </c>
-      <c r="H6" s="58"/>
-      <c r="J6" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="K6" s="2">
-        <v>13</v>
-      </c>
-      <c r="L6" s="2"/>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B7" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="48" t="s">
-        <v>116</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="58"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="C8" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="58"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="48" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="43" t="s">
-        <v>132</v>
-      </c>
-      <c r="H8" s="58"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-    </row>
-    <row r="9" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="48" t="s">
-        <v>118</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>133</v>
-      </c>
-      <c r="H9" s="58"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="2"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="C10" s="24">
-        <v>175</v>
-      </c>
-      <c r="F10" s="48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="H10" s="58"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-    </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F11" s="48" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="H11" s="58"/>
-      <c r="J11" s="2"/>
-      <c r="L11" s="2"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="49" t="s">
-        <v>119</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="H12" s="59"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="2"/>
-      <c r="L12" s="20"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="F13" s="22" t="s">
-        <v>142</v>
-      </c>
-      <c r="G13" s="24">
-        <v>233</v>
-      </c>
-      <c r="J13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B15" s="56" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="56"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="56"/>
-      <c r="F15" s="56"/>
-      <c r="G15" s="56"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="56"/>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B16" s="41">
-        <v>128</v>
-      </c>
-      <c r="C16" s="41">
-        <v>64</v>
-      </c>
-      <c r="D16" s="41">
-        <v>32</v>
-      </c>
-      <c r="E16" s="41">
-        <v>16</v>
-      </c>
-      <c r="F16" s="41">
-        <v>8</v>
-      </c>
-      <c r="G16" s="41">
-        <v>4</v>
-      </c>
-      <c r="H16" s="41">
-        <v>2</v>
-      </c>
-      <c r="I16" s="41">
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="67">
         <v>1</v>
       </c>
-      <c r="J16" s="41" t="s">
-        <v>145</v>
-      </c>
-      <c r="K16" s="41" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" s="24">
+      <c r="C24" s="45">
         <v>1</v>
       </c>
-      <c r="C17" s="24">
+      <c r="D24" s="42">
         <v>1</v>
       </c>
-      <c r="D17" s="24">
+      <c r="E24" s="45">
         <v>1</v>
       </c>
-      <c r="E17" s="24">
+      <c r="F24" s="42">
         <v>1</v>
       </c>
-      <c r="F17" s="24">
-        <v>1</v>
-      </c>
-      <c r="G17" s="24">
-        <v>1</v>
-      </c>
-      <c r="H17" s="24">
-        <v>1</v>
-      </c>
-      <c r="I17" s="2">
-        <v>1</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="K17" s="24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" s="24">
-        <v>1</v>
-      </c>
-      <c r="C18" s="24">
-        <v>1</v>
-      </c>
-      <c r="D18" s="24">
-        <v>1</v>
-      </c>
-      <c r="E18" s="24">
-        <v>1</v>
-      </c>
-      <c r="F18" s="24">
-        <v>1</v>
-      </c>
-      <c r="G18" s="24">
-        <v>1</v>
-      </c>
-      <c r="H18" s="24">
-        <v>1</v>
-      </c>
-      <c r="I18" s="2">
+      <c r="G24" s="45">
         <v>0</v>
       </c>
-      <c r="J18" s="24" t="s">
-        <v>149</v>
-      </c>
-      <c r="K18" s="24">
-        <f>K17*2</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" s="24">
-        <v>1</v>
-      </c>
-      <c r="C19" s="24">
-        <v>1</v>
-      </c>
-      <c r="D19" s="24">
-        <v>1</v>
-      </c>
-      <c r="E19" s="24">
-        <v>1</v>
-      </c>
-      <c r="F19" s="24">
-        <v>1</v>
-      </c>
-      <c r="G19" s="24">
-        <v>1</v>
-      </c>
-      <c r="H19" s="24">
+      <c r="H24" s="42">
         <v>0</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I24" s="45">
         <v>0</v>
       </c>
-      <c r="J19" s="24" t="s">
-        <v>157</v>
-      </c>
-      <c r="K19" s="24">
-        <f t="shared" ref="K19:K25" si="0">K18*2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="24">
-        <v>1</v>
-      </c>
-      <c r="C20" s="24">
-        <v>1</v>
-      </c>
-      <c r="D20" s="24">
-        <v>1</v>
-      </c>
-      <c r="E20" s="24">
-        <v>1</v>
-      </c>
-      <c r="F20" s="24">
-        <v>1</v>
-      </c>
-      <c r="G20" s="24">
-        <v>0</v>
-      </c>
-      <c r="H20" s="24">
-        <v>0</v>
-      </c>
-      <c r="I20" s="2">
-        <v>0</v>
-      </c>
-      <c r="J20" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="K20" s="24">
+      <c r="J24" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="K24" s="45">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" s="24">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="67">
         <v>1</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C25" s="45">
         <v>1</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D25" s="42">
         <v>1</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E25" s="45">
         <v>1</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F25" s="42">
         <v>0</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G25" s="45">
         <v>0</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H25" s="42">
         <v>0</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I25" s="45">
         <v>0</v>
       </c>
-      <c r="J21" s="24" t="s">
-        <v>159</v>
-      </c>
-      <c r="K21" s="24">
+      <c r="J25" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="K25" s="45">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" s="24">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="67">
         <v>1</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C26" s="45">
         <v>1</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D26" s="42">
         <v>1</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E26" s="45">
         <v>0</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F26" s="42">
         <v>0</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G26" s="45">
         <v>0</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H26" s="42">
         <v>0</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I26" s="45">
         <v>0</v>
       </c>
-      <c r="J22" s="24" t="s">
-        <v>160</v>
-      </c>
-      <c r="K22" s="24">
+      <c r="J26" s="42" t="s">
+        <v>140</v>
+      </c>
+      <c r="K26" s="45">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="24">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="67">
         <v>1</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C27" s="45">
         <v>1</v>
       </c>
-      <c r="D23" s="24">
+      <c r="D27" s="42">
         <v>0</v>
       </c>
-      <c r="E23" s="24">
+      <c r="E27" s="45">
         <v>0</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F27" s="42">
         <v>0</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G27" s="45">
         <v>0</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H27" s="42">
         <v>0</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I27" s="45">
         <v>0</v>
       </c>
-      <c r="J23" s="24" t="s">
-        <v>161</v>
-      </c>
-      <c r="K23" s="24">
+      <c r="J27" s="42" t="s">
+        <v>141</v>
+      </c>
+      <c r="K27" s="45">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B24" s="24">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="67">
         <v>1</v>
       </c>
-      <c r="C24" s="24">
+      <c r="C28" s="45">
         <v>0</v>
       </c>
-      <c r="D24" s="24">
+      <c r="D28" s="42">
         <v>0</v>
       </c>
-      <c r="E24" s="24">
+      <c r="E28" s="45">
         <v>0</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F28" s="42">
         <v>0</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G28" s="45">
         <v>0</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H28" s="42">
         <v>0</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I28" s="45">
         <v>0</v>
       </c>
-      <c r="J24" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="K24" s="24">
+      <c r="J28" s="42" t="s">
+        <v>142</v>
+      </c>
+      <c r="K28" s="45">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B25" s="24">
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="84">
         <v>0</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C29" s="38">
         <v>0</v>
       </c>
-      <c r="D25" s="24">
+      <c r="D29" s="43">
         <v>0</v>
       </c>
-      <c r="E25" s="24">
+      <c r="E29" s="38">
         <v>0</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F29" s="43">
         <v>0</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G29" s="38">
         <v>0</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H29" s="43">
         <v>0</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I29" s="38">
         <v>0</v>
       </c>
-      <c r="J25" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="K25" s="24">
+      <c r="J29" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="K29" s="38">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
     </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="78"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="78"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="78"/>
+      <c r="K33" s="78"/>
+      <c r="L33" s="78"/>
+      <c r="M33" s="20"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="21"/>
+      <c r="J34" s="21"/>
+      <c r="K34" s="21"/>
+      <c r="L34" s="21"/>
+      <c r="M34" s="20"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="20"/>
+      <c r="M35" s="20"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="21"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="20"/>
+      <c r="M37" s="20"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="20"/>
+      <c r="M38" s="20"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20"/>
+      <c r="D39" s="20"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="20"/>
+      <c r="M39" s="20"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="20"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20"/>
+      <c r="D40" s="20"/>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="20"/>
+      <c r="M40" s="20"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="20"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="M41" s="20"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="20"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="M42" s="20"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="20"/>
+      <c r="B43" s="20"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="M43" s="20"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="20"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="21"/>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20"/>
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="M44" s="20"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="20"/>
+      <c r="B45" s="20"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="M45" s="20"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="20"/>
+      <c r="B46" s="20"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="M46" s="20"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="20"/>
+      <c r="B47" s="20"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E48" s="51"/>
+      <c r="F48" s="73"/>
+      <c r="G48" s="51"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="51"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="51"/>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="J33:L33"/>
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="B15:I15"/>
-    <mergeCell ref="D4:D9"/>
-    <mergeCell ref="H4:H12"/>
+    <mergeCell ref="J8:K8"/>
+    <mergeCell ref="B19:K19"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5165,31 +5876,31 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="24"/>
-    <col min="3" max="3" width="23.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="24"/>
-    <col min="7" max="7" width="36.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.42578125" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="2" width="9.109375" style="24"/>
+    <col min="3" max="3" width="23.33203125" style="24" customWidth="1"/>
+    <col min="4" max="4" width="58.44140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="24"/>
+    <col min="7" max="7" width="36.109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.44140625" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="55"/>
-      <c r="F2" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="53" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" s="56"/>
+      <c r="D2" s="57"/>
+      <c r="F2" s="53" t="s">
+        <v>125</v>
+      </c>
+      <c r="G2" s="56"/>
+      <c r="H2" s="57"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
@@ -5214,20 +5925,20 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="57">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="59">
         <v>11</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="59" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="57">
+      <c r="F4" s="59">
         <v>21</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="G4" s="59" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -5239,14 +5950,14 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="58"/>
-      <c r="C5" s="58"/>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="60"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="58"/>
-      <c r="G5" s="58"/>
+      <c r="F5" s="60"/>
+      <c r="G5" s="60"/>
       <c r="H5" s="36" t="s">
         <v>10</v>
       </c>
@@ -5256,14 +5967,14 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="59"/>
-      <c r="C6" s="59"/>
+    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="61"/>
+      <c r="C6" s="61"/>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="59"/>
-      <c r="G6" s="59"/>
+      <c r="F6" s="61"/>
+      <c r="G6" s="61"/>
       <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
@@ -5273,7 +5984,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="26"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
@@ -5286,20 +5997,20 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="57">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="59">
         <v>12</v>
       </c>
-      <c r="C8" s="57" t="s">
+      <c r="C8" s="59" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="57">
+      <c r="F8" s="59">
         <v>22</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="G8" s="59" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -5311,14 +6022,14 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="59"/>
-      <c r="C9" s="59"/>
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="61"/>
+      <c r="C9" s="61"/>
       <c r="D9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
       <c r="H9" s="40" t="s">
         <v>12</v>
       </c>
@@ -5328,7 +6039,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="26"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
@@ -5341,7 +6052,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="37">
         <v>13</v>
       </c>
@@ -5366,7 +6077,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="26"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
@@ -5379,18 +6090,18 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="57">
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="59">
         <v>14</v>
       </c>
-      <c r="C13" s="57" t="s">
+      <c r="C13" s="59" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="F13" s="57">
+      <c r="F13" s="59">
         <v>24</v>
       </c>
-      <c r="G13" s="57" t="s">
+      <c r="G13" s="59" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -5402,14 +6113,14 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="59"/>
-      <c r="C14" s="59"/>
+    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="61"/>
+      <c r="C14" s="61"/>
       <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
       <c r="H14" s="40" t="s">
         <v>14</v>
       </c>
@@ -5419,7 +6130,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="26"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -5432,7 +6143,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="37">
         <v>15</v>
       </c>
@@ -5457,7 +6168,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="26"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
@@ -5470,7 +6181,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="37">
         <v>16</v>
       </c>
@@ -5495,7 +6206,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -5510,7 +6221,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -5526,19 +6237,19 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="55"/>
+      <c r="B21" s="53" t="s">
+        <v>126</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
       <c r="E21" s="2"/>
       <c r="F21" s="26"/>
       <c r="G21" s="2"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="27" t="s">
         <v>0</v>
@@ -5560,7 +6271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="37">
         <v>91</v>
@@ -5577,12 +6288,12 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="26"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="37">
         <v>92</v>
       </c>
@@ -5590,27 +6301,27 @@
         <v>120</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="60"/>
-      <c r="C29" s="60"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -5618,9 +6329,9 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -5628,7 +6339,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -5638,7 +6349,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -5647,7 +6358,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -5656,7 +6367,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -5665,7 +6376,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -5674,27 +6385,21 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
       <c r="D42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="G8:G9"/>
@@ -5706,6 +6411,12 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRII\PBL\PBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1787" documentId="8_{4096E159-04D7-4178-86F3-5DECD7A15299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{13664BCE-7D19-445A-8124-9F677979EB4C}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="194">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>IP</t>
+  </si>
+  <si>
+    <t>G7/0/</t>
   </si>
 </sst>
 </file>
@@ -652,12 +655,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="45">
@@ -1230,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="88">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1388,36 +1397,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1461,9 +1440,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1482,6 +1458,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1801,7 +1819,7 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1831,24 +1849,24 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="74" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="54"/>
-      <c r="D2" s="54"/>
-      <c r="E2" s="54"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
-      <c r="H2" s="55"/>
-      <c r="J2" s="53" t="s">
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="75"/>
+      <c r="H2" s="76"/>
+      <c r="J2" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="55"/>
+      <c r="K2" s="75"/>
+      <c r="L2" s="75"/>
+      <c r="M2" s="75"/>
+      <c r="N2" s="75"/>
+      <c r="O2" s="75"/>
+      <c r="P2" s="76"/>
     </row>
     <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="9" t="s">
@@ -2058,7 +2076,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>20</v>
+        <v>106</v>
       </c>
       <c r="E8" s="31"/>
       <c r="F8" s="14" t="s">
@@ -2080,7 +2098,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>22</v>
+        <v>193</v>
       </c>
       <c r="E9" s="31"/>
       <c r="F9" s="14" t="s">
@@ -2144,31 +2162,31 @@
       <c r="Y14" s="35"/>
     </row>
     <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="53" t="s">
+      <c r="B15" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
-      <c r="F15" s="54"/>
-      <c r="G15" s="54"/>
-      <c r="H15" s="55"/>
-      <c r="J15" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="56"/>
-      <c r="L15" s="56"/>
-      <c r="M15" s="56"/>
-      <c r="N15" s="56"/>
-      <c r="O15" s="56"/>
-      <c r="P15" s="57"/>
-      <c r="R15" s="58"/>
-      <c r="S15" s="58"/>
-      <c r="T15" s="58"/>
-      <c r="U15" s="58"/>
-      <c r="V15" s="58"/>
-      <c r="W15" s="58"/>
-      <c r="X15" s="58"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="76"/>
+      <c r="J15" s="74" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="77"/>
+      <c r="L15" s="77"/>
+      <c r="M15" s="77"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="77"/>
+      <c r="P15" s="78"/>
+      <c r="R15" s="79"/>
+      <c r="S15" s="79"/>
+      <c r="T15" s="79"/>
+      <c r="U15" s="79"/>
+      <c r="V15" s="79"/>
+      <c r="W15" s="79"/>
+      <c r="X15" s="79"/>
       <c r="Y15" s="35"/>
     </row>
     <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4858,8 +4876,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q14" sqref="Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4881,21 +4899,21 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="74" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="F2" s="53" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="F2" s="74" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
-      <c r="J2" s="53" t="s">
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
+      <c r="J2" s="74" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="56"/>
-      <c r="L2" s="57"/>
+      <c r="K2" s="77"/>
+      <c r="L2" s="78"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="4" t="s">
@@ -4908,13 +4926,13 @@
         <v>143</v>
       </c>
       <c r="E3" s="52"/>
-      <c r="F3" s="65" t="s">
+      <c r="F3" s="55" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="63" t="s">
+      <c r="G3" s="53" t="s">
         <v>123</v>
       </c>
-      <c r="H3" s="69" t="s">
+      <c r="H3" s="59" t="s">
         <v>158</v>
       </c>
       <c r="I3" s="52"/>
@@ -4935,26 +4953,26 @@
       <c r="C4" s="44" t="s">
         <v>145</v>
       </c>
-      <c r="D4" s="79" t="s">
+      <c r="D4" s="68" t="s">
         <v>167</v>
       </c>
       <c r="E4" s="51"/>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="70" t="s">
+      <c r="G4" s="60" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="80" t="s">
+      <c r="H4" s="69" t="s">
         <v>164</v>
       </c>
-      <c r="J4" s="76" t="s">
+      <c r="J4" s="66" t="s">
         <v>120</v>
       </c>
       <c r="K4" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="L4" s="77" t="s">
+      <c r="L4" s="67" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4965,26 +4983,26 @@
       <c r="C5" s="45" t="s">
         <v>148</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="70" t="s">
         <v>159</v>
       </c>
       <c r="E5" s="51"/>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="57" t="s">
         <v>114</v>
       </c>
       <c r="G5" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="H5" s="81" t="s">
+      <c r="H5" s="70" t="s">
         <v>165</v>
       </c>
-      <c r="J5" s="74" t="s">
+      <c r="J5" s="64" t="s">
         <v>119</v>
       </c>
-      <c r="K5" s="64" t="s">
+      <c r="K5" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="L5" s="75" t="s">
+      <c r="L5" s="65" t="s">
         <v>174</v>
       </c>
     </row>
@@ -4999,7 +5017,7 @@
         <v>160</v>
       </c>
       <c r="E6" s="51"/>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="57" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="45" t="s">
@@ -5027,7 +5045,7 @@
         <v>161</v>
       </c>
       <c r="E7" s="51"/>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="57" t="s">
         <v>117</v>
       </c>
       <c r="G7" s="45" t="s">
@@ -5052,20 +5070,20 @@
         <v>162</v>
       </c>
       <c r="E8" s="51"/>
-      <c r="F8" s="67" t="s">
+      <c r="F8" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="G8" s="71" t="s">
+      <c r="G8" s="61" t="s">
         <v>154</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>169</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="74" t="s">
         <v>176</v>
       </c>
-      <c r="K8" s="57"/>
-      <c r="L8" s="82"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="71"/>
       <c r="M8" s="51"/>
     </row>
     <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5079,7 +5097,7 @@
         <v>163</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="F9" s="68" t="s">
+      <c r="F9" s="58" t="s">
         <v>119</v>
       </c>
       <c r="G9" s="45" t="s">
@@ -5104,7 +5122,7 @@
       <c r="C10" s="24">
         <v>181</v>
       </c>
-      <c r="F10" s="67" t="s">
+      <c r="F10" s="57" t="s">
         <v>4</v>
       </c>
       <c r="G10" s="45" t="s">
@@ -5113,17 +5131,17 @@
       <c r="H10" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="J10" s="60" t="s">
         <v>177</v>
       </c>
-      <c r="K10" s="79" t="s">
+      <c r="K10" s="85" t="s">
         <v>184</v>
       </c>
       <c r="L10" s="51"/>
       <c r="M10" s="51"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F11" s="67" t="s">
+      <c r="F11" s="57" t="s">
         <v>116</v>
       </c>
       <c r="G11" s="45" t="s">
@@ -5132,17 +5150,17 @@
       <c r="H11" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="J11" s="71" t="s">
+      <c r="J11" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="36" t="s">
+      <c r="K11" s="86" t="s">
         <v>185</v>
       </c>
       <c r="L11" s="51"/>
       <c r="M11" s="51"/>
     </row>
     <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="72" t="s">
+      <c r="F12" s="62" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="38" t="s">
@@ -5152,10 +5170,10 @@
         <v>173</v>
       </c>
       <c r="I12" s="20"/>
-      <c r="J12" s="71" t="s">
+      <c r="J12" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="K12" s="36" t="s">
+      <c r="K12" s="86" t="s">
         <v>186</v>
       </c>
       <c r="L12" s="51"/>
@@ -5168,10 +5186,10 @@
       <c r="G13" s="24">
         <v>242</v>
       </c>
-      <c r="J13" s="71" t="s">
+      <c r="J13" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="36" t="s">
+      <c r="K13" s="86" t="s">
         <v>187</v>
       </c>
       <c r="L13" s="51"/>
@@ -5179,10 +5197,10 @@
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F14" s="52"/>
-      <c r="J14" s="71" t="s">
+      <c r="J14" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="36" t="s">
+      <c r="K14" s="86" t="s">
         <v>188</v>
       </c>
       <c r="L14" s="51"/>
@@ -5193,10 +5211,10 @@
       <c r="I15" s="51" t="s">
         <v>189</v>
       </c>
-      <c r="J15" s="71" t="s">
+      <c r="J15" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="K15" s="36" t="s">
+      <c r="K15" s="86" t="s">
         <v>190</v>
       </c>
       <c r="L15" s="51"/>
@@ -5207,7 +5225,7 @@
       <c r="J16" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="K16" s="40" t="s">
+      <c r="K16" s="87" t="s">
         <v>191</v>
       </c>
       <c r="L16" s="51"/>
@@ -5220,18 +5238,18 @@
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="74" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="56"/>
-      <c r="G19" s="56"/>
-      <c r="H19" s="56"/>
-      <c r="I19" s="56"/>
-      <c r="J19" s="56"/>
-      <c r="K19" s="57"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="77"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="77"/>
+      <c r="G19" s="77"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="77"/>
+      <c r="K19" s="78"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="4">
@@ -5266,39 +5284,39 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="83">
+      <c r="B21" s="72">
         <v>1</v>
       </c>
-      <c r="C21" s="70">
+      <c r="C21" s="60">
         <v>1</v>
       </c>
       <c r="D21" s="41">
         <v>1</v>
       </c>
-      <c r="E21" s="70">
+      <c r="E21" s="60">
         <v>1</v>
       </c>
       <c r="F21" s="41">
         <v>1</v>
       </c>
-      <c r="G21" s="70">
+      <c r="G21" s="60">
         <v>1</v>
       </c>
       <c r="H21" s="41">
         <v>1</v>
       </c>
-      <c r="I21" s="70">
+      <c r="I21" s="60">
         <v>1</v>
       </c>
       <c r="J21" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="K21" s="70">
+      <c r="K21" s="60">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="67">
+      <c r="B22" s="57">
         <v>1</v>
       </c>
       <c r="C22" s="45">
@@ -5331,7 +5349,7 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="67">
+      <c r="B23" s="57">
         <v>1</v>
       </c>
       <c r="C23" s="45">
@@ -5364,7 +5382,7 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="67">
+      <c r="B24" s="57">
         <v>1</v>
       </c>
       <c r="C24" s="45">
@@ -5397,7 +5415,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="67">
+      <c r="B25" s="57">
         <v>1</v>
       </c>
       <c r="C25" s="45">
@@ -5430,7 +5448,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="67">
+      <c r="B26" s="57">
         <v>1</v>
       </c>
       <c r="C26" s="45">
@@ -5463,7 +5481,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="67">
+      <c r="B27" s="57">
         <v>1</v>
       </c>
       <c r="C27" s="45">
@@ -5496,7 +5514,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="67">
+      <c r="B28" s="57">
         <v>1</v>
       </c>
       <c r="C28" s="45">
@@ -5529,7 +5547,7 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="84">
+      <c r="B29" s="73">
         <v>0</v>
       </c>
       <c r="C29" s="38">
@@ -5588,17 +5606,17 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
+      <c r="B33" s="80"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
       <c r="E33" s="20"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
+      <c r="F33" s="80"/>
+      <c r="G33" s="80"/>
+      <c r="H33" s="80"/>
       <c r="I33" s="20"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
+      <c r="J33" s="80"/>
+      <c r="K33" s="80"/>
+      <c r="L33" s="80"/>
       <c r="M33" s="20"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -5813,7 +5831,7 @@
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E48" s="51"/>
-      <c r="F48" s="73"/>
+      <c r="F48" s="63"/>
       <c r="G48" s="51"/>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.3">
@@ -5889,16 +5907,16 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="74" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="56"/>
-      <c r="D2" s="57"/>
-      <c r="F2" s="53" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="78"/>
+      <c r="F2" s="74" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="56"/>
-      <c r="H2" s="57"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="27" t="s">
@@ -5926,19 +5944,19 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="59">
+      <c r="B4" s="82">
         <v>11</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="82" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="59">
+      <c r="F4" s="82">
         <v>21</v>
       </c>
-      <c r="G4" s="59" t="s">
+      <c r="G4" s="82" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -5951,13 +5969,13 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
       <c r="D5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
       <c r="H5" s="36" t="s">
         <v>10</v>
       </c>
@@ -5968,13 +5986,13 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
+      <c r="B6" s="83"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
       <c r="H6" s="3" t="s">
         <v>11</v>
       </c>
@@ -5998,19 +6016,19 @@
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="59">
+      <c r="B8" s="82">
         <v>12</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="82" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="59">
+      <c r="F8" s="82">
         <v>22</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="82" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -6023,13 +6041,13 @@
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
+      <c r="B9" s="83"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="61"/>
-      <c r="G9" s="61"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="83"/>
       <c r="H9" s="40" t="s">
         <v>12</v>
       </c>
@@ -6091,17 +6109,17 @@
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="59">
+      <c r="B13" s="82">
         <v>14</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="82" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="F13" s="59">
+      <c r="F13" s="82">
         <v>24</v>
       </c>
-      <c r="G13" s="59" t="s">
+      <c r="G13" s="82" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -6114,13 +6132,13 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
+      <c r="B14" s="83"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F14" s="61"/>
-      <c r="G14" s="61"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="83"/>
       <c r="H14" s="40" t="s">
         <v>14</v>
       </c>
@@ -6239,11 +6257,11 @@
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="74" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="57"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="78"/>
       <c r="E21" s="2"/>
       <c r="F21" s="26"/>
       <c r="G21" s="2"/>
@@ -6320,8 +6338,8 @@
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
+      <c r="B29" s="81"/>
+      <c r="C29" s="81"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -6330,8 +6348,8 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
+      <c r="B30" s="81"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -6400,6 +6418,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="G8:G9"/>
@@ -6411,12 +6435,6 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRII\PBL\PBL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B0FA920-F820-4CF4-B803-D8E72EB5FA51}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -655,18 +655,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="45">
@@ -1239,7 +1233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1481,25 +1475,22 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1819,36 +1810,36 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="24"/>
+    <col min="1" max="1" width="8.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="24" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="24" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="24" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="24"/>
     <col min="6" max="6" width="11" style="24" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="24"/>
-    <col min="10" max="10" width="12.33203125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="24" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="24"/>
+    <col min="10" max="10" width="12.28515625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="24" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="24"/>
-    <col min="14" max="14" width="11.44140625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="24" customWidth="1"/>
-    <col min="17" max="18" width="9.109375" style="24"/>
-    <col min="19" max="19" width="22.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.109375" style="24"/>
-    <col min="23" max="23" width="22.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="24"/>
+    <col min="13" max="13" width="9.140625" style="24"/>
+    <col min="14" max="14" width="11.42578125" style="24" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="24" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="24" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="24"/>
+    <col min="19" max="19" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.140625" style="24"/>
+    <col min="23" max="23" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="74" t="s">
         <v>112</v>
       </c>
@@ -1868,7 +1859,7 @@
       <c r="O2" s="75"/>
       <c r="P2" s="76"/>
     </row>
-    <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="9" t="s">
         <v>16</v>
       </c>
@@ -1908,7 +1899,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="17" t="s">
         <v>18</v>
       </c>
@@ -1948,7 +1939,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="15" t="s">
         <v>18</v>
       </c>
@@ -1988,7 +1979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
         <v>18</v>
       </c>
@@ -2028,7 +2019,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="15" t="s">
         <v>18</v>
       </c>
@@ -2068,7 +2059,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>18</v>
       </c>
@@ -2090,7 +2081,7 @@
       </c>
       <c r="M8" s="33"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="15" t="s">
         <v>18</v>
       </c>
@@ -2111,7 +2102,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
         <v>18</v>
       </c>
@@ -2132,8 +2123,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="22"/>
       <c r="C12" s="22"/>
       <c r="D12" s="22"/>
@@ -2142,7 +2133,7 @@
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
     </row>
-    <row r="13" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="22"/>
@@ -2151,7 +2142,7 @@
       <c r="G13" s="21"/>
       <c r="H13" s="22"/>
     </row>
-    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R14" s="35"/>
       <c r="S14" s="35"/>
       <c r="T14" s="35"/>
@@ -2161,7 +2152,7 @@
       <c r="X14" s="35"/>
       <c r="Y14" s="35"/>
     </row>
-    <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="74" t="s">
         <v>113</v>
       </c>
@@ -2189,7 +2180,7 @@
       <c r="X15" s="79"/>
       <c r="Y15" s="35"/>
     </row>
-    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="9" t="s">
         <v>16</v>
       </c>
@@ -2237,7 +2228,7 @@
       <c r="X16" s="22"/>
       <c r="Y16" s="35"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="24">
         <v>1</v>
       </c>
@@ -2288,7 +2279,7 @@
       <c r="X17" s="35"/>
       <c r="Y17" s="35"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="24">
         <f>A17+1</f>
         <v>2</v>
@@ -2340,7 +2331,7 @@
       <c r="X18" s="35"/>
       <c r="Y18" s="35"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="24">
         <f t="shared" ref="A19:A58" si="0">A18+1</f>
         <v>3</v>
@@ -2392,7 +2383,7 @@
       <c r="X19" s="35"/>
       <c r="Y19" s="35"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="24">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2444,7 +2435,7 @@
       <c r="X20" s="35"/>
       <c r="Y20" s="35"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="24">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2496,7 +2487,7 @@
       <c r="X21" s="35"/>
       <c r="Y21" s="35"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="24">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2548,7 +2539,7 @@
       <c r="X22" s="35"/>
       <c r="Y22" s="35"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="24">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2600,7 +2591,7 @@
       <c r="X23" s="35"/>
       <c r="Y23" s="35"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="24">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2652,7 +2643,7 @@
       <c r="X24" s="35"/>
       <c r="Y24" s="35"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="24">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2704,7 +2695,7 @@
       <c r="X25" s="35"/>
       <c r="Y25" s="35"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="24">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2756,7 +2747,7 @@
       <c r="X26" s="35"/>
       <c r="Y26" s="35"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="24">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2808,7 +2799,7 @@
       <c r="X27" s="35"/>
       <c r="Y27" s="35"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="24">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2860,7 +2851,7 @@
       <c r="X28" s="35"/>
       <c r="Y28" s="35"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="24">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -2912,7 +2903,7 @@
       <c r="X29" s="35"/>
       <c r="Y29" s="35"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="24">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -2964,7 +2955,7 @@
       <c r="X30" s="35"/>
       <c r="Y30" s="35"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="24">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3016,7 +3007,7 @@
       <c r="X31" s="35"/>
       <c r="Y31" s="35"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="24">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3068,7 +3059,7 @@
       <c r="X32" s="35"/>
       <c r="Y32" s="35"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="24">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3120,7 +3111,7 @@
       <c r="X33" s="35"/>
       <c r="Y33" s="35"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="24">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3172,7 +3163,7 @@
       <c r="X34" s="35"/>
       <c r="Y34" s="35"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="24">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3224,7 +3215,7 @@
       <c r="X35" s="35"/>
       <c r="Y35" s="35"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="24">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3276,7 +3267,7 @@
       <c r="X36" s="35"/>
       <c r="Y36" s="35"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="24">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3328,7 +3319,7 @@
       <c r="X37" s="35"/>
       <c r="Y37" s="35"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="24">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3380,7 +3371,7 @@
       <c r="X38" s="35"/>
       <c r="Y38" s="35"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3432,7 +3423,7 @@
       <c r="X39" s="35"/>
       <c r="Y39" s="35"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="24">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3484,7 +3475,7 @@
       <c r="X40" s="35"/>
       <c r="Y40" s="35"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="24">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3536,7 +3527,7 @@
       <c r="X41" s="35"/>
       <c r="Y41" s="35"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="24">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3588,7 +3579,7 @@
       <c r="X42" s="35"/>
       <c r="Y42" s="35"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="24">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3640,7 +3631,7 @@
       <c r="X43" s="35"/>
       <c r="Y43" s="35"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="24">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3673,7 +3664,7 @@
       <c r="X44" s="35"/>
       <c r="Y44" s="35"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="24">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3706,7 +3697,7 @@
       <c r="X45" s="35"/>
       <c r="Y45" s="35"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="24">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3739,7 +3730,7 @@
       <c r="X46" s="35"/>
       <c r="Y46" s="35"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="24">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3772,7 +3763,7 @@
       <c r="X47" s="35"/>
       <c r="Y47" s="35"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="24">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3805,7 +3796,7 @@
       <c r="X48" s="35"/>
       <c r="Y48" s="35"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="24">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3838,7 +3829,7 @@
       <c r="X49" s="35"/>
       <c r="Y49" s="35"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="24">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3871,7 +3862,7 @@
       <c r="X50" s="35"/>
       <c r="Y50" s="35"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="24">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3904,7 +3895,7 @@
       <c r="X51" s="35"/>
       <c r="Y51" s="35"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="24">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3937,7 +3928,7 @@
       <c r="X52" s="35"/>
       <c r="Y52" s="35"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="24">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3970,7 +3961,7 @@
       <c r="X53" s="35"/>
       <c r="Y53" s="35"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="24">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4003,7 +3994,7 @@
       <c r="X54" s="35"/>
       <c r="Y54" s="35"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="24">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4037,7 +4028,7 @@
       <c r="X55" s="35"/>
       <c r="Y55" s="35"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="24">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4071,7 +4062,7 @@
       <c r="X56" s="35"/>
       <c r="Y56" s="35"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="24">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4105,7 +4096,7 @@
       <c r="X57" s="35"/>
       <c r="Y57" s="35"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="24">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4146,7 +4137,7 @@
       <c r="X58" s="35"/>
       <c r="Y58" s="35"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4172,7 +4163,7 @@
       <c r="X59" s="35"/>
       <c r="Y59" s="35"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4194,7 +4185,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -4209,7 +4200,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -4224,7 +4215,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -4236,14 +4227,14 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="35"/>
       <c r="B65" s="35"/>
       <c r="C65" s="35"/>
@@ -4263,7 +4254,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="35"/>
       <c r="B66" s="35"/>
       <c r="C66" s="35"/>
@@ -4283,7 +4274,7 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="35"/>
       <c r="B67" s="35"/>
       <c r="C67" s="35"/>
@@ -4303,7 +4294,7 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="35"/>
       <c r="B68" s="35"/>
       <c r="C68" s="35"/>
@@ -4323,7 +4314,7 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="35"/>
       <c r="B69" s="35"/>
       <c r="C69" s="35"/>
@@ -4343,7 +4334,7 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="35"/>
       <c r="B70" s="35"/>
       <c r="C70" s="35"/>
@@ -4363,7 +4354,7 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
       <c r="B71" s="35"/>
       <c r="C71" s="35"/>
@@ -4383,7 +4374,7 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="35"/>
       <c r="B72" s="35"/>
       <c r="C72" s="35"/>
@@ -4403,7 +4394,7 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="35"/>
       <c r="B73" s="35"/>
       <c r="C73" s="35"/>
@@ -4423,7 +4414,7 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="35"/>
       <c r="B74" s="35"/>
       <c r="C74" s="35"/>
@@ -4443,7 +4434,7 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="35"/>
       <c r="C75" s="35"/>
@@ -4463,7 +4454,7 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="35"/>
       <c r="B76" s="20"/>
       <c r="C76" s="20"/>
@@ -4483,7 +4474,7 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="35"/>
       <c r="B77" s="20"/>
       <c r="C77" s="20"/>
@@ -4503,7 +4494,7 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="35"/>
       <c r="B78" s="20"/>
       <c r="C78" s="20"/>
@@ -4523,7 +4514,7 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="35"/>
       <c r="B79" s="35"/>
       <c r="C79" s="35"/>
@@ -4543,7 +4534,7 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="35"/>
       <c r="B80" s="35"/>
       <c r="C80" s="35"/>
@@ -4563,7 +4554,7 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="35"/>
       <c r="B81" s="35"/>
       <c r="C81" s="35"/>
@@ -4583,7 +4574,7 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="35"/>
       <c r="B82" s="35"/>
       <c r="C82" s="35"/>
@@ -4603,7 +4594,7 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="35"/>
       <c r="B83" s="35"/>
       <c r="C83" s="35"/>
@@ -4623,7 +4614,7 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="35"/>
       <c r="B84" s="35"/>
       <c r="C84" s="35"/>
@@ -4643,7 +4634,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="35"/>
       <c r="B85" s="35"/>
       <c r="C85" s="35"/>
@@ -4664,7 +4655,7 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="35"/>
       <c r="B86" s="35"/>
       <c r="C86" s="35"/>
@@ -4685,7 +4676,7 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="35"/>
       <c r="B87" s="35"/>
       <c r="C87" s="35"/>
@@ -4706,7 +4697,7 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="35"/>
       <c r="B88" s="35"/>
       <c r="C88" s="35"/>
@@ -4727,7 +4718,7 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="35"/>
       <c r="B89" s="35"/>
       <c r="C89" s="35"/>
@@ -4748,7 +4739,7 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="35"/>
       <c r="B90" s="35"/>
       <c r="C90" s="35"/>
@@ -4768,7 +4759,7 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="35"/>
       <c r="B91" s="35"/>
       <c r="C91" s="35"/>
@@ -4788,7 +4779,7 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="35"/>
       <c r="B92" s="35"/>
       <c r="C92" s="35"/>
@@ -4808,7 +4799,7 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
       <c r="B93" s="35"/>
       <c r="C93" s="35"/>
@@ -4828,7 +4819,7 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="35"/>
       <c r="B94" s="35"/>
       <c r="C94" s="35"/>
@@ -4848,7 +4839,7 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="35"/>
       <c r="B95" s="35"/>
       <c r="C95" s="35"/>
@@ -4877,28 +4868,28 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="24" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="24" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="24" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="51" customWidth="1"/>
-    <col min="10" max="10" width="36.109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="24" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="24" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="24" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="24"/>
+    <col min="13" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="74" t="s">
         <v>113</v>
       </c>
@@ -4915,7 +4906,7 @@
       <c r="K2" s="77"/>
       <c r="L2" s="78"/>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="4" t="s">
         <v>129</v>
       </c>
@@ -4946,7 +4937,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="44" t="s">
         <v>3</v>
       </c>
@@ -4976,7 +4967,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="45" t="s">
         <v>114</v>
       </c>
@@ -5006,7 +4997,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="45" t="s">
         <v>119</v>
       </c>
@@ -5034,7 +5025,7 @@
       </c>
       <c r="L6" s="51"/>
     </row>
-    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="45" t="s">
         <v>5</v>
       </c>
@@ -5059,7 +5050,7 @@
       <c r="L7" s="51"/>
       <c r="M7" s="51"/>
     </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="45" t="s">
         <v>6</v>
       </c>
@@ -5086,7 +5077,7 @@
       <c r="L8" s="71"/>
       <c r="M8" s="51"/>
     </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="50" t="s">
         <v>4</v>
       </c>
@@ -5115,7 +5106,7 @@
       <c r="L9" s="52"/>
       <c r="M9" s="51"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="52" t="s">
         <v>128</v>
       </c>
@@ -5140,7 +5131,7 @@
       <c r="L10" s="51"/>
       <c r="M10" s="51"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F11" s="57" t="s">
         <v>116</v>
       </c>
@@ -5153,13 +5144,13 @@
       <c r="J11" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="K11" s="86" t="s">
+      <c r="K11" s="70" t="s">
         <v>185</v>
       </c>
       <c r="L11" s="51"/>
       <c r="M11" s="51"/>
     </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="62" t="s">
         <v>5</v>
       </c>
@@ -5173,13 +5164,13 @@
       <c r="J12" s="61" t="s">
         <v>179</v>
       </c>
-      <c r="K12" s="86" t="s">
+      <c r="K12" s="70" t="s">
         <v>186</v>
       </c>
       <c r="L12" s="51"/>
       <c r="M12" s="51"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F13" s="52" t="s">
         <v>128</v>
       </c>
@@ -5189,24 +5180,24 @@
       <c r="J13" s="61" t="s">
         <v>180</v>
       </c>
-      <c r="K13" s="86" t="s">
+      <c r="K13" s="70" t="s">
         <v>187</v>
       </c>
       <c r="L13" s="51"/>
       <c r="M13" s="51"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F14" s="52"/>
       <c r="J14" s="61" t="s">
         <v>181</v>
       </c>
-      <c r="K14" s="86" t="s">
+      <c r="K14" s="70" t="s">
         <v>188</v>
       </c>
       <c r="L14" s="51"/>
       <c r="M14" s="51"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F15" s="52"/>
       <c r="I15" s="51" t="s">
         <v>189</v>
@@ -5214,30 +5205,30 @@
       <c r="J15" s="61" t="s">
         <v>182</v>
       </c>
-      <c r="K15" s="86" t="s">
+      <c r="K15" s="70" t="s">
         <v>190</v>
       </c>
       <c r="L15" s="51"/>
       <c r="M15" s="51"/>
     </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="52"/>
       <c r="J16" s="46" t="s">
         <v>183</v>
       </c>
-      <c r="K16" s="87" t="s">
+      <c r="K16" s="86" t="s">
         <v>191</v>
       </c>
       <c r="L16" s="51"/>
       <c r="M16" s="51"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F17" s="52"/>
       <c r="J17" s="52"/>
       <c r="K17" s="51"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="74" t="s">
         <v>135</v>
       </c>
@@ -5251,7 +5242,7 @@
       <c r="J19" s="77"/>
       <c r="K19" s="78"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="4">
         <v>128</v>
       </c>
@@ -5283,7 +5274,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="72">
         <v>1</v>
       </c>
@@ -5315,7 +5306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="57">
         <v>1</v>
       </c>
@@ -5348,7 +5339,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="57">
         <v>1</v>
       </c>
@@ -5381,7 +5372,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="57">
         <v>1</v>
       </c>
@@ -5414,7 +5405,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="57">
         <v>1</v>
       </c>
@@ -5447,7 +5438,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="57">
         <v>1</v>
       </c>
@@ -5480,7 +5471,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="57">
         <v>1</v>
       </c>
@@ -5513,7 +5504,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="57">
         <v>1</v>
       </c>
@@ -5546,7 +5537,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="73">
         <v>0</v>
       </c>
@@ -5579,7 +5570,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="49"/>
       <c r="C31" s="49"/>
       <c r="D31" s="49"/>
@@ -5589,7 +5580,7 @@
       <c r="H31" s="49"/>
       <c r="I31" s="49"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -5604,7 +5595,7 @@
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="20"/>
       <c r="B33" s="80"/>
       <c r="C33" s="80"/>
@@ -5619,7 +5610,7 @@
       <c r="L33" s="80"/>
       <c r="M33" s="20"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="20"/>
       <c r="B34" s="21"/>
       <c r="C34" s="21"/>
@@ -5634,7 +5625,7 @@
       <c r="L34" s="21"/>
       <c r="M34" s="20"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
@@ -5649,7 +5640,7 @@
       <c r="L35" s="20"/>
       <c r="M35" s="20"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="20"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20"/>
@@ -5664,7 +5655,7 @@
       <c r="L36" s="20"/>
       <c r="M36" s="20"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
@@ -5679,7 +5670,7 @@
       <c r="L37" s="20"/>
       <c r="M37" s="20"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="20"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20"/>
@@ -5694,7 +5685,7 @@
       <c r="L38" s="20"/>
       <c r="M38" s="20"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="20"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20"/>
@@ -5709,7 +5700,7 @@
       <c r="L39" s="20"/>
       <c r="M39" s="20"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="20"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20"/>
@@ -5724,7 +5715,7 @@
       <c r="L40" s="20"/>
       <c r="M40" s="20"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="20"/>
@@ -5739,7 +5730,7 @@
       <c r="L41" s="20"/>
       <c r="M41" s="20"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="20"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20"/>
@@ -5754,7 +5745,7 @@
       <c r="L42" s="20"/>
       <c r="M42" s="20"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="20"/>
       <c r="B43" s="20"/>
       <c r="C43" s="20"/>
@@ -5769,7 +5760,7 @@
       <c r="L43" s="20"/>
       <c r="M43" s="20"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="20"/>
       <c r="B44" s="20"/>
       <c r="C44" s="20"/>
@@ -5784,7 +5775,7 @@
       <c r="L44" s="20"/>
       <c r="M44" s="20"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="20"/>
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
@@ -5799,7 +5790,7 @@
       <c r="L45" s="20"/>
       <c r="M45" s="20"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="20"/>
       <c r="B46" s="20"/>
       <c r="C46" s="20"/>
@@ -5814,7 +5805,7 @@
       <c r="L46" s="20"/>
       <c r="M46" s="20"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="20"/>
       <c r="C47" s="20"/>
@@ -5829,42 +5820,42 @@
       <c r="L47" s="20"/>
       <c r="M47" s="20"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E48" s="51"/>
       <c r="F48" s="63"/>
       <c r="G48" s="51"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E49" s="51"/>
       <c r="F49" s="51"/>
       <c r="G49" s="51"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E50" s="51"/>
       <c r="F50" s="51"/>
       <c r="G50" s="51"/>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E51" s="51"/>
       <c r="F51" s="51"/>
       <c r="G51" s="51"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52" s="51"/>
       <c r="F52" s="20"/>
       <c r="G52" s="51"/>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E53" s="51"/>
       <c r="F53" s="51"/>
       <c r="G53" s="51"/>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" s="51"/>
       <c r="F54" s="51"/>
       <c r="G54" s="51"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" s="51"/>
       <c r="F55" s="51"/>
       <c r="G55" s="51"/>
@@ -5894,19 +5885,19 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="24"/>
-    <col min="3" max="3" width="23.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="58.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="24"/>
-    <col min="7" max="7" width="36.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.44140625" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="24"/>
+    <col min="1" max="2" width="9.140625" style="24"/>
+    <col min="3" max="3" width="23.28515625" style="24" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" style="24" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="24"/>
+    <col min="7" max="7" width="36.140625" style="24" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" style="24" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="74" t="s">
         <v>124</v>
       </c>
@@ -5918,7 +5909,7 @@
       <c r="G2" s="77"/>
       <c r="H2" s="78"/>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="27" t="s">
         <v>0</v>
       </c>
@@ -5943,20 +5934,20 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="82">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B4" s="81">
         <v>11</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="81" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="81">
         <v>21</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="81" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -5968,14 +5959,14 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
       <c r="H5" s="36" t="s">
         <v>10</v>
       </c>
@@ -5985,7 +5976,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="83"/>
       <c r="C6" s="83"/>
       <c r="D6" s="3" t="s">
@@ -6002,7 +5993,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="26"/>
       <c r="C7" s="2"/>
       <c r="D7" s="1"/>
@@ -6015,20 +6006,20 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="82">
+    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B8" s="81">
         <v>12</v>
       </c>
-      <c r="C8" s="82" t="s">
+      <c r="C8" s="81" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="81">
         <v>22</v>
       </c>
-      <c r="G8" s="82" t="s">
+      <c r="G8" s="81" t="s">
         <v>4</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -6040,7 +6031,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="83"/>
       <c r="C9" s="83"/>
       <c r="D9" s="40" t="s">
@@ -6057,7 +6048,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="26"/>
       <c r="C10" s="2"/>
       <c r="D10" s="1"/>
@@ -6070,7 +6061,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="37">
         <v>13</v>
       </c>
@@ -6095,7 +6086,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="26"/>
       <c r="C12" s="2"/>
       <c r="D12" s="1"/>
@@ -6108,18 +6099,18 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="82">
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="81">
         <v>14</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="81" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="F13" s="82">
+      <c r="F13" s="81">
         <v>24</v>
       </c>
-      <c r="G13" s="82" t="s">
+      <c r="G13" s="81" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -6131,7 +6122,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="83"/>
       <c r="C14" s="83"/>
       <c r="D14" s="7" t="s">
@@ -6148,7 +6139,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="26"/>
       <c r="C15" s="2"/>
       <c r="D15" s="1"/>
@@ -6161,7 +6152,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="37">
         <v>15</v>
       </c>
@@ -6186,7 +6177,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="26"/>
       <c r="C17" s="2"/>
       <c r="D17" s="1"/>
@@ -6199,7 +6190,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="37">
         <v>16</v>
       </c>
@@ -6224,7 +6215,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6239,7 +6230,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6255,7 +6246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="74" t="s">
         <v>126</v>
@@ -6267,7 +6258,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="27" t="s">
         <v>0</v>
@@ -6289,7 +6280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="37">
         <v>91</v>
@@ -6306,12 +6297,12 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="26"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="37">
         <v>92</v>
       </c>
@@ -6322,24 +6313,24 @@
         <v>127</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B29" s="84"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -6347,9 +6338,9 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" s="84"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -6357,7 +6348,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -6367,7 +6358,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -6376,7 +6367,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -6385,7 +6376,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -6394,7 +6385,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -6403,27 +6394,21 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="D42" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
     <mergeCell ref="B29:B30"/>
     <mergeCell ref="C29:C30"/>
     <mergeCell ref="G8:G9"/>
@@ -6435,6 +6420,12 @@
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="C13:C14"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6B0FA920-F820-4CF4-B803-D8E72EB5FA51}"/>
+  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAECA3B7-EE3B-4575-8C2E-17547E0DBB59}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="196">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -420,9 +420,6 @@
     <t>Tabela VLAN's DataCenter</t>
   </si>
   <si>
-    <t>????</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -619,6 +616,15 @@
   </si>
   <si>
     <t>G7/0/</t>
+  </si>
+  <si>
+    <t>Acesso a todas as redes.</t>
+  </si>
+  <si>
+    <t>Acesso à Internet e aos serviços internos respetivos.</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -1233,7 +1239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,19 +1247,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1457,6 +1454,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1478,19 +1490,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1809,2335 +1833,2335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F286A72-55C7-45FC-BA31-552B8F8C6C3B}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="O5" sqref="J5:O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="24" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="24"/>
-    <col min="6" max="6" width="11" style="24" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="24" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="24"/>
-    <col min="10" max="10" width="12.28515625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="24" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="24"/>
-    <col min="14" max="14" width="11.42578125" style="24" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="24" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="24"/>
-    <col min="19" max="19" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.140625" style="24"/>
-    <col min="23" max="23" width="22.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="21"/>
+    <col min="6" max="6" width="11" style="21" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="21"/>
+    <col min="10" max="10" width="12.33203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="21" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="21"/>
+    <col min="14" max="14" width="11.44140625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="21" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" style="21"/>
+    <col min="19" max="19" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.109375" style="21"/>
+    <col min="23" max="23" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+    <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="76" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
-      <c r="J2" s="74" t="s">
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="78"/>
+      <c r="J2" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
-    </row>
-    <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="9" t="s">
+      <c r="K2" s="77"/>
+      <c r="L2" s="77"/>
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="77"/>
+      <c r="P2" s="78"/>
+    </row>
+    <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="26" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B4" s="17" t="s">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="14" t="s">
+      <c r="M4" s="28"/>
+      <c r="N4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B5" s="15" t="s">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="14" t="s">
+      <c r="M5" s="28"/>
+      <c r="N5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="14" t="s">
+      <c r="M6" s="28"/>
+      <c r="N6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B7" s="15" t="s">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="15" t="s">
+      <c r="M7" s="29"/>
+      <c r="N7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B8" s="15" t="s">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="33"/>
-    </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B9" s="15" t="s">
+      <c r="M8" s="30"/>
+    </row>
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="14" t="s">
+      <c r="D9" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
-      <c r="B10" s="15" t="s">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
+    <row r="11" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
-    </row>
-    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-    </row>
-    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="74" t="s">
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
+    </row>
+    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
+    </row>
+    <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="J15" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="78"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="35"/>
-    </row>
-    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="9" t="s">
+      <c r="C15" s="77"/>
+      <c r="D15" s="77"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="77"/>
+      <c r="G15" s="77"/>
+      <c r="H15" s="78"/>
+      <c r="J15" s="76" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="79"/>
+      <c r="L15" s="79"/>
+      <c r="M15" s="79"/>
+      <c r="N15" s="79"/>
+      <c r="O15" s="79"/>
+      <c r="P15" s="80"/>
+      <c r="R15" s="81"/>
+      <c r="S15" s="81"/>
+      <c r="T15" s="81"/>
+      <c r="U15" s="81"/>
+      <c r="V15" s="81"/>
+      <c r="W15" s="81"/>
+      <c r="X15" s="81"/>
+      <c r="Y15" s="32"/>
+    </row>
+    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="10" t="s">
+      <c r="M16" s="27"/>
+      <c r="N16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P16" s="29" t="s">
+      <c r="P16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="35"/>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="32"/>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A17" s="21">
         <v>1</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="15" t="s">
+      <c r="J17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="15" t="s">
+      <c r="M17" s="31"/>
+      <c r="N17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="P17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A18" s="21">
         <f>A17+1</f>
         <v>2</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="15" t="s">
+      <c r="J18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="15" t="s">
+      <c r="M18" s="28"/>
+      <c r="N18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A19" s="21">
         <f t="shared" ref="A19:A58" si="0">A18+1</f>
         <v>3</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="15" t="s">
+      <c r="J19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="15" t="s">
+      <c r="M19" s="28"/>
+      <c r="N19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="P19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="15" t="s">
+      <c r="J20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="39"/>
-      <c r="N20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="15" t="s">
+      <c r="M20" s="36"/>
+      <c r="N20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="P20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="15" t="s">
+      <c r="J21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="15" t="s">
+      <c r="M21" s="31"/>
+      <c r="N21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="P21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="15" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="J22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="15" t="s">
+      <c r="M22" s="28"/>
+      <c r="N22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="15" t="s">
+      <c r="E23" s="28"/>
+      <c r="F23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G23" s="15" t="s">
+      <c r="G23" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H23" s="15" t="s">
+      <c r="H23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="15" t="s">
+      <c r="J23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="L23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M23" s="39"/>
-      <c r="N23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="15" t="s">
+      <c r="M23" s="36"/>
+      <c r="N23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P23" s="15" t="s">
+      <c r="P23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="15" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="15" t="s">
+      <c r="J24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="15" t="s">
+      <c r="M24" s="31"/>
+      <c r="N24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="P24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="15" t="s">
+      <c r="J25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="31"/>
-      <c r="N25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="15" t="s">
+      <c r="M25" s="28"/>
+      <c r="N25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P25" s="15" t="s">
+      <c r="P25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="15" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="15" t="s">
+      <c r="J26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="31"/>
-      <c r="N26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="15" t="s">
+      <c r="M26" s="28"/>
+      <c r="N26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="P26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
-    </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="25" t="s">
+      <c r="E27" s="28"/>
+      <c r="F27" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="15" t="s">
+      <c r="J27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="31"/>
-      <c r="N27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="15" t="s">
+      <c r="M27" s="28"/>
+      <c r="N27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="P27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="28"/>
+      <c r="F28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="15" t="s">
+      <c r="J28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="M28" s="34"/>
-      <c r="N28" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="15" t="s">
+      <c r="M28" s="31"/>
+      <c r="N28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="15" t="s">
+      <c r="P28" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="25" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="25" t="s">
+      <c r="G29" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="H29" s="25" t="s">
+      <c r="H29" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="25" t="s">
+      <c r="J29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="M29" s="34"/>
-      <c r="N29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="15" t="s">
+      <c r="M29" s="31"/>
+      <c r="N29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P29" s="15" t="s">
+      <c r="P29" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="R29" s="35"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+      <c r="R29" s="32"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="15" t="s">
+      <c r="J30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="M30" s="34"/>
-      <c r="N30" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="15" t="s">
+      <c r="M30" s="31"/>
+      <c r="N30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="P30" s="15" t="s">
+      <c r="P30" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="14" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="15" t="s">
+      <c r="J31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="39"/>
-      <c r="N31" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="15" t="s">
+      <c r="M31" s="36"/>
+      <c r="N31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P31" s="15" t="s">
+      <c r="P31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="15" t="s">
+      <c r="J32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L32" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="31"/>
-      <c r="N32" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="15" t="s">
+      <c r="M32" s="28"/>
+      <c r="N32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P32" s="15" t="s">
+      <c r="P32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
-    </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="28"/>
+      <c r="F33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" s="15" t="s">
+      <c r="J33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="39"/>
-      <c r="N33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="15" t="s">
+      <c r="M33" s="36"/>
+      <c r="N33" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P33" s="15" t="s">
+      <c r="P33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
-    </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A34" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="28"/>
+      <c r="F34" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="15" t="s">
+      <c r="J34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="L34" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="34"/>
-      <c r="N34" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="15" t="s">
+      <c r="M34" s="31"/>
+      <c r="N34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P34" s="15" t="s">
+      <c r="P34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
-    </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A35" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="14" t="s">
+      <c r="E35" s="28"/>
+      <c r="F35" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="15" t="s">
+      <c r="J35" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="L35" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="34"/>
-      <c r="N35" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="15" t="s">
+      <c r="M35" s="31"/>
+      <c r="N35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P35" s="15" t="s">
+      <c r="P35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
-    </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A36" s="24">
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A36" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="14" t="s">
+      <c r="E36" s="28"/>
+      <c r="F36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="15" t="s">
+      <c r="J36" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M36" s="39"/>
-      <c r="N36" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="15" t="s">
+      <c r="M36" s="36"/>
+      <c r="N36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P36" s="15" t="s">
+      <c r="P36" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
-    </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A37" s="24">
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A37" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="14" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="15" t="s">
+      <c r="J37" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="L37" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M37" s="31"/>
-      <c r="N37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="15" t="s">
+      <c r="M37" s="28"/>
+      <c r="N37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P37" s="15" t="s">
+      <c r="P37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
-    </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A38" s="24">
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+    </row>
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A38" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="14" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J38" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="15" t="s">
+      <c r="J38" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="16" t="s">
+      <c r="L38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="34"/>
-      <c r="N38" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" s="15" t="s">
+      <c r="M38" s="31"/>
+      <c r="N38" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P38" s="15" t="s">
+      <c r="P38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
-    </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A39" s="24">
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A39" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="14" t="s">
+      <c r="E39" s="28"/>
+      <c r="F39" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" s="15" t="s">
+      <c r="J39" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="L39" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="34"/>
-      <c r="N39" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="15" t="s">
+      <c r="M39" s="31"/>
+      <c r="N39" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P39" s="15" t="s">
+      <c r="P39" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
-    </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A40" s="24">
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A40" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="14" t="s">
+      <c r="E40" s="28"/>
+      <c r="F40" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="15" t="s">
+      <c r="J40" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L40" s="16" t="s">
+      <c r="L40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M40" s="34"/>
-      <c r="N40" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="15" t="s">
+      <c r="M40" s="31"/>
+      <c r="N40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="15" t="s">
+      <c r="P40" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
-    </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A41" s="24">
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
+    </row>
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A41" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="14" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J41" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="15" t="s">
+      <c r="J41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="L41" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M41" s="34"/>
-      <c r="N41" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="15" t="s">
+      <c r="M41" s="31"/>
+      <c r="N41" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P41" s="15" t="s">
+      <c r="P41" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
-    </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A42" s="24">
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
+    </row>
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A42" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="14" t="s">
+      <c r="E42" s="28"/>
+      <c r="F42" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J42" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="15" t="s">
+      <c r="J42" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L42" s="16" t="s">
+      <c r="L42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M42" s="34"/>
-      <c r="N42" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="15" t="s">
+      <c r="M42" s="31"/>
+      <c r="N42" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P42" s="15" t="s">
+      <c r="P42" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
-    </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A43" s="24">
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
+    </row>
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="14" t="s">
+      <c r="E43" s="28"/>
+      <c r="F43" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J43" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="15" t="s">
+      <c r="J43" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="L43" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M43" s="34"/>
-      <c r="N43" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="15" t="s">
+      <c r="M43" s="31"/>
+      <c r="N43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P43" s="15" t="s">
+      <c r="P43" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
-    </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A44" s="24">
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
+    </row>
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A44" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="J44" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="15" t="s">
+      <c r="J44" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="L44" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M44" s="34"/>
-      <c r="N44" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" s="15" t="s">
+      <c r="M44" s="31"/>
+      <c r="N44" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P44" s="15" t="s">
+      <c r="P44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="35"/>
-    </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A45" s="24">
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
+    </row>
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A45" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="J45" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" s="15" t="s">
+      <c r="J45" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M45" s="39"/>
-      <c r="N45" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" s="15" t="s">
+      <c r="M45" s="36"/>
+      <c r="N45" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P45" s="15" t="s">
+      <c r="P45" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
-    </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A46" s="24">
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
+    </row>
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A46" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J46" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="15" t="s">
+      <c r="J46" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="L46" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="34"/>
-      <c r="N46" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O46" s="15" t="s">
+      <c r="M46" s="31"/>
+      <c r="N46" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P46" s="15" t="s">
+      <c r="P46" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="35"/>
-      <c r="Y46" s="35"/>
-    </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A47" s="24">
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
+    </row>
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A47" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="J47" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" s="15" t="s">
+      <c r="J47" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L47" s="16" t="s">
+      <c r="L47" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="39"/>
-      <c r="N47" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="15" t="s">
+      <c r="M47" s="36"/>
+      <c r="N47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P47" s="15" t="s">
+      <c r="P47" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
-    </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A48" s="24">
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A48" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J48" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="15" t="s">
+      <c r="J48" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L48" s="16" t="s">
+      <c r="L48" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M48" s="31"/>
-      <c r="N48" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="15" t="s">
+      <c r="M48" s="28"/>
+      <c r="N48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P48" s="15" t="s">
+      <c r="P48" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
-    </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A49" s="24">
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
+    </row>
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A49" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="J49" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="15" t="s">
+      <c r="J49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L49" s="16" t="s">
+      <c r="L49" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M49" s="31"/>
-      <c r="N49" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="15" t="s">
+      <c r="M49" s="28"/>
+      <c r="N49" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P49" s="15" t="s">
+      <c r="P49" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
-    </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A50" s="24">
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
+    </row>
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A50" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="J50" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="15" t="s">
+      <c r="J50" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L50" s="16" t="s">
+      <c r="L50" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="31"/>
-      <c r="N50" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="15" t="s">
+      <c r="M50" s="28"/>
+      <c r="N50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P50" s="15" t="s">
+      <c r="P50" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
-    </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A51" s="24">
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
+    </row>
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A51" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="J51" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="15" t="s">
+      <c r="J51" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M51" s="34"/>
-      <c r="N51" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" s="15" t="s">
+      <c r="M51" s="31"/>
+      <c r="N51" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P51" s="15" t="s">
+      <c r="P51" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
-    </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A52" s="24">
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
+    </row>
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A52" s="21">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="J52" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="15" t="s">
+      <c r="J52" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="L52" s="16" t="s">
+      <c r="L52" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M52" s="31"/>
-      <c r="N52" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52" s="15" t="s">
+      <c r="M52" s="28"/>
+      <c r="N52" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P52" s="15" t="s">
+      <c r="P52" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
-    </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A53" s="24">
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="32"/>
+    </row>
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A53" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J53" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="15" t="s">
+      <c r="J53" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L53" s="16" t="s">
+      <c r="L53" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M53" s="34"/>
-      <c r="N53" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" s="15" t="s">
+      <c r="M53" s="31"/>
+      <c r="N53" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P53" s="15" t="s">
+      <c r="P53" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
-    </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A54" s="24">
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="32"/>
+    </row>
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A54" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J54" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K54" s="15" t="s">
+      <c r="J54" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L54" s="16" t="s">
+      <c r="L54" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="31"/>
-      <c r="N54" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="15" t="s">
+      <c r="M54" s="28"/>
+      <c r="N54" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P54" s="15" t="s">
+      <c r="P54" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
-    </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A55" s="24">
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="32"/>
+    </row>
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A55" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="15" t="s">
+      <c r="J55" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L55" s="16" t="s">
+      <c r="L55" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M55" s="31"/>
-      <c r="N55" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="15" t="s">
+      <c r="M55" s="28"/>
+      <c r="N55" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P55" s="15" t="s">
+      <c r="P55" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
-    </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A56" s="24">
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
+    </row>
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A56" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="15" t="s">
+      <c r="J56" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L56" s="16" t="s">
+      <c r="L56" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M56" s="39"/>
-      <c r="N56" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" s="15" t="s">
+      <c r="M56" s="36"/>
+      <c r="N56" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P56" s="15" t="s">
+      <c r="P56" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
-    </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A57" s="24">
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
+    </row>
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A57" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K57" s="15" t="s">
+      <c r="J57" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="L57" s="16" t="s">
+      <c r="L57" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M57" s="34"/>
-      <c r="N57" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" s="15" t="s">
+      <c r="M57" s="31"/>
+      <c r="N57" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P57" s="15" t="s">
+      <c r="P57" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
-    </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A58" s="24">
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="32"/>
+    </row>
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A58" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="33"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="15" t="s">
+      <c r="J58" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="L58" s="16" t="s">
+      <c r="L58" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="34"/>
-      <c r="N58" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="15" t="s">
+      <c r="M58" s="31"/>
+      <c r="N58" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P58" s="15" t="s">
+      <c r="P58" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
-    </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="32"/>
+    </row>
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4154,16 +4178,16 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
-    </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="32"/>
+    </row>
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4185,7 +4209,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -4200,7 +4224,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -4215,7 +4239,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -4227,22 +4251,22 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -4254,15 +4278,15 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -4274,15 +4298,15 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -4294,15 +4318,15 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -4314,15 +4338,15 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -4334,15 +4358,15 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -4354,15 +4378,15 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -4374,15 +4398,15 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -4394,15 +4418,15 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -4414,15 +4438,15 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -4434,15 +4458,15 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -4454,15 +4478,15 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A76" s="35"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A76" s="32"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -4474,15 +4498,15 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A77" s="35"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A77" s="32"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -4494,15 +4518,15 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A78" s="35"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A78" s="32"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -4514,15 +4538,15 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A79" s="35"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -4534,15 +4558,15 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A80" s="35"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -4554,15 +4578,15 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -4574,15 +4598,15 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A82" s="35"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -4594,15 +4618,15 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A83" s="35"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -4614,15 +4638,15 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A84" s="35"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -4634,15 +4658,15 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A85" s="35"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
       <c r="I85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -4655,15 +4679,15 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A86" s="35"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
       <c r="I86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -4676,15 +4700,15 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A87" s="35"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
       <c r="I87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -4697,15 +4721,15 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A88" s="35"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
       <c r="I88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -4718,15 +4742,15 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A89" s="35"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
       <c r="I89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -4739,15 +4763,15 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A90" s="35"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -4759,15 +4783,15 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -4779,15 +4803,15 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -4799,15 +4823,15 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -4819,15 +4843,15 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -4839,15 +4863,15 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4867,998 +4891,998 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="51" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="24" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="24" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="48" customWidth="1"/>
+    <col min="10" max="10" width="36.109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="21" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="76" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="F2" s="74" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="F2" s="76" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="J2" s="74" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
+      <c r="J2" s="76" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="K2" s="79"/>
+      <c r="L2" s="80"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="49"/>
+      <c r="J3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="L5" s="62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="48">
+        <v>15</v>
+      </c>
+      <c r="L6" s="48"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" s="76" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="68" t="s">
+      <c r="K8" s="80"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="48"/>
+    </row>
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="60" t="s">
+      <c r="J9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="L9" s="49"/>
+      <c r="M9" s="48"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="21">
+        <v>181</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F11" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="K5" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="65" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="J6" s="52" t="s">
+      <c r="H12" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="21">
+        <v>242</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F14" s="49"/>
+      <c r="J14" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F15" s="49"/>
+      <c r="I15" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="J15" s="58" t="s">
+        <v>181</v>
+      </c>
+      <c r="K15" s="67" t="s">
+        <v>189</v>
+      </c>
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+    </row>
+    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="49"/>
+      <c r="J16" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="K16" s="75" t="s">
+        <v>190</v>
+      </c>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="F17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="48"/>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="76" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="79"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="79"/>
+      <c r="I19" s="79"/>
+      <c r="J19" s="79"/>
+      <c r="K19" s="80"/>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="3">
         <v>128</v>
       </c>
-      <c r="K6" s="51">
-        <v>15</v>
-      </c>
-      <c r="L6" s="51"/>
-    </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-    </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="J8" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="K8" s="78"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="51"/>
-    </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="50" t="s">
+      <c r="C20" s="3">
+        <v>64</v>
+      </c>
+      <c r="D20" s="3">
+        <v>32</v>
+      </c>
+      <c r="E20" s="3">
+        <v>16</v>
+      </c>
+      <c r="F20" s="3">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3">
         <v>4</v>
       </c>
-      <c r="C9" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9" s="52"/>
-      <c r="M9" s="51"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="24">
-        <v>181</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="J10" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="K10" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F11" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" s="70" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-    </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F12" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" s="70" t="s">
-        <v>186</v>
-      </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F13" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="24">
-        <v>242</v>
-      </c>
-      <c r="J13" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="K13" s="70" t="s">
-        <v>187</v>
-      </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F14" s="52"/>
-      <c r="J14" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="K14" s="70" t="s">
-        <v>188</v>
-      </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="F15" s="52"/>
-      <c r="I15" s="51" t="s">
-        <v>189</v>
-      </c>
-      <c r="J15" s="61" t="s">
-        <v>182</v>
-      </c>
-      <c r="K15" s="70" t="s">
-        <v>190</v>
-      </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-    </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F16" s="52"/>
-      <c r="J16" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="K16" s="86" t="s">
-        <v>191</v>
-      </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="51"/>
-    </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="78"/>
-    </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="4">
-        <v>128</v>
-      </c>
-      <c r="C20" s="4">
-        <v>64</v>
-      </c>
-      <c r="D20" s="4">
-        <v>32</v>
-      </c>
-      <c r="E20" s="4">
-        <v>16</v>
-      </c>
-      <c r="F20" s="4">
-        <v>8</v>
-      </c>
-      <c r="G20" s="4">
-        <v>4</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="69">
+        <v>1</v>
+      </c>
+      <c r="C21" s="57">
+        <v>1</v>
+      </c>
+      <c r="D21" s="38">
+        <v>1</v>
+      </c>
+      <c r="E21" s="57">
+        <v>1</v>
+      </c>
+      <c r="F21" s="38">
+        <v>1</v>
+      </c>
+      <c r="G21" s="57">
+        <v>1</v>
+      </c>
+      <c r="H21" s="38">
+        <v>1</v>
+      </c>
+      <c r="I21" s="57">
+        <v>1</v>
+      </c>
+      <c r="J21" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B21" s="72">
+      <c r="K21" s="57">
         <v>1</v>
       </c>
-      <c r="C21" s="60">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="54">
         <v>1</v>
       </c>
-      <c r="D21" s="41">
+      <c r="C22" s="42">
         <v>1</v>
       </c>
-      <c r="E21" s="60">
+      <c r="D22" s="39">
         <v>1</v>
       </c>
-      <c r="F21" s="41">
+      <c r="E22" s="42">
         <v>1</v>
       </c>
-      <c r="G21" s="60">
+      <c r="F22" s="39">
         <v>1</v>
       </c>
-      <c r="H21" s="41">
+      <c r="G22" s="42">
         <v>1</v>
       </c>
-      <c r="I21" s="60">
+      <c r="H22" s="39">
         <v>1</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="I22" s="42">
+        <v>0</v>
+      </c>
+      <c r="J22" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="K21" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B22" s="57">
-        <v>1</v>
-      </c>
-      <c r="C22" s="45">
-        <v>1</v>
-      </c>
-      <c r="D22" s="42">
-        <v>1</v>
-      </c>
-      <c r="E22" s="45">
-        <v>1</v>
-      </c>
-      <c r="F22" s="42">
-        <v>1</v>
-      </c>
-      <c r="G22" s="45">
-        <v>1</v>
-      </c>
-      <c r="H22" s="42">
-        <v>1</v>
-      </c>
-      <c r="I22" s="45">
-        <v>0</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" s="45">
+      <c r="K22" s="42">
         <f>K21*2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B23" s="57">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B23" s="54">
         <v>1</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="42">
         <v>1</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="39">
         <v>1</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="42">
         <v>1</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="39">
         <v>1</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="42">
         <v>1</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="39">
         <v>0</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="42">
         <v>0</v>
       </c>
-      <c r="J23" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" s="45">
+      <c r="J23" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="42">
         <f t="shared" ref="K23:K29" si="0">K22*2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B24" s="57">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B24" s="54">
         <v>1</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="42">
         <v>1</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="39">
         <v>1</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="42">
         <v>1</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="39">
         <v>1</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="42">
         <v>0</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="39">
         <v>0</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="42">
         <v>0</v>
       </c>
-      <c r="J24" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="K24" s="45">
+      <c r="J24" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B25" s="57">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B25" s="54">
         <v>1</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="42">
         <v>1</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="39">
         <v>1</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="42">
         <v>1</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="39">
         <v>0</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="42">
         <v>0</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="39">
         <v>0</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="42">
         <v>0</v>
       </c>
-      <c r="J25" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" s="45">
+      <c r="J25" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="42">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B26" s="57">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B26" s="54">
         <v>1</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="42">
         <v>1</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="39">
         <v>1</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="42">
         <v>0</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="39">
         <v>0</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="42">
         <v>0</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="39">
         <v>0</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="42">
         <v>0</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="42">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="54">
+        <v>1</v>
+      </c>
+      <c r="C27" s="42">
+        <v>1</v>
+      </c>
+      <c r="D27" s="39">
+        <v>0</v>
+      </c>
+      <c r="E27" s="42">
+        <v>0</v>
+      </c>
+      <c r="F27" s="39">
+        <v>0</v>
+      </c>
+      <c r="G27" s="42">
+        <v>0</v>
+      </c>
+      <c r="H27" s="39">
+        <v>0</v>
+      </c>
+      <c r="I27" s="42">
+        <v>0</v>
+      </c>
+      <c r="J27" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="K26" s="45">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="57">
-        <v>1</v>
-      </c>
-      <c r="C27" s="45">
-        <v>1</v>
-      </c>
-      <c r="D27" s="42">
-        <v>0</v>
-      </c>
-      <c r="E27" s="45">
-        <v>0</v>
-      </c>
-      <c r="F27" s="42">
-        <v>0</v>
-      </c>
-      <c r="G27" s="45">
-        <v>0</v>
-      </c>
-      <c r="H27" s="42">
-        <v>0</v>
-      </c>
-      <c r="I27" s="45">
-        <v>0</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="K27" s="45">
+      <c r="K27" s="42">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="57">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="54">
         <v>1</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="42">
         <v>0</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="39">
         <v>0</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="42">
         <v>0</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="39">
         <v>0</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="42">
         <v>0</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="39">
         <v>0</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="42">
         <v>0</v>
       </c>
-      <c r="J28" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="45">
+      <c r="J28" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" s="42">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="73">
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B29" s="70">
         <v>0</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="35">
         <v>0</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="40">
         <v>0</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="35">
         <v>0</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="40">
         <v>0</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="35">
         <v>0</v>
       </c>
-      <c r="H29" s="43">
+      <c r="H29" s="40">
         <v>0</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="35">
         <v>0</v>
       </c>
-      <c r="J29" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="K29" s="38">
+      <c r="J29" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="35">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="20"/>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="20"/>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="E48" s="51"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="51"/>
-    </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
-    </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
-    </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
-    </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E52" s="51"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="51"/>
-    </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-    </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
-    </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="82"/>
+      <c r="C33" s="82"/>
+      <c r="D33" s="82"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="82"/>
+      <c r="H33" s="82"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="82"/>
+      <c r="K33" s="82"/>
+      <c r="L33" s="82"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="17"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="E48" s="48"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="48"/>
+    </row>
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
+    </row>
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
+    </row>
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
+    </row>
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E52" s="48"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="48"/>
+    </row>
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
+    </row>
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
+    </row>
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5879,53 +5903,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46D577-AC6F-4505-860C-EE5869797CC5}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="24"/>
-    <col min="3" max="3" width="23.28515625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="24"/>
-    <col min="7" max="7" width="36.140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.42578125" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="24"/>
+    <col min="1" max="2" width="9.109375" style="21"/>
+    <col min="3" max="3" width="23.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="58.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="21"/>
+    <col min="7" max="7" width="36.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.44140625" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="74" t="s">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="F2" s="74" t="s">
+      <c r="C2" s="79"/>
+      <c r="D2" s="80"/>
+      <c r="F2" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-    </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="27" t="s">
+      <c r="G2" s="79"/>
+      <c r="H2" s="80"/>
+    </row>
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="72" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="2"/>
@@ -5934,23 +5958,23 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B4" s="81">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="83">
         <v>11</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="83">
         <v>21</v>
       </c>
-      <c r="G4" s="81" t="s">
+      <c r="G4" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="87" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="2"/>
@@ -5959,15 +5983,15 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="36" t="s">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="36" t="s">
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="67" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="2"/>
@@ -5976,15 +6000,15 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="3" t="s">
+    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="84"/>
+      <c r="C6" s="84"/>
+      <c r="D6" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="84"/>
+      <c r="G6" s="84"/>
+      <c r="H6" s="88" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="2"/>
@@ -5993,344 +6017,358 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="23"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="90"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="90"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="81">
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="34">
         <v>12</v>
       </c>
-      <c r="C8" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="81">
+      <c r="C8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="34">
         <v>22</v>
       </c>
-      <c r="G8" s="81" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>9</v>
+      <c r="G8" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="91" t="s">
+        <v>14</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="40" t="s">
-        <v>12</v>
-      </c>
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="23"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="90"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="90"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="26"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
+    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="34">
+        <v>13</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="91" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="83">
+        <v>23</v>
+      </c>
+      <c r="G10" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="87" t="s">
+        <v>9</v>
+      </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="37">
-        <v>13</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="37">
-        <v>23</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="23"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="90"/>
+      <c r="F11" s="84"/>
+      <c r="G11" s="84"/>
+      <c r="H11" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="26"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="34">
+        <v>14</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="91" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="90"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="73"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="81">
-        <v>14</v>
-      </c>
-      <c r="C13" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="F13" s="81">
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="23"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="90"/>
+      <c r="F13" s="34">
         <v>24</v>
       </c>
-      <c r="G13" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>9</v>
+      <c r="G13" s="34" t="s">
+        <v>117</v>
+      </c>
+      <c r="H13" s="91" t="s">
+        <v>194</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="40" t="s">
-        <v>14</v>
-      </c>
+    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="83">
+        <v>15</v>
+      </c>
+      <c r="C14" s="83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="89" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="90"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="26"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
+    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="84"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4">
+        <v>25</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>118</v>
+      </c>
+      <c r="H15" s="91" t="s">
+        <v>194</v>
+      </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="73"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="37">
-        <v>15</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="37">
-        <v>25</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="23"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="90"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="90"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="26"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="83">
+        <v>16</v>
+      </c>
+      <c r="C17" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="34">
+        <v>26</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="91" t="s">
+        <v>14</v>
+      </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="37">
-        <v>16</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="37">
-        <v>26</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>14</v>
-      </c>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="84"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="90"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="83">
+        <v>27</v>
+      </c>
+      <c r="G19" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="87" t="s">
+        <v>9</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="37">
-        <v>27</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F20" s="84"/>
+      <c r="G20" s="84"/>
+      <c r="H20" s="75" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="76" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="80"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="F21" s="23"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="90"/>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>28</v>
       </c>
-      <c r="G22" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G22" s="34" t="s">
+        <v>116</v>
+      </c>
+      <c r="H22" s="91" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="B23" s="37">
+      <c r="B23" s="34">
         <v>91</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
+      <c r="C23" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="91" t="s">
+        <v>195</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="90"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="26"/>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="23"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="37">
+      <c r="F24" s="34">
+        <v>29</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="91" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="34">
         <v>92</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C25" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="92"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B29" s="84"/>
-      <c r="C29" s="84"/>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="86"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -6338,9 +6376,10 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B30" s="84"/>
-      <c r="C30" s="84"/>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="86"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -6348,84 +6387,117 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="73"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="73"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="D42" s="22"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="73"/>
+      <c r="E59" s="73"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="73"/>
+      <c r="E60" s="73"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="73"/>
+      <c r="E61" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F8:F9"/>
+  <mergeCells count="15">
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
+    <mergeCell ref="B21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAECA3B7-EE3B-4575-8C2E-17547E0DBB59}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CAC26FA-7347-48C6-84CC-9B0A1B21B0CF}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
     <sheet name="Rede" sheetId="3" r:id="rId2"/>
     <sheet name="VLAN" sheetId="2" r:id="rId3"/>
+    <sheet name="Implementação" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="203">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -625,6 +626,27 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Ordem de implementação</t>
+  </si>
+  <si>
+    <t>Pontos</t>
+  </si>
+  <si>
+    <t>Topologia</t>
+  </si>
+  <si>
+    <t>Ligação física</t>
+  </si>
+  <si>
+    <t>Subnetting</t>
+  </si>
+  <si>
+    <t>Criação de interfaces lógicas (route on the stick)</t>
+  </si>
+  <si>
+    <t>VTP (criação das VLAN's)</t>
   </si>
 </sst>
 </file>
@@ -669,7 +691,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1235,11 +1257,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1466,36 +1501,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1516,6 +1521,81 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1833,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F286A72-55C7-45FC-BA31-552B8F8C6C3B}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="O5" sqref="J5:O5"/>
+    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1864,24 +1944,24 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="J2" s="76" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+      <c r="J2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="77"/>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="77"/>
-      <c r="P2" s="78"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
     </row>
     <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -2177,31 +2257,31 @@
       <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="76" t="s">
+      <c r="B15" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="77"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="77"/>
-      <c r="G15" s="77"/>
-      <c r="H15" s="78"/>
-      <c r="J15" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="79"/>
-      <c r="L15" s="79"/>
-      <c r="M15" s="79"/>
-      <c r="N15" s="79"/>
-      <c r="O15" s="79"/>
-      <c r="P15" s="80"/>
-      <c r="R15" s="81"/>
-      <c r="S15" s="81"/>
-      <c r="T15" s="81"/>
-      <c r="U15" s="81"/>
-      <c r="V15" s="81"/>
-      <c r="W15" s="81"/>
-      <c r="X15" s="81"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="85"/>
+      <c r="J15" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="88"/>
       <c r="Y15" s="32"/>
     </row>
     <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2582,7 +2662,7 @@
         <v>33</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="H23" s="12" t="s">
         <v>29</v>
@@ -2894,7 +2974,7 @@
         <v>33</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H29" s="22" t="s">
         <v>122</v>
@@ -2965,7 +3045,7 @@
         <v>32</v>
       </c>
       <c r="O30" s="12" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="P30" s="12" t="s">
         <v>122</v>
@@ -4891,8 +4971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4914,21 +4994,21 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="F2" s="76" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="F2" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
-      <c r="J2" s="76" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="J2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="79"/>
-      <c r="L2" s="80"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -5094,10 +5174,10 @@
       <c r="H8" s="33" t="s">
         <v>168</v>
       </c>
-      <c r="J8" s="76" t="s">
+      <c r="J8" s="83" t="s">
         <v>175</v>
       </c>
-      <c r="K8" s="80"/>
+      <c r="K8" s="87"/>
       <c r="L8" s="68"/>
       <c r="M8" s="48"/>
     </row>
@@ -5253,18 +5333,18 @@
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="76" t="s">
+      <c r="B19" s="83" t="s">
         <v>134</v>
       </c>
-      <c r="C19" s="79"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="79"/>
-      <c r="I19" s="79"/>
-      <c r="J19" s="79"/>
-      <c r="K19" s="80"/>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
@@ -5621,17 +5701,17 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="82"/>
-      <c r="H33" s="82"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="82"/>
-      <c r="K33" s="82"/>
-      <c r="L33" s="82"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
       <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -5905,8 +5985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46D577-AC6F-4505-860C-EE5869797CC5}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5922,16 +6002,16 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="79"/>
-      <c r="D2" s="80"/>
-      <c r="F2" s="76" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="F2" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="79"/>
-      <c r="H2" s="80"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="71" t="s">
@@ -5959,22 +6039,22 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="83">
+      <c r="B4" s="90">
         <v>11</v>
       </c>
-      <c r="C4" s="83" t="s">
+      <c r="C4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="87" t="s">
+      <c r="D4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="83">
+      <c r="F4" s="90">
         <v>21</v>
       </c>
-      <c r="G4" s="83" t="s">
+      <c r="G4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="87" t="s">
+      <c r="H4" s="77" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="2"/>
@@ -5984,13 +6064,13 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
       <c r="D5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
       <c r="H5" s="67" t="s">
         <v>10</v>
       </c>
@@ -6001,14 +6081,14 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="84"/>
-      <c r="C6" s="84"/>
-      <c r="D6" s="88" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="91"/>
+      <c r="D6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="84"/>
-      <c r="G6" s="84"/>
-      <c r="H6" s="88" t="s">
+      <c r="F6" s="91"/>
+      <c r="G6" s="91"/>
+      <c r="H6" s="78" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="2"/>
@@ -6020,10 +6100,10 @@
     <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="23"/>
       <c r="C7" s="73"/>
-      <c r="D7" s="90"/>
+      <c r="D7" s="80"/>
       <c r="F7" s="23"/>
       <c r="G7" s="73"/>
-      <c r="H7" s="90"/>
+      <c r="H7" s="80"/>
       <c r="I7" s="2"/>
       <c r="J7" s="73"/>
       <c r="K7" s="73"/>
@@ -6037,7 +6117,7 @@
       <c r="C8" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="91" t="s">
+      <c r="D8" s="81" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="34">
@@ -6046,7 +6126,7 @@
       <c r="G8" s="34" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="91" t="s">
+      <c r="H8" s="81" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="2"/>
@@ -6058,10 +6138,10 @@
     <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="23"/>
       <c r="C9" s="73"/>
-      <c r="D9" s="90"/>
+      <c r="D9" s="80"/>
       <c r="F9" s="23"/>
       <c r="G9" s="73"/>
-      <c r="H9" s="90"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="2"/>
       <c r="J9" s="73"/>
       <c r="K9" s="73"/>
@@ -6075,16 +6155,16 @@
       <c r="C10" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="91" t="s">
+      <c r="D10" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="83">
+      <c r="F10" s="90">
         <v>23</v>
       </c>
-      <c r="G10" s="83" t="s">
+      <c r="G10" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="H10" s="87" t="s">
+      <c r="H10" s="77" t="s">
         <v>9</v>
       </c>
       <c r="I10" s="2"/>
@@ -6096,9 +6176,9 @@
     <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="23"/>
       <c r="C11" s="73"/>
-      <c r="D11" s="90"/>
-      <c r="F11" s="84"/>
-      <c r="G11" s="84"/>
+      <c r="D11" s="80"/>
+      <c r="F11" s="91"/>
+      <c r="G11" s="91"/>
       <c r="H11" s="75" t="s">
         <v>14</v>
       </c>
@@ -6115,12 +6195,12 @@
       <c r="C12" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="91" t="s">
+      <c r="D12" s="81" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="73"/>
-      <c r="H12" s="90"/>
+      <c r="H12" s="80"/>
       <c r="I12" s="2"/>
       <c r="J12" s="17"/>
       <c r="K12" s="73"/>
@@ -6130,14 +6210,14 @@
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="23"/>
       <c r="C13" s="73"/>
-      <c r="D13" s="90"/>
+      <c r="D13" s="80"/>
       <c r="F13" s="34">
         <v>24</v>
       </c>
       <c r="G13" s="34" t="s">
         <v>117</v>
       </c>
-      <c r="H13" s="91" t="s">
+      <c r="H13" s="81" t="s">
         <v>194</v>
       </c>
       <c r="I13" s="2"/>
@@ -6147,18 +6227,18 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="83">
+      <c r="B14" s="90">
         <v>15</v>
       </c>
-      <c r="C14" s="83" t="s">
+      <c r="C14" s="90" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="89" t="s">
+      <c r="D14" s="79" t="s">
         <v>9</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="73"/>
-      <c r="H14" s="90"/>
+      <c r="H14" s="80"/>
       <c r="I14" s="2"/>
       <c r="J14" s="73"/>
       <c r="K14" s="73"/>
@@ -6166,8 +6246,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="84"/>
-      <c r="C15" s="84"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="91"/>
       <c r="D15" s="43" t="s">
         <v>14</v>
       </c>
@@ -6177,7 +6257,7 @@
       <c r="G15" s="34" t="s">
         <v>118</v>
       </c>
-      <c r="H15" s="91" t="s">
+      <c r="H15" s="81" t="s">
         <v>194</v>
       </c>
       <c r="I15" s="2"/>
@@ -6189,10 +6269,10 @@
     <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="23"/>
       <c r="C16" s="73"/>
-      <c r="D16" s="90"/>
+      <c r="D16" s="80"/>
       <c r="F16" s="23"/>
       <c r="G16" s="73"/>
-      <c r="H16" s="90"/>
+      <c r="H16" s="80"/>
       <c r="I16" s="2"/>
       <c r="J16" s="73"/>
       <c r="K16" s="73"/>
@@ -6200,13 +6280,13 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="83">
+      <c r="B17" s="90">
         <v>16</v>
       </c>
-      <c r="C17" s="83" t="s">
+      <c r="C17" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="D17" s="87" t="s">
+      <c r="D17" s="77" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="34">
@@ -6215,7 +6295,7 @@
       <c r="G17" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="H17" s="91" t="s">
+      <c r="H17" s="81" t="s">
         <v>14</v>
       </c>
       <c r="I17" s="2"/>
@@ -6225,14 +6305,14 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="84"/>
-      <c r="C18" s="84"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="91"/>
       <c r="D18" s="75" t="s">
         <v>12</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="73"/>
-      <c r="H18" s="90"/>
+      <c r="H18" s="80"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -6245,13 +6325,13 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="83">
+      <c r="F19" s="90">
         <v>27</v>
       </c>
-      <c r="G19" s="83" t="s">
+      <c r="G19" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="H19" s="87" t="s">
+      <c r="H19" s="77" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="2"/>
@@ -6266,23 +6346,23 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="84"/>
+      <c r="F20" s="91"/>
+      <c r="G20" s="91"/>
       <c r="H20" s="75" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="79"/>
-      <c r="D21" s="80"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="2"/>
       <c r="F21" s="23"/>
       <c r="G21" s="73"/>
-      <c r="H21" s="90"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
@@ -6302,7 +6382,7 @@
       <c r="G22" s="34" t="s">
         <v>116</v>
       </c>
-      <c r="H22" s="91" t="s">
+      <c r="H22" s="81" t="s">
         <v>193</v>
       </c>
     </row>
@@ -6314,13 +6394,13 @@
       <c r="C23" s="34" t="s">
         <v>120</v>
       </c>
-      <c r="D23" s="91" t="s">
+      <c r="D23" s="81" t="s">
         <v>195</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="23"/>
       <c r="G23" s="73"/>
-      <c r="H23" s="90"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -6333,7 +6413,7 @@
       <c r="G24" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="H24" s="91" t="s">
+      <c r="H24" s="81" t="s">
         <v>13</v>
       </c>
     </row>
@@ -6344,10 +6424,10 @@
       <c r="C25" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="D25" s="91" t="s">
+      <c r="D25" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="H25" s="92"/>
+      <c r="H25" s="82"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -6368,7 +6448,7 @@
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="73"/>
       <c r="B29" s="73"/>
-      <c r="C29" s="86"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -6379,7 +6459,7 @@
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="73"/>
       <c r="B30" s="73"/>
-      <c r="C30" s="86"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -6483,6 +6563,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="C4:C6"/>
+    <mergeCell ref="F4:F6"/>
+    <mergeCell ref="G4:G6"/>
     <mergeCell ref="F19:F20"/>
     <mergeCell ref="G19:G20"/>
     <mergeCell ref="F10:F11"/>
@@ -6491,13 +6578,338 @@
     <mergeCell ref="C17:C18"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="C14:C15"/>
-    <mergeCell ref="F2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD07F0D-FAEC-4973-B07B-39B1A9A12CE8}">
+  <dimension ref="B1:F26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="93" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="94" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="95"/>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="98">
+        <v>1</v>
+      </c>
+      <c r="C3" s="97"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="105" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="99"/>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="100">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="96"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="106" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="101"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="100">
+        <f t="shared" ref="B5:B26" si="0">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="96"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="106" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="101"/>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="100">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="106" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="101"/>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="100">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="106" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="101"/>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="100">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="101"/>
+      <c r="E8" s="106"/>
+      <c r="F8" s="101"/>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="100">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="101"/>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="100">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="96"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="106"/>
+      <c r="F10" s="101"/>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="100">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="96"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="101"/>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B12" s="100">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="96"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="106"/>
+      <c r="F12" s="101"/>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="100">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="96"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="106"/>
+      <c r="F13" s="101"/>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="100">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="96"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="101"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B15" s="100">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="96"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="101"/>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="100">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="96"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="101"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="100">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="96"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="101"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="100">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="96"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="101"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="100">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="96"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="101"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="100">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="96"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="101"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="100">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="96"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="106"/>
+      <c r="F21" s="101"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="100">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="96"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="106"/>
+      <c r="F22" s="101"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="100">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="96"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="106"/>
+      <c r="F23" s="101"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="100">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="96"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="106"/>
+      <c r="F24" s="101"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="100">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="96"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="106"/>
+      <c r="F25" s="101"/>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="102">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="103"/>
+      <c r="D26" s="104"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="104"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B12:D12"/>
     <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="C4:C6"/>
-    <mergeCell ref="F4:F6"/>
-    <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4CAC26FA-7347-48C6-84CC-9B0A1B21B0CF}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB22343-5F1C-4CD3-8994-7E8813D8A45D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="217">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -647,6 +647,48 @@
   </si>
   <si>
     <t>VTP (criação das VLAN's)</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Gestao</t>
+  </si>
+  <si>
+    <t>Serviços-Academicos</t>
+  </si>
+  <si>
+    <t>Conselho-Gestao</t>
+  </si>
+  <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>STP (Edificio 1)</t>
+  </si>
+  <si>
+    <t>O que falta</t>
+  </si>
+  <si>
+    <t>Native VLAN Trunks</t>
+  </si>
+  <si>
+    <t>Native Router</t>
+  </si>
+  <si>
+    <t>Static Routing</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>SVI + Default gateway (atribuir ip a vlan de gestao do switch)</t>
+  </si>
+  <si>
+    <t>Segurança</t>
   </si>
 </sst>
 </file>
@@ -1546,11 +1588,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1561,40 +1633,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1913,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F286A72-55C7-45FC-BA31-552B8F8C6C3B}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2655,7 +2697,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="12" t="s">
@@ -2665,7 +2707,7 @@
         <v>48</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>29</v>
+        <v>122</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>32</v>
@@ -5985,8 +6027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46D577-AC6F-4505-860C-EE5869797CC5}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6064,13 +6106,13 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
       <c r="D5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
       <c r="H5" s="67" t="s">
         <v>10</v>
       </c>
@@ -6081,13 +6123,13 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
       <c r="D6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="91"/>
-      <c r="G6" s="91"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
       <c r="H6" s="78" t="s">
         <v>11</v>
       </c>
@@ -6124,7 +6166,7 @@
         <v>22</v>
       </c>
       <c r="G8" s="34" t="s">
-        <v>114</v>
+        <v>7</v>
       </c>
       <c r="H8" s="81" t="s">
         <v>14</v>
@@ -6153,7 +6195,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="D10" s="81" t="s">
         <v>15</v>
@@ -6177,8 +6219,8 @@
       <c r="B11" s="23"/>
       <c r="C11" s="73"/>
       <c r="D11" s="80"/>
-      <c r="F11" s="91"/>
-      <c r="G11" s="91"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
       <c r="H11" s="75" t="s">
         <v>14</v>
       </c>
@@ -6193,7 +6235,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="D12" s="81" t="s">
         <v>13</v>
@@ -6215,7 +6257,7 @@
         <v>24</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>117</v>
+        <v>205</v>
       </c>
       <c r="H13" s="81" t="s">
         <v>194</v>
@@ -6246,8 +6288,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="91"/>
-      <c r="C15" s="91"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
       <c r="D15" s="43" t="s">
         <v>14</v>
       </c>
@@ -6255,7 +6297,7 @@
         <v>25</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>118</v>
+        <v>206</v>
       </c>
       <c r="H15" s="81" t="s">
         <v>194</v>
@@ -6293,7 +6335,7 @@
         <v>26</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>8</v>
+        <v>204</v>
       </c>
       <c r="H17" s="81" t="s">
         <v>14</v>
@@ -6305,8 +6347,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="91"/>
-      <c r="C18" s="91"/>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
       <c r="D18" s="75" t="s">
         <v>12</v>
       </c>
@@ -6346,8 +6388,8 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="91"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
       <c r="H20" s="75" t="s">
         <v>12</v>
       </c>
@@ -6380,7 +6422,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>116</v>
+        <v>207</v>
       </c>
       <c r="H22" s="81" t="s">
         <v>193</v>
@@ -6411,7 +6453,7 @@
         <v>29</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>5</v>
+        <v>203</v>
       </c>
       <c r="H24" s="81" t="s">
         <v>13</v>
@@ -6585,296 +6627,327 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD07F0D-FAEC-4973-B07B-39B1A9A12CE8}">
-  <dimension ref="B1:F26"/>
+  <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="24.21875" customWidth="1"/>
     <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="93" t="s">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="94" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="95"/>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="98">
+      <c r="F2" s="105"/>
+      <c r="H2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="106">
         <v>1</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="105" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="99"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="100">
+      <c r="F3" s="102"/>
+      <c r="H3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="97">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="106" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="101"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="100">
+      <c r="F4" s="94"/>
+      <c r="H4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="97">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="106" t="s">
+      <c r="C5" s="98"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="101"/>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B6" s="100">
+      <c r="F5" s="94"/>
+      <c r="H5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="97">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="106" t="s">
+      <c r="C6" s="98"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="101"/>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="100">
+      <c r="F6" s="94"/>
+      <c r="H6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="97">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="106" t="s">
+      <c r="C7" s="98"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="101"/>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="100">
+      <c r="F7" s="94"/>
+      <c r="H7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="97">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="101"/>
-      <c r="E8" s="106"/>
-      <c r="F8" s="101"/>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B9" s="100">
+      <c r="C8" s="98"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="94"/>
+      <c r="H8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="97">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="106"/>
-      <c r="F9" s="101"/>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B10" s="100">
+      <c r="C9" s="98"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="H9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="97">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="106"/>
-      <c r="F10" s="101"/>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="100">
+      <c r="C10" s="98"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="97">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="101"/>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="100">
+      <c r="C11" s="98"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="97">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="106"/>
-      <c r="F12" s="101"/>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="100">
+      <c r="C12" s="98"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="97">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="106"/>
-      <c r="F13" s="101"/>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="100">
+      <c r="C13" s="98"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="97">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="101"/>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="100">
+      <c r="C14" s="98"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="94"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="97">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="101"/>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="100">
+      <c r="C15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="97">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="106"/>
-      <c r="F16" s="101"/>
+      <c r="C16" s="98"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="100">
+      <c r="B17" s="97">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="101"/>
+      <c r="C17" s="98"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="100">
+      <c r="B18" s="97">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="101"/>
+      <c r="C18" s="98"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="100">
+      <c r="B19" s="97">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="106"/>
-      <c r="F19" s="101"/>
+      <c r="C19" s="98"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="100">
+      <c r="B20" s="97">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="106"/>
-      <c r="F20" s="101"/>
+      <c r="C20" s="98"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="100">
+      <c r="B21" s="97">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="101"/>
+      <c r="C21" s="98"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="94"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="100">
+      <c r="B22" s="97">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="106"/>
-      <c r="F22" s="101"/>
+      <c r="C22" s="98"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="100">
+      <c r="B23" s="97">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="106"/>
-      <c r="F23" s="101"/>
+      <c r="C23" s="98"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="100">
+      <c r="B24" s="97">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="106"/>
-      <c r="F24" s="101"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="94"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="100">
+      <c r="B25" s="97">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="106"/>
-      <c r="F25" s="101"/>
+      <c r="C25" s="98"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="94"/>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="102">
+      <c r="B26" s="99">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="103"/>
-      <c r="D26" s="104"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="104"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
@@ -6891,25 +6964,21 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRII\PBL\PBL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB22343-5F1C-4CD3-8994-7E8813D8A45D}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
     <sheet name="Rede" sheetId="3" r:id="rId2"/>
     <sheet name="VLAN" sheetId="2" r:id="rId3"/>
+    <sheet name="Implementação" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="217">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -420,9 +421,6 @@
     <t>Tabela VLAN's DataCenter</t>
   </si>
   <si>
-    <t>????</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -619,6 +617,78 @@
   </si>
   <si>
     <t>G7/0/</t>
+  </si>
+  <si>
+    <t>Acesso a todas as redes.</t>
+  </si>
+  <si>
+    <t>Acesso à Internet e aos serviços internos respetivos.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Ordem de implementação</t>
+  </si>
+  <si>
+    <t>Pontos</t>
+  </si>
+  <si>
+    <t>Topologia</t>
+  </si>
+  <si>
+    <t>Ligação física</t>
+  </si>
+  <si>
+    <t>Subnetting</t>
+  </si>
+  <si>
+    <t>Criação de interfaces lógicas (route on the stick)</t>
+  </si>
+  <si>
+    <t>VTP (criação das VLAN's)</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>Gestao</t>
+  </si>
+  <si>
+    <t>Serviços-Academicos</t>
+  </si>
+  <si>
+    <t>Conselho-Gestao</t>
+  </si>
+  <si>
+    <t>Informatica</t>
+  </si>
+  <si>
+    <t>STP (Edificio 1)</t>
+  </si>
+  <si>
+    <t>O que falta</t>
+  </si>
+  <si>
+    <t>Native VLAN Trunks</t>
+  </si>
+  <si>
+    <t>Native Router</t>
+  </si>
+  <si>
+    <t>Static Routing</t>
+  </si>
+  <si>
+    <t>DHCP</t>
+  </si>
+  <si>
+    <t>DNS</t>
+  </si>
+  <si>
+    <t>SVI + Default gateway (atribuir ip a vlan de gestao do switch)</t>
+  </si>
+  <si>
+    <t>Segurança</t>
   </si>
 </sst>
 </file>
@@ -655,21 +725,15 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="45">
+  <borders count="46">
     <border>
       <left/>
       <right/>
@@ -1235,11 +1299,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1247,19 +1324,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1463,6 +1531,42 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1481,26 +1585,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1818,2333 +1955,2333 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F286A72-55C7-45FC-BA31-552B8F8C6C3B}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="24" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="24" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="24" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="24"/>
-    <col min="6" max="6" width="11" style="24" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="24" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="24"/>
-    <col min="10" max="10" width="12.33203125" style="24" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12" style="24" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="24"/>
-    <col min="14" max="14" width="11.44140625" style="24" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="24" customWidth="1"/>
-    <col min="17" max="18" width="9.109375" style="24"/>
-    <col min="19" max="19" width="22.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.109375" style="24"/>
-    <col min="23" max="23" width="22.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="24"/>
+    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="21"/>
+    <col min="6" max="6" width="11" style="21" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="21"/>
+    <col min="10" max="10" width="12.33203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12" style="21" customWidth="1"/>
+    <col min="13" max="13" width="9.109375" style="21"/>
+    <col min="14" max="14" width="11.44140625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="21" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" style="21"/>
+    <col min="19" max="19" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.109375" style="21"/>
+    <col min="23" max="23" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="83" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="75"/>
-      <c r="H2" s="76"/>
-      <c r="J2" s="74" t="s">
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85"/>
+      <c r="J2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="75"/>
-      <c r="L2" s="75"/>
-      <c r="M2" s="75"/>
-      <c r="N2" s="75"/>
-      <c r="O2" s="75"/>
-      <c r="P2" s="76"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="84"/>
+      <c r="M2" s="84"/>
+      <c r="N2" s="84"/>
+      <c r="O2" s="84"/>
+      <c r="P2" s="85"/>
     </row>
     <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="30"/>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="27"/>
+      <c r="F3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="9" t="s">
+      <c r="J3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M3" s="30"/>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="31"/>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="28"/>
+      <c r="F4" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="L4" s="16" t="s">
+      <c r="L4" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="M4" s="31"/>
-      <c r="N4" s="14" t="s">
+      <c r="M4" s="28"/>
+      <c r="N4" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="15" t="s">
+      <c r="O4" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="12" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="15" t="s">
+      <c r="C5" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="31"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="28"/>
+      <c r="F5" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="M5" s="31"/>
-      <c r="N5" s="14" t="s">
+      <c r="M5" s="28"/>
+      <c r="N5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="O5" s="15" t="s">
+      <c r="O5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="15" t="s">
+      <c r="P5" s="12" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="31"/>
-      <c r="F6" s="14" t="s">
+      <c r="E6" s="28"/>
+      <c r="F6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="M6" s="31"/>
-      <c r="N6" s="14" t="s">
+      <c r="M6" s="28"/>
+      <c r="N6" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O6" s="15" t="s">
+      <c r="O6" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="P6" s="12" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="16" t="s">
+      <c r="D7" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="31"/>
-      <c r="F7" s="14" t="s">
+      <c r="E7" s="28"/>
+      <c r="F7" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="15" t="s">
+      <c r="J7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="15" t="s">
+      <c r="K7" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="L7" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="M7" s="32"/>
-      <c r="N7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O7" s="15" t="s">
+      <c r="M7" s="29"/>
+      <c r="N7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O7" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="P7" s="12" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="28"/>
+      <c r="F8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="M8" s="33"/>
+      <c r="M8" s="30"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="15" t="s">
+      <c r="C9" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>193</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="14" t="s">
+      <c r="D9" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="28"/>
+      <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="12" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.3">
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="15" t="s">
+      <c r="C10" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="8" t="s">
+      <c r="D10" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="23" t="s">
+      <c r="E10" s="28"/>
+      <c r="F10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="12" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="22"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-    </row>
-    <row r="13" spans="2:25" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="21"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="22"/>
+    <row r="11" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+    </row>
+    <row r="13" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="18"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="19"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
-      <c r="H13" s="22"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="19"/>
     </row>
     <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="R14" s="35"/>
-      <c r="S14" s="35"/>
-      <c r="T14" s="35"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
+      <c r="R14" s="32"/>
+      <c r="S14" s="32"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
+      <c r="W14" s="32"/>
+      <c r="X14" s="32"/>
+      <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="74" t="s">
+      <c r="B15" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="76"/>
-      <c r="J15" s="74" t="s">
-        <v>32</v>
-      </c>
-      <c r="K15" s="77"/>
-      <c r="L15" s="77"/>
-      <c r="M15" s="77"/>
-      <c r="N15" s="77"/>
-      <c r="O15" s="77"/>
-      <c r="P15" s="78"/>
-      <c r="R15" s="79"/>
-      <c r="S15" s="79"/>
-      <c r="T15" s="79"/>
-      <c r="U15" s="79"/>
-      <c r="V15" s="79"/>
-      <c r="W15" s="79"/>
-      <c r="X15" s="79"/>
-      <c r="Y15" s="35"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="84"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
+      <c r="G15" s="84"/>
+      <c r="H15" s="85"/>
+      <c r="J15" s="83" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" s="86"/>
+      <c r="L15" s="86"/>
+      <c r="M15" s="86"/>
+      <c r="N15" s="86"/>
+      <c r="O15" s="86"/>
+      <c r="P15" s="87"/>
+      <c r="R15" s="88"/>
+      <c r="S15" s="88"/>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="88"/>
+      <c r="X15" s="88"/>
+      <c r="Y15" s="32"/>
     </row>
     <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="31"/>
-      <c r="F16" s="10" t="s">
+      <c r="E16" s="28"/>
+      <c r="F16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="H16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="J16" s="9" t="s">
+      <c r="J16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K16" s="11" t="s">
+      <c r="K16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="28" t="s">
+      <c r="L16" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="M16" s="30"/>
-      <c r="N16" s="10" t="s">
+      <c r="M16" s="27"/>
+      <c r="N16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="O16" s="11" t="s">
+      <c r="O16" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="P16" s="29" t="s">
+      <c r="P16" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="35"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="19"/>
+      <c r="U16" s="32"/>
+      <c r="V16" s="18"/>
+      <c r="W16" s="18"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="32"/>
     </row>
     <row r="17" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A17" s="24">
+      <c r="A17" s="21">
         <v>1</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="E17" s="31"/>
-      <c r="F17" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="13" t="s">
+      <c r="E17" s="28"/>
+      <c r="F17" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="J17" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K17" s="15" t="s">
+      <c r="J17" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K17" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L17" s="16" t="s">
+      <c r="L17" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="M17" s="34"/>
-      <c r="N17" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O17" s="15" t="s">
+      <c r="M17" s="31"/>
+      <c r="N17" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O17" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="P17" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="35"/>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
+      <c r="R17" s="32"/>
+      <c r="S17" s="32"/>
+      <c r="T17" s="32"/>
+      <c r="U17" s="32"/>
+      <c r="V17" s="32"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="32"/>
     </row>
     <row r="18" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A18" s="24">
+      <c r="A18" s="21">
         <f>A17+1</f>
         <v>2</v>
       </c>
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="14" t="s">
+      <c r="E18" s="28"/>
+      <c r="F18" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J18" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K18" s="15" t="s">
+      <c r="J18" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K18" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="L18" s="16" t="s">
+      <c r="L18" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M18" s="31"/>
-      <c r="N18" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O18" s="15" t="s">
+      <c r="M18" s="28"/>
+      <c r="N18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O18" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="P18" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="35"/>
-      <c r="X18" s="35"/>
-      <c r="Y18" s="35"/>
+      <c r="R18" s="32"/>
+      <c r="S18" s="32"/>
+      <c r="T18" s="32"/>
+      <c r="U18" s="32"/>
+      <c r="V18" s="32"/>
+      <c r="W18" s="32"/>
+      <c r="X18" s="32"/>
+      <c r="Y18" s="32"/>
     </row>
     <row r="19" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A19" s="24">
+      <c r="A19" s="21">
         <f t="shared" ref="A19:A58" si="0">A18+1</f>
         <v>3</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="28"/>
+      <c r="F19" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J19" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" s="15" t="s">
+      <c r="J19" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="L19" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M19" s="31"/>
-      <c r="N19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O19" s="15" t="s">
+      <c r="M19" s="28"/>
+      <c r="N19" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O19" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="P19" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35"/>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
+      <c r="R19" s="32"/>
+      <c r="S19" s="32"/>
+      <c r="T19" s="32"/>
+      <c r="U19" s="32"/>
+      <c r="V19" s="32"/>
+      <c r="W19" s="32"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="32"/>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A20" s="24">
+      <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="D20" s="16" t="s">
+      <c r="D20" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E20" s="31"/>
-      <c r="F20" s="14" t="s">
+      <c r="E20" s="28"/>
+      <c r="F20" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="15" t="s">
+      <c r="J20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="L20" s="16" t="s">
+      <c r="L20" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M20" s="39"/>
-      <c r="N20" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O20" s="15" t="s">
+      <c r="M20" s="36"/>
+      <c r="N20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O20" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="P20" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
-      <c r="T20" s="35"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="35"/>
-      <c r="X20" s="35"/>
-      <c r="Y20" s="35"/>
+      <c r="R20" s="32"/>
+      <c r="S20" s="32"/>
+      <c r="T20" s="32"/>
+      <c r="U20" s="32"/>
+      <c r="V20" s="32"/>
+      <c r="W20" s="32"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A21" s="24">
+      <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="D21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="14" t="s">
+      <c r="E21" s="28"/>
+      <c r="F21" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="15" t="s">
+      <c r="G21" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K21" s="15" t="s">
+      <c r="J21" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="L21" s="16" t="s">
+      <c r="L21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M21" s="34"/>
-      <c r="N21" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O21" s="15" t="s">
+      <c r="M21" s="31"/>
+      <c r="N21" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="P21" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
-      <c r="T21" s="35"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="35"/>
-      <c r="X21" s="35"/>
-      <c r="Y21" s="35"/>
+      <c r="R21" s="32"/>
+      <c r="S21" s="32"/>
+      <c r="T21" s="32"/>
+      <c r="U21" s="32"/>
+      <c r="V21" s="32"/>
+      <c r="W21" s="32"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="32"/>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A22" s="24">
+      <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B22" s="15" t="s">
+      <c r="B22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C22" s="15" t="s">
+      <c r="C22" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="31"/>
-      <c r="F22" s="15" t="s">
+      <c r="E22" s="28"/>
+      <c r="F22" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G22" s="15" t="s">
+      <c r="G22" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="H22" s="15" t="s">
+      <c r="H22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J22" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K22" s="15" t="s">
+      <c r="J22" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="L22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M22" s="31"/>
-      <c r="N22" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O22" s="15" t="s">
+      <c r="M22" s="28"/>
+      <c r="N22" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="P22" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R22" s="35"/>
-      <c r="S22" s="35"/>
-      <c r="T22" s="35"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="35"/>
-      <c r="X22" s="35"/>
-      <c r="Y22" s="35"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="32"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A23" s="24">
+      <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B23" s="15" t="s">
+      <c r="B23" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="C23" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="D23" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="E23" s="28"/>
+      <c r="F23" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H23" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J23" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K23" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="L23" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="15" t="s">
+      <c r="M23" s="36"/>
+      <c r="N23" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O23" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P23" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="L23" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="M23" s="39"/>
-      <c r="N23" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="P23" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="R23" s="35"/>
-      <c r="S23" s="35"/>
-      <c r="T23" s="35"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="35"/>
-      <c r="X23" s="35"/>
-      <c r="Y23" s="35"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="32"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A24" s="24">
+      <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B24" s="15" t="s">
+      <c r="B24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="D24" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="31"/>
-      <c r="F24" s="15" t="s">
+      <c r="E24" s="28"/>
+      <c r="F24" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="G24" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="15" t="s">
+      <c r="J24" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K24" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L24" s="16" t="s">
+      <c r="L24" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M24" s="34"/>
-      <c r="N24" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O24" s="15" t="s">
+      <c r="M24" s="31"/>
+      <c r="N24" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O24" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="P24" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R24" s="35"/>
-      <c r="S24" s="35"/>
-      <c r="T24" s="35"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="35"/>
-      <c r="X24" s="35"/>
-      <c r="Y24" s="35"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="32"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A25" s="24">
+      <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B25" s="15" t="s">
+      <c r="B25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="D25" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="15" t="s">
+      <c r="E25" s="28"/>
+      <c r="F25" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G25" s="15" t="s">
+      <c r="G25" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J25" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K25" s="15" t="s">
+      <c r="J25" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K25" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="L25" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M25" s="31"/>
-      <c r="N25" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O25" s="15" t="s">
+      <c r="M25" s="28"/>
+      <c r="N25" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O25" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="P25" s="15" t="s">
+      <c r="P25" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R25" s="35"/>
-      <c r="S25" s="35"/>
-      <c r="T25" s="35"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="35"/>
-      <c r="X25" s="35"/>
-      <c r="Y25" s="35"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="32"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A26" s="24">
+      <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="15" t="s">
+      <c r="E26" s="28"/>
+      <c r="F26" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G26" s="15" t="s">
+      <c r="G26" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H26" s="15" t="s">
+      <c r="H26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J26" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K26" s="15" t="s">
+      <c r="J26" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K26" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="L26" s="16" t="s">
+      <c r="L26" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M26" s="31"/>
-      <c r="N26" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O26" s="15" t="s">
+      <c r="M26" s="28"/>
+      <c r="N26" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O26" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="P26" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
-      <c r="T26" s="35"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="35"/>
-      <c r="X26" s="35"/>
-      <c r="Y26" s="35"/>
+      <c r="R26" s="32"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="32"/>
+      <c r="U26" s="32"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="32"/>
+      <c r="X26" s="32"/>
+      <c r="Y26" s="32"/>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A27" s="24">
+      <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B27" s="25" t="s">
+      <c r="B27" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C27" s="25" t="s">
+      <c r="C27" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="25" t="s">
+      <c r="D27" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="25" t="s">
+      <c r="E27" s="28"/>
+      <c r="F27" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G27" s="25" t="s">
+      <c r="G27" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="H27" s="25" t="s">
+      <c r="H27" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="J27" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K27" s="15" t="s">
+      <c r="J27" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K27" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="L27" s="16" t="s">
+      <c r="L27" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="M27" s="31"/>
-      <c r="N27" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O27" s="15" t="s">
+      <c r="M27" s="28"/>
+      <c r="N27" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O27" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="P27" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="R27" s="35"/>
-      <c r="S27" s="35"/>
-      <c r="T27" s="35"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="35"/>
-      <c r="X27" s="35"/>
-      <c r="Y27" s="35"/>
+      <c r="R27" s="32"/>
+      <c r="S27" s="32"/>
+      <c r="T27" s="32"/>
+      <c r="U27" s="32"/>
+      <c r="V27" s="32"/>
+      <c r="W27" s="32"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="32"/>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A28" s="24">
+      <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="25" t="s">
+      <c r="C28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="25" t="s">
+      <c r="D28" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="E28" s="31"/>
-      <c r="F28" s="25" t="s">
+      <c r="E28" s="28"/>
+      <c r="F28" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G28" s="25" t="s">
+      <c r="G28" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="H28" s="25" t="s">
+      <c r="H28" s="22" t="s">
         <v>121</v>
       </c>
-      <c r="J28" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K28" s="15" t="s">
+      <c r="J28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="L28" s="15" t="s">
+      <c r="L28" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="M28" s="34"/>
-      <c r="N28" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O28" s="15" t="s">
+      <c r="M28" s="31"/>
+      <c r="N28" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O28" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P28" s="15" t="s">
+      <c r="P28" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="R28" s="35"/>
-      <c r="S28" s="35"/>
-      <c r="T28" s="35"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="35"/>
-      <c r="X28" s="35"/>
-      <c r="Y28" s="35"/>
+      <c r="R28" s="32"/>
+      <c r="S28" s="32"/>
+      <c r="T28" s="32"/>
+      <c r="U28" s="32"/>
+      <c r="V28" s="32"/>
+      <c r="W28" s="32"/>
+      <c r="X28" s="32"/>
+      <c r="Y28" s="32"/>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A29" s="24">
+      <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B29" s="25" t="s">
+      <c r="B29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="25" t="s">
+      <c r="C29" s="22" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="25" t="s">
+      <c r="D29" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="E29" s="31"/>
-      <c r="F29" s="25" t="s">
+      <c r="E29" s="28"/>
+      <c r="F29" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="H29" s="25" t="s">
+      <c r="G29" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="22" t="s">
         <v>122</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K29" s="25" t="s">
+      <c r="J29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="L29" s="15" t="s">
+      <c r="L29" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="M29" s="34"/>
-      <c r="N29" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O29" s="15" t="s">
+      <c r="M29" s="31"/>
+      <c r="N29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O29" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P29" s="15" t="s">
+      <c r="P29" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="R29" s="35"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="35"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="35"/>
-      <c r="X29" s="35"/>
-      <c r="Y29" s="35"/>
+      <c r="R29" s="32"/>
+      <c r="S29" s="17"/>
+      <c r="T29" s="32"/>
+      <c r="U29" s="32"/>
+      <c r="V29" s="32"/>
+      <c r="W29" s="32"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="32"/>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A30" s="24">
+      <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B30" s="15" t="s">
+      <c r="B30" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E30" s="31"/>
-      <c r="F30" s="14" t="s">
+      <c r="E30" s="28"/>
+      <c r="F30" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="15" t="s">
+      <c r="G30" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H30" s="15" t="s">
+      <c r="H30" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J30" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K30" s="15" t="s">
+      <c r="J30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K30" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="L30" s="15" t="s">
+      <c r="L30" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="M30" s="34"/>
-      <c r="N30" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="O30" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" s="15" t="s">
+      <c r="M30" s="31"/>
+      <c r="N30" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O30" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="P30" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="R30" s="35"/>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="35"/>
-      <c r="X30" s="35"/>
-      <c r="Y30" s="35"/>
+      <c r="R30" s="32"/>
+      <c r="S30" s="32"/>
+      <c r="T30" s="32"/>
+      <c r="U30" s="32"/>
+      <c r="V30" s="32"/>
+      <c r="W30" s="32"/>
+      <c r="X30" s="32"/>
+      <c r="Y30" s="32"/>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A31" s="24">
+      <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B31" s="15" t="s">
+      <c r="B31" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="D31" s="16" t="s">
+      <c r="D31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E31" s="31"/>
-      <c r="F31" s="14" t="s">
+      <c r="E31" s="28"/>
+      <c r="F31" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G31" s="15" t="s">
+      <c r="G31" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J31" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="15" t="s">
+      <c r="J31" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K31" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="L31" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M31" s="39"/>
-      <c r="N31" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="15" t="s">
+      <c r="M31" s="36"/>
+      <c r="N31" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O31" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P31" s="15" t="s">
+      <c r="P31" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="35"/>
-      <c r="W31" s="35"/>
-      <c r="X31" s="35"/>
-      <c r="Y31" s="35"/>
+      <c r="R31" s="32"/>
+      <c r="S31" s="32"/>
+      <c r="T31" s="32"/>
+      <c r="U31" s="32"/>
+      <c r="V31" s="32"/>
+      <c r="W31" s="32"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="32"/>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A32" s="24">
+      <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B32" s="15" t="s">
+      <c r="B32" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D32" s="16" t="s">
+      <c r="D32" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E32" s="31"/>
-      <c r="F32" s="14" t="s">
+      <c r="E32" s="28"/>
+      <c r="F32" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J32" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="15" t="s">
+      <c r="J32" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K32" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="L32" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M32" s="31"/>
-      <c r="N32" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="15" t="s">
+      <c r="M32" s="28"/>
+      <c r="N32" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O32" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P32" s="15" t="s">
+      <c r="P32" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="35"/>
-      <c r="W32" s="35"/>
-      <c r="X32" s="35"/>
-      <c r="Y32" s="35"/>
+      <c r="R32" s="32"/>
+      <c r="S32" s="32"/>
+      <c r="T32" s="32"/>
+      <c r="U32" s="32"/>
+      <c r="V32" s="32"/>
+      <c r="W32" s="32"/>
+      <c r="X32" s="32"/>
+      <c r="Y32" s="32"/>
     </row>
     <row r="33" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A33" s="24">
+      <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B33" s="15" t="s">
+      <c r="B33" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D33" s="16" t="s">
+      <c r="D33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E33" s="31"/>
-      <c r="F33" s="14" t="s">
+      <c r="E33" s="28"/>
+      <c r="F33" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J33" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" s="15" t="s">
+      <c r="J33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K33" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="L33" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M33" s="39"/>
-      <c r="N33" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="15" t="s">
+      <c r="M33" s="36"/>
+      <c r="N33" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O33" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P33" s="15" t="s">
+      <c r="P33" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="35"/>
-      <c r="W33" s="35"/>
-      <c r="X33" s="35"/>
-      <c r="Y33" s="35"/>
+      <c r="R33" s="32"/>
+      <c r="S33" s="32"/>
+      <c r="T33" s="32"/>
+      <c r="U33" s="32"/>
+      <c r="V33" s="32"/>
+      <c r="W33" s="32"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="32"/>
     </row>
     <row r="34" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A34" s="24">
+      <c r="A34" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B34" s="15" t="s">
+      <c r="B34" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="31"/>
-      <c r="F34" s="14" t="s">
+      <c r="E34" s="28"/>
+      <c r="F34" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="15" t="s">
+      <c r="G34" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H34" s="15" t="s">
+      <c r="H34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="J34" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="15" t="s">
+      <c r="J34" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K34" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="L34" s="16" t="s">
+      <c r="L34" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M34" s="34"/>
-      <c r="N34" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="15" t="s">
+      <c r="M34" s="31"/>
+      <c r="N34" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O34" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P34" s="15" t="s">
+      <c r="P34" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R34" s="35"/>
-      <c r="S34" s="35"/>
-      <c r="T34" s="35"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="35"/>
-      <c r="W34" s="35"/>
-      <c r="X34" s="35"/>
-      <c r="Y34" s="35"/>
+      <c r="R34" s="32"/>
+      <c r="S34" s="32"/>
+      <c r="T34" s="32"/>
+      <c r="U34" s="32"/>
+      <c r="V34" s="32"/>
+      <c r="W34" s="32"/>
+      <c r="X34" s="32"/>
+      <c r="Y34" s="32"/>
     </row>
     <row r="35" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A35" s="24">
+      <c r="A35" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B35" s="15" t="s">
+      <c r="B35" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D35" s="16" t="s">
+      <c r="D35" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E35" s="31"/>
-      <c r="F35" s="14" t="s">
+      <c r="E35" s="28"/>
+      <c r="F35" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G35" s="15" t="s">
+      <c r="G35" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H35" s="15" t="s">
+      <c r="H35" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J35" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="15" t="s">
+      <c r="J35" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K35" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="L35" s="16" t="s">
+      <c r="L35" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M35" s="34"/>
-      <c r="N35" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="15" t="s">
+      <c r="M35" s="31"/>
+      <c r="N35" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O35" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P35" s="15" t="s">
+      <c r="P35" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R35" s="35"/>
-      <c r="S35" s="35"/>
-      <c r="T35" s="35"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="35"/>
-      <c r="W35" s="35"/>
-      <c r="X35" s="35"/>
-      <c r="Y35" s="35"/>
+      <c r="R35" s="32"/>
+      <c r="S35" s="32"/>
+      <c r="T35" s="32"/>
+      <c r="U35" s="32"/>
+      <c r="V35" s="32"/>
+      <c r="W35" s="32"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="32"/>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A36" s="24">
+      <c r="A36" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B36" s="15" t="s">
+      <c r="B36" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="D36" s="16" t="s">
+      <c r="D36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="31"/>
-      <c r="F36" s="14" t="s">
+      <c r="E36" s="28"/>
+      <c r="F36" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J36" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="15" t="s">
+      <c r="J36" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K36" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="L36" s="16" t="s">
+      <c r="L36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M36" s="39"/>
-      <c r="N36" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="15" t="s">
+      <c r="M36" s="36"/>
+      <c r="N36" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P36" s="15" t="s">
+      <c r="P36" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R36" s="35"/>
-      <c r="S36" s="35"/>
-      <c r="T36" s="35"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="35"/>
-      <c r="W36" s="35"/>
-      <c r="X36" s="35"/>
-      <c r="Y36" s="35"/>
+      <c r="R36" s="32"/>
+      <c r="S36" s="32"/>
+      <c r="T36" s="32"/>
+      <c r="U36" s="32"/>
+      <c r="V36" s="32"/>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
     </row>
     <row r="37" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A37" s="24">
+      <c r="A37" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B37" s="15" t="s">
+      <c r="B37" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="D37" s="16" t="s">
+      <c r="D37" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="31"/>
-      <c r="F37" s="14" t="s">
+      <c r="E37" s="28"/>
+      <c r="F37" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J37" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="15" t="s">
+      <c r="J37" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K37" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="L37" s="16" t="s">
+      <c r="L37" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M37" s="31"/>
-      <c r="N37" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="15" t="s">
+      <c r="M37" s="28"/>
+      <c r="N37" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O37" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P37" s="15" t="s">
+      <c r="P37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R37" s="35"/>
-      <c r="S37" s="35"/>
-      <c r="T37" s="35"/>
-      <c r="U37" s="35"/>
-      <c r="V37" s="35"/>
-      <c r="W37" s="35"/>
-      <c r="X37" s="35"/>
-      <c r="Y37" s="35"/>
+      <c r="R37" s="32"/>
+      <c r="S37" s="32"/>
+      <c r="T37" s="32"/>
+      <c r="U37" s="32"/>
+      <c r="V37" s="32"/>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A38" s="24">
+      <c r="A38" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B38" s="15" t="s">
+      <c r="B38" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E38" s="31"/>
-      <c r="F38" s="14" t="s">
+      <c r="E38" s="28"/>
+      <c r="F38" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G38" s="15" t="s">
+      <c r="G38" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="H38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J38" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="15" t="s">
+      <c r="J38" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K38" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="L38" s="16" t="s">
+      <c r="L38" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M38" s="34"/>
-      <c r="N38" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" s="15" t="s">
+      <c r="M38" s="31"/>
+      <c r="N38" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O38" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P38" s="15" t="s">
+      <c r="P38" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R38" s="35"/>
-      <c r="S38" s="35"/>
-      <c r="T38" s="35"/>
-      <c r="U38" s="35"/>
-      <c r="V38" s="35"/>
-      <c r="W38" s="35"/>
-      <c r="X38" s="35"/>
-      <c r="Y38" s="35"/>
+      <c r="R38" s="32"/>
+      <c r="S38" s="32"/>
+      <c r="T38" s="32"/>
+      <c r="U38" s="32"/>
+      <c r="V38" s="32"/>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A39" s="24">
+      <c r="A39" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B39" s="15" t="s">
+      <c r="B39" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="D39" s="16" t="s">
+      <c r="D39" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E39" s="31"/>
-      <c r="F39" s="14" t="s">
+      <c r="E39" s="28"/>
+      <c r="F39" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G39" s="15" t="s">
+      <c r="G39" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H39" s="15" t="s">
+      <c r="H39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J39" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" s="15" t="s">
+      <c r="J39" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K39" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="L39" s="16" t="s">
+      <c r="L39" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M39" s="34"/>
-      <c r="N39" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="15" t="s">
+      <c r="M39" s="31"/>
+      <c r="N39" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O39" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P39" s="15" t="s">
+      <c r="P39" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R39" s="35"/>
-      <c r="S39" s="35"/>
-      <c r="T39" s="35"/>
-      <c r="U39" s="35"/>
-      <c r="V39" s="35"/>
-      <c r="W39" s="35"/>
-      <c r="X39" s="35"/>
-      <c r="Y39" s="35"/>
+      <c r="R39" s="32"/>
+      <c r="S39" s="32"/>
+      <c r="T39" s="32"/>
+      <c r="U39" s="32"/>
+      <c r="V39" s="32"/>
+      <c r="W39" s="32"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="32"/>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A40" s="24">
+      <c r="A40" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B40" s="15" t="s">
+      <c r="B40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="D40" s="16" t="s">
+      <c r="D40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E40" s="31"/>
-      <c r="F40" s="14" t="s">
+      <c r="E40" s="28"/>
+      <c r="F40" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="J40" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="15" t="s">
+      <c r="J40" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="L40" s="16" t="s">
+      <c r="L40" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M40" s="34"/>
-      <c r="N40" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="15" t="s">
+      <c r="M40" s="31"/>
+      <c r="N40" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O40" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P40" s="15" t="s">
+      <c r="P40" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R40" s="35"/>
-      <c r="S40" s="35"/>
-      <c r="T40" s="35"/>
-      <c r="U40" s="35"/>
-      <c r="V40" s="35"/>
-      <c r="W40" s="35"/>
-      <c r="X40" s="35"/>
-      <c r="Y40" s="35"/>
+      <c r="R40" s="32"/>
+      <c r="S40" s="32"/>
+      <c r="T40" s="32"/>
+      <c r="U40" s="32"/>
+      <c r="V40" s="32"/>
+      <c r="W40" s="32"/>
+      <c r="X40" s="32"/>
+      <c r="Y40" s="32"/>
     </row>
     <row r="41" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A41" s="24">
+      <c r="A41" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B41" s="15" t="s">
+      <c r="B41" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="D41" s="16" t="s">
+      <c r="D41" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E41" s="31"/>
-      <c r="F41" s="14" t="s">
+      <c r="E41" s="28"/>
+      <c r="F41" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J41" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="15" t="s">
+      <c r="J41" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K41" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="L41" s="16" t="s">
+      <c r="L41" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M41" s="34"/>
-      <c r="N41" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="15" t="s">
+      <c r="M41" s="31"/>
+      <c r="N41" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O41" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P41" s="15" t="s">
+      <c r="P41" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R41" s="35"/>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="35"/>
-      <c r="X41" s="35"/>
-      <c r="Y41" s="35"/>
+      <c r="R41" s="32"/>
+      <c r="S41" s="32"/>
+      <c r="T41" s="32"/>
+      <c r="U41" s="32"/>
+      <c r="V41" s="32"/>
+      <c r="W41" s="32"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="32"/>
     </row>
     <row r="42" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A42" s="24">
+      <c r="A42" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B42" s="15" t="s">
+      <c r="B42" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E42" s="31"/>
-      <c r="F42" s="14" t="s">
+      <c r="E42" s="28"/>
+      <c r="F42" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G42" s="15" t="s">
+      <c r="G42" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H42" s="15" t="s">
+      <c r="H42" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="J42" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="15" t="s">
+      <c r="J42" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K42" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="L42" s="16" t="s">
+      <c r="L42" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M42" s="34"/>
-      <c r="N42" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="15" t="s">
+      <c r="M42" s="31"/>
+      <c r="N42" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O42" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P42" s="15" t="s">
+      <c r="P42" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R42" s="35"/>
-      <c r="S42" s="35"/>
-      <c r="T42" s="35"/>
-      <c r="U42" s="35"/>
-      <c r="V42" s="35"/>
-      <c r="W42" s="35"/>
-      <c r="X42" s="35"/>
-      <c r="Y42" s="35"/>
+      <c r="R42" s="32"/>
+      <c r="S42" s="32"/>
+      <c r="T42" s="32"/>
+      <c r="U42" s="32"/>
+      <c r="V42" s="32"/>
+      <c r="W42" s="32"/>
+      <c r="X42" s="32"/>
+      <c r="Y42" s="32"/>
     </row>
     <row r="43" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A43" s="24">
+      <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D43" s="16" t="s">
+      <c r="D43" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E43" s="31"/>
-      <c r="F43" s="14" t="s">
+      <c r="E43" s="28"/>
+      <c r="F43" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="G43" s="15" t="s">
+      <c r="G43" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="H43" s="15" t="s">
+      <c r="H43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="J43" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="15" t="s">
+      <c r="J43" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K43" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="L43" s="16" t="s">
+      <c r="L43" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M43" s="34"/>
-      <c r="N43" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="15" t="s">
+      <c r="M43" s="31"/>
+      <c r="N43" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O43" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P43" s="15" t="s">
+      <c r="P43" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R43" s="35"/>
-      <c r="S43" s="35"/>
-      <c r="T43" s="35"/>
-      <c r="U43" s="35"/>
-      <c r="V43" s="35"/>
-      <c r="W43" s="35"/>
-      <c r="X43" s="35"/>
-      <c r="Y43" s="35"/>
+      <c r="R43" s="32"/>
+      <c r="S43" s="32"/>
+      <c r="T43" s="32"/>
+      <c r="U43" s="32"/>
+      <c r="V43" s="32"/>
+      <c r="W43" s="32"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="32"/>
     </row>
     <row r="44" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A44" s="24">
+      <c r="A44" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="J44" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="15" t="s">
+      <c r="J44" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K44" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="L44" s="16" t="s">
+      <c r="L44" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M44" s="34"/>
-      <c r="N44" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" s="15" t="s">
+      <c r="M44" s="31"/>
+      <c r="N44" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O44" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P44" s="15" t="s">
+      <c r="P44" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R44" s="35"/>
-      <c r="S44" s="35"/>
-      <c r="T44" s="35"/>
-      <c r="U44" s="35"/>
-      <c r="V44" s="35"/>
-      <c r="W44" s="35"/>
-      <c r="X44" s="35"/>
-      <c r="Y44" s="35"/>
+      <c r="R44" s="32"/>
+      <c r="S44" s="32"/>
+      <c r="T44" s="32"/>
+      <c r="U44" s="32"/>
+      <c r="V44" s="32"/>
+      <c r="W44" s="32"/>
+      <c r="X44" s="32"/>
+      <c r="Y44" s="32"/>
     </row>
     <row r="45" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A45" s="24">
+      <c r="A45" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="J45" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" s="15" t="s">
+      <c r="J45" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K45" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="L45" s="16" t="s">
+      <c r="L45" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M45" s="39"/>
-      <c r="N45" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" s="15" t="s">
+      <c r="M45" s="36"/>
+      <c r="N45" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O45" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P45" s="15" t="s">
+      <c r="P45" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R45" s="35"/>
-      <c r="S45" s="35"/>
-      <c r="T45" s="35"/>
-      <c r="U45" s="35"/>
-      <c r="V45" s="35"/>
-      <c r="W45" s="35"/>
-      <c r="X45" s="35"/>
-      <c r="Y45" s="35"/>
+      <c r="R45" s="32"/>
+      <c r="S45" s="32"/>
+      <c r="T45" s="32"/>
+      <c r="U45" s="32"/>
+      <c r="V45" s="32"/>
+      <c r="W45" s="32"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="32"/>
     </row>
     <row r="46" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A46" s="24">
+      <c r="A46" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J46" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="15" t="s">
+      <c r="J46" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="L46" s="16" t="s">
+      <c r="L46" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M46" s="34"/>
-      <c r="N46" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O46" s="15" t="s">
+      <c r="M46" s="31"/>
+      <c r="N46" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O46" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P46" s="15" t="s">
+      <c r="P46" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R46" s="35"/>
-      <c r="S46" s="35"/>
-      <c r="T46" s="35"/>
-      <c r="U46" s="35"/>
-      <c r="V46" s="35"/>
-      <c r="W46" s="35"/>
-      <c r="X46" s="35"/>
-      <c r="Y46" s="35"/>
+      <c r="R46" s="32"/>
+      <c r="S46" s="32"/>
+      <c r="T46" s="32"/>
+      <c r="U46" s="32"/>
+      <c r="V46" s="32"/>
+      <c r="W46" s="32"/>
+      <c r="X46" s="32"/>
+      <c r="Y46" s="32"/>
     </row>
     <row r="47" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A47" s="24">
+      <c r="A47" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="J47" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" s="15" t="s">
+      <c r="J47" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="L47" s="16" t="s">
+      <c r="L47" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M47" s="39"/>
-      <c r="N47" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="15" t="s">
+      <c r="M47" s="36"/>
+      <c r="N47" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O47" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P47" s="15" t="s">
+      <c r="P47" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="R47" s="35"/>
-      <c r="S47" s="35"/>
-      <c r="T47" s="35"/>
-      <c r="U47" s="35"/>
-      <c r="V47" s="35"/>
-      <c r="W47" s="35"/>
-      <c r="X47" s="35"/>
-      <c r="Y47" s="35"/>
+      <c r="R47" s="32"/>
+      <c r="S47" s="32"/>
+      <c r="T47" s="32"/>
+      <c r="U47" s="32"/>
+      <c r="V47" s="32"/>
+      <c r="W47" s="32"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="32"/>
     </row>
     <row r="48" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A48" s="24">
+      <c r="A48" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J48" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="15" t="s">
+      <c r="J48" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K48" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="L48" s="16" t="s">
+      <c r="L48" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M48" s="31"/>
-      <c r="N48" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="15" t="s">
+      <c r="M48" s="28"/>
+      <c r="N48" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O48" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P48" s="15" t="s">
+      <c r="P48" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R48" s="35"/>
-      <c r="S48" s="35"/>
-      <c r="T48" s="35"/>
-      <c r="U48" s="35"/>
-      <c r="V48" s="35"/>
-      <c r="W48" s="35"/>
-      <c r="X48" s="35"/>
-      <c r="Y48" s="35"/>
+      <c r="R48" s="32"/>
+      <c r="S48" s="32"/>
+      <c r="T48" s="32"/>
+      <c r="U48" s="32"/>
+      <c r="V48" s="32"/>
+      <c r="W48" s="32"/>
+      <c r="X48" s="32"/>
+      <c r="Y48" s="32"/>
     </row>
     <row r="49" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A49" s="24">
+      <c r="A49" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="J49" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="15" t="s">
+      <c r="J49" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K49" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="L49" s="16" t="s">
+      <c r="L49" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M49" s="31"/>
-      <c r="N49" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="15" t="s">
+      <c r="M49" s="28"/>
+      <c r="N49" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O49" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="P49" s="15" t="s">
+      <c r="P49" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R49" s="35"/>
-      <c r="S49" s="35"/>
-      <c r="T49" s="35"/>
-      <c r="U49" s="35"/>
-      <c r="V49" s="35"/>
-      <c r="W49" s="35"/>
-      <c r="X49" s="35"/>
-      <c r="Y49" s="35"/>
+      <c r="R49" s="32"/>
+      <c r="S49" s="32"/>
+      <c r="T49" s="32"/>
+      <c r="U49" s="32"/>
+      <c r="V49" s="32"/>
+      <c r="W49" s="32"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="32"/>
     </row>
     <row r="50" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A50" s="24">
+      <c r="A50" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="J50" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="15" t="s">
+      <c r="J50" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K50" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="L50" s="16" t="s">
+      <c r="L50" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M50" s="31"/>
-      <c r="N50" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="15" t="s">
+      <c r="M50" s="28"/>
+      <c r="N50" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O50" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P50" s="15" t="s">
+      <c r="P50" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R50" s="35"/>
-      <c r="S50" s="35"/>
-      <c r="T50" s="35"/>
-      <c r="U50" s="35"/>
-      <c r="V50" s="35"/>
-      <c r="W50" s="35"/>
-      <c r="X50" s="35"/>
-      <c r="Y50" s="35"/>
+      <c r="R50" s="32"/>
+      <c r="S50" s="32"/>
+      <c r="T50" s="32"/>
+      <c r="U50" s="32"/>
+      <c r="V50" s="32"/>
+      <c r="W50" s="32"/>
+      <c r="X50" s="32"/>
+      <c r="Y50" s="32"/>
     </row>
     <row r="51" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A51" s="24">
+      <c r="A51" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="J51" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="15" t="s">
+      <c r="J51" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K51" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="L51" s="8" t="s">
+      <c r="L51" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M51" s="34"/>
-      <c r="N51" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" s="15" t="s">
+      <c r="M51" s="31"/>
+      <c r="N51" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="O51" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P51" s="15" t="s">
+      <c r="P51" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R51" s="35"/>
-      <c r="S51" s="35"/>
-      <c r="T51" s="35"/>
-      <c r="U51" s="35"/>
-      <c r="V51" s="35"/>
-      <c r="W51" s="35"/>
-      <c r="X51" s="35"/>
-      <c r="Y51" s="35"/>
+      <c r="R51" s="32"/>
+      <c r="S51" s="32"/>
+      <c r="T51" s="32"/>
+      <c r="U51" s="32"/>
+      <c r="V51" s="32"/>
+      <c r="W51" s="32"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="32"/>
     </row>
     <row r="52" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A52" s="24">
+      <c r="A52" s="21">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="J52" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="15" t="s">
+      <c r="J52" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K52" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="L52" s="16" t="s">
+      <c r="L52" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M52" s="31"/>
-      <c r="N52" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52" s="15" t="s">
+      <c r="M52" s="28"/>
+      <c r="N52" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O52" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P52" s="15" t="s">
+      <c r="P52" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R52" s="35"/>
-      <c r="S52" s="35"/>
-      <c r="T52" s="35"/>
-      <c r="U52" s="35"/>
-      <c r="V52" s="35"/>
-      <c r="W52" s="35"/>
-      <c r="X52" s="35"/>
-      <c r="Y52" s="35"/>
+      <c r="R52" s="32"/>
+      <c r="S52" s="32"/>
+      <c r="T52" s="32"/>
+      <c r="U52" s="32"/>
+      <c r="V52" s="32"/>
+      <c r="W52" s="32"/>
+      <c r="X52" s="32"/>
+      <c r="Y52" s="32"/>
     </row>
     <row r="53" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A53" s="24">
+      <c r="A53" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J53" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="15" t="s">
+      <c r="J53" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="L53" s="16" t="s">
+      <c r="L53" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M53" s="34"/>
-      <c r="N53" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" s="15" t="s">
+      <c r="M53" s="31"/>
+      <c r="N53" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O53" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="P53" s="15" t="s">
+      <c r="P53" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R53" s="35"/>
-      <c r="S53" s="35"/>
-      <c r="T53" s="35"/>
-      <c r="U53" s="35"/>
-      <c r="V53" s="35"/>
-      <c r="W53" s="35"/>
-      <c r="X53" s="35"/>
-      <c r="Y53" s="35"/>
+      <c r="R53" s="32"/>
+      <c r="S53" s="32"/>
+      <c r="T53" s="32"/>
+      <c r="U53" s="32"/>
+      <c r="V53" s="32"/>
+      <c r="W53" s="32"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="32"/>
     </row>
     <row r="54" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A54" s="24">
+      <c r="A54" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J54" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K54" s="15" t="s">
+      <c r="J54" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K54" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="L54" s="16" t="s">
+      <c r="L54" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M54" s="31"/>
-      <c r="N54" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="15" t="s">
+      <c r="M54" s="28"/>
+      <c r="N54" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O54" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="P54" s="15" t="s">
+      <c r="P54" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="R54" s="35"/>
-      <c r="S54" s="35"/>
-      <c r="T54" s="35"/>
-      <c r="U54" s="35"/>
-      <c r="V54" s="35"/>
-      <c r="W54" s="35"/>
-      <c r="X54" s="35"/>
-      <c r="Y54" s="35"/>
+      <c r="R54" s="32"/>
+      <c r="S54" s="32"/>
+      <c r="T54" s="32"/>
+      <c r="U54" s="32"/>
+      <c r="V54" s="32"/>
+      <c r="W54" s="32"/>
+      <c r="X54" s="32"/>
+      <c r="Y54" s="32"/>
     </row>
     <row r="55" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A55" s="24">
+      <c r="A55" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="15" t="s">
+      <c r="J55" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K55" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="L55" s="16" t="s">
+      <c r="L55" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M55" s="31"/>
-      <c r="N55" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="15" t="s">
+      <c r="M55" s="28"/>
+      <c r="N55" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O55" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="P55" s="15" t="s">
+      <c r="P55" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R55" s="35"/>
-      <c r="S55" s="35"/>
-      <c r="T55" s="35"/>
-      <c r="U55" s="35"/>
-      <c r="V55" s="35"/>
-      <c r="W55" s="35"/>
-      <c r="X55" s="35"/>
-      <c r="Y55" s="35"/>
+      <c r="R55" s="32"/>
+      <c r="S55" s="32"/>
+      <c r="T55" s="32"/>
+      <c r="U55" s="32"/>
+      <c r="V55" s="32"/>
+      <c r="W55" s="32"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="32"/>
     </row>
     <row r="56" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A56" s="24">
+      <c r="A56" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="15" t="s">
+      <c r="J56" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="L56" s="16" t="s">
+      <c r="L56" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M56" s="39"/>
-      <c r="N56" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" s="15" t="s">
+      <c r="M56" s="36"/>
+      <c r="N56" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O56" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="P56" s="15" t="s">
+      <c r="P56" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R56" s="35"/>
-      <c r="S56" s="35"/>
-      <c r="T56" s="35"/>
-      <c r="U56" s="35"/>
-      <c r="V56" s="35"/>
-      <c r="W56" s="35"/>
-      <c r="X56" s="35"/>
-      <c r="Y56" s="35"/>
+      <c r="R56" s="32"/>
+      <c r="S56" s="32"/>
+      <c r="T56" s="32"/>
+      <c r="U56" s="32"/>
+      <c r="V56" s="32"/>
+      <c r="W56" s="32"/>
+      <c r="X56" s="32"/>
+      <c r="Y56" s="32"/>
     </row>
     <row r="57" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A57" s="24">
+      <c r="A57" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K57" s="15" t="s">
+      <c r="J57" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K57" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="L57" s="16" t="s">
+      <c r="L57" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M57" s="34"/>
-      <c r="N57" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" s="15" t="s">
+      <c r="M57" s="31"/>
+      <c r="N57" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O57" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="P57" s="15" t="s">
+      <c r="P57" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="R57" s="35"/>
-      <c r="S57" s="35"/>
-      <c r="T57" s="35"/>
-      <c r="U57" s="35"/>
-      <c r="V57" s="35"/>
-      <c r="W57" s="35"/>
-      <c r="X57" s="35"/>
-      <c r="Y57" s="35"/>
+      <c r="R57" s="32"/>
+      <c r="S57" s="32"/>
+      <c r="T57" s="32"/>
+      <c r="U57" s="32"/>
+      <c r="V57" s="32"/>
+      <c r="W57" s="32"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="32"/>
     </row>
     <row r="58" spans="1:25" x14ac:dyDescent="0.3">
-      <c r="A58" s="24">
+      <c r="A58" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="33"/>
+      <c r="E58" s="30"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="15" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="15" t="s">
+      <c r="J58" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K58" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="L58" s="16" t="s">
+      <c r="L58" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="M58" s="34"/>
-      <c r="N58" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="15" t="s">
+      <c r="M58" s="31"/>
+      <c r="N58" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="O58" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="P58" s="15" t="s">
+      <c r="P58" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="R58" s="35"/>
-      <c r="S58" s="35"/>
-      <c r="T58" s="35"/>
-      <c r="U58" s="35"/>
-      <c r="V58" s="35"/>
-      <c r="W58" s="35"/>
-      <c r="X58" s="35"/>
-      <c r="Y58" s="35"/>
+      <c r="R58" s="32"/>
+      <c r="S58" s="32"/>
+      <c r="T58" s="32"/>
+      <c r="U58" s="32"/>
+      <c r="V58" s="32"/>
+      <c r="W58" s="32"/>
+      <c r="X58" s="32"/>
+      <c r="Y58" s="32"/>
     </row>
     <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
@@ -4163,14 +4300,14 @@
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
-      <c r="R59" s="35"/>
-      <c r="S59" s="35"/>
-      <c r="T59" s="35"/>
-      <c r="U59" s="35"/>
-      <c r="V59" s="35"/>
-      <c r="W59" s="35"/>
-      <c r="X59" s="35"/>
-      <c r="Y59" s="35"/>
+      <c r="R59" s="32"/>
+      <c r="S59" s="32"/>
+      <c r="T59" s="32"/>
+      <c r="U59" s="32"/>
+      <c r="V59" s="32"/>
+      <c r="W59" s="32"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="32"/>
     </row>
     <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
@@ -4244,14 +4381,14 @@
       <c r="U64" s="2"/>
     </row>
     <row r="65" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A65" s="35"/>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
+      <c r="A65" s="32"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="32"/>
+      <c r="D65" s="32"/>
+      <c r="E65" s="32"/>
+      <c r="F65" s="32"/>
+      <c r="G65" s="32"/>
+      <c r="H65" s="32"/>
       <c r="L65" s="2"/>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -4264,14 +4401,14 @@
       <c r="U65" s="2"/>
     </row>
     <row r="66" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A66" s="35"/>
-      <c r="B66" s="35"/>
-      <c r="C66" s="35"/>
-      <c r="D66" s="35"/>
-      <c r="E66" s="35"/>
-      <c r="F66" s="35"/>
-      <c r="G66" s="35"/>
-      <c r="H66" s="35"/>
+      <c r="A66" s="32"/>
+      <c r="B66" s="32"/>
+      <c r="C66" s="32"/>
+      <c r="D66" s="32"/>
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
       <c r="L66" s="2"/>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -4284,14 +4421,14 @@
       <c r="U66" s="2"/>
     </row>
     <row r="67" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A67" s="35"/>
-      <c r="B67" s="35"/>
-      <c r="C67" s="35"/>
-      <c r="D67" s="35"/>
-      <c r="E67" s="35"/>
-      <c r="F67" s="35"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="35"/>
+      <c r="A67" s="32"/>
+      <c r="B67" s="32"/>
+      <c r="C67" s="32"/>
+      <c r="D67" s="32"/>
+      <c r="E67" s="32"/>
+      <c r="F67" s="32"/>
+      <c r="G67" s="32"/>
+      <c r="H67" s="32"/>
       <c r="L67" s="2"/>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -4304,14 +4441,14 @@
       <c r="U67" s="2"/>
     </row>
     <row r="68" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A68" s="35"/>
-      <c r="B68" s="35"/>
-      <c r="C68" s="35"/>
-      <c r="D68" s="35"/>
-      <c r="E68" s="35"/>
-      <c r="F68" s="35"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="35"/>
+      <c r="A68" s="32"/>
+      <c r="B68" s="32"/>
+      <c r="C68" s="32"/>
+      <c r="D68" s="32"/>
+      <c r="E68" s="32"/>
+      <c r="F68" s="32"/>
+      <c r="G68" s="32"/>
+      <c r="H68" s="32"/>
       <c r="L68" s="2"/>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -4324,14 +4461,14 @@
       <c r="U68" s="2"/>
     </row>
     <row r="69" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A69" s="35"/>
-      <c r="B69" s="35"/>
-      <c r="C69" s="35"/>
-      <c r="D69" s="35"/>
-      <c r="E69" s="35"/>
-      <c r="F69" s="35"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="35"/>
+      <c r="A69" s="32"/>
+      <c r="B69" s="32"/>
+      <c r="C69" s="32"/>
+      <c r="D69" s="32"/>
+      <c r="E69" s="32"/>
+      <c r="F69" s="32"/>
+      <c r="G69" s="32"/>
+      <c r="H69" s="32"/>
       <c r="L69" s="2"/>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -4344,14 +4481,14 @@
       <c r="U69" s="2"/>
     </row>
     <row r="70" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A70" s="35"/>
-      <c r="B70" s="35"/>
-      <c r="C70" s="35"/>
-      <c r="D70" s="35"/>
-      <c r="E70" s="35"/>
-      <c r="F70" s="35"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="35"/>
+      <c r="A70" s="32"/>
+      <c r="B70" s="32"/>
+      <c r="C70" s="32"/>
+      <c r="D70" s="32"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
       <c r="L70" s="2"/>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -4364,14 +4501,14 @@
       <c r="U70" s="2"/>
     </row>
     <row r="71" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A71" s="35"/>
-      <c r="B71" s="35"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="35"/>
-      <c r="E71" s="35"/>
-      <c r="F71" s="35"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="35"/>
+      <c r="A71" s="32"/>
+      <c r="B71" s="32"/>
+      <c r="C71" s="32"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="32"/>
+      <c r="F71" s="32"/>
+      <c r="G71" s="32"/>
+      <c r="H71" s="32"/>
       <c r="L71" s="2"/>
       <c r="M71" s="2"/>
       <c r="N71" s="2"/>
@@ -4384,14 +4521,14 @@
       <c r="U71" s="2"/>
     </row>
     <row r="72" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A72" s="35"/>
-      <c r="B72" s="35"/>
-      <c r="C72" s="35"/>
-      <c r="D72" s="35"/>
-      <c r="E72" s="35"/>
-      <c r="F72" s="35"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="35"/>
+      <c r="A72" s="32"/>
+      <c r="B72" s="32"/>
+      <c r="C72" s="32"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="32"/>
+      <c r="F72" s="32"/>
+      <c r="G72" s="32"/>
+      <c r="H72" s="32"/>
       <c r="L72" s="2"/>
       <c r="M72" s="2"/>
       <c r="N72" s="2"/>
@@ -4404,14 +4541,14 @@
       <c r="U72" s="2"/>
     </row>
     <row r="73" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A73" s="35"/>
-      <c r="B73" s="35"/>
-      <c r="C73" s="35"/>
-      <c r="D73" s="35"/>
-      <c r="E73" s="35"/>
-      <c r="F73" s="35"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="35"/>
+      <c r="A73" s="32"/>
+      <c r="B73" s="32"/>
+      <c r="C73" s="32"/>
+      <c r="D73" s="32"/>
+      <c r="E73" s="32"/>
+      <c r="F73" s="32"/>
+      <c r="G73" s="32"/>
+      <c r="H73" s="32"/>
       <c r="L73" s="2"/>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -4424,14 +4561,14 @@
       <c r="U73" s="2"/>
     </row>
     <row r="74" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A74" s="35"/>
-      <c r="B74" s="35"/>
-      <c r="C74" s="35"/>
-      <c r="D74" s="35"/>
-      <c r="E74" s="35"/>
-      <c r="F74" s="35"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="35"/>
+      <c r="A74" s="32"/>
+      <c r="B74" s="32"/>
+      <c r="C74" s="32"/>
+      <c r="D74" s="32"/>
+      <c r="E74" s="32"/>
+      <c r="F74" s="32"/>
+      <c r="G74" s="32"/>
+      <c r="H74" s="32"/>
       <c r="L74" s="2"/>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -4444,14 +4581,14 @@
       <c r="U74" s="2"/>
     </row>
     <row r="75" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A75" s="35"/>
-      <c r="B75" s="35"/>
-      <c r="C75" s="35"/>
-      <c r="D75" s="35"/>
-      <c r="E75" s="35"/>
-      <c r="F75" s="35"/>
-      <c r="G75" s="35"/>
-      <c r="H75" s="35"/>
+      <c r="A75" s="32"/>
+      <c r="B75" s="32"/>
+      <c r="C75" s="32"/>
+      <c r="D75" s="32"/>
+      <c r="E75" s="32"/>
+      <c r="F75" s="32"/>
+      <c r="G75" s="32"/>
+      <c r="H75" s="32"/>
       <c r="L75" s="2"/>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -4464,14 +4601,14 @@
       <c r="U75" s="2"/>
     </row>
     <row r="76" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A76" s="35"/>
-      <c r="B76" s="20"/>
-      <c r="C76" s="20"/>
-      <c r="D76" s="20"/>
-      <c r="E76" s="35"/>
-      <c r="F76" s="20"/>
-      <c r="G76" s="20"/>
-      <c r="H76" s="20"/>
+      <c r="A76" s="32"/>
+      <c r="B76" s="17"/>
+      <c r="C76" s="17"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="32"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="17"/>
+      <c r="H76" s="17"/>
       <c r="L76" s="2"/>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -4484,14 +4621,14 @@
       <c r="U76" s="2"/>
     </row>
     <row r="77" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A77" s="35"/>
-      <c r="B77" s="20"/>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="35"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
+      <c r="A77" s="32"/>
+      <c r="B77" s="17"/>
+      <c r="C77" s="17"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="32"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
+      <c r="H77" s="17"/>
       <c r="L77" s="2"/>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -4504,14 +4641,14 @@
       <c r="U77" s="2"/>
     </row>
     <row r="78" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A78" s="35"/>
-      <c r="B78" s="20"/>
-      <c r="C78" s="20"/>
-      <c r="D78" s="20"/>
-      <c r="E78" s="35"/>
-      <c r="F78" s="20"/>
-      <c r="G78" s="20"/>
-      <c r="H78" s="20"/>
+      <c r="A78" s="32"/>
+      <c r="B78" s="17"/>
+      <c r="C78" s="17"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="32"/>
+      <c r="F78" s="17"/>
+      <c r="G78" s="17"/>
+      <c r="H78" s="17"/>
       <c r="L78" s="2"/>
       <c r="M78" s="2"/>
       <c r="N78" s="2"/>
@@ -4524,14 +4661,14 @@
       <c r="U78" s="2"/>
     </row>
     <row r="79" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A79" s="35"/>
-      <c r="B79" s="35"/>
-      <c r="C79" s="35"/>
-      <c r="D79" s="35"/>
-      <c r="E79" s="35"/>
-      <c r="F79" s="35"/>
-      <c r="G79" s="35"/>
-      <c r="H79" s="35"/>
+      <c r="A79" s="32"/>
+      <c r="B79" s="32"/>
+      <c r="C79" s="32"/>
+      <c r="D79" s="32"/>
+      <c r="E79" s="32"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="32"/>
+      <c r="H79" s="32"/>
       <c r="L79" s="2"/>
       <c r="M79" s="2"/>
       <c r="N79" s="2"/>
@@ -4544,14 +4681,14 @@
       <c r="U79" s="2"/>
     </row>
     <row r="80" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A80" s="35"/>
-      <c r="B80" s="35"/>
-      <c r="C80" s="35"/>
-      <c r="D80" s="35"/>
-      <c r="E80" s="35"/>
-      <c r="F80" s="35"/>
-      <c r="G80" s="35"/>
-      <c r="H80" s="35"/>
+      <c r="A80" s="32"/>
+      <c r="B80" s="32"/>
+      <c r="C80" s="32"/>
+      <c r="D80" s="32"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
       <c r="L80" s="2"/>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -4564,14 +4701,14 @@
       <c r="U80" s="2"/>
     </row>
     <row r="81" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A81" s="35"/>
-      <c r="B81" s="35"/>
-      <c r="C81" s="35"/>
-      <c r="D81" s="35"/>
-      <c r="E81" s="35"/>
-      <c r="F81" s="35"/>
-      <c r="G81" s="35"/>
-      <c r="H81" s="35"/>
+      <c r="A81" s="32"/>
+      <c r="B81" s="32"/>
+      <c r="C81" s="32"/>
+      <c r="D81" s="32"/>
+      <c r="E81" s="32"/>
+      <c r="F81" s="32"/>
+      <c r="G81" s="32"/>
+      <c r="H81" s="32"/>
       <c r="L81" s="2"/>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -4584,14 +4721,14 @@
       <c r="U81" s="2"/>
     </row>
     <row r="82" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A82" s="35"/>
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="35"/>
-      <c r="F82" s="35"/>
-      <c r="G82" s="35"/>
-      <c r="H82" s="35"/>
+      <c r="A82" s="32"/>
+      <c r="B82" s="32"/>
+      <c r="C82" s="32"/>
+      <c r="D82" s="32"/>
+      <c r="E82" s="32"/>
+      <c r="F82" s="32"/>
+      <c r="G82" s="32"/>
+      <c r="H82" s="32"/>
       <c r="L82" s="2"/>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -4604,14 +4741,14 @@
       <c r="U82" s="2"/>
     </row>
     <row r="83" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A83" s="35"/>
-      <c r="B83" s="35"/>
-      <c r="C83" s="35"/>
-      <c r="D83" s="35"/>
-      <c r="E83" s="35"/>
-      <c r="F83" s="35"/>
-      <c r="G83" s="35"/>
-      <c r="H83" s="35"/>
+      <c r="A83" s="32"/>
+      <c r="B83" s="32"/>
+      <c r="C83" s="32"/>
+      <c r="D83" s="32"/>
+      <c r="E83" s="32"/>
+      <c r="F83" s="32"/>
+      <c r="G83" s="32"/>
+      <c r="H83" s="32"/>
       <c r="L83" s="2"/>
       <c r="M83" s="2"/>
       <c r="N83" s="2"/>
@@ -4624,14 +4761,14 @@
       <c r="U83" s="2"/>
     </row>
     <row r="84" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A84" s="35"/>
-      <c r="B84" s="35"/>
-      <c r="C84" s="35"/>
-      <c r="D84" s="35"/>
-      <c r="E84" s="35"/>
-      <c r="F84" s="35"/>
-      <c r="G84" s="35"/>
-      <c r="H84" s="35"/>
+      <c r="A84" s="32"/>
+      <c r="B84" s="32"/>
+      <c r="C84" s="32"/>
+      <c r="D84" s="32"/>
+      <c r="E84" s="32"/>
+      <c r="F84" s="32"/>
+      <c r="G84" s="32"/>
+      <c r="H84" s="32"/>
       <c r="L84" s="2"/>
       <c r="M84" s="2"/>
       <c r="N84" s="2"/>
@@ -4644,14 +4781,14 @@
       <c r="U84" s="2"/>
     </row>
     <row r="85" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A85" s="35"/>
-      <c r="B85" s="35"/>
-      <c r="C85" s="35"/>
-      <c r="D85" s="35"/>
-      <c r="E85" s="35"/>
-      <c r="F85" s="35"/>
-      <c r="G85" s="35"/>
-      <c r="H85" s="35"/>
+      <c r="A85" s="32"/>
+      <c r="B85" s="32"/>
+      <c r="C85" s="32"/>
+      <c r="D85" s="32"/>
+      <c r="E85" s="32"/>
+      <c r="F85" s="32"/>
+      <c r="G85" s="32"/>
+      <c r="H85" s="32"/>
       <c r="I85" s="2"/>
       <c r="L85" s="2"/>
       <c r="M85" s="2"/>
@@ -4665,14 +4802,14 @@
       <c r="U85" s="2"/>
     </row>
     <row r="86" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A86" s="35"/>
-      <c r="B86" s="35"/>
-      <c r="C86" s="35"/>
-      <c r="D86" s="35"/>
-      <c r="E86" s="35"/>
-      <c r="F86" s="35"/>
-      <c r="G86" s="35"/>
-      <c r="H86" s="35"/>
+      <c r="A86" s="32"/>
+      <c r="B86" s="32"/>
+      <c r="C86" s="32"/>
+      <c r="D86" s="32"/>
+      <c r="E86" s="32"/>
+      <c r="F86" s="32"/>
+      <c r="G86" s="32"/>
+      <c r="H86" s="32"/>
       <c r="I86" s="2"/>
       <c r="L86" s="2"/>
       <c r="M86" s="2"/>
@@ -4686,14 +4823,14 @@
       <c r="U86" s="2"/>
     </row>
     <row r="87" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A87" s="35"/>
-      <c r="B87" s="35"/>
-      <c r="C87" s="35"/>
-      <c r="D87" s="35"/>
-      <c r="E87" s="35"/>
-      <c r="F87" s="35"/>
-      <c r="G87" s="35"/>
-      <c r="H87" s="35"/>
+      <c r="A87" s="32"/>
+      <c r="B87" s="32"/>
+      <c r="C87" s="32"/>
+      <c r="D87" s="32"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
       <c r="I87" s="2"/>
       <c r="L87" s="2"/>
       <c r="M87" s="2"/>
@@ -4707,14 +4844,14 @@
       <c r="U87" s="2"/>
     </row>
     <row r="88" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A88" s="35"/>
-      <c r="B88" s="35"/>
-      <c r="C88" s="35"/>
-      <c r="D88" s="35"/>
-      <c r="E88" s="35"/>
-      <c r="F88" s="35"/>
-      <c r="G88" s="35"/>
-      <c r="H88" s="35"/>
+      <c r="A88" s="32"/>
+      <c r="B88" s="32"/>
+      <c r="C88" s="32"/>
+      <c r="D88" s="32"/>
+      <c r="E88" s="32"/>
+      <c r="F88" s="32"/>
+      <c r="G88" s="32"/>
+      <c r="H88" s="32"/>
       <c r="I88" s="2"/>
       <c r="L88" s="2"/>
       <c r="M88" s="2"/>
@@ -4728,14 +4865,14 @@
       <c r="U88" s="2"/>
     </row>
     <row r="89" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A89" s="35"/>
-      <c r="B89" s="35"/>
-      <c r="C89" s="35"/>
-      <c r="D89" s="35"/>
-      <c r="E89" s="35"/>
-      <c r="F89" s="35"/>
-      <c r="G89" s="35"/>
-      <c r="H89" s="35"/>
+      <c r="A89" s="32"/>
+      <c r="B89" s="32"/>
+      <c r="C89" s="32"/>
+      <c r="D89" s="32"/>
+      <c r="E89" s="32"/>
+      <c r="F89" s="32"/>
+      <c r="G89" s="32"/>
+      <c r="H89" s="32"/>
       <c r="I89" s="2"/>
       <c r="L89" s="2"/>
       <c r="M89" s="2"/>
@@ -4749,14 +4886,14 @@
       <c r="U89" s="2"/>
     </row>
     <row r="90" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A90" s="35"/>
-      <c r="B90" s="35"/>
-      <c r="C90" s="35"/>
-      <c r="D90" s="35"/>
-      <c r="E90" s="35"/>
-      <c r="F90" s="35"/>
-      <c r="G90" s="35"/>
-      <c r="H90" s="35"/>
+      <c r="A90" s="32"/>
+      <c r="B90" s="32"/>
+      <c r="C90" s="32"/>
+      <c r="D90" s="32"/>
+      <c r="E90" s="32"/>
+      <c r="F90" s="32"/>
+      <c r="G90" s="32"/>
+      <c r="H90" s="32"/>
       <c r="L90" s="2"/>
       <c r="M90" s="2"/>
       <c r="N90" s="2"/>
@@ -4769,14 +4906,14 @@
       <c r="U90" s="2"/>
     </row>
     <row r="91" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A91" s="35"/>
-      <c r="B91" s="35"/>
-      <c r="C91" s="35"/>
-      <c r="D91" s="35"/>
-      <c r="E91" s="35"/>
-      <c r="F91" s="35"/>
-      <c r="G91" s="35"/>
-      <c r="H91" s="35"/>
+      <c r="A91" s="32"/>
+      <c r="B91" s="32"/>
+      <c r="C91" s="32"/>
+      <c r="D91" s="32"/>
+      <c r="E91" s="32"/>
+      <c r="F91" s="32"/>
+      <c r="G91" s="32"/>
+      <c r="H91" s="32"/>
       <c r="L91" s="2"/>
       <c r="M91" s="2"/>
       <c r="N91" s="2"/>
@@ -4789,14 +4926,14 @@
       <c r="U91" s="2"/>
     </row>
     <row r="92" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A92" s="35"/>
-      <c r="B92" s="35"/>
-      <c r="C92" s="35"/>
-      <c r="D92" s="35"/>
-      <c r="E92" s="35"/>
-      <c r="F92" s="35"/>
-      <c r="G92" s="35"/>
-      <c r="H92" s="35"/>
+      <c r="A92" s="32"/>
+      <c r="B92" s="32"/>
+      <c r="C92" s="32"/>
+      <c r="D92" s="32"/>
+      <c r="E92" s="32"/>
+      <c r="F92" s="32"/>
+      <c r="G92" s="32"/>
+      <c r="H92" s="32"/>
       <c r="L92" s="2"/>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -4809,14 +4946,14 @@
       <c r="U92" s="2"/>
     </row>
     <row r="93" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A93" s="35"/>
-      <c r="B93" s="35"/>
-      <c r="C93" s="35"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="35"/>
-      <c r="F93" s="35"/>
-      <c r="G93" s="35"/>
-      <c r="H93" s="35"/>
+      <c r="A93" s="32"/>
+      <c r="B93" s="32"/>
+      <c r="C93" s="32"/>
+      <c r="D93" s="32"/>
+      <c r="E93" s="32"/>
+      <c r="F93" s="32"/>
+      <c r="G93" s="32"/>
+      <c r="H93" s="32"/>
       <c r="L93" s="2"/>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -4829,14 +4966,14 @@
       <c r="U93" s="2"/>
     </row>
     <row r="94" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A94" s="35"/>
-      <c r="B94" s="35"/>
-      <c r="C94" s="35"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="35"/>
-      <c r="F94" s="35"/>
-      <c r="G94" s="35"/>
-      <c r="H94" s="35"/>
+      <c r="A94" s="32"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="32"/>
+      <c r="D94" s="32"/>
+      <c r="E94" s="32"/>
+      <c r="F94" s="32"/>
+      <c r="G94" s="32"/>
+      <c r="H94" s="32"/>
       <c r="L94" s="2"/>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -4849,14 +4986,14 @@
       <c r="U94" s="2"/>
     </row>
     <row r="95" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A95" s="35"/>
-      <c r="B95" s="35"/>
-      <c r="C95" s="35"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="35"/>
-      <c r="F95" s="35"/>
-      <c r="G95" s="35"/>
-      <c r="H95" s="35"/>
+      <c r="A95" s="32"/>
+      <c r="B95" s="32"/>
+      <c r="C95" s="32"/>
+      <c r="D95" s="32"/>
+      <c r="E95" s="32"/>
+      <c r="F95" s="32"/>
+      <c r="G95" s="32"/>
+      <c r="H95" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4876,998 +5013,998 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q14" sqref="Q14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="24" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="24" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="24" customWidth="1"/>
-    <col min="6" max="6" width="36.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="51" customWidth="1"/>
-    <col min="10" max="10" width="36.109375" style="24" customWidth="1"/>
-    <col min="11" max="11" width="17.6640625" style="24" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="20" style="24" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="24"/>
+    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="48" customWidth="1"/>
+    <col min="10" max="10" width="36.109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="21" customWidth="1"/>
+    <col min="13" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="83" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="F2" s="74" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="F2" s="83" t="s">
         <v>115</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
-      <c r="J2" s="74" t="s">
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="J2" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="77"/>
-      <c r="L2" s="78"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="87"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="45" t="s">
+        <v>142</v>
+      </c>
+      <c r="E3" s="49"/>
+      <c r="F3" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>123</v>
+      </c>
+      <c r="H3" s="56" t="s">
+        <v>157</v>
+      </c>
+      <c r="I3" s="49"/>
+      <c r="J3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>123</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" s="65" t="s">
+        <v>166</v>
+      </c>
+      <c r="E4" s="48"/>
+      <c r="F4" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="G4" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="66" t="s">
+        <v>163</v>
+      </c>
+      <c r="J4" s="63" t="s">
+        <v>120</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" s="64" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="42" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="D5" s="67" t="s">
+        <v>158</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="54" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>155</v>
+      </c>
+      <c r="H5" s="67" t="s">
+        <v>164</v>
+      </c>
+      <c r="J5" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="K5" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="E3" s="52"/>
-      <c r="F3" s="55" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="59" t="s">
-        <v>158</v>
-      </c>
-      <c r="I3" s="52"/>
-      <c r="J3" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K3" s="47" t="s">
-        <v>123</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="L5" s="62" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B6" s="42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>159</v>
+      </c>
+      <c r="E6" s="48"/>
+      <c r="F6" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>154</v>
+      </c>
+      <c r="H6" s="33" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K6" s="48">
+        <v>15</v>
+      </c>
+      <c r="L6" s="48"/>
+    </row>
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D7" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" s="48"/>
+      <c r="F7" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="G7" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H7" s="33" t="s">
+        <v>169</v>
+      </c>
+      <c r="J7" s="48"/>
+      <c r="K7" s="48"/>
+      <c r="L7" s="48"/>
+      <c r="M7" s="48"/>
+    </row>
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" s="48"/>
+      <c r="F8" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="G8" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="H8" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="J8" s="83" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="44" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>145</v>
-      </c>
-      <c r="D4" s="68" t="s">
+      <c r="K8" s="87"/>
+      <c r="L8" s="68"/>
+      <c r="M8" s="48"/>
+    </row>
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="47" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" s="47" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>147</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>167</v>
       </c>
-      <c r="E4" s="51"/>
-      <c r="F4" s="56" t="s">
-        <v>3</v>
-      </c>
-      <c r="G4" s="60" t="s">
+      <c r="J9" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="K9" s="45" t="s">
+        <v>191</v>
+      </c>
+      <c r="L9" s="49"/>
+      <c r="M9" s="48"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="21">
+        <v>181</v>
+      </c>
+      <c r="F10" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="H10" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="J10" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="K10" s="74" t="s">
+        <v>183</v>
+      </c>
+      <c r="L10" s="48"/>
+      <c r="M10" s="48"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F11" s="54" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="K11" s="67" t="s">
+        <v>184</v>
+      </c>
+      <c r="L11" s="48"/>
+      <c r="M11" s="48"/>
+    </row>
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F12" s="59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="H4" s="69" t="s">
-        <v>164</v>
-      </c>
-      <c r="J4" s="66" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="L4" s="67" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="45" t="s">
-        <v>114</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5" s="51"/>
-      <c r="F5" s="57" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>156</v>
-      </c>
-      <c r="H5" s="70" t="s">
-        <v>165</v>
-      </c>
-      <c r="J5" s="64" t="s">
-        <v>119</v>
-      </c>
-      <c r="K5" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="L5" s="65" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>149</v>
-      </c>
-      <c r="D6" s="36" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="57" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="36" t="s">
-        <v>166</v>
-      </c>
-      <c r="J6" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="K6" s="51">
-        <v>15</v>
-      </c>
-      <c r="L6" s="51"/>
-    </row>
-    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="45" t="s">
-        <v>146</v>
-      </c>
-      <c r="D7" s="36" t="s">
-        <v>161</v>
-      </c>
-      <c r="E7" s="51"/>
-      <c r="F7" s="57" t="s">
-        <v>117</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="H7" s="36" t="s">
-        <v>170</v>
-      </c>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-    </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>162</v>
-      </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="57" t="s">
-        <v>118</v>
-      </c>
-      <c r="G8" s="61" t="s">
-        <v>154</v>
-      </c>
-      <c r="H8" s="36" t="s">
-        <v>169</v>
-      </c>
-      <c r="J8" s="74" t="s">
-        <v>176</v>
-      </c>
-      <c r="K8" s="78"/>
-      <c r="L8" s="71"/>
-      <c r="M8" s="51"/>
-    </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="50" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" s="50" t="s">
-        <v>144</v>
-      </c>
-      <c r="D9" s="40" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="58" t="s">
-        <v>119</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>148</v>
-      </c>
-      <c r="H9" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>129</v>
-      </c>
-      <c r="K9" s="48" t="s">
-        <v>192</v>
-      </c>
-      <c r="L9" s="52"/>
-      <c r="M9" s="51"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="C10" s="24">
+      <c r="H12" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="K12" s="67" t="s">
+        <v>185</v>
+      </c>
+      <c r="L12" s="48"/>
+      <c r="M12" s="48"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F13" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="G13" s="21">
+        <v>242</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="K13" s="67" t="s">
+        <v>186</v>
+      </c>
+      <c r="L13" s="48"/>
+      <c r="M13" s="48"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F14" s="49"/>
+      <c r="J14" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="K14" s="67" t="s">
+        <v>187</v>
+      </c>
+      <c r="L14" s="48"/>
+      <c r="M14" s="48"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="F15" s="49"/>
+      <c r="I15" s="48" t="s">
+        <v>188</v>
+      </c>
+      <c r="J15" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="F10" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>150</v>
-      </c>
-      <c r="H10" s="36" t="s">
-        <v>171</v>
-      </c>
-      <c r="J10" s="60" t="s">
-        <v>177</v>
-      </c>
-      <c r="K10" s="85" t="s">
-        <v>184</v>
-      </c>
-      <c r="L10" s="51"/>
-      <c r="M10" s="51"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F11" s="57" t="s">
-        <v>116</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>147</v>
-      </c>
-      <c r="H11" s="36" t="s">
-        <v>172</v>
-      </c>
-      <c r="J11" s="61" t="s">
-        <v>178</v>
-      </c>
-      <c r="K11" s="86" t="s">
-        <v>185</v>
-      </c>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-    </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F12" s="62" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>152</v>
-      </c>
-      <c r="H12" s="40" t="s">
-        <v>173</v>
-      </c>
-      <c r="I12" s="20"/>
-      <c r="J12" s="61" t="s">
-        <v>179</v>
-      </c>
-      <c r="K12" s="86" t="s">
-        <v>186</v>
-      </c>
-      <c r="L12" s="51"/>
-      <c r="M12" s="51"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F13" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" s="24">
-        <v>242</v>
-      </c>
-      <c r="J13" s="61" t="s">
-        <v>180</v>
-      </c>
-      <c r="K13" s="86" t="s">
-        <v>187</v>
-      </c>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F14" s="52"/>
-      <c r="J14" s="61" t="s">
-        <v>181</v>
-      </c>
-      <c r="K14" s="86" t="s">
-        <v>188</v>
-      </c>
-      <c r="L14" s="51"/>
-      <c r="M14" s="51"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="F15" s="52"/>
-      <c r="I15" s="51" t="s">
+      <c r="K15" s="67" t="s">
         <v>189</v>
       </c>
-      <c r="J15" s="61" t="s">
+      <c r="L15" s="48"/>
+      <c r="M15" s="48"/>
+    </row>
+    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F16" s="49"/>
+      <c r="J16" s="43" t="s">
         <v>182</v>
       </c>
-      <c r="K15" s="86" t="s">
+      <c r="K16" s="75" t="s">
         <v>190</v>
       </c>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-    </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F16" s="52"/>
-      <c r="J16" s="46" t="s">
-        <v>183</v>
-      </c>
-      <c r="K16" s="87" t="s">
-        <v>191</v>
-      </c>
-      <c r="L16" s="51"/>
-      <c r="M16" s="51"/>
+      <c r="L16" s="48"/>
+      <c r="M16" s="48"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="F17" s="52"/>
-      <c r="J17" s="52"/>
-      <c r="K17" s="51"/>
+      <c r="F17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="48"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="74" t="s">
-        <v>135</v>
-      </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="77"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="77"/>
-      <c r="G19" s="77"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="77"/>
-      <c r="K19" s="78"/>
+      <c r="B19" s="83" t="s">
+        <v>134</v>
+      </c>
+      <c r="C19" s="86"/>
+      <c r="D19" s="86"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="86"/>
+      <c r="G19" s="86"/>
+      <c r="H19" s="86"/>
+      <c r="I19" s="86"/>
+      <c r="J19" s="86"/>
+      <c r="K19" s="87"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="4">
+      <c r="B20" s="3">
         <v>128</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="3">
         <v>64</v>
       </c>
-      <c r="D20" s="4">
-        <v>32</v>
-      </c>
-      <c r="E20" s="4">
+      <c r="D20" s="3">
+        <v>32</v>
+      </c>
+      <c r="E20" s="3">
         <v>16</v>
       </c>
-      <c r="F20" s="4">
+      <c r="F20" s="3">
         <v>8</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>4</v>
       </c>
-      <c r="H20" s="4">
+      <c r="H20" s="3">
         <v>2</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="3">
         <v>1</v>
       </c>
-      <c r="J20" s="4" t="s">
+      <c r="J20" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B21" s="69">
+        <v>1</v>
+      </c>
+      <c r="C21" s="57">
+        <v>1</v>
+      </c>
+      <c r="D21" s="38">
+        <v>1</v>
+      </c>
+      <c r="E21" s="57">
+        <v>1</v>
+      </c>
+      <c r="F21" s="38">
+        <v>1</v>
+      </c>
+      <c r="G21" s="57">
+        <v>1</v>
+      </c>
+      <c r="H21" s="38">
+        <v>1</v>
+      </c>
+      <c r="I21" s="57">
+        <v>1</v>
+      </c>
+      <c r="J21" s="38" t="s">
         <v>131</v>
       </c>
-      <c r="K20" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="72">
+      <c r="K21" s="57">
         <v>1</v>
       </c>
-      <c r="C21" s="60">
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="54">
         <v>1</v>
       </c>
-      <c r="D21" s="41">
+      <c r="C22" s="42">
         <v>1</v>
       </c>
-      <c r="E21" s="60">
+      <c r="D22" s="39">
         <v>1</v>
       </c>
-      <c r="F21" s="41">
+      <c r="E22" s="42">
         <v>1</v>
       </c>
-      <c r="G21" s="60">
+      <c r="F22" s="39">
         <v>1</v>
       </c>
-      <c r="H21" s="41">
+      <c r="G22" s="42">
         <v>1</v>
       </c>
-      <c r="I21" s="60">
+      <c r="H22" s="39">
         <v>1</v>
       </c>
-      <c r="J21" s="41" t="s">
+      <c r="I22" s="42">
+        <v>0</v>
+      </c>
+      <c r="J22" s="39" t="s">
         <v>132</v>
       </c>
-      <c r="K21" s="60">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="57">
-        <v>1</v>
-      </c>
-      <c r="C22" s="45">
-        <v>1</v>
-      </c>
-      <c r="D22" s="42">
-        <v>1</v>
-      </c>
-      <c r="E22" s="45">
-        <v>1</v>
-      </c>
-      <c r="F22" s="42">
-        <v>1</v>
-      </c>
-      <c r="G22" s="45">
-        <v>1</v>
-      </c>
-      <c r="H22" s="42">
-        <v>1</v>
-      </c>
-      <c r="I22" s="45">
-        <v>0</v>
-      </c>
-      <c r="J22" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="K22" s="45">
+      <c r="K22" s="42">
         <f>K21*2</f>
         <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B23" s="57">
+      <c r="B23" s="54">
         <v>1</v>
       </c>
-      <c r="C23" s="45">
+      <c r="C23" s="42">
         <v>1</v>
       </c>
-      <c r="D23" s="42">
+      <c r="D23" s="39">
         <v>1</v>
       </c>
-      <c r="E23" s="45">
+      <c r="E23" s="42">
         <v>1</v>
       </c>
-      <c r="F23" s="42">
+      <c r="F23" s="39">
         <v>1</v>
       </c>
-      <c r="G23" s="45">
+      <c r="G23" s="42">
         <v>1</v>
       </c>
-      <c r="H23" s="42">
+      <c r="H23" s="39">
         <v>0</v>
       </c>
-      <c r="I23" s="45">
+      <c r="I23" s="42">
         <v>0</v>
       </c>
-      <c r="J23" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="K23" s="45">
+      <c r="J23" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="K23" s="42">
         <f t="shared" ref="K23:K29" si="0">K22*2</f>
         <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B24" s="57">
+      <c r="B24" s="54">
         <v>1</v>
       </c>
-      <c r="C24" s="45">
+      <c r="C24" s="42">
         <v>1</v>
       </c>
-      <c r="D24" s="42">
+      <c r="D24" s="39">
         <v>1</v>
       </c>
-      <c r="E24" s="45">
+      <c r="E24" s="42">
         <v>1</v>
       </c>
-      <c r="F24" s="42">
+      <c r="F24" s="39">
         <v>1</v>
       </c>
-      <c r="G24" s="45">
+      <c r="G24" s="42">
         <v>0</v>
       </c>
-      <c r="H24" s="42">
+      <c r="H24" s="39">
         <v>0</v>
       </c>
-      <c r="I24" s="45">
+      <c r="I24" s="42">
         <v>0</v>
       </c>
-      <c r="J24" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="K24" s="45">
+      <c r="J24" s="39" t="s">
+        <v>137</v>
+      </c>
+      <c r="K24" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B25" s="57">
+      <c r="B25" s="54">
         <v>1</v>
       </c>
-      <c r="C25" s="45">
+      <c r="C25" s="42">
         <v>1</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D25" s="39">
         <v>1</v>
       </c>
-      <c r="E25" s="45">
+      <c r="E25" s="42">
         <v>1</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F25" s="39">
         <v>0</v>
       </c>
-      <c r="G25" s="45">
+      <c r="G25" s="42">
         <v>0</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H25" s="39">
         <v>0</v>
       </c>
-      <c r="I25" s="45">
+      <c r="I25" s="42">
         <v>0</v>
       </c>
-      <c r="J25" s="42" t="s">
-        <v>139</v>
-      </c>
-      <c r="K25" s="45">
+      <c r="J25" s="39" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="42">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="57">
+      <c r="B26" s="54">
         <v>1</v>
       </c>
-      <c r="C26" s="45">
+      <c r="C26" s="42">
         <v>1</v>
       </c>
-      <c r="D26" s="42">
+      <c r="D26" s="39">
         <v>1</v>
       </c>
-      <c r="E26" s="45">
+      <c r="E26" s="42">
         <v>0</v>
       </c>
-      <c r="F26" s="42">
+      <c r="F26" s="39">
         <v>0</v>
       </c>
-      <c r="G26" s="45">
+      <c r="G26" s="42">
         <v>0</v>
       </c>
-      <c r="H26" s="42">
+      <c r="H26" s="39">
         <v>0</v>
       </c>
-      <c r="I26" s="45">
+      <c r="I26" s="42">
         <v>0</v>
       </c>
-      <c r="J26" s="42" t="s">
+      <c r="J26" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="K26" s="42">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B27" s="54">
+        <v>1</v>
+      </c>
+      <c r="C27" s="42">
+        <v>1</v>
+      </c>
+      <c r="D27" s="39">
+        <v>0</v>
+      </c>
+      <c r="E27" s="42">
+        <v>0</v>
+      </c>
+      <c r="F27" s="39">
+        <v>0</v>
+      </c>
+      <c r="G27" s="42">
+        <v>0</v>
+      </c>
+      <c r="H27" s="39">
+        <v>0</v>
+      </c>
+      <c r="I27" s="42">
+        <v>0</v>
+      </c>
+      <c r="J27" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="K26" s="45">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="57">
-        <v>1</v>
-      </c>
-      <c r="C27" s="45">
-        <v>1</v>
-      </c>
-      <c r="D27" s="42">
-        <v>0</v>
-      </c>
-      <c r="E27" s="45">
-        <v>0</v>
-      </c>
-      <c r="F27" s="42">
-        <v>0</v>
-      </c>
-      <c r="G27" s="45">
-        <v>0</v>
-      </c>
-      <c r="H27" s="42">
-        <v>0</v>
-      </c>
-      <c r="I27" s="45">
-        <v>0</v>
-      </c>
-      <c r="J27" s="42" t="s">
-        <v>141</v>
-      </c>
-      <c r="K27" s="45">
+      <c r="K27" s="42">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="57">
+      <c r="B28" s="54">
         <v>1</v>
       </c>
-      <c r="C28" s="45">
+      <c r="C28" s="42">
         <v>0</v>
       </c>
-      <c r="D28" s="42">
+      <c r="D28" s="39">
         <v>0</v>
       </c>
-      <c r="E28" s="45">
+      <c r="E28" s="42">
         <v>0</v>
       </c>
-      <c r="F28" s="42">
+      <c r="F28" s="39">
         <v>0</v>
       </c>
-      <c r="G28" s="45">
+      <c r="G28" s="42">
         <v>0</v>
       </c>
-      <c r="H28" s="42">
+      <c r="H28" s="39">
         <v>0</v>
       </c>
-      <c r="I28" s="45">
+      <c r="I28" s="42">
         <v>0</v>
       </c>
-      <c r="J28" s="42" t="s">
-        <v>142</v>
-      </c>
-      <c r="K28" s="45">
+      <c r="J28" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="K28" s="42">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="73">
+      <c r="B29" s="70">
         <v>0</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C29" s="35">
         <v>0</v>
       </c>
-      <c r="D29" s="43">
+      <c r="D29" s="40">
         <v>0</v>
       </c>
-      <c r="E29" s="38">
+      <c r="E29" s="35">
         <v>0</v>
       </c>
-      <c r="F29" s="43">
+      <c r="F29" s="40">
         <v>0</v>
       </c>
-      <c r="G29" s="38">
+      <c r="G29" s="35">
         <v>0</v>
       </c>
-      <c r="H29" s="43">
+      <c r="H29" s="40">
         <v>0</v>
       </c>
-      <c r="I29" s="38">
+      <c r="I29" s="35">
         <v>0</v>
       </c>
-      <c r="J29" s="43" t="s">
-        <v>130</v>
-      </c>
-      <c r="K29" s="38">
+      <c r="J29" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29" s="35">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
+      <c r="B31" s="46"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="46"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="46"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="21"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="21"/>
-      <c r="E32" s="21"/>
-      <c r="F32" s="21"/>
-      <c r="G32" s="21"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="20"/>
-      <c r="M32" s="20"/>
+      <c r="A32" s="17"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="17"/>
+      <c r="M32" s="17"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="80"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="80"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
-      <c r="M33" s="20"/>
+      <c r="A33" s="17"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="89"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="89"/>
+      <c r="G33" s="89"/>
+      <c r="H33" s="89"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="89"/>
+      <c r="K33" s="89"/>
+      <c r="L33" s="89"/>
+      <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="20"/>
+      <c r="A34" s="17"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="18"/>
+      <c r="L34" s="18"/>
+      <c r="M34" s="17"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="20"/>
-      <c r="M35" s="20"/>
+      <c r="A35" s="17"/>
+      <c r="B35" s="17"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17"/>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="17"/>
+      <c r="M35" s="17"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="20"/>
-      <c r="M36" s="20"/>
+      <c r="A36" s="17"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
+      <c r="A37" s="17"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="20"/>
-      <c r="M38" s="20"/>
+      <c r="A38" s="17"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="17"/>
+      <c r="M38" s="17"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
+      <c r="A39" s="17"/>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="17"/>
+      <c r="M39" s="17"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="20"/>
-      <c r="M40" s="20"/>
+      <c r="A40" s="17"/>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="17"/>
+      <c r="M40" s="17"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="21"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
+      <c r="A41" s="17"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="17"/>
+      <c r="M41" s="17"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="20"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20"/>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="20"/>
-      <c r="M42" s="20"/>
+      <c r="A42" s="17"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17"/>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="17"/>
+      <c r="M42" s="17"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="20"/>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20"/>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="20"/>
-      <c r="M43" s="20"/>
+      <c r="A43" s="17"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="20"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="20"/>
-      <c r="M44" s="20"/>
+      <c r="A44" s="17"/>
+      <c r="B44" s="17"/>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
+      <c r="F44" s="18"/>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="20"/>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20"/>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
-      <c r="K45" s="20"/>
-      <c r="L45" s="20"/>
-      <c r="M45" s="20"/>
+      <c r="A45" s="17"/>
+      <c r="B45" s="17"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="17"/>
+      <c r="M45" s="17"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
+      <c r="A46" s="17"/>
+      <c r="B46" s="17"/>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="17"/>
+      <c r="M46" s="17"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="20"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="20"/>
-      <c r="M47" s="20"/>
+      <c r="A47" s="17"/>
+      <c r="B47" s="17"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17"/>
+      <c r="K47" s="17"/>
+      <c r="L47" s="17"/>
+      <c r="M47" s="17"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="E48" s="51"/>
-      <c r="F48" s="63"/>
-      <c r="G48" s="51"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="48"/>
     </row>
     <row r="49" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E49" s="51"/>
-      <c r="F49" s="51"/>
-      <c r="G49" s="51"/>
+      <c r="E49" s="48"/>
+      <c r="F49" s="48"/>
+      <c r="G49" s="48"/>
     </row>
     <row r="50" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E50" s="51"/>
-      <c r="F50" s="51"/>
-      <c r="G50" s="51"/>
+      <c r="E50" s="48"/>
+      <c r="F50" s="48"/>
+      <c r="G50" s="48"/>
     </row>
     <row r="51" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E51" s="51"/>
-      <c r="F51" s="51"/>
-      <c r="G51" s="51"/>
+      <c r="E51" s="48"/>
+      <c r="F51" s="48"/>
+      <c r="G51" s="48"/>
     </row>
     <row r="52" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E52" s="51"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="51"/>
+      <c r="E52" s="48"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="48"/>
     </row>
     <row r="53" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
+      <c r="E53" s="48"/>
+      <c r="F53" s="48"/>
+      <c r="G53" s="48"/>
     </row>
     <row r="54" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E54" s="51"/>
-      <c r="F54" s="51"/>
-      <c r="G54" s="51"/>
+      <c r="E54" s="48"/>
+      <c r="F54" s="48"/>
+      <c r="G54" s="48"/>
     </row>
     <row r="55" spans="5:7" x14ac:dyDescent="0.3">
-      <c r="E55" s="51"/>
-      <c r="F55" s="51"/>
-      <c r="G55" s="51"/>
+      <c r="E55" s="48"/>
+      <c r="F55" s="48"/>
+      <c r="G55" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -5888,53 +6025,53 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46D577-AC6F-4505-860C-EE5869797CC5}">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="24"/>
-    <col min="3" max="3" width="23.33203125" style="24" customWidth="1"/>
-    <col min="4" max="4" width="58.44140625" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="24"/>
-    <col min="7" max="7" width="36.109375" style="24" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.44140625" style="24" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="24"/>
+    <col min="1" max="2" width="9.109375" style="21"/>
+    <col min="3" max="3" width="23.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="58.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="21"/>
+    <col min="7" max="7" width="36.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.44140625" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="74" t="s">
+      <c r="B2" s="83" t="s">
         <v>124</v>
       </c>
-      <c r="C2" s="77"/>
-      <c r="D2" s="78"/>
-      <c r="F2" s="74" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="87"/>
+      <c r="F2" s="83" t="s">
         <v>125</v>
       </c>
-      <c r="G2" s="77"/>
-      <c r="H2" s="78"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="27" t="s">
+      <c r="F3" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="72" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="2"/>
@@ -5944,22 +6081,22 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="82">
+      <c r="B4" s="90">
         <v>11</v>
       </c>
-      <c r="C4" s="82" t="s">
+      <c r="C4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="90">
         <v>21</v>
       </c>
-      <c r="G4" s="82" t="s">
+      <c r="G4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="77" t="s">
         <v>9</v>
       </c>
       <c r="I4" s="2"/>
@@ -5969,14 +6106,14 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="36" t="s">
+      <c r="B5" s="91"/>
+      <c r="C5" s="91"/>
+      <c r="D5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="36" t="s">
+      <c r="F5" s="91"/>
+      <c r="G5" s="91"/>
+      <c r="H5" s="67" t="s">
         <v>10</v>
       </c>
       <c r="I5" s="2"/>
@@ -5986,14 +6123,14 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="83"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="3" t="s">
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="3" t="s">
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="78" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="2"/>
@@ -6003,236 +6140,242 @@
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="26"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="1"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="80"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="80"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="82">
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="34">
         <v>12</v>
       </c>
-      <c r="C8" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="82">
+      <c r="C8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="34">
         <v>22</v>
       </c>
-      <c r="G8" s="82" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>9</v>
+      <c r="G8" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="H8" s="81" t="s">
+        <v>14</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="83"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="40" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="83"/>
-      <c r="G9" s="83"/>
-      <c r="H9" s="40" t="s">
-        <v>12</v>
-      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="80"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="80"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="26"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="1"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="1"/>
+      <c r="B10" s="34">
+        <v>13</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="D10" s="81" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="90">
+        <v>23</v>
+      </c>
+      <c r="G10" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" s="77" t="s">
+        <v>9</v>
+      </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="37">
-        <v>13</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="37">
-        <v>23</v>
-      </c>
-      <c r="G11" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="I11" s="20"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="80"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="75" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
     <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="26"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="1"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="1"/>
+      <c r="B12" s="34">
+        <v>14</v>
+      </c>
+      <c r="C12" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="D12" s="81" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="23"/>
+      <c r="G12" s="73"/>
+      <c r="H12" s="80"/>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="73"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="82">
-        <v>14</v>
-      </c>
-      <c r="C13" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="F13" s="82">
+      <c r="B13" s="23"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="80"/>
+      <c r="F13" s="34">
         <v>24</v>
       </c>
-      <c r="G13" s="82" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>9</v>
+      <c r="G13" s="34" t="s">
+        <v>205</v>
+      </c>
+      <c r="H13" s="81" t="s">
+        <v>194</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
+      <c r="J13" s="73"/>
+      <c r="K13" s="73"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="83"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="40" t="s">
-        <v>14</v>
-      </c>
+      <c r="B14" s="90">
+        <v>15</v>
+      </c>
+      <c r="C14" s="90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="23"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="80"/>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
+      <c r="J14" s="73"/>
+      <c r="K14" s="73"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="26"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="1"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="1"/>
+      <c r="B15" s="92"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="4">
+        <v>25</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>206</v>
+      </c>
+      <c r="H15" s="81" t="s">
+        <v>194</v>
+      </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="73"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="37">
-        <v>15</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" s="37">
-        <v>25</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="H16" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B16" s="23"/>
+      <c r="C16" s="73"/>
+      <c r="D16" s="80"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="80"/>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
+      <c r="J16" s="73"/>
+      <c r="K16" s="73"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="26"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="1"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="1"/>
+      <c r="B17" s="90">
+        <v>16</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="77" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="34">
+        <v>26</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="H17" s="81" t="s">
+        <v>14</v>
+      </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
+      <c r="J17" s="73"/>
+      <c r="K17" s="73"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="37">
-        <v>16</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="37">
-        <v>26</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>14</v>
-      </c>
+      <c r="B18" s="92"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="23"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="80"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="1"/>
+      <c r="F19" s="90">
+        <v>27</v>
+      </c>
+      <c r="G19" s="90" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" s="77" t="s">
+        <v>9</v>
+      </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -6245,82 +6388,88 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="37">
-        <v>27</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>14</v>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="75" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="74" t="s">
+      <c r="B21" s="83" t="s">
         <v>126</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="78"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="87"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="1"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="80"/>
     </row>
     <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="29" t="s">
+      <c r="D22" s="26" t="s">
         <v>2</v>
       </c>
       <c r="E22" s="2"/>
-      <c r="F22" s="6">
+      <c r="F22" s="4">
         <v>28</v>
       </c>
-      <c r="G22" s="37" t="s">
-        <v>118</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>15</v>
+      <c r="G22" s="34" t="s">
+        <v>207</v>
+      </c>
+      <c r="H22" s="81" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
-      <c r="B23" s="37">
+      <c r="B23" s="34">
         <v>91</v>
       </c>
-      <c r="C23" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>14</v>
+      <c r="C23" s="34" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="81" t="s">
+        <v>195</v>
       </c>
       <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="73"/>
+      <c r="H23" s="80"/>
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="26"/>
+      <c r="B24" s="23"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
+      <c r="F24" s="34">
+        <v>29</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="H24" s="81" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="37">
+      <c r="B25" s="34">
         <v>92</v>
       </c>
-      <c r="C25" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>127</v>
-      </c>
+      <c r="C25" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="81" t="s">
+        <v>14</v>
+      </c>
+      <c r="H25" s="82"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
@@ -6328,18 +6477,20 @@
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
+      <c r="A27" s="73"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
+      <c r="C28" s="73"/>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B29" s="81"/>
-      <c r="C29" s="81"/>
+      <c r="A29" s="73"/>
+      <c r="B29" s="73"/>
+      <c r="C29" s="76"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
@@ -6348,8 +6499,9 @@
       <c r="I29" s="2"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B30" s="81"/>
-      <c r="C30" s="81"/>
+      <c r="A30" s="73"/>
+      <c r="B30" s="73"/>
+      <c r="C30" s="76"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -6358,83 +6510,475 @@
       <c r="I30" s="2"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
+      <c r="A31" s="73"/>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
-      <c r="G31" s="20"/>
+      <c r="G31" s="17"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="73"/>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="73"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="73"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="73"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" s="73"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="73"/>
+      <c r="B36" s="17"/>
+      <c r="C36" s="73"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="D42" s="22"/>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" s="73"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" s="73"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" s="73"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" s="73"/>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" s="73"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="73"/>
+      <c r="E59" s="73"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="73"/>
+      <c r="E60" s="73"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="73"/>
+      <c r="E61" s="73"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
+  <mergeCells count="15">
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:B6"/>
     <mergeCell ref="C4:C6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="F2:H2"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="G4:G6"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:C15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD07F0D-FAEC-4973-B07B-39B1A9A12CE8}">
+  <dimension ref="B1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="24.21875" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="103" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="104" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="105"/>
+      <c r="H2" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="106">
+        <v>1</v>
+      </c>
+      <c r="C3" s="107"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="101" t="s">
+        <v>198</v>
+      </c>
+      <c r="F3" s="102"/>
+      <c r="H3" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="97">
+        <f>B3+1</f>
+        <v>2</v>
+      </c>
+      <c r="C4" s="98"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="93" t="s">
+        <v>199</v>
+      </c>
+      <c r="F4" s="94"/>
+      <c r="H4" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="97">
+        <f t="shared" ref="B5:B26" si="0">B4+1</f>
+        <v>3</v>
+      </c>
+      <c r="C5" s="98"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="93" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="94"/>
+      <c r="H5" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="97">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="98"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="93" t="s">
+        <v>201</v>
+      </c>
+      <c r="F6" s="94"/>
+      <c r="H6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="97">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="98"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="93" t="s">
+        <v>202</v>
+      </c>
+      <c r="F7" s="94"/>
+      <c r="H7" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="97">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="98"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="93" t="s">
+        <v>208</v>
+      </c>
+      <c r="F8" s="94"/>
+      <c r="H8" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="97">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="98"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="H9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="97">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C10" s="98"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="97">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C11" s="98"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="97">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="97">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="C13" s="98"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="97">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="C14" s="98"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="94"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="97">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="97">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C16" s="98"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B17" s="97">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C17" s="98"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B18" s="97">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C18" s="98"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B19" s="97">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C19" s="98"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B20" s="97">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C20" s="98"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B21" s="97">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C21" s="98"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="94"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B22" s="97">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C22" s="98"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="97">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C23" s="98"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="97">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C24" s="98"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="94"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="97">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C25" s="98"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="94"/>
+    </row>
+    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="99">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C26" s="100"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
+    </row>
+  </sheetData>
+  <mergeCells count="50">
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
     <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="161" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ABB22343-5F1C-4CD3-8994-7E8813D8A45D}"/>
+  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CA4C75E-3C97-4C14-81DD-DFFCD6A96938}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="218">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -689,6 +689,9 @@
   </si>
   <si>
     <t>Segurança</t>
+  </si>
+  <si>
+    <t>STP (Edificio 2)</t>
   </si>
 </sst>
 </file>
@@ -1594,49 +1597,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6630,7 +6633,7 @@
   <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6642,312 +6645,309 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="103" t="s">
+      <c r="B2" s="96" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="104" t="s">
+      <c r="C2" s="97"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="97" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="105"/>
+      <c r="F2" s="98"/>
       <c r="H2" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="106">
+      <c r="B3" s="99">
         <v>1</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="101" t="s">
+      <c r="C3" s="100"/>
+      <c r="D3" s="101"/>
+      <c r="E3" s="106" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="102"/>
+      <c r="F3" s="101"/>
       <c r="H3" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="97">
+      <c r="B4" s="93">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="93" t="s">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="102" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="94"/>
+      <c r="F4" s="95"/>
       <c r="H4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="97">
+      <c r="B5" s="93">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="93" t="s">
+      <c r="C5" s="94"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="102" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="94"/>
+      <c r="F5" s="95"/>
       <c r="H5" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="97">
+      <c r="B6" s="93">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="93" t="s">
+      <c r="C6" s="94"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="102" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="94"/>
+      <c r="F6" s="95"/>
       <c r="H6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="97">
+      <c r="B7" s="93">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="93" t="s">
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="102" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="94"/>
+      <c r="F7" s="95"/>
       <c r="H7" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="97">
+      <c r="B8" s="93">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="93" t="s">
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="102" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="94"/>
+      <c r="F8" s="95"/>
       <c r="H8" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="97">
+      <c r="B9" s="93">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="94"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="95"/>
       <c r="H9" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="97">
+      <c r="B10" s="93">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="95"/>
+      <c r="H10" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="97">
+      <c r="B11" s="93">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="95"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="97">
+      <c r="B12" s="93">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="95"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="97">
+      <c r="B13" s="93">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="95"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="97">
+      <c r="B14" s="93">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="95"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="97">
+      <c r="B15" s="93">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="95"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="97">
+      <c r="B16" s="93">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="95"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="97">
+      <c r="B17" s="93">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="95"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="97">
+      <c r="B18" s="93">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="94"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="95"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="97">
+      <c r="B19" s="93">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="95"/>
     </row>
     <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="97">
+      <c r="B20" s="93">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="95"/>
     </row>
     <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="97">
+      <c r="B21" s="93">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="95"/>
     </row>
     <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="97">
+      <c r="B22" s="93">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94"/>
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="95"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="97">
+      <c r="B23" s="93">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="95"/>
     </row>
     <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="97">
+      <c r="B24" s="93">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="94"/>
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="95"/>
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="97">
+      <c r="B25" s="93">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="94"/>
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="95"/>
     </row>
     <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="99">
+      <c r="B26" s="103">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
+      <c r="C26" s="104"/>
+      <c r="D26" s="105"/>
+      <c r="E26" s="107"/>
+      <c r="F26" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
@@ -6964,21 +6964,27 @@
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="162" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2CA4C75E-3C97-4C14-81DD-DFFCD6A96938}"/>
+  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89DC2DDC-9197-4333-BB31-7C6D26643C13}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -1319,7 +1319,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1597,13 +1597,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1621,26 +1642,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1962,33 +1972,33 @@
       <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="21"/>
+    <col min="1" max="1" width="8.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="21"/>
     <col min="6" max="6" width="11" style="21" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="21"/>
-    <col min="10" max="10" width="12.33203125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="21"/>
+    <col min="10" max="10" width="12.28515625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="21" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="21"/>
-    <col min="14" max="14" width="11.44140625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="21" customWidth="1"/>
-    <col min="17" max="18" width="9.109375" style="21"/>
-    <col min="19" max="19" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.109375" style="21"/>
-    <col min="23" max="23" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="21"/>
+    <col min="13" max="13" width="9.140625" style="21"/>
+    <col min="14" max="14" width="11.42578125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="21" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="21"/>
+    <col min="19" max="19" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.140625" style="21"/>
+    <col min="23" max="23" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="83" t="s">
         <v>112</v>
       </c>
@@ -2008,7 +2018,7 @@
       <c r="O2" s="84"/>
       <c r="P2" s="85"/>
     </row>
-    <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
@@ -2048,7 +2058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
@@ -2088,7 +2098,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
@@ -2128,7 +2138,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
@@ -2168,7 +2178,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
@@ -2208,7 +2218,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
@@ -2230,7 +2240,7 @@
       </c>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
@@ -2251,7 +2261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
@@ -2272,8 +2282,8 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -2282,7 +2292,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
@@ -2291,7 +2301,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
       <c r="T14" s="32"/>
@@ -2301,7 +2311,7 @@
       <c r="X14" s="32"/>
       <c r="Y14" s="32"/>
     </row>
-    <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="83" t="s">
         <v>113</v>
       </c>
@@ -2329,7 +2339,7 @@
       <c r="X15" s="88"/>
       <c r="Y15" s="32"/>
     </row>
-    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
@@ -2377,7 +2387,7 @@
       <c r="X16" s="19"/>
       <c r="Y16" s="32"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>1</v>
       </c>
@@ -2428,7 +2438,7 @@
       <c r="X17" s="32"/>
       <c r="Y17" s="32"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <f>A17+1</f>
         <v>2</v>
@@ -2480,7 +2490,7 @@
       <c r="X18" s="32"/>
       <c r="Y18" s="32"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <f t="shared" ref="A19:A58" si="0">A18+1</f>
         <v>3</v>
@@ -2532,7 +2542,7 @@
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2584,7 +2594,7 @@
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2636,7 +2646,7 @@
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2688,7 +2698,7 @@
       <c r="X22" s="32"/>
       <c r="Y22" s="32"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2740,7 +2750,7 @@
       <c r="X23" s="32"/>
       <c r="Y23" s="32"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2792,7 +2802,7 @@
       <c r="X24" s="32"/>
       <c r="Y24" s="32"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2844,7 +2854,7 @@
       <c r="X25" s="32"/>
       <c r="Y25" s="32"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2896,7 +2906,7 @@
       <c r="X26" s="32"/>
       <c r="Y26" s="32"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2948,7 +2958,7 @@
       <c r="X27" s="32"/>
       <c r="Y27" s="32"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3000,7 +3010,7 @@
       <c r="X28" s="32"/>
       <c r="Y28" s="32"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3052,7 +3062,7 @@
       <c r="X29" s="32"/>
       <c r="Y29" s="32"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3104,7 +3114,7 @@
       <c r="X30" s="32"/>
       <c r="Y30" s="32"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3156,7 +3166,7 @@
       <c r="X31" s="32"/>
       <c r="Y31" s="32"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3208,7 +3218,7 @@
       <c r="X32" s="32"/>
       <c r="Y32" s="32"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3260,7 +3270,7 @@
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3312,7 +3322,7 @@
       <c r="X34" s="32"/>
       <c r="Y34" s="32"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3364,7 +3374,7 @@
       <c r="X35" s="32"/>
       <c r="Y35" s="32"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3416,7 +3426,7 @@
       <c r="X36" s="32"/>
       <c r="Y36" s="32"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3468,7 +3478,7 @@
       <c r="X37" s="32"/>
       <c r="Y37" s="32"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3520,7 +3530,7 @@
       <c r="X38" s="32"/>
       <c r="Y38" s="32"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3572,7 +3582,7 @@
       <c r="X39" s="32"/>
       <c r="Y39" s="32"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3624,7 +3634,7 @@
       <c r="X40" s="32"/>
       <c r="Y40" s="32"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3676,7 +3686,7 @@
       <c r="X41" s="32"/>
       <c r="Y41" s="32"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3728,7 +3738,7 @@
       <c r="X42" s="32"/>
       <c r="Y42" s="32"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3780,7 +3790,7 @@
       <c r="X43" s="32"/>
       <c r="Y43" s="32"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3813,7 +3823,7 @@
       <c r="X44" s="32"/>
       <c r="Y44" s="32"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3846,7 +3856,7 @@
       <c r="X45" s="32"/>
       <c r="Y45" s="32"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3879,7 +3889,7 @@
       <c r="X46" s="32"/>
       <c r="Y46" s="32"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3912,7 +3922,7 @@
       <c r="X47" s="32"/>
       <c r="Y47" s="32"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3945,7 +3955,7 @@
       <c r="X48" s="32"/>
       <c r="Y48" s="32"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3978,7 +3988,7 @@
       <c r="X49" s="32"/>
       <c r="Y49" s="32"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -4011,7 +4021,7 @@
       <c r="X50" s="32"/>
       <c r="Y50" s="32"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -4044,7 +4054,7 @@
       <c r="X51" s="32"/>
       <c r="Y51" s="32"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -4077,7 +4087,7 @@
       <c r="X52" s="32"/>
       <c r="Y52" s="32"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -4110,7 +4120,7 @@
       <c r="X53" s="32"/>
       <c r="Y53" s="32"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -4143,7 +4153,7 @@
       <c r="X54" s="32"/>
       <c r="Y54" s="32"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -4177,7 +4187,7 @@
       <c r="X55" s="32"/>
       <c r="Y55" s="32"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -4211,7 +4221,7 @@
       <c r="X56" s="32"/>
       <c r="Y56" s="32"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -4245,7 +4255,7 @@
       <c r="X57" s="32"/>
       <c r="Y57" s="32"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4286,7 +4296,7 @@
       <c r="X58" s="32"/>
       <c r="Y58" s="32"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4312,7 +4322,7 @@
       <c r="X59" s="32"/>
       <c r="Y59" s="32"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4334,7 +4344,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -4349,7 +4359,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -4364,7 +4374,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -4376,14 +4386,14 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
@@ -4403,7 +4413,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
@@ -4423,7 +4433,7 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
@@ -4443,7 +4453,7 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
@@ -4463,7 +4473,7 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
@@ -4483,7 +4493,7 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
@@ -4503,7 +4513,7 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
@@ -4523,7 +4533,7 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
@@ -4543,7 +4553,7 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
@@ -4563,7 +4573,7 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
@@ -4583,7 +4593,7 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
@@ -4603,7 +4613,7 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -4623,7 +4633,7 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -4643,7 +4653,7 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -4663,7 +4673,7 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
@@ -4683,7 +4693,7 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
@@ -4703,7 +4713,7 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="B81" s="32"/>
       <c r="C81" s="32"/>
@@ -4723,7 +4733,7 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
@@ -4743,7 +4753,7 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="32"/>
       <c r="C83" s="32"/>
@@ -4763,7 +4773,7 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
@@ -4783,7 +4793,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
@@ -4804,7 +4814,7 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
       <c r="B86" s="32"/>
       <c r="C86" s="32"/>
@@ -4825,7 +4835,7 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="B87" s="32"/>
       <c r="C87" s="32"/>
@@ -4846,7 +4856,7 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="32"/>
       <c r="C88" s="32"/>
@@ -4867,7 +4877,7 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
@@ -4888,7 +4898,7 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="32"/>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
@@ -4908,7 +4918,7 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
@@ -4928,7 +4938,7 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
@@ -4948,7 +4958,7 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
@@ -4968,7 +4978,7 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -4988,7 +4998,7 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
@@ -5020,25 +5030,25 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="48" customWidth="1"/>
-    <col min="10" max="10" width="36.109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="21"/>
+    <col min="13" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="83" t="s">
         <v>113</v>
       </c>
@@ -5055,7 +5065,7 @@
       <c r="K2" s="86"/>
       <c r="L2" s="87"/>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>128</v>
       </c>
@@ -5086,7 +5096,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>3</v>
       </c>
@@ -5116,7 +5126,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
         <v>114</v>
       </c>
@@ -5146,7 +5156,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>119</v>
       </c>
@@ -5174,7 +5184,7 @@
       </c>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
@@ -5199,7 +5209,7 @@
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="42" t="s">
         <v>6</v>
       </c>
@@ -5226,7 +5236,7 @@
       <c r="L8" s="68"/>
       <c r="M8" s="48"/>
     </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="47" t="s">
         <v>4</v>
       </c>
@@ -5255,7 +5265,7 @@
       <c r="L9" s="49"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B10" s="49" t="s">
         <v>127</v>
       </c>
@@ -5280,7 +5290,7 @@
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F11" s="54" t="s">
         <v>116</v>
       </c>
@@ -5299,7 +5309,7 @@
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="59" t="s">
         <v>5</v>
       </c>
@@ -5319,7 +5329,7 @@
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F13" s="49" t="s">
         <v>127</v>
       </c>
@@ -5335,7 +5345,7 @@
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F14" s="49"/>
       <c r="J14" s="58" t="s">
         <v>180</v>
@@ -5346,7 +5356,7 @@
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F15" s="49"/>
       <c r="I15" s="48" t="s">
         <v>188</v>
@@ -5360,7 +5370,7 @@
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="49"/>
       <c r="J16" s="43" t="s">
         <v>182</v>
@@ -5371,13 +5381,13 @@
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F17" s="49"/>
       <c r="J17" s="49"/>
       <c r="K17" s="48"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="83" t="s">
         <v>134</v>
       </c>
@@ -5391,7 +5401,7 @@
       <c r="J19" s="86"/>
       <c r="K19" s="87"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="3">
         <v>128</v>
       </c>
@@ -5423,7 +5433,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21" s="69">
         <v>1</v>
       </c>
@@ -5455,7 +5465,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="54">
         <v>1</v>
       </c>
@@ -5488,7 +5498,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="54">
         <v>1</v>
       </c>
@@ -5521,7 +5531,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="54">
         <v>1</v>
       </c>
@@ -5554,7 +5564,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="54">
         <v>1</v>
       </c>
@@ -5587,7 +5597,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="54">
         <v>1</v>
       </c>
@@ -5620,7 +5630,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="54">
         <v>1</v>
       </c>
@@ -5653,7 +5663,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="54">
         <v>1</v>
       </c>
@@ -5686,7 +5696,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B29" s="70">
         <v>0</v>
       </c>
@@ -5719,7 +5729,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -5729,7 +5739,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -5744,7 +5754,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="89"/>
       <c r="C33" s="89"/>
@@ -5759,7 +5769,7 @@
       <c r="L33" s="89"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -5774,7 +5784,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="17"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -5789,7 +5799,7 @@
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -5804,7 +5814,7 @@
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -5819,7 +5829,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -5834,7 +5844,7 @@
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -5849,7 +5859,7 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -5864,7 +5874,7 @@
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="17"/>
@@ -5879,7 +5889,7 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -5894,7 +5904,7 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -5909,7 +5919,7 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -5924,7 +5934,7 @@
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -5939,7 +5949,7 @@
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -5954,7 +5964,7 @@
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -5969,42 +5979,42 @@
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E48" s="48"/>
       <c r="F48" s="60"/>
       <c r="G48" s="48"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52" s="48"/>
       <c r="F52" s="17"/>
       <c r="G52" s="48"/>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
@@ -6034,19 +6044,19 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="21"/>
-    <col min="3" max="3" width="23.33203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="58.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="21"/>
-    <col min="7" max="7" width="36.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.44140625" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="21"/>
+    <col min="1" max="2" width="9.140625" style="21"/>
+    <col min="3" max="3" width="23.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="21"/>
+    <col min="7" max="7" width="36.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="83" t="s">
         <v>124</v>
       </c>
@@ -6058,7 +6068,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="87"/>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="71" t="s">
         <v>0</v>
       </c>
@@ -6083,7 +6093,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="90">
         <v>11</v>
       </c>
@@ -6108,7 +6118,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="91"/>
       <c r="C5" s="91"/>
       <c r="D5" s="67" t="s">
@@ -6125,7 +6135,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
       <c r="D6" s="78" t="s">
@@ -6142,7 +6152,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23"/>
       <c r="C7" s="73"/>
       <c r="D7" s="80"/>
@@ -6155,7 +6165,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>12</v>
       </c>
@@ -6180,7 +6190,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="73"/>
       <c r="D9" s="80"/>
@@ -6193,7 +6203,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>13</v>
       </c>
@@ -6218,7 +6228,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="73"/>
       <c r="D11" s="80"/>
@@ -6233,7 +6243,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="34">
         <v>14</v>
       </c>
@@ -6252,7 +6262,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="73"/>
       <c r="D13" s="80"/>
@@ -6271,7 +6281,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="90">
         <v>15</v>
       </c>
@@ -6290,7 +6300,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="92"/>
       <c r="C15" s="92"/>
       <c r="D15" s="43" t="s">
@@ -6311,7 +6321,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="23"/>
       <c r="C16" s="73"/>
       <c r="D16" s="80"/>
@@ -6324,7 +6334,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="90">
         <v>16</v>
       </c>
@@ -6349,7 +6359,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="92"/>
       <c r="C18" s="92"/>
       <c r="D18" s="75" t="s">
@@ -6364,7 +6374,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6385,7 +6395,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6397,7 +6407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="83" t="s">
         <v>126</v>
@@ -6409,7 +6419,7 @@
       <c r="G21" s="73"/>
       <c r="H21" s="80"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="24" t="s">
         <v>0</v>
@@ -6431,7 +6441,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="34">
         <v>91</v>
@@ -6448,7 +6458,7 @@
       <c r="H23" s="80"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="23"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -6462,7 +6472,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34">
         <v>92</v>
       </c>
@@ -6474,23 +6484,23 @@
       </c>
       <c r="H25" s="82"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="73"/>
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="73"/>
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="73"/>
       <c r="B29" s="73"/>
       <c r="C29" s="76"/>
@@ -6501,7 +6511,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="73"/>
       <c r="B30" s="73"/>
       <c r="C30" s="76"/>
@@ -6512,7 +6522,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="73"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
@@ -6523,7 +6533,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
@@ -6533,7 +6543,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="73"/>
       <c r="B33" s="17"/>
       <c r="C33" s="73"/>
@@ -6543,7 +6553,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="73"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
@@ -6553,7 +6563,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="73"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
@@ -6563,46 +6573,46 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="73"/>
       <c r="B36" s="17"/>
       <c r="C36" s="73"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="73"/>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="73"/>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="73"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="73"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="73"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="73"/>
       <c r="E59" s="73"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="73"/>
       <c r="E60" s="73"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="73"/>
       <c r="E61" s="73"/>
     </row>
@@ -6633,322 +6643,328 @@
   <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="24.21875" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="96" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="103" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="97"/>
-      <c r="D2" s="98"/>
-      <c r="E2" s="97" t="s">
+      <c r="C2" s="104"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="104" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="98"/>
-      <c r="H2" t="s">
+      <c r="F2" s="105"/>
+      <c r="H2" s="108" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="99">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="106">
         <v>1</v>
       </c>
-      <c r="C3" s="100"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="106" t="s">
+      <c r="C3" s="107"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="101" t="s">
         <v>198</v>
       </c>
-      <c r="F3" s="101"/>
-      <c r="H3" t="s">
+      <c r="F3" s="102"/>
+      <c r="H3" s="109" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="93">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="97">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="102" t="s">
+      <c r="C4" s="98"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="93" t="s">
         <v>199</v>
       </c>
-      <c r="F4" s="95"/>
-      <c r="H4" t="s">
+      <c r="F4" s="94"/>
+      <c r="H4" s="110" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="93">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="97">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="102" t="s">
+      <c r="C5" s="98"/>
+      <c r="D5" s="94"/>
+      <c r="E5" s="93" t="s">
         <v>200</v>
       </c>
-      <c r="F5" s="95"/>
-      <c r="H5" t="s">
+      <c r="F5" s="94"/>
+      <c r="H5" s="110" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="93">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="97">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="102" t="s">
+      <c r="C6" s="98"/>
+      <c r="D6" s="94"/>
+      <c r="E6" s="93" t="s">
         <v>201</v>
       </c>
-      <c r="F6" s="95"/>
-      <c r="H6" t="s">
+      <c r="F6" s="94"/>
+      <c r="H6" s="110" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="93">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="97">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="102" t="s">
+      <c r="C7" s="98"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="93" t="s">
         <v>202</v>
       </c>
-      <c r="F7" s="95"/>
-      <c r="H7" t="s">
+      <c r="F7" s="94"/>
+      <c r="H7" s="110" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="93">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="97">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="102" t="s">
+      <c r="C8" s="98"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="93" t="s">
         <v>208</v>
       </c>
-      <c r="F8" s="95"/>
-      <c r="H8" t="s">
+      <c r="F8" s="94"/>
+      <c r="H8" s="110" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="93">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="97">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="95"/>
-      <c r="H9" t="s">
+      <c r="C9" s="98"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="H9" s="110" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="93">
+    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="97">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="95"/>
-      <c r="H10" t="s">
+      <c r="C10" s="98"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="H10" s="111" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="93">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="97">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="95"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="93">
+      <c r="C11" s="98"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="97">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="95"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="93">
+      <c r="C12" s="98"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="97">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="95"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="93">
+      <c r="C13" s="98"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="94"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="97">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="95"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="93">
+      <c r="C14" s="98"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="94"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="97">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="95"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="93">
+      <c r="C15" s="98"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="94"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="97">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="95"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="93">
+      <c r="C16" s="98"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="93"/>
+      <c r="F16" s="94"/>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17" s="97">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="95"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="93">
+      <c r="C17" s="98"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="94"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18" s="97">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="95"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="93">
+      <c r="C18" s="98"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="93"/>
+      <c r="F18" s="94"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19" s="97">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="95"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B20" s="93">
+      <c r="C19" s="98"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="94"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="97">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="95"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B21" s="93">
+      <c r="C20" s="98"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="94"/>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" s="97">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="95"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="93">
+      <c r="C21" s="98"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="93"/>
+      <c r="F21" s="94"/>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" s="97">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="95"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="93">
+      <c r="C22" s="98"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="93"/>
+      <c r="F22" s="94"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" s="97">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="95"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="93">
+      <c r="C23" s="98"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="93"/>
+      <c r="F23" s="94"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" s="97">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="95"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B25" s="93">
+      <c r="C24" s="98"/>
+      <c r="D24" s="94"/>
+      <c r="E24" s="93"/>
+      <c r="F24" s="94"/>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="97">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="95"/>
-    </row>
-    <row r="26" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="103">
+      <c r="C25" s="98"/>
+      <c r="D25" s="94"/>
+      <c r="E25" s="93"/>
+      <c r="F25" s="94"/>
+    </row>
+    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="99">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="104"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="107"/>
-      <c r="F26" s="105"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="96"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="96"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
@@ -6965,26 +6981,20 @@
     <mergeCell ref="B22:D22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89DC2DDC-9197-4333-BB31-7C6D26643C13}"/>
+  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF0A55A7-6498-40EF-AFDE-B50AFC78626F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="170">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -145,24 +145,6 @@
     <t>F0/1</t>
   </si>
   <si>
-    <t>F0/2</t>
-  </si>
-  <si>
-    <t>F0/3</t>
-  </si>
-  <si>
-    <t>F0/4</t>
-  </si>
-  <si>
-    <t>F0/5</t>
-  </si>
-  <si>
-    <t>F0/6</t>
-  </si>
-  <si>
-    <t>F0</t>
-  </si>
-  <si>
     <t>G0/2</t>
   </si>
   <si>
@@ -223,141 +205,15 @@
     <t>LabInformatica-Switch5</t>
   </si>
   <si>
-    <t>LabInformatica-PC1a</t>
-  </si>
-  <si>
-    <t>LabInformatica-PC2a</t>
-  </si>
-  <si>
-    <t>LabInformatica-PC1p</t>
-  </si>
-  <si>
-    <t>LabInformatica-Phone1</t>
-  </si>
-  <si>
-    <t>LabInformatica-TV1</t>
-  </si>
-  <si>
-    <t>Auditorio-PC1p</t>
-  </si>
-  <si>
-    <t>Auditorio-Phone1</t>
-  </si>
-  <si>
-    <t>Auditorio-AVAC1</t>
-  </si>
-  <si>
-    <t>CGestao-PC1g</t>
-  </si>
-  <si>
-    <t>CGestao-Phone1</t>
-  </si>
-  <si>
-    <t>CGestao-Printer1</t>
-  </si>
-  <si>
-    <t>CGestao-TV1</t>
-  </si>
-  <si>
-    <t>ServAcademicos-PC1sa</t>
-  </si>
-  <si>
-    <t>ServAcademicos-Phone1</t>
-  </si>
-  <si>
-    <t>ServAcademicos-Printer1</t>
-  </si>
-  <si>
-    <t>DepInformatica-PC1i</t>
-  </si>
-  <si>
-    <t>DepInformatica-Phone1</t>
-  </si>
-  <si>
-    <t>DepInformatica-Printer1</t>
-  </si>
-  <si>
-    <t>DepInformatica-TV1</t>
-  </si>
-  <si>
-    <t>SalaProf-PC1p</t>
-  </si>
-  <si>
-    <t>SalaProf-PC1g</t>
-  </si>
-  <si>
-    <t>SalaProf-Phone1</t>
-  </si>
-  <si>
-    <t>SalaProf-Printer1</t>
-  </si>
-  <si>
-    <t>SalaProf-TV1</t>
-  </si>
-  <si>
-    <t>A1-PC1p</t>
-  </si>
-  <si>
-    <t>A1-Phone1</t>
-  </si>
-  <si>
-    <t>A1-PC2a</t>
-  </si>
-  <si>
-    <t>A2-PC1p</t>
-  </si>
-  <si>
-    <t>A2-PC2a</t>
-  </si>
-  <si>
-    <t>A2-Phone1</t>
-  </si>
-  <si>
-    <t>A3-PC1p</t>
-  </si>
-  <si>
-    <t>GeralE1-Phone1</t>
-  </si>
-  <si>
-    <t>GeralE1-Printer1</t>
-  </si>
-  <si>
     <t>GeralE1-Switch</t>
   </si>
   <si>
-    <t>GeralE1-AVAC1</t>
-  </si>
-  <si>
-    <t>GeralE1-TV1</t>
-  </si>
-  <si>
-    <t>GeralE1-CCTV1</t>
-  </si>
-  <si>
-    <t>A3-PC2a</t>
-  </si>
-  <si>
-    <t>A3-Phone1</t>
-  </si>
-  <si>
     <t>GeralE1-PC1</t>
   </si>
   <si>
     <t>GeralE2-Switch</t>
   </si>
   <si>
-    <t>GeralE2-Printer1</t>
-  </si>
-  <si>
-    <t>GeralE2-CCTV1</t>
-  </si>
-  <si>
-    <t>GeralE2-AVAC1</t>
-  </si>
-  <si>
-    <t>GeralE2-Phone1</t>
-  </si>
-  <si>
     <t>G6/0</t>
   </si>
   <si>
@@ -664,9 +520,6 @@
     <t>Informatica</t>
   </si>
   <si>
-    <t>STP (Edificio 1)</t>
-  </si>
-  <si>
     <t>O que falta</t>
   </si>
   <si>
@@ -691,7 +544,10 @@
     <t>Segurança</t>
   </si>
   <si>
-    <t>STP (Edificio 2)</t>
+    <t>STP</t>
+  </si>
+  <si>
+    <t>Atribuição de portas às VLAN's</t>
   </si>
 </sst>
 </file>
@@ -736,7 +592,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="47">
     <border>
       <left/>
       <right/>
@@ -1315,11 +1171,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1597,60 +1466,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1968,39 +1833,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F286A72-55C7-45FC-BA31-552B8F8C6C3B}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="21"/>
+    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="21"/>
     <col min="6" max="6" width="11" style="21" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="21"/>
-    <col min="10" max="10" width="12.28515625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="21"/>
+    <col min="10" max="10" width="12.33203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="21" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="21"/>
-    <col min="14" max="14" width="11.42578125" style="21" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="21" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="21"/>
-    <col min="19" max="19" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.140625" style="21"/>
-    <col min="23" max="23" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="21"/>
+    <col min="13" max="13" width="9.109375" style="21"/>
+    <col min="14" max="14" width="11.44140625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="21" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" style="21"/>
+    <col min="19" max="19" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.109375" style="21"/>
+    <col min="23" max="23" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="83" t="s">
-        <v>112</v>
+        <v>64</v>
       </c>
       <c r="C2" s="84"/>
       <c r="D2" s="84"/>
@@ -2018,7 +1883,7 @@
       <c r="O2" s="84"/>
       <c r="P2" s="85"/>
     </row>
-    <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
@@ -2058,7 +1923,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
         <v>18</v>
       </c>
@@ -2076,16 +1941,16 @@
         <v>21</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="J4" s="12" t="s">
         <v>27</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>109</v>
+        <v>61</v>
       </c>
       <c r="M4" s="28"/>
       <c r="N4" s="11" t="s">
@@ -2095,10 +1960,10 @@
         <v>28</v>
       </c>
       <c r="P4" s="12" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>18</v>
       </c>
@@ -2125,20 +1990,20 @@
         <v>28</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="M5" s="28"/>
       <c r="N5" s="11" t="s">
         <v>27</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P5" s="12" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>18</v>
       </c>
@@ -2156,7 +2021,7 @@
         <v>21</v>
       </c>
       <c r="H6" s="12" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
       <c r="J6" s="12" t="s">
         <v>27</v>
@@ -2165,7 +2030,7 @@
         <v>28</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="M6" s="28"/>
       <c r="N6" s="11" t="s">
@@ -2175,10 +2040,10 @@
         <v>30</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>18</v>
       </c>
@@ -2205,7 +2070,7 @@
         <v>28</v>
       </c>
       <c r="L7" s="13" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="M7" s="29"/>
       <c r="N7" s="11" t="s">
@@ -2215,10 +2080,10 @@
         <v>31</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>18</v>
       </c>
@@ -2226,7 +2091,7 @@
         <v>21</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="11" t="s">
@@ -2240,7 +2105,7 @@
       </c>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>18</v>
       </c>
@@ -2248,7 +2113,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="11" t="s">
@@ -2261,7 +2126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>18</v>
       </c>
@@ -2269,7 +2134,7 @@
         <v>21</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="20" t="s">
@@ -2279,11 +2144,11 @@
         <v>26</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="11" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -2292,7 +2157,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
@@ -2301,7 +2166,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
       <c r="T14" s="32"/>
@@ -2311,9 +2176,9 @@
       <c r="X14" s="32"/>
       <c r="Y14" s="32"/>
     </row>
-    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="83" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C15" s="84"/>
       <c r="D15" s="84"/>
@@ -2339,7 +2204,7 @@
       <c r="X15" s="88"/>
       <c r="Y15" s="32"/>
     </row>
-    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>16</v>
       </c>
@@ -2387,7 +2252,7 @@
       <c r="X16" s="19"/>
       <c r="Y16" s="32"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>1</v>
       </c>
@@ -2398,7 +2263,7 @@
         <v>30</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="9" t="s">
@@ -2408,23 +2273,23 @@
         <v>31</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
       <c r="J17" s="12" t="s">
         <v>32</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="M17" s="31"/>
       <c r="N17" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="P17" s="12" t="s">
         <v>29</v>
@@ -2438,7 +2303,7 @@
       <c r="X17" s="32"/>
       <c r="Y17" s="32"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <f>A17+1</f>
         <v>2</v>
@@ -2450,14 +2315,14 @@
         <v>30</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>29</v>
@@ -2466,17 +2331,17 @@
         <v>32</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M18" s="28"/>
       <c r="N18" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="P18" s="12" t="s">
         <v>29</v>
@@ -2490,7 +2355,7 @@
       <c r="X18" s="32"/>
       <c r="Y18" s="32"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <f t="shared" ref="A19:A58" si="0">A18+1</f>
         <v>3</v>
@@ -2499,17 +2364,17 @@
         <v>33</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>29</v>
@@ -2518,17 +2383,17 @@
         <v>32</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M19" s="28"/>
       <c r="N19" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="P19" s="12" t="s">
         <v>29</v>
@@ -2542,7 +2407,7 @@
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2551,7 +2416,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>34</v>
@@ -2561,7 +2426,7 @@
         <v>33</v>
       </c>
       <c r="G20" s="12" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
       <c r="H20" s="12" t="s">
         <v>34</v>
@@ -2570,17 +2435,17 @@
         <v>32</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M20" s="36"/>
       <c r="N20" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="P20" s="12" t="s">
         <v>29</v>
@@ -2594,7 +2459,7 @@
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2603,17 +2468,17 @@
         <v>33</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="11" t="s">
         <v>33</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H21" s="12" t="s">
         <v>29</v>
@@ -2622,17 +2487,17 @@
         <v>32</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M21" s="31"/>
       <c r="N21" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="P21" s="12" t="s">
         <v>29</v>
@@ -2646,7 +2511,7 @@
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2655,17 +2520,17 @@
         <v>33</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="H22" s="12" t="s">
         <v>29</v>
@@ -2674,17 +2539,17 @@
         <v>32</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M22" s="28"/>
       <c r="N22" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P22" s="12" t="s">
         <v>29</v>
@@ -2698,7 +2563,7 @@
       <c r="X22" s="32"/>
       <c r="Y22" s="32"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2707,39 +2572,39 @@
         <v>33</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="J23" s="12" t="s">
         <v>32</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="M23" s="36"/>
       <c r="N23" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
@@ -2750,7 +2615,7 @@
       <c r="X23" s="32"/>
       <c r="Y23" s="32"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2759,17 +2624,17 @@
         <v>33</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="H24" s="12" t="s">
         <v>29</v>
@@ -2778,17 +2643,17 @@
         <v>32</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M24" s="31"/>
       <c r="N24" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="P24" s="12" t="s">
         <v>29</v>
@@ -2802,7 +2667,7 @@
       <c r="X24" s="32"/>
       <c r="Y24" s="32"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2811,17 +2676,17 @@
         <v>33</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="H25" s="12" t="s">
         <v>29</v>
@@ -2830,17 +2695,17 @@
         <v>32</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M25" s="28"/>
       <c r="N25" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="P25" s="12" t="s">
         <v>29</v>
@@ -2854,7 +2719,7 @@
       <c r="X25" s="32"/>
       <c r="Y25" s="32"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -2863,17 +2728,17 @@
         <v>33</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="12" t="s">
         <v>33</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="H26" s="12" t="s">
         <v>29</v>
@@ -2882,17 +2747,17 @@
         <v>32</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M26" s="28"/>
       <c r="N26" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="P26" s="12" t="s">
         <v>29</v>
@@ -2906,7 +2771,7 @@
       <c r="X26" s="32"/>
       <c r="Y26" s="32"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -2915,36 +2780,36 @@
         <v>33</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="22" t="s">
         <v>33</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>94</v>
+        <v>55</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="J27" s="12" t="s">
         <v>32</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="M27" s="28"/>
       <c r="N27" s="11" t="s">
         <v>32</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="P27" s="12" t="s">
         <v>29</v>
@@ -2958,7 +2823,7 @@
       <c r="X27" s="32"/>
       <c r="Y27" s="32"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -2967,39 +2832,39 @@
         <v>33</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="22" t="s">
         <v>33</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="J28" s="12" t="s">
         <v>32</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="M28" s="31"/>
       <c r="N28" s="12" t="s">
         <v>32</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="R28" s="32"/>
       <c r="S28" s="32"/>
@@ -3010,48 +2875,48 @@
       <c r="X28" s="32"/>
       <c r="Y28" s="32"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="22" t="s">
-        <v>94</v>
-      </c>
-      <c r="D29" s="22" t="s">
-        <v>122</v>
-      </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="22" t="s">
+      <c r="C29" s="108" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="108" t="s">
+        <v>74</v>
+      </c>
+      <c r="E29" s="31"/>
+      <c r="F29" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="22" t="s">
-        <v>43</v>
-      </c>
-      <c r="H29" s="22" t="s">
-        <v>122</v>
+      <c r="G29" s="108" t="s">
+        <v>37</v>
+      </c>
+      <c r="H29" s="108" t="s">
+        <v>74</v>
       </c>
       <c r="J29" s="12" t="s">
         <v>32</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="M29" s="31"/>
       <c r="N29" s="12" t="s">
         <v>32</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>121</v>
+        <v>73</v>
       </c>
       <c r="R29" s="32"/>
       <c r="S29" s="17"/>
@@ -3062,48 +2927,36 @@
       <c r="X29" s="32"/>
       <c r="Y29" s="32"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B30" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G30" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H30" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J30" s="12" t="s">
+      <c r="B30" s="73"/>
+      <c r="C30" s="73"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="73"/>
+      <c r="G30" s="73"/>
+      <c r="H30" s="73"/>
+      <c r="J30" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="L30" s="12" t="s">
-        <v>122</v>
+      <c r="K30" s="109" t="s">
+        <v>57</v>
+      </c>
+      <c r="L30" s="109" t="s">
+        <v>74</v>
       </c>
       <c r="M30" s="31"/>
-      <c r="N30" s="12" t="s">
+      <c r="N30" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P30" s="12" t="s">
-        <v>122</v>
+      <c r="O30" s="109" t="s">
+        <v>50</v>
+      </c>
+      <c r="P30" s="109" t="s">
+        <v>74</v>
       </c>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
@@ -3114,49 +2967,25 @@
       <c r="X30" s="32"/>
       <c r="Y30" s="32"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>87</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J31" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K31" s="12" t="s">
-        <v>61</v>
-      </c>
-      <c r="L31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="36"/>
-      <c r="N31" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O31" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P31" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="B31" s="73"/>
+      <c r="C31" s="73"/>
+      <c r="D31" s="73"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="73"/>
+      <c r="G31" s="73"/>
+      <c r="H31" s="73"/>
+      <c r="J31" s="73"/>
+      <c r="K31" s="73"/>
+      <c r="L31" s="73"/>
+      <c r="M31" s="73"/>
+      <c r="N31" s="73"/>
+      <c r="O31" s="73"/>
+      <c r="P31" s="73"/>
       <c r="R31" s="32"/>
       <c r="S31" s="32"/>
       <c r="T31" s="32"/>
@@ -3166,49 +2995,25 @@
       <c r="X31" s="32"/>
       <c r="Y31" s="32"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="28"/>
-      <c r="F32" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G32" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H32" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J32" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K32" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="L32" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" s="28"/>
-      <c r="N32" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O32" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P32" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="B32" s="73"/>
+      <c r="C32" s="73"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="73"/>
+      <c r="G32" s="73"/>
+      <c r="H32" s="73"/>
+      <c r="J32" s="73"/>
+      <c r="K32" s="73"/>
+      <c r="L32" s="73"/>
+      <c r="M32" s="73"/>
+      <c r="N32" s="73"/>
+      <c r="O32" s="73"/>
+      <c r="P32" s="73"/>
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
       <c r="T32" s="32"/>
@@ -3218,49 +3023,25 @@
       <c r="X32" s="32"/>
       <c r="Y32" s="32"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B33" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="D33" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="28"/>
-      <c r="F33" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G33" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H33" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J33" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K33" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="L33" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M33" s="36"/>
-      <c r="N33" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O33" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P33" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="B33" s="73"/>
+      <c r="C33" s="73"/>
+      <c r="D33" s="73"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="73"/>
+      <c r="G33" s="73"/>
+      <c r="H33" s="73"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="73"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="73"/>
+      <c r="N33" s="73"/>
+      <c r="O33" s="73"/>
+      <c r="P33" s="73"/>
       <c r="R33" s="32"/>
       <c r="S33" s="32"/>
       <c r="T33" s="32"/>
@@ -3270,49 +3051,25 @@
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E34" s="28"/>
-      <c r="F34" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G34" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H34" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K34" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="L34" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M34" s="31"/>
-      <c r="N34" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O34" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="P34" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="B34" s="73"/>
+      <c r="C34" s="73"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="73"/>
+      <c r="G34" s="73"/>
+      <c r="H34" s="73"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="73"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="73"/>
+      <c r="N34" s="73"/>
+      <c r="O34" s="73"/>
+      <c r="P34" s="73"/>
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
       <c r="T34" s="32"/>
@@ -3322,49 +3079,25 @@
       <c r="X34" s="32"/>
       <c r="Y34" s="32"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="28"/>
-      <c r="F35" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G35" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H35" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J35" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K35" s="12" t="s">
-        <v>69</v>
-      </c>
-      <c r="L35" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M35" s="31"/>
-      <c r="N35" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O35" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P35" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="73"/>
+      <c r="F35" s="73"/>
+      <c r="G35" s="73"/>
+      <c r="H35" s="73"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="73"/>
+      <c r="L35" s="73"/>
+      <c r="M35" s="73"/>
+      <c r="N35" s="73"/>
+      <c r="O35" s="73"/>
+      <c r="P35" s="73"/>
       <c r="R35" s="32"/>
       <c r="S35" s="32"/>
       <c r="T35" s="32"/>
@@ -3374,49 +3107,25 @@
       <c r="X35" s="32"/>
       <c r="Y35" s="32"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B36" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D36" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="28"/>
-      <c r="F36" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G36" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H36" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J36" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K36" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="L36" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M36" s="36"/>
-      <c r="N36" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O36" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P36" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="B36" s="73"/>
+      <c r="C36" s="73"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="73"/>
+      <c r="F36" s="73"/>
+      <c r="G36" s="73"/>
+      <c r="H36" s="73"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="73"/>
+      <c r="L36" s="73"/>
+      <c r="M36" s="73"/>
+      <c r="N36" s="73"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="73"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
       <c r="T36" s="32"/>
@@ -3426,49 +3135,25 @@
       <c r="X36" s="32"/>
       <c r="Y36" s="32"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B37" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D37" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G37" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="H37" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K37" s="12" t="s">
-        <v>76</v>
-      </c>
-      <c r="L37" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M37" s="28"/>
-      <c r="N37" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O37" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P37" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="B37" s="73"/>
+      <c r="C37" s="73"/>
+      <c r="D37" s="73"/>
+      <c r="E37" s="73"/>
+      <c r="F37" s="73"/>
+      <c r="G37" s="73"/>
+      <c r="H37" s="73"/>
+      <c r="J37" s="73"/>
+      <c r="K37" s="73"/>
+      <c r="L37" s="73"/>
+      <c r="M37" s="73"/>
+      <c r="N37" s="73"/>
+      <c r="O37" s="73"/>
+      <c r="P37" s="73"/>
       <c r="R37" s="32"/>
       <c r="S37" s="32"/>
       <c r="T37" s="32"/>
@@ -3478,49 +3163,25 @@
       <c r="X37" s="32"/>
       <c r="Y37" s="32"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B38" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E38" s="28"/>
-      <c r="F38" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G38" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H38" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J38" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K38" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M38" s="31"/>
-      <c r="N38" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O38" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P38" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="73"/>
+      <c r="O38" s="73"/>
+      <c r="P38" s="73"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
       <c r="T38" s="32"/>
@@ -3530,49 +3191,25 @@
       <c r="X38" s="32"/>
       <c r="Y38" s="32"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B39" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="28"/>
-      <c r="F39" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J39" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K39" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M39" s="31"/>
-      <c r="N39" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O39" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P39" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="73"/>
+      <c r="F39" s="73"/>
+      <c r="G39" s="73"/>
+      <c r="H39" s="73"/>
+      <c r="J39" s="73"/>
+      <c r="K39" s="73"/>
+      <c r="L39" s="73"/>
+      <c r="M39" s="73"/>
+      <c r="N39" s="73"/>
+      <c r="O39" s="73"/>
+      <c r="P39" s="73"/>
       <c r="R39" s="32"/>
       <c r="S39" s="32"/>
       <c r="T39" s="32"/>
@@ -3582,49 +3219,25 @@
       <c r="X39" s="32"/>
       <c r="Y39" s="32"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="D40" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="28"/>
-      <c r="F40" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H40" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="J40" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K40" s="12" t="s">
-        <v>64</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M40" s="31"/>
-      <c r="N40" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O40" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P40" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="B40" s="73"/>
+      <c r="C40" s="73"/>
+      <c r="D40" s="73"/>
+      <c r="E40" s="73"/>
+      <c r="F40" s="73"/>
+      <c r="G40" s="73"/>
+      <c r="H40" s="73"/>
+      <c r="J40" s="73"/>
+      <c r="K40" s="73"/>
+      <c r="L40" s="73"/>
+      <c r="M40" s="73"/>
+      <c r="N40" s="73"/>
+      <c r="O40" s="73"/>
+      <c r="P40" s="73"/>
       <c r="R40" s="32"/>
       <c r="S40" s="32"/>
       <c r="T40" s="32"/>
@@ -3634,49 +3247,25 @@
       <c r="X40" s="32"/>
       <c r="Y40" s="32"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B41" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D41" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K41" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="L41" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M41" s="31"/>
-      <c r="N41" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O41" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="P41" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="73"/>
+      <c r="G41" s="73"/>
+      <c r="H41" s="73"/>
+      <c r="J41" s="73"/>
+      <c r="K41" s="73"/>
+      <c r="L41" s="73"/>
+      <c r="M41" s="73"/>
+      <c r="N41" s="73"/>
+      <c r="O41" s="73"/>
+      <c r="P41" s="73"/>
       <c r="R41" s="32"/>
       <c r="S41" s="32"/>
       <c r="T41" s="32"/>
@@ -3686,49 +3275,25 @@
       <c r="X41" s="32"/>
       <c r="Y41" s="32"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B42" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="28"/>
-      <c r="F42" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J42" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K42" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M42" s="31"/>
-      <c r="N42" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O42" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="P42" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="B42" s="73"/>
+      <c r="C42" s="73"/>
+      <c r="D42" s="73"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="73"/>
+      <c r="H42" s="73"/>
+      <c r="J42" s="73"/>
+      <c r="K42" s="73"/>
+      <c r="L42" s="73"/>
+      <c r="M42" s="73"/>
+      <c r="N42" s="73"/>
+      <c r="O42" s="73"/>
+      <c r="P42" s="73"/>
       <c r="R42" s="32"/>
       <c r="S42" s="32"/>
       <c r="T42" s="32"/>
@@ -3738,49 +3303,25 @@
       <c r="X42" s="32"/>
       <c r="Y42" s="32"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B43" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E43" s="28"/>
-      <c r="F43" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="J43" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K43" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="L43" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M43" s="31"/>
-      <c r="N43" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O43" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P43" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="B43" s="73"/>
+      <c r="C43" s="73"/>
+      <c r="D43" s="73"/>
+      <c r="E43" s="73"/>
+      <c r="F43" s="73"/>
+      <c r="G43" s="73"/>
+      <c r="H43" s="73"/>
+      <c r="J43" s="73"/>
+      <c r="K43" s="73"/>
+      <c r="L43" s="73"/>
+      <c r="M43" s="73"/>
+      <c r="N43" s="73"/>
+      <c r="O43" s="73"/>
+      <c r="P43" s="73"/>
       <c r="R43" s="32"/>
       <c r="S43" s="32"/>
       <c r="T43" s="32"/>
@@ -3790,30 +3331,18 @@
       <c r="X43" s="32"/>
       <c r="Y43" s="32"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="J44" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K44" s="12" t="s">
-        <v>74</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M44" s="31"/>
-      <c r="N44" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O44" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P44" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="J44" s="73"/>
+      <c r="K44" s="73"/>
+      <c r="L44" s="73"/>
+      <c r="M44" s="73"/>
+      <c r="N44" s="73"/>
+      <c r="O44" s="73"/>
+      <c r="P44" s="73"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
       <c r="T44" s="32"/>
@@ -3823,30 +3352,18 @@
       <c r="X44" s="32"/>
       <c r="Y44" s="32"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="J45" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K45" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="L45" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M45" s="36"/>
-      <c r="N45" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O45" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="J45" s="73"/>
+      <c r="K45" s="73"/>
+      <c r="L45" s="73"/>
+      <c r="M45" s="73"/>
+      <c r="N45" s="73"/>
+      <c r="O45" s="73"/>
+      <c r="P45" s="73"/>
       <c r="R45" s="32"/>
       <c r="S45" s="32"/>
       <c r="T45" s="32"/>
@@ -3856,30 +3373,18 @@
       <c r="X45" s="32"/>
       <c r="Y45" s="32"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="J46" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K46" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="L46" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M46" s="31"/>
-      <c r="N46" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O46" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P46" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="J46" s="73"/>
+      <c r="K46" s="73"/>
+      <c r="L46" s="73"/>
+      <c r="M46" s="73"/>
+      <c r="N46" s="73"/>
+      <c r="O46" s="73"/>
+      <c r="P46" s="73"/>
       <c r="R46" s="32"/>
       <c r="S46" s="32"/>
       <c r="T46" s="32"/>
@@ -3889,30 +3394,18 @@
       <c r="X46" s="32"/>
       <c r="Y46" s="32"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="J47" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K47" s="12" t="s">
-        <v>102</v>
-      </c>
-      <c r="L47" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M47" s="36"/>
-      <c r="N47" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O47" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="P47" s="12" t="s">
-        <v>34</v>
-      </c>
+      <c r="J47" s="73"/>
+      <c r="K47" s="73"/>
+      <c r="L47" s="73"/>
+      <c r="M47" s="73"/>
+      <c r="N47" s="73"/>
+      <c r="O47" s="73"/>
+      <c r="P47" s="73"/>
       <c r="R47" s="32"/>
       <c r="S47" s="32"/>
       <c r="T47" s="32"/>
@@ -3922,30 +3415,18 @@
       <c r="X47" s="32"/>
       <c r="Y47" s="32"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K48" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="L48" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M48" s="28"/>
-      <c r="N48" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O48" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P48" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="J48" s="73"/>
+      <c r="K48" s="73"/>
+      <c r="L48" s="73"/>
+      <c r="M48" s="73"/>
+      <c r="N48" s="73"/>
+      <c r="O48" s="73"/>
+      <c r="P48" s="73"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
       <c r="T48" s="32"/>
@@ -3955,30 +3436,18 @@
       <c r="X48" s="32"/>
       <c r="Y48" s="32"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="J49" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K49" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M49" s="28"/>
-      <c r="N49" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O49" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="P49" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="J49" s="73"/>
+      <c r="K49" s="73"/>
+      <c r="L49" s="73"/>
+      <c r="M49" s="73"/>
+      <c r="N49" s="73"/>
+      <c r="O49" s="73"/>
+      <c r="P49" s="73"/>
       <c r="R49" s="32"/>
       <c r="S49" s="32"/>
       <c r="T49" s="32"/>
@@ -3988,30 +3457,18 @@
       <c r="X49" s="32"/>
       <c r="Y49" s="32"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="J50" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="L50" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M50" s="28"/>
-      <c r="N50" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O50" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P50" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="J50" s="73"/>
+      <c r="K50" s="73"/>
+      <c r="L50" s="73"/>
+      <c r="M50" s="73"/>
+      <c r="N50" s="73"/>
+      <c r="O50" s="73"/>
+      <c r="P50" s="73"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
       <c r="T50" s="32"/>
@@ -4021,30 +3478,18 @@
       <c r="X50" s="32"/>
       <c r="Y50" s="32"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K51" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="L51" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="M51" s="31"/>
-      <c r="N51" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="O51" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P51" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="J51" s="73"/>
+      <c r="K51" s="73"/>
+      <c r="L51" s="73"/>
+      <c r="M51" s="73"/>
+      <c r="N51" s="73"/>
+      <c r="O51" s="73"/>
+      <c r="P51" s="73"/>
       <c r="R51" s="32"/>
       <c r="S51" s="32"/>
       <c r="T51" s="32"/>
@@ -4054,30 +3499,18 @@
       <c r="X51" s="32"/>
       <c r="Y51" s="32"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="J52" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K52" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="L52" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M52" s="28"/>
-      <c r="N52" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O52" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="P52" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="J52" s="73"/>
+      <c r="K52" s="73"/>
+      <c r="L52" s="73"/>
+      <c r="M52" s="73"/>
+      <c r="N52" s="73"/>
+      <c r="O52" s="73"/>
+      <c r="P52" s="73"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
       <c r="T52" s="32"/>
@@ -4087,30 +3520,18 @@
       <c r="X52" s="32"/>
       <c r="Y52" s="32"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="J53" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K53" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="L53" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M53" s="31"/>
-      <c r="N53" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O53" s="12" t="s">
-        <v>51</v>
-      </c>
-      <c r="P53" s="12" t="s">
-        <v>36</v>
-      </c>
+      <c r="J53" s="73"/>
+      <c r="K53" s="73"/>
+      <c r="L53" s="73"/>
+      <c r="M53" s="73"/>
+      <c r="N53" s="73"/>
+      <c r="O53" s="73"/>
+      <c r="P53" s="73"/>
       <c r="R53" s="32"/>
       <c r="S53" s="32"/>
       <c r="T53" s="32"/>
@@ -4120,30 +3541,18 @@
       <c r="X53" s="32"/>
       <c r="Y53" s="32"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="J54" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K54" s="12" t="s">
-        <v>65</v>
-      </c>
-      <c r="L54" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M54" s="28"/>
-      <c r="N54" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O54" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="P54" s="12" t="s">
-        <v>38</v>
-      </c>
+      <c r="J54" s="73"/>
+      <c r="K54" s="73"/>
+      <c r="L54" s="73"/>
+      <c r="M54" s="73"/>
+      <c r="N54" s="73"/>
+      <c r="O54" s="73"/>
+      <c r="P54" s="73"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
       <c r="T54" s="32"/>
@@ -4153,31 +3562,19 @@
       <c r="X54" s="32"/>
       <c r="Y54" s="32"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
       <c r="I55" s="2"/>
-      <c r="J55" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K55" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="L55" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M55" s="28"/>
-      <c r="N55" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O55" s="12" t="s">
-        <v>52</v>
-      </c>
-      <c r="P55" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="J55" s="73"/>
+      <c r="K55" s="73"/>
+      <c r="L55" s="73"/>
+      <c r="M55" s="73"/>
+      <c r="N55" s="73"/>
+      <c r="O55" s="73"/>
+      <c r="P55" s="73"/>
       <c r="R55" s="32"/>
       <c r="S55" s="32"/>
       <c r="T55" s="32"/>
@@ -4187,31 +3584,19 @@
       <c r="X55" s="32"/>
       <c r="Y55" s="32"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="I56" s="2"/>
-      <c r="J56" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K56" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="L56" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M56" s="36"/>
-      <c r="N56" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O56" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P56" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="J56" s="73"/>
+      <c r="K56" s="73"/>
+      <c r="L56" s="73"/>
+      <c r="M56" s="73"/>
+      <c r="N56" s="73"/>
+      <c r="O56" s="73"/>
+      <c r="P56" s="73"/>
       <c r="R56" s="32"/>
       <c r="S56" s="32"/>
       <c r="T56" s="32"/>
@@ -4221,31 +3606,19 @@
       <c r="X56" s="32"/>
       <c r="Y56" s="32"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
       <c r="I57" s="2"/>
-      <c r="J57" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K57" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="L57" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M57" s="31"/>
-      <c r="N57" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O57" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="P57" s="12" t="s">
-        <v>37</v>
-      </c>
+      <c r="J57" s="73"/>
+      <c r="K57" s="73"/>
+      <c r="L57" s="73"/>
+      <c r="M57" s="73"/>
+      <c r="N57" s="73"/>
+      <c r="O57" s="73"/>
+      <c r="P57" s="73"/>
       <c r="R57" s="32"/>
       <c r="S57" s="32"/>
       <c r="T57" s="32"/>
@@ -4255,7 +3628,7 @@
       <c r="X57" s="32"/>
       <c r="Y57" s="32"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -4268,25 +3641,13 @@
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
-      <c r="J58" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>103</v>
-      </c>
-      <c r="L58" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="M58" s="31"/>
-      <c r="N58" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="O58" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="P58" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="J58" s="73"/>
+      <c r="K58" s="73"/>
+      <c r="L58" s="73"/>
+      <c r="M58" s="73"/>
+      <c r="N58" s="73"/>
+      <c r="O58" s="73"/>
+      <c r="P58" s="73"/>
       <c r="R58" s="32"/>
       <c r="S58" s="32"/>
       <c r="T58" s="32"/>
@@ -4296,7 +3657,7 @@
       <c r="X58" s="32"/>
       <c r="Y58" s="32"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -4322,7 +3683,7 @@
       <c r="X59" s="32"/>
       <c r="Y59" s="32"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -4344,7 +3705,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -4359,7 +3720,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -4374,7 +3735,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -4386,14 +3747,14 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="32"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
@@ -4413,7 +3774,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
@@ -4433,7 +3794,7 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="32"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
@@ -4453,7 +3814,7 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
@@ -4473,7 +3834,7 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
@@ -4493,7 +3854,7 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
@@ -4513,7 +3874,7 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
@@ -4533,7 +3894,7 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
@@ -4553,7 +3914,7 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
@@ -4573,7 +3934,7 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
@@ -4593,7 +3954,7 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="32"/>
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
@@ -4613,7 +3974,7 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="32"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -4633,7 +3994,7 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="32"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -4653,7 +4014,7 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -4673,7 +4034,7 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="32"/>
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
@@ -4693,7 +4054,7 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
@@ -4713,7 +4074,7 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="32"/>
       <c r="B81" s="32"/>
       <c r="C81" s="32"/>
@@ -4733,7 +4094,7 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="32"/>
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
@@ -4753,7 +4114,7 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="32"/>
       <c r="B83" s="32"/>
       <c r="C83" s="32"/>
@@ -4773,7 +4134,7 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
@@ -4793,7 +4154,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="32"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
@@ -4814,7 +4175,7 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="32"/>
       <c r="B86" s="32"/>
       <c r="C86" s="32"/>
@@ -4835,7 +4196,7 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="32"/>
       <c r="B87" s="32"/>
       <c r="C87" s="32"/>
@@ -4856,7 +4217,7 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="32"/>
       <c r="B88" s="32"/>
       <c r="C88" s="32"/>
@@ -4877,7 +4238,7 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="32"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
@@ -4898,7 +4259,7 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="32"/>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
@@ -4918,7 +4279,7 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="32"/>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
@@ -4938,7 +4299,7 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="32"/>
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
@@ -4958,7 +4319,7 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="32"/>
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
@@ -4978,7 +4339,7 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="32"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -4998,7 +4359,7 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="32"/>
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
@@ -5030,32 +4391,32 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="48" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="21"/>
+    <col min="13" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="83" t="s">
-        <v>113</v>
+        <v>65</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="87"/>
       <c r="F2" s="83" t="s">
-        <v>115</v>
+        <v>67</v>
       </c>
       <c r="G2" s="86"/>
       <c r="H2" s="87"/>
@@ -5065,209 +4426,209 @@
       <c r="K2" s="86"/>
       <c r="L2" s="87"/>
     </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>142</v>
+        <v>94</v>
       </c>
       <c r="E3" s="49"/>
       <c r="F3" s="52" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="I3" s="49"/>
       <c r="J3" s="3" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>123</v>
+        <v>75</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="41" t="s">
         <v>3</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="53" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>150</v>
+        <v>102</v>
       </c>
       <c r="H4" s="66" t="s">
-        <v>163</v>
+        <v>115</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="42" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>158</v>
+        <v>110</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="54" t="s">
-        <v>114</v>
+        <v>66</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>155</v>
+        <v>107</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>164</v>
+        <v>116</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="K5" s="51" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>119</v>
+        <v>71</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>159</v>
+        <v>111</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="54" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>154</v>
+        <v>106</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>165</v>
+        <v>117</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="K6" s="48">
         <v>15</v>
       </c>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>145</v>
+        <v>97</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>160</v>
+        <v>112</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="54" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>169</v>
+        <v>121</v>
       </c>
       <c r="J7" s="48"/>
       <c r="K7" s="48"/>
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>161</v>
+        <v>113</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="54" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>153</v>
+        <v>105</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="J8" s="83" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="K8" s="87"/>
       <c r="L8" s="68"/>
       <c r="M8" s="48"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="47" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>99</v>
+      </c>
+      <c r="H9" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="G9" s="42" t="s">
-        <v>147</v>
-      </c>
-      <c r="H9" s="33" t="s">
-        <v>167</v>
-      </c>
       <c r="J9" s="3" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="L9" s="49"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="49" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="C10" s="21">
         <v>181</v>
@@ -5276,120 +4637,120 @@
         <v>4</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>149</v>
+        <v>101</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="J10" s="57" t="s">
-        <v>176</v>
+        <v>128</v>
       </c>
       <c r="K10" s="74" t="s">
-        <v>183</v>
+        <v>135</v>
       </c>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F11" s="54" t="s">
-        <v>116</v>
+        <v>68</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>146</v>
+        <v>98</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>177</v>
+        <v>129</v>
       </c>
       <c r="K11" s="67" t="s">
-        <v>184</v>
+        <v>136</v>
       </c>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F12" s="59" t="s">
         <v>5</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>151</v>
+        <v>103</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="58" t="s">
-        <v>178</v>
+        <v>130</v>
       </c>
       <c r="K12" s="67" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F13" s="49" t="s">
-        <v>127</v>
+        <v>79</v>
       </c>
       <c r="G13" s="21">
         <v>242</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="K13" s="67" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F14" s="49"/>
       <c r="J14" s="58" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="K14" s="67" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F15" s="49"/>
       <c r="I15" s="48" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K15" s="67" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F16" s="49"/>
       <c r="J16" s="43" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="K16" s="75" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="F17" s="49"/>
       <c r="J17" s="49"/>
       <c r="K17" s="48"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B19" s="83" t="s">
-        <v>134</v>
+        <v>86</v>
       </c>
       <c r="C19" s="86"/>
       <c r="D19" s="86"/>
@@ -5401,7 +4762,7 @@
       <c r="J19" s="86"/>
       <c r="K19" s="87"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
         <v>128</v>
       </c>
@@ -5427,13 +4788,13 @@
         <v>1</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>130</v>
+        <v>82</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B21" s="69">
         <v>1</v>
       </c>
@@ -5459,13 +4820,13 @@
         <v>1</v>
       </c>
       <c r="J21" s="38" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="K21" s="57">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" s="54">
         <v>1</v>
       </c>
@@ -5491,14 +4852,14 @@
         <v>0</v>
       </c>
       <c r="J22" s="39" t="s">
-        <v>132</v>
+        <v>84</v>
       </c>
       <c r="K22" s="42">
         <f>K21*2</f>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23" s="54">
         <v>1</v>
       </c>
@@ -5524,14 +4885,14 @@
         <v>0</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>136</v>
+        <v>88</v>
       </c>
       <c r="K23" s="42">
         <f t="shared" ref="K23:K29" si="0">K22*2</f>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" s="54">
         <v>1</v>
       </c>
@@ -5557,14 +4918,14 @@
         <v>0</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="K24" s="42">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B25" s="54">
         <v>1</v>
       </c>
@@ -5590,14 +4951,14 @@
         <v>0</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>138</v>
+        <v>90</v>
       </c>
       <c r="K25" s="42">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="54">
         <v>1</v>
       </c>
@@ -5623,14 +4984,14 @@
         <v>0</v>
       </c>
       <c r="J26" s="39" t="s">
-        <v>139</v>
+        <v>91</v>
       </c>
       <c r="K26" s="42">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27" s="54">
         <v>1</v>
       </c>
@@ -5656,14 +5017,14 @@
         <v>0</v>
       </c>
       <c r="J27" s="39" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="K27" s="42">
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" s="54">
         <v>1</v>
       </c>
@@ -5689,14 +5050,14 @@
         <v>0</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>141</v>
+        <v>93</v>
       </c>
       <c r="K28" s="42">
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="70">
         <v>0</v>
       </c>
@@ -5722,14 +5083,14 @@
         <v>0</v>
       </c>
       <c r="J29" s="40" t="s">
-        <v>129</v>
+        <v>81</v>
       </c>
       <c r="K29" s="35">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -5739,7 +5100,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -5754,7 +5115,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="89"/>
       <c r="C33" s="89"/>
@@ -5769,7 +5130,7 @@
       <c r="L33" s="89"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -5784,7 +5145,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="17"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -5799,7 +5160,7 @@
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -5814,7 +5175,7 @@
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -5829,7 +5190,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -5844,7 +5205,7 @@
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -5859,7 +5220,7 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -5874,7 +5235,7 @@
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="17"/>
@@ -5889,7 +5250,7 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -5904,7 +5265,7 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -5919,7 +5280,7 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -5934,7 +5295,7 @@
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -5949,7 +5310,7 @@
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -5964,7 +5325,7 @@
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -5979,42 +5340,42 @@
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E48" s="48"/>
       <c r="F48" s="60"/>
       <c r="G48" s="48"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E52" s="48"/>
       <c r="F52" s="17"/>
       <c r="G52" s="48"/>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
@@ -6044,31 +5405,31 @@
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="21"/>
-    <col min="3" max="3" width="23.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="21"/>
-    <col min="7" max="7" width="36.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.42578125" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="2" width="9.109375" style="21"/>
+    <col min="3" max="3" width="23.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="58.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="21"/>
+    <col min="7" max="7" width="36.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.44140625" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="83" t="s">
-        <v>124</v>
+        <v>76</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="87"/>
       <c r="F2" s="83" t="s">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="G2" s="86"/>
       <c r="H2" s="87"/>
     </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="71" t="s">
         <v>0</v>
       </c>
@@ -6093,7 +5454,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="90">
         <v>11</v>
       </c>
@@ -6118,7 +5479,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="91"/>
       <c r="C5" s="91"/>
       <c r="D5" s="67" t="s">
@@ -6135,7 +5496,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="92"/>
       <c r="C6" s="92"/>
       <c r="D6" s="78" t="s">
@@ -6152,7 +5513,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="23"/>
       <c r="C7" s="73"/>
       <c r="D7" s="80"/>
@@ -6165,7 +5526,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="34">
         <v>12</v>
       </c>
@@ -6190,7 +5551,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="23"/>
       <c r="C9" s="73"/>
       <c r="D9" s="80"/>
@@ -6203,12 +5564,12 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="34">
         <v>13</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="D10" s="81" t="s">
         <v>15</v>
@@ -6228,7 +5589,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="23"/>
       <c r="C11" s="73"/>
       <c r="D11" s="80"/>
@@ -6243,12 +5604,12 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="34">
         <v>14</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="D12" s="81" t="s">
         <v>13</v>
@@ -6262,7 +5623,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="23"/>
       <c r="C13" s="73"/>
       <c r="D13" s="80"/>
@@ -6270,10 +5631,10 @@
         <v>24</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>205</v>
+        <v>157</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="73"/>
@@ -6281,7 +5642,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="90">
         <v>15</v>
       </c>
@@ -6300,7 +5661,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="92"/>
       <c r="C15" s="92"/>
       <c r="D15" s="43" t="s">
@@ -6310,10 +5671,10 @@
         <v>25</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="17"/>
@@ -6321,7 +5682,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="23"/>
       <c r="C16" s="73"/>
       <c r="D16" s="80"/>
@@ -6334,7 +5695,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="90">
         <v>16</v>
       </c>
@@ -6348,7 +5709,7 @@
         <v>26</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>204</v>
+        <v>156</v>
       </c>
       <c r="H17" s="81" t="s">
         <v>14</v>
@@ -6359,7 +5720,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="92"/>
       <c r="C18" s="92"/>
       <c r="D18" s="75" t="s">
@@ -6374,7 +5735,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6395,7 +5756,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6407,10 +5768,10 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="83" t="s">
-        <v>126</v>
+        <v>78</v>
       </c>
       <c r="C21" s="86"/>
       <c r="D21" s="87"/>
@@ -6419,7 +5780,7 @@
       <c r="G21" s="73"/>
       <c r="H21" s="80"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="24" t="s">
         <v>0</v>
@@ -6435,22 +5796,22 @@
         <v>28</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>207</v>
+        <v>159</v>
       </c>
       <c r="H22" s="81" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="34">
         <v>91</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>120</v>
+        <v>72</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="23"/>
@@ -6458,7 +5819,7 @@
       <c r="H23" s="80"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="23"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -6466,13 +5827,13 @@
         <v>29</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>203</v>
+        <v>155</v>
       </c>
       <c r="H24" s="81" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="34">
         <v>92</v>
       </c>
@@ -6484,23 +5845,23 @@
       </c>
       <c r="H25" s="82"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" s="73"/>
       <c r="B27" s="73"/>
       <c r="C27" s="73"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="73"/>
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="73"/>
       <c r="B29" s="73"/>
       <c r="C29" s="76"/>
@@ -6511,7 +5872,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="73"/>
       <c r="B30" s="73"/>
       <c r="C30" s="76"/>
@@ -6522,7 +5883,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="73"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
@@ -6533,7 +5894,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="73"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
@@ -6543,7 +5904,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="73"/>
       <c r="B33" s="17"/>
       <c r="C33" s="73"/>
@@ -6553,7 +5914,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="73"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
@@ -6563,7 +5924,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="73"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
@@ -6573,46 +5934,46 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="73"/>
       <c r="B36" s="17"/>
       <c r="C36" s="73"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="73"/>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="73"/>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="73"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="73"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="73"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="73"/>
       <c r="E59" s="73"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="73"/>
       <c r="E60" s="73"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="73"/>
       <c r="E61" s="73"/>
     </row>
@@ -6642,309 +6003,346 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD07F0D-FAEC-4973-B07B-39B1A9A12CE8}">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.33203125" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="103" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="104"/>
-      <c r="D2" s="105"/>
-      <c r="E2" s="104" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="105"/>
-      <c r="H2" s="108" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="106">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="105" t="s">
+        <v>148</v>
+      </c>
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="106" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="107"/>
+      <c r="H2" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="96">
         <v>1</v>
       </c>
-      <c r="C3" s="107"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="101" t="s">
-        <v>198</v>
-      </c>
-      <c r="F3" s="102"/>
-      <c r="H3" s="109" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="97">
+      <c r="C3" s="97"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="103" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="98"/>
+      <c r="H3" s="41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="93">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="98"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="93" t="s">
-        <v>199</v>
-      </c>
-      <c r="F4" s="94"/>
-      <c r="H4" s="110" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="97">
+      <c r="C4" s="94"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="99" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="95"/>
+      <c r="H4" s="42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="93">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="98"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="93" t="s">
-        <v>200</v>
-      </c>
-      <c r="F5" s="94"/>
-      <c r="H5" s="110" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="97">
+      <c r="C5" s="94"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="99" t="s">
+        <v>152</v>
+      </c>
+      <c r="F5" s="95"/>
+      <c r="H5" s="42" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="93">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="98"/>
-      <c r="D6" s="94"/>
-      <c r="E6" s="93" t="s">
-        <v>201</v>
-      </c>
-      <c r="F6" s="94"/>
-      <c r="H6" s="110" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="97">
+      <c r="C6" s="94"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="F6" s="95"/>
+      <c r="H6" s="42" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="93">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="98"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="93" t="s">
-        <v>202</v>
-      </c>
-      <c r="F7" s="94"/>
-      <c r="H7" s="110" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="97">
+      <c r="C7" s="94"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="F7" s="95"/>
+      <c r="H7" s="42" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="93">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="98"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="93" t="s">
-        <v>208</v>
-      </c>
-      <c r="F8" s="94"/>
-      <c r="H8" s="110" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="97">
+      <c r="C8" s="94"/>
+      <c r="D8" s="95"/>
+      <c r="E8" s="99" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="95"/>
+      <c r="H8" s="42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="93">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="98"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="94"/>
-      <c r="H9" s="110" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="97">
+      <c r="C9" s="94"/>
+      <c r="D9" s="95"/>
+      <c r="E9" s="99" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="95"/>
+      <c r="H9" s="42" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="93">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="93"/>
-      <c r="F10" s="94"/>
-      <c r="H10" s="111" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="97">
+      <c r="C10" s="94"/>
+      <c r="D10" s="95"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="95"/>
+      <c r="H10" s="35"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="93">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="93"/>
-      <c r="F11" s="94"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="97">
+      <c r="C11" s="94"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="95"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="93">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="98"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="94"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="97">
+      <c r="C12" s="94"/>
+      <c r="D12" s="95"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="95"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="93">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="98"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="94"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="97">
+      <c r="C13" s="94"/>
+      <c r="D13" s="95"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="95"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="93">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="98"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="93"/>
-      <c r="F14" s="94"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="97">
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="95"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="93">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="98"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="93"/>
-      <c r="F15" s="94"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="97">
+      <c r="C15" s="94"/>
+      <c r="D15" s="95"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="95"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="93">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="98"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="93"/>
-      <c r="F16" s="94"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="97">
+      <c r="C16" s="94"/>
+      <c r="D16" s="95"/>
+      <c r="E16" s="99"/>
+      <c r="F16" s="95"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="93">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="98"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="94"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="97">
+      <c r="C17" s="94"/>
+      <c r="D17" s="95"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="95"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="93">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="98"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="93"/>
-      <c r="F18" s="94"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B19" s="97">
+      <c r="C18" s="94"/>
+      <c r="D18" s="95"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="95"/>
+      <c r="H18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="93">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="98"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="94"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B20" s="97">
+      <c r="C19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="99"/>
+      <c r="F19" s="95"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="93">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="98"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="94"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="97">
+      <c r="C20" s="94"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="95"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="93">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="98"/>
-      <c r="D21" s="94"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="94"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="97">
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="95"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="93">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="98"/>
-      <c r="D22" s="94"/>
-      <c r="E22" s="93"/>
-      <c r="F22" s="94"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B23" s="97">
+      <c r="C22" s="94"/>
+      <c r="D22" s="95"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="95"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="93">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="98"/>
-      <c r="D23" s="94"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="94"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B24" s="97">
+      <c r="C23" s="94"/>
+      <c r="D23" s="95"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="95"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="93">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="98"/>
-      <c r="D24" s="94"/>
-      <c r="E24" s="93"/>
-      <c r="F24" s="94"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B25" s="97">
+      <c r="C24" s="94"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="95"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="93">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="98"/>
-      <c r="D25" s="94"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="94"/>
-    </row>
-    <row r="26" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="99">
+      <c r="C25" s="94"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="95"/>
+    </row>
+    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="100">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="95"/>
-      <c r="F26" s="96"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="104"/>
+      <c r="F26" s="102"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B12:D12"/>
     <mergeCell ref="B2:D2"/>
@@ -6961,41 +6359,8 @@
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="199" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CF0A55A7-6498-40EF-AFDE-B50AFC78626F}"/>
+  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35BA8B49-36E9-4B2B-BF82-A6228BF196F9}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -547,7 +547,7 @@
     <t>STP</t>
   </si>
   <si>
-    <t>Atribuição de portas às VLAN's</t>
+    <t>Atribuição de portas às VLAN's (B1E1)</t>
   </si>
 </sst>
 </file>
@@ -1436,6 +1436,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1465,6 +1471,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1472,7 +1502,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1480,42 +1516,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1833,7 +1833,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F286A72-55C7-45FC-BA31-552B8F8C6C3B}">
   <dimension ref="A1:Y95"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1864,24 +1864,24 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="85" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85"/>
-      <c r="J2" s="83" t="s">
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="87"/>
+      <c r="J2" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="85"/>
+      <c r="K2" s="86"/>
+      <c r="L2" s="86"/>
+      <c r="M2" s="86"/>
+      <c r="N2" s="86"/>
+      <c r="O2" s="86"/>
+      <c r="P2" s="87"/>
     </row>
     <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -2177,31 +2177,31 @@
       <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="83" t="s">
+      <c r="B15" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="84"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="84"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="85"/>
-      <c r="J15" s="83" t="s">
+      <c r="C15" s="86"/>
+      <c r="D15" s="86"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="86"/>
+      <c r="H15" s="87"/>
+      <c r="J15" s="85" t="s">
         <v>32</v>
       </c>
-      <c r="K15" s="86"/>
-      <c r="L15" s="86"/>
-      <c r="M15" s="86"/>
-      <c r="N15" s="86"/>
-      <c r="O15" s="86"/>
-      <c r="P15" s="87"/>
-      <c r="R15" s="88"/>
-      <c r="S15" s="88"/>
-      <c r="T15" s="88"/>
-      <c r="U15" s="88"/>
-      <c r="V15" s="88"/>
-      <c r="W15" s="88"/>
-      <c r="X15" s="88"/>
+      <c r="K15" s="88"/>
+      <c r="L15" s="88"/>
+      <c r="M15" s="88"/>
+      <c r="N15" s="88"/>
+      <c r="O15" s="88"/>
+      <c r="P15" s="89"/>
+      <c r="R15" s="90"/>
+      <c r="S15" s="90"/>
+      <c r="T15" s="90"/>
+      <c r="U15" s="90"/>
+      <c r="V15" s="90"/>
+      <c r="W15" s="90"/>
+      <c r="X15" s="90"/>
       <c r="Y15" s="32"/>
     </row>
     <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -2880,23 +2880,23 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B29" s="108" t="s">
+      <c r="B29" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="108" t="s">
+      <c r="C29" s="83" t="s">
         <v>55</v>
       </c>
-      <c r="D29" s="108" t="s">
+      <c r="D29" s="83" t="s">
         <v>74</v>
       </c>
       <c r="E29" s="31"/>
-      <c r="F29" s="108" t="s">
+      <c r="F29" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="G29" s="108" t="s">
+      <c r="G29" s="83" t="s">
         <v>37</v>
       </c>
-      <c r="H29" s="108" t="s">
+      <c r="H29" s="83" t="s">
         <v>74</v>
       </c>
       <c r="J29" s="12" t="s">
@@ -2939,23 +2939,23 @@
       <c r="F30" s="73"/>
       <c r="G30" s="73"/>
       <c r="H30" s="73"/>
-      <c r="J30" s="109" t="s">
+      <c r="J30" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="K30" s="109" t="s">
+      <c r="K30" s="84" t="s">
         <v>57</v>
       </c>
-      <c r="L30" s="109" t="s">
+      <c r="L30" s="84" t="s">
         <v>74</v>
       </c>
       <c r="M30" s="31"/>
-      <c r="N30" s="109" t="s">
+      <c r="N30" s="84" t="s">
         <v>32</v>
       </c>
-      <c r="O30" s="109" t="s">
+      <c r="O30" s="84" t="s">
         <v>50</v>
       </c>
-      <c r="P30" s="109" t="s">
+      <c r="P30" s="84" t="s">
         <v>74</v>
       </c>
       <c r="R30" s="32"/>
@@ -4410,21 +4410,21 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="F2" s="83" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="F2" s="85" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="J2" s="83" t="s">
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
+      <c r="J2" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="87"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="89"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -4590,10 +4590,10 @@
       <c r="H8" s="33" t="s">
         <v>120</v>
       </c>
-      <c r="J8" s="83" t="s">
+      <c r="J8" s="85" t="s">
         <v>127</v>
       </c>
-      <c r="K8" s="87"/>
+      <c r="K8" s="89"/>
       <c r="L8" s="68"/>
       <c r="M8" s="48"/>
     </row>
@@ -4749,18 +4749,18 @@
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="83" t="s">
+      <c r="B19" s="85" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="86"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="86"/>
-      <c r="G19" s="86"/>
-      <c r="H19" s="86"/>
-      <c r="I19" s="86"/>
-      <c r="J19" s="86"/>
-      <c r="K19" s="87"/>
+      <c r="C19" s="88"/>
+      <c r="D19" s="88"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="88"/>
+      <c r="G19" s="88"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="89"/>
     </row>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="3">
@@ -5117,17 +5117,17 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="89"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="91"/>
+      <c r="D33" s="91"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="89"/>
-      <c r="G33" s="89"/>
-      <c r="H33" s="89"/>
+      <c r="F33" s="91"/>
+      <c r="G33" s="91"/>
+      <c r="H33" s="91"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
+      <c r="J33" s="91"/>
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
       <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -5401,8 +5401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46D577-AC6F-4505-860C-EE5869797CC5}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5418,16 +5418,16 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="85" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="87"/>
-      <c r="F2" s="83" t="s">
+      <c r="C2" s="88"/>
+      <c r="D2" s="89"/>
+      <c r="F2" s="85" t="s">
         <v>77</v>
       </c>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="89"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="71" t="s">
@@ -5455,19 +5455,19 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="90">
+      <c r="B4" s="92">
         <v>11</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="92" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="90">
+      <c r="F4" s="92">
         <v>21</v>
       </c>
-      <c r="G4" s="90" t="s">
+      <c r="G4" s="92" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="77" t="s">
@@ -5480,13 +5480,13 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="91"/>
-      <c r="C5" s="91"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="91"/>
-      <c r="G5" s="91"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
       <c r="H5" s="67" t="s">
         <v>10</v>
       </c>
@@ -5497,13 +5497,13 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
+      <c r="B6" s="94"/>
+      <c r="C6" s="94"/>
       <c r="D6" s="78" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="92"/>
-      <c r="G6" s="92"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
       <c r="H6" s="78" t="s">
         <v>11</v>
       </c>
@@ -5574,10 +5574,10 @@
       <c r="D10" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="90">
+      <c r="F10" s="92">
         <v>23</v>
       </c>
-      <c r="G10" s="90" t="s">
+      <c r="G10" s="92" t="s">
         <v>6</v>
       </c>
       <c r="H10" s="77" t="s">
@@ -5593,8 +5593,8 @@
       <c r="B11" s="23"/>
       <c r="C11" s="73"/>
       <c r="D11" s="80"/>
-      <c r="F11" s="92"/>
-      <c r="G11" s="92"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
       <c r="H11" s="75" t="s">
         <v>14</v>
       </c>
@@ -5643,10 +5643,10 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="90">
+      <c r="B14" s="92">
         <v>15</v>
       </c>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="92" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="79" t="s">
@@ -5662,8 +5662,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="94"/>
+      <c r="C15" s="94"/>
       <c r="D15" s="43" t="s">
         <v>14</v>
       </c>
@@ -5696,10 +5696,10 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="90">
+      <c r="B17" s="92">
         <v>16</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="92" t="s">
         <v>4</v>
       </c>
       <c r="D17" s="77" t="s">
@@ -5721,8 +5721,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="92"/>
-      <c r="C18" s="92"/>
+      <c r="B18" s="94"/>
+      <c r="C18" s="94"/>
       <c r="D18" s="75" t="s">
         <v>12</v>
       </c>
@@ -5741,10 +5741,10 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="90">
+      <c r="F19" s="92">
         <v>27</v>
       </c>
-      <c r="G19" s="90" t="s">
+      <c r="G19" s="92" t="s">
         <v>4</v>
       </c>
       <c r="H19" s="77" t="s">
@@ -5762,19 +5762,19 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="92"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
       <c r="H20" s="75" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="83" t="s">
+      <c r="B21" s="85" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="89"/>
       <c r="E21" s="2"/>
       <c r="F21" s="23"/>
       <c r="G21" s="73"/>
@@ -6003,8 +6003,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD07F0D-FAEC-4973-B07B-39B1A9A12CE8}">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6030,298 +6030,306 @@
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="96">
+      <c r="B3" s="108">
         <v>1</v>
       </c>
-      <c r="C3" s="97"/>
-      <c r="D3" s="98"/>
-      <c r="E3" s="103" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="101" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="98"/>
+      <c r="F3" s="102"/>
       <c r="H3" s="41" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="93">
+      <c r="B4" s="103">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="94"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="99" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="F4" s="95"/>
+      <c r="F4" s="96"/>
       <c r="H4" s="42" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="93">
+      <c r="B5" s="103">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="94"/>
-      <c r="D5" s="95"/>
-      <c r="E5" s="99" t="s">
+      <c r="C5" s="104"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="95"/>
+      <c r="F5" s="96"/>
       <c r="H5" s="42" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="93">
+      <c r="B6" s="103">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="94"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="99" t="s">
+      <c r="C6" s="104"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="F6" s="95"/>
+      <c r="F6" s="96"/>
       <c r="H6" s="42" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="93">
+      <c r="B7" s="103">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="99" t="s">
+      <c r="C7" s="104"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="95" t="s">
         <v>154</v>
       </c>
-      <c r="F7" s="95"/>
+      <c r="F7" s="96"/>
       <c r="H7" s="42" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="93">
+      <c r="B8" s="103">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="95"/>
-      <c r="E8" s="99" t="s">
+      <c r="C8" s="104"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="95" t="s">
         <v>168</v>
       </c>
-      <c r="F8" s="95"/>
+      <c r="F8" s="96"/>
       <c r="H8" s="42" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="93">
+      <c r="B9" s="103">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="95"/>
-      <c r="E9" s="99" t="s">
+      <c r="C9" s="104"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="95" t="s">
         <v>169</v>
       </c>
-      <c r="F9" s="95"/>
+      <c r="F9" s="96"/>
       <c r="H9" s="42" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="93">
+      <c r="B10" s="103">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="95"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="95"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="93">
+      <c r="B11" s="103">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="95"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="93">
+      <c r="B12" s="103">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="95"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="95"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="93">
+      <c r="B13" s="103">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="95"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="93">
+      <c r="B14" s="103">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="95"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="95"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="93">
+      <c r="B15" s="103">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="95"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="95"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="93">
+      <c r="B16" s="103">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="95"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="95"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="93">
+      <c r="B17" s="103">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="95"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="95"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="93">
+      <c r="B18" s="103">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="95"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="95"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
       <c r="H18" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="93">
+      <c r="B19" s="103">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="95"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="95"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="93">
+      <c r="B20" s="103">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="95"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="95"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="93">
+      <c r="B21" s="103">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="94"/>
-      <c r="D21" s="95"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="95"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="93">
+      <c r="B22" s="103">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="94"/>
-      <c r="D22" s="95"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="95"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="93">
+      <c r="B23" s="103">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="94"/>
-      <c r="D23" s="95"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="95"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="93">
+      <c r="B24" s="103">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="94"/>
-      <c r="D24" s="95"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="95"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="93">
+      <c r="B25" s="103">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="94"/>
-      <c r="D25" s="95"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="95"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="100">
+      <c r="B26" s="99">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="102"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -6338,27 +6346,19 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="200" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35BA8B49-36E9-4B2B-BF82-A6228BF196F9}"/>
+  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A04A15B0-331A-4E74-A649-18F892C995E5}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="3" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="174">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -64,9 +64,6 @@
     <t>Sistemas-Auxiliares</t>
   </si>
   <si>
-    <t>Gestao-Equip.Rede</t>
-  </si>
-  <si>
     <t>Acesso inter-edifício</t>
   </si>
   <si>
@@ -505,21 +502,12 @@
     <t>VTP (criação das VLAN's)</t>
   </si>
   <si>
-    <t>Guest</t>
-  </si>
-  <si>
-    <t>Gestao</t>
-  </si>
-  <si>
     <t>Serviços-Academicos</t>
   </si>
   <si>
     <t>Conselho-Gestao</t>
   </si>
   <si>
-    <t>Informatica</t>
-  </si>
-  <si>
     <t>O que falta</t>
   </si>
   <si>
@@ -547,7 +535,31 @@
     <t>STP</t>
   </si>
   <si>
-    <t>Atribuição de portas às VLAN's (B1E1)</t>
+    <t>Atribuição de portas às VLAN's</t>
+  </si>
+  <si>
+    <t>alunos</t>
+  </si>
+  <si>
+    <t>gestao</t>
+  </si>
+  <si>
+    <t>guest</t>
+  </si>
+  <si>
+    <t>voip</t>
+  </si>
+  <si>
+    <t>professores</t>
+  </si>
+  <si>
+    <t>servidores</t>
+  </si>
+  <si>
+    <t>informatica</t>
+  </si>
+  <si>
+    <t>shut</t>
   </si>
 </sst>
 </file>
@@ -1472,49 +1484,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1834,7 +1846,7 @@
   <dimension ref="A1:Y95"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J2" sqref="J2:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1865,7 +1877,7 @@
     <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="85" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="86"/>
       <c r="D2" s="86"/>
@@ -1874,7 +1886,7 @@
       <c r="G2" s="86"/>
       <c r="H2" s="87"/>
       <c r="J2" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="86"/>
       <c r="L2" s="86"/>
@@ -1885,266 +1897,266 @@
     </row>
     <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" s="27"/>
       <c r="F3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H3" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M3" s="27"/>
       <c r="N3" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P3" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="E4" s="28"/>
       <c r="F4" s="9" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J4" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L4" s="13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M4" s="28"/>
       <c r="N4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="P4" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" s="28"/>
       <c r="F5" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="L5" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M5" s="28"/>
       <c r="N5" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="O5" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E6" s="28"/>
       <c r="F6" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H6" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>59</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="13" t="s">
-        <v>60</v>
       </c>
       <c r="M6" s="28"/>
       <c r="N6" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O6" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P6" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>28</v>
-      </c>
       <c r="L7" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M7" s="29"/>
       <c r="N7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="H8" s="12" t="s">
         <v>19</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>20</v>
       </c>
       <c r="M8" s="30"/>
     </row>
     <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E9" s="28"/>
       <c r="F9" s="11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E10" s="28"/>
       <c r="F10" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G10" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H10" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
@@ -2178,7 +2190,7 @@
     </row>
     <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C15" s="86"/>
       <c r="D15" s="86"/>
@@ -2187,7 +2199,7 @@
       <c r="G15" s="86"/>
       <c r="H15" s="87"/>
       <c r="J15" s="85" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K15" s="88"/>
       <c r="L15" s="88"/>
@@ -2206,42 +2218,42 @@
     </row>
     <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E16" s="28"/>
       <c r="F16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="H16" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="L16" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M16" s="27"/>
       <c r="N16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O16" s="8" t="s">
         <v>1</v>
       </c>
       <c r="P16" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R16" s="18"/>
       <c r="S16" s="18"/>
@@ -2257,42 +2269,42 @@
         <v>1</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G17" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H17" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>32</v>
-      </c>
       <c r="K17" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M17" s="31"/>
       <c r="N17" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O17" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="P17" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R17" s="32"/>
       <c r="S17" s="32"/>
@@ -2309,42 +2321,42 @@
         <v>2</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E18" s="28"/>
       <c r="F18" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J18" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M18" s="28"/>
       <c r="N18" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O18" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="P18" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
@@ -2361,42 +2373,42 @@
         <v>3</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E19" s="28"/>
       <c r="F19" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H19" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J19" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M19" s="28"/>
       <c r="N19" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O19" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="P19" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R19" s="32"/>
       <c r="S19" s="32"/>
@@ -2413,42 +2425,42 @@
         <v>4</v>
       </c>
       <c r="B20" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>33</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="E20" s="28"/>
       <c r="F20" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="H20" s="12" t="s">
+      <c r="J20" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="K20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="L20" s="13" t="s">
         <v>34</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" s="13" t="s">
-        <v>35</v>
       </c>
       <c r="M20" s="36"/>
       <c r="N20" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="P20" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
@@ -2465,42 +2477,42 @@
         <v>5</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E21" s="28"/>
       <c r="F21" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G21" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H21" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J21" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K21" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M21" s="31"/>
       <c r="N21" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O21" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="P21" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R21" s="32"/>
       <c r="S21" s="32"/>
@@ -2517,42 +2529,42 @@
         <v>6</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E22" s="28"/>
       <c r="F22" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G22" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H22" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J22" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L22" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M22" s="28"/>
       <c r="N22" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O22" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P22" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
@@ -2569,42 +2581,42 @@
         <v>7</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E23" s="28"/>
       <c r="F23" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G23" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H23" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J23" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K23" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L23" s="13" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M23" s="36"/>
       <c r="N23" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O23" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P23" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R23" s="32"/>
       <c r="S23" s="32"/>
@@ -2621,42 +2633,42 @@
         <v>8</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E24" s="28"/>
       <c r="F24" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G24" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H24" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J24" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K24" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L24" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M24" s="31"/>
       <c r="N24" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O24" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P24" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R24" s="32"/>
       <c r="S24" s="32"/>
@@ -2673,42 +2685,42 @@
         <v>9</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E25" s="28"/>
       <c r="F25" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H25" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J25" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K25" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="L25" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M25" s="28"/>
       <c r="N25" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O25" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="P25" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R25" s="32"/>
       <c r="S25" s="32"/>
@@ -2725,42 +2737,42 @@
         <v>10</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E26" s="28"/>
       <c r="F26" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J26" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L26" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M26" s="28"/>
       <c r="N26" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O26" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P26" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
@@ -2777,42 +2789,42 @@
         <v>11</v>
       </c>
       <c r="B27" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C27" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="28"/>
       <c r="F27" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J27" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K27" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M27" s="28"/>
       <c r="N27" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O27" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="P27" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="R27" s="32"/>
       <c r="S27" s="32"/>
@@ -2829,42 +2841,42 @@
         <v>12</v>
       </c>
       <c r="B28" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C28" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" s="28"/>
       <c r="F28" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G28" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J28" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K28" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L28" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M28" s="31"/>
       <c r="N28" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O28" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P28" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R28" s="32"/>
       <c r="S28" s="32"/>
@@ -2881,42 +2893,42 @@
         <v>13</v>
       </c>
       <c r="B29" s="83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C29" s="83" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D29" s="83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E29" s="31"/>
       <c r="F29" s="83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G29" s="83" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H29" s="83" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J29" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K29" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L29" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="M29" s="31"/>
       <c r="N29" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O29" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P29" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="R29" s="32"/>
       <c r="S29" s="17"/>
@@ -2940,23 +2952,23 @@
       <c r="G30" s="73"/>
       <c r="H30" s="73"/>
       <c r="J30" s="84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K30" s="84" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L30" s="84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="M30" s="31"/>
       <c r="N30" s="84" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O30" s="84" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="P30" s="84" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
@@ -4387,8 +4399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4411,50 +4423,50 @@
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="85" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" s="88"/>
       <c r="D2" s="89"/>
       <c r="F2" s="85" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G2" s="88"/>
       <c r="H2" s="89"/>
       <c r="J2" s="85" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K2" s="88"/>
       <c r="L2" s="89"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="45" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E3" s="49"/>
       <c r="F3" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G3" s="50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H3" s="56" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I3" s="49"/>
       <c r="J3" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K3" s="44" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L3" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
@@ -4462,111 +4474,109 @@
         <v>3</v>
       </c>
       <c r="C4" s="41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D4" s="65" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E4" s="48"/>
       <c r="F4" s="53" t="s">
         <v>3</v>
       </c>
       <c r="G4" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H4" s="66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="J4" s="63" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="L4" s="64" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="42" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D5" s="67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="54" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" s="67" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="J5" s="61" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K5" s="51" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="L5" s="62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E6" s="48"/>
       <c r="F6" s="54" t="s">
         <v>6</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H6" s="33" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J6" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K6" s="48">
         <v>15</v>
       </c>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="54" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G7" s="42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H7" s="33" t="s">
-        <v>121</v>
-      </c>
-      <c r="J7" s="48"/>
-      <c r="K7" s="48"/>
+        <v>120</v>
+      </c>
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
     </row>
@@ -4575,25 +4585,21 @@
         <v>6</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D8" s="33" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E8" s="48"/>
       <c r="F8" s="54" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G8" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H8" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="J8" s="85" t="s">
-        <v>127</v>
-      </c>
-      <c r="K8" s="89"/>
+        <v>119</v>
+      </c>
       <c r="L8" s="68"/>
       <c r="M8" s="48"/>
     </row>
@@ -4602,33 +4608,31 @@
         <v>4</v>
       </c>
       <c r="C9" s="47" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D9" s="37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E9" s="17"/>
       <c r="F9" s="55" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="K9" s="45" t="s">
-        <v>143</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="J9" s="85" t="s">
+        <v>126</v>
+      </c>
+      <c r="K9" s="89"/>
       <c r="L9" s="49"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C10" s="21">
         <v>181</v>
@@ -4637,35 +4641,35 @@
         <v>4</v>
       </c>
       <c r="G10" s="42" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>122</v>
-      </c>
-      <c r="J10" s="57" t="s">
-        <v>128</v>
-      </c>
-      <c r="K10" s="74" t="s">
-        <v>135</v>
+        <v>121</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" s="45" t="s">
+        <v>142</v>
       </c>
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F11" s="54" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G11" s="42" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="K11" s="67" t="s">
-        <v>136</v>
+        <v>122</v>
+      </c>
+      <c r="J11" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="K11" s="74" t="s">
+        <v>134</v>
       </c>
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
@@ -4675,33 +4679,33 @@
         <v>5</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H12" s="37" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="I12" s="17"/>
       <c r="J12" s="58" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="K12" s="67" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F13" s="49" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G13" s="21">
         <v>242</v>
       </c>
       <c r="J13" s="58" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K13" s="67" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
@@ -4709,10 +4713,10 @@
     <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F14" s="49"/>
       <c r="J14" s="58" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="K14" s="67" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
@@ -4720,143 +4724,114 @@
     <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F15" s="49"/>
       <c r="I15" s="48" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J15" s="58" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="K15" s="67" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F16" s="49"/>
-      <c r="J16" s="43" t="s">
-        <v>134</v>
-      </c>
-      <c r="K16" s="75" t="s">
-        <v>142</v>
+      <c r="J16" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="K16" s="67" t="s">
+        <v>140</v>
       </c>
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="48"/>
-    </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="85" t="s">
-        <v>86</v>
-      </c>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-      <c r="G19" s="88"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="88"/>
-      <c r="J19" s="88"/>
-      <c r="K19" s="89"/>
-    </row>
+      <c r="J17" s="43" t="s">
+        <v>133</v>
+      </c>
+      <c r="K17" s="75" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="3">
+      <c r="B20" s="85" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="88"/>
+      <c r="D20" s="88"/>
+      <c r="E20" s="88"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="88"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="89"/>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="3">
         <v>128</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C21" s="3">
         <v>64</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D21" s="3">
         <v>32</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E21" s="3">
         <v>16</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F21" s="3">
         <v>8</v>
       </c>
-      <c r="G20" s="3">
+      <c r="G21" s="3">
         <v>4</v>
       </c>
-      <c r="H20" s="3">
+      <c r="H21" s="3">
         <v>2</v>
       </c>
-      <c r="I20" s="3">
+      <c r="I21" s="3">
         <v>1</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J21" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="69">
+        <v>1</v>
+      </c>
+      <c r="C22" s="57">
+        <v>1</v>
+      </c>
+      <c r="D22" s="38">
+        <v>1</v>
+      </c>
+      <c r="E22" s="57">
+        <v>1</v>
+      </c>
+      <c r="F22" s="38">
+        <v>1</v>
+      </c>
+      <c r="G22" s="57">
+        <v>1</v>
+      </c>
+      <c r="H22" s="38">
+        <v>1</v>
+      </c>
+      <c r="I22" s="57">
+        <v>1</v>
+      </c>
+      <c r="J22" s="38" t="s">
         <v>82</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B21" s="69">
+      <c r="K22" s="57">
         <v>1</v>
-      </c>
-      <c r="C21" s="57">
-        <v>1</v>
-      </c>
-      <c r="D21" s="38">
-        <v>1</v>
-      </c>
-      <c r="E21" s="57">
-        <v>1</v>
-      </c>
-      <c r="F21" s="38">
-        <v>1</v>
-      </c>
-      <c r="G21" s="57">
-        <v>1</v>
-      </c>
-      <c r="H21" s="38">
-        <v>1</v>
-      </c>
-      <c r="I21" s="57">
-        <v>1</v>
-      </c>
-      <c r="J21" s="38" t="s">
-        <v>83</v>
-      </c>
-      <c r="K21" s="57">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B22" s="54">
-        <v>1</v>
-      </c>
-      <c r="C22" s="42">
-        <v>1</v>
-      </c>
-      <c r="D22" s="39">
-        <v>1</v>
-      </c>
-      <c r="E22" s="42">
-        <v>1</v>
-      </c>
-      <c r="F22" s="39">
-        <v>1</v>
-      </c>
-      <c r="G22" s="42">
-        <v>1</v>
-      </c>
-      <c r="H22" s="39">
-        <v>1</v>
-      </c>
-      <c r="I22" s="42">
-        <v>0</v>
-      </c>
-      <c r="J22" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="K22" s="42">
-        <f>K21*2</f>
-        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.3">
@@ -4879,17 +4854,17 @@
         <v>1</v>
       </c>
       <c r="H23" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="42">
         <v>0</v>
       </c>
       <c r="J23" s="39" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K23" s="42">
-        <f t="shared" ref="K23:K29" si="0">K22*2</f>
-        <v>4</v>
+        <f>K22*2</f>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
@@ -4909,7 +4884,7 @@
         <v>1</v>
       </c>
       <c r="G24" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="39">
         <v>0</v>
@@ -4918,11 +4893,11 @@
         <v>0</v>
       </c>
       <c r="J24" s="39" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="K24" s="42">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f t="shared" ref="K24:K30" si="0">K23*2</f>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
@@ -4939,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F25" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="42">
         <v>0</v>
@@ -4951,11 +4926,11 @@
         <v>0</v>
       </c>
       <c r="J25" s="39" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="K25" s="42">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.3">
@@ -4969,7 +4944,7 @@
         <v>1</v>
       </c>
       <c r="E26" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F26" s="39">
         <v>0</v>
@@ -4984,11 +4959,11 @@
         <v>0</v>
       </c>
       <c r="J26" s="39" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="K26" s="42">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
@@ -4999,7 +4974,7 @@
         <v>1</v>
       </c>
       <c r="D27" s="39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="42">
         <v>0</v>
@@ -5017,11 +4992,11 @@
         <v>0</v>
       </c>
       <c r="J27" s="39" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K27" s="42">
         <f t="shared" si="0"/>
-        <v>64</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
@@ -5029,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D28" s="39">
         <v>0</v>
@@ -5050,42 +5025,75 @@
         <v>0</v>
       </c>
       <c r="J28" s="39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="K28" s="42">
         <f t="shared" si="0"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="54">
+        <v>1</v>
+      </c>
+      <c r="C29" s="42">
+        <v>0</v>
+      </c>
+      <c r="D29" s="39">
+        <v>0</v>
+      </c>
+      <c r="E29" s="42">
+        <v>0</v>
+      </c>
+      <c r="F29" s="39">
+        <v>0</v>
+      </c>
+      <c r="G29" s="42">
+        <v>0</v>
+      </c>
+      <c r="H29" s="39">
+        <v>0</v>
+      </c>
+      <c r="I29" s="42">
+        <v>0</v>
+      </c>
+      <c r="J29" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="K29" s="42">
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B29" s="70">
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="70">
         <v>0</v>
       </c>
-      <c r="C29" s="35">
+      <c r="C30" s="35">
         <v>0</v>
       </c>
-      <c r="D29" s="40">
+      <c r="D30" s="40">
         <v>0</v>
       </c>
-      <c r="E29" s="35">
+      <c r="E30" s="35">
         <v>0</v>
       </c>
-      <c r="F29" s="40">
+      <c r="F30" s="40">
         <v>0</v>
       </c>
-      <c r="G29" s="35">
+      <c r="G30" s="35">
         <v>0</v>
       </c>
-      <c r="H29" s="40">
+      <c r="H30" s="40">
         <v>0</v>
       </c>
-      <c r="I29" s="35">
+      <c r="I30" s="35">
         <v>0</v>
       </c>
-      <c r="J29" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="K29" s="35">
+      <c r="J30" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="K30" s="35">
         <f t="shared" si="0"/>
         <v>256</v>
       </c>
@@ -5388,8 +5396,8 @@
     <mergeCell ref="F2:H2"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="J2:L2"/>
-    <mergeCell ref="J8:K8"/>
-    <mergeCell ref="B19:K19"/>
+    <mergeCell ref="J9:K9"/>
+    <mergeCell ref="B20:K20"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5401,8 +5409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46D577-AC6F-4505-860C-EE5869797CC5}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5419,12 +5427,12 @@
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="85" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C2" s="88"/>
       <c r="D2" s="89"/>
       <c r="F2" s="85" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G2" s="88"/>
       <c r="H2" s="89"/>
@@ -5459,19 +5467,19 @@
         <v>11</v>
       </c>
       <c r="C4" s="92" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="D4" s="77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="92">
         <v>21</v>
       </c>
       <c r="G4" s="92" t="s">
-        <v>3</v>
+        <v>166</v>
       </c>
       <c r="H4" s="77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
@@ -5483,12 +5491,12 @@
       <c r="B5" s="93"/>
       <c r="C5" s="93"/>
       <c r="D5" s="67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F5" s="93"/>
       <c r="G5" s="93"/>
       <c r="H5" s="67" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -5500,12 +5508,12 @@
       <c r="B6" s="94"/>
       <c r="C6" s="94"/>
       <c r="D6" s="78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F6" s="94"/>
       <c r="G6" s="94"/>
       <c r="H6" s="78" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -5534,7 +5542,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8" s="34">
         <v>22</v>
@@ -5543,7 +5551,7 @@
         <v>7</v>
       </c>
       <c r="H8" s="81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="73"/>
@@ -5569,19 +5577,19 @@
         <v>13</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="D10" s="81" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F10" s="92">
         <v>23</v>
       </c>
       <c r="G10" s="92" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="H10" s="77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I10" s="2"/>
       <c r="J10" s="73"/>
@@ -5596,7 +5604,7 @@
       <c r="F11" s="94"/>
       <c r="G11" s="94"/>
       <c r="H11" s="75" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I11" s="17"/>
       <c r="J11" s="73"/>
@@ -5609,10 +5617,10 @@
         <v>14</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="D12" s="81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F12" s="23"/>
       <c r="G12" s="73"/>
@@ -5631,10 +5639,10 @@
         <v>24</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="H13" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="73"/>
@@ -5647,10 +5655,10 @@
         <v>15</v>
       </c>
       <c r="C14" s="92" t="s">
-        <v>6</v>
+        <v>169</v>
       </c>
       <c r="D14" s="79" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F14" s="23"/>
       <c r="G14" s="73"/>
@@ -5665,16 +5673,16 @@
       <c r="B15" s="94"/>
       <c r="C15" s="94"/>
       <c r="D15" s="43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F15" s="4">
         <v>25</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="H15" s="81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="17"/>
@@ -5700,19 +5708,19 @@
         <v>16</v>
       </c>
       <c r="C17" s="92" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="D17" s="77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F17" s="34">
         <v>26</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>156</v>
+        <v>167</v>
       </c>
       <c r="H17" s="81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="73"/>
@@ -5724,7 +5732,7 @@
       <c r="B18" s="94"/>
       <c r="C18" s="94"/>
       <c r="D18" s="75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F18" s="23"/>
       <c r="G18" s="73"/>
@@ -5745,10 +5753,10 @@
         <v>27</v>
       </c>
       <c r="G19" s="92" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="H19" s="77" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -5765,13 +5773,13 @@
       <c r="F20" s="94"/>
       <c r="G20" s="94"/>
       <c r="H20" s="75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="85" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C21" s="88"/>
       <c r="D21" s="89"/>
@@ -5796,10 +5804,10 @@
         <v>28</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>159</v>
+        <v>172</v>
       </c>
       <c r="H22" s="81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5808,10 +5816,10 @@
         <v>91</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
       <c r="D23" s="81" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="23"/>
@@ -5827,10 +5835,10 @@
         <v>29</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>155</v>
+        <v>168</v>
       </c>
       <c r="H24" s="81" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -5838,22 +5846,29 @@
         <v>92</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>8</v>
+        <v>167</v>
       </c>
       <c r="D25" s="81" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H25" s="82"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="23"/>
+      <c r="C26" s="73"/>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="73"/>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
+      <c r="B27" s="34">
+        <v>99</v>
+      </c>
+      <c r="C27" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="D27" s="81" t="s">
+        <v>146</v>
+      </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="73"/>
@@ -6003,8 +6018,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD07F0D-FAEC-4973-B07B-39B1A9A12CE8}">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:F10"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6016,320 +6031,312 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="98" t="s">
+        <v>147</v>
+      </c>
+      <c r="C2" s="99"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="106" t="s">
+      <c r="F2" s="100"/>
+      <c r="H2" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="101">
+        <v>1</v>
+      </c>
+      <c r="C3" s="102"/>
+      <c r="D3" s="103"/>
+      <c r="E3" s="108" t="s">
         <v>149</v>
       </c>
-      <c r="F2" s="107"/>
-      <c r="H2" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="108">
-        <v>1</v>
-      </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="101" t="s">
-        <v>150</v>
-      </c>
-      <c r="F3" s="102"/>
+      <c r="F3" s="103"/>
       <c r="H3" s="41" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="103">
+      <c r="B4" s="95">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="95" t="s">
-        <v>151</v>
-      </c>
-      <c r="F4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="97"/>
+      <c r="E4" s="104" t="s">
+        <v>150</v>
+      </c>
+      <c r="F4" s="97"/>
       <c r="H4" s="42" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="103">
+      <c r="B5" s="95">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="95" t="s">
+      <c r="C5" s="96"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="104" t="s">
+        <v>151</v>
+      </c>
+      <c r="F5" s="97"/>
+      <c r="H5" s="42" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B6" s="95">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="F5" s="96"/>
-      <c r="H5" s="42" t="s">
+      <c r="F6" s="97"/>
+      <c r="H6" s="42" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="95">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C7" s="96"/>
+      <c r="D7" s="97"/>
+      <c r="E7" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="97"/>
+      <c r="H7" s="42" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="95">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C8" s="96"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="104" t="s">
+        <v>164</v>
+      </c>
+      <c r="F8" s="97"/>
+      <c r="H8" s="42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="95">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C9" s="96"/>
+      <c r="D9" s="97"/>
+      <c r="E9" s="104" t="s">
+        <v>165</v>
+      </c>
+      <c r="F9" s="97"/>
+      <c r="H9" s="42" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="103">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="C6" s="104"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="95" t="s">
-        <v>153</v>
-      </c>
-      <c r="F6" s="96"/>
-      <c r="H6" s="42" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="103">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="C7" s="104"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="95" t="s">
-        <v>154</v>
-      </c>
-      <c r="F7" s="96"/>
-      <c r="H7" s="42" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="103">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="C8" s="104"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="95" t="s">
-        <v>168</v>
-      </c>
-      <c r="F8" s="96"/>
-      <c r="H8" s="42" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="103">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="C9" s="104"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="95" t="s">
-        <v>169</v>
-      </c>
-      <c r="F9" s="96"/>
-      <c r="H9" s="42" t="s">
-        <v>167</v>
-      </c>
-    </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="103">
+      <c r="B10" s="95">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="104"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
+      <c r="C10" s="96"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="104"/>
+      <c r="F10" s="97"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="103">
+      <c r="B11" s="95">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="104"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
+      <c r="C11" s="96"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="97"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="103">
+      <c r="B12" s="95">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="104"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
+      <c r="C12" s="96"/>
+      <c r="D12" s="97"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="97"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="103">
+      <c r="B13" s="95">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="104"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
+      <c r="C13" s="96"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="97"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="103">
+      <c r="B14" s="95">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="104"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
+      <c r="C14" s="96"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="97"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="103">
+      <c r="B15" s="95">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="104"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
+      <c r="C15" s="96"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="97"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="103">
+      <c r="B16" s="95">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="104"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="97"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="97"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="103">
+      <c r="B17" s="95">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
+      <c r="C17" s="96"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="97"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="103">
+      <c r="B18" s="95">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="104"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
+      <c r="C18" s="96"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="97"/>
       <c r="H18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="103">
+      <c r="B19" s="95">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="104"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
+      <c r="C19" s="96"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="97"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="103">
+      <c r="B20" s="95">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="104"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
+      <c r="C20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="97"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="103">
+      <c r="B21" s="95">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="104"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
+      <c r="C21" s="96"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="97"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="103">
+      <c r="B22" s="95">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="104"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
+      <c r="C22" s="96"/>
+      <c r="D22" s="97"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="97"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="103">
+      <c r="B23" s="95">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="104"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
+      <c r="C23" s="96"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="97"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="103">
+      <c r="B24" s="95">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
+      <c r="C24" s="96"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="97"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="103">
+      <c r="B25" s="95">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="104"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
+      <c r="C25" s="96"/>
+      <c r="D25" s="97"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="97"/>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="99">
+      <c r="B26" s="105">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="98"/>
+      <c r="C26" s="106"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="109"/>
+      <c r="F26" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -6346,19 +6353,27 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -5,18 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRII\PBL\PBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="227" documentId="13_ncr:1_{476B07B9-4282-43FA-9868-8420AEABF937}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A04A15B0-331A-4E74-A649-18F892C995E5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC2822-FAEE-40DF-A58F-10670445458B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
     <sheet name="Rede" sheetId="3" r:id="rId2"/>
-    <sheet name="VLAN" sheetId="2" r:id="rId3"/>
-    <sheet name="Implementação" sheetId="4" r:id="rId4"/>
+    <sheet name="Rotas" sheetId="5" r:id="rId3"/>
+    <sheet name="VLAN" sheetId="2" r:id="rId4"/>
+    <sheet name="Implementação" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="243">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -560,13 +561,316 @@
   </si>
   <si>
     <t>shut</t>
+  </si>
+  <si>
+    <t>Default Routes</t>
+  </si>
+  <si>
+    <t>R2 -&gt; R1</t>
+  </si>
+  <si>
+    <t>R3 -&gt; R1</t>
+  </si>
+  <si>
+    <t>R1 -&gt; RT-WAN</t>
+  </si>
+  <si>
+    <t>RT-WAN -&gt; RT-ISP</t>
+  </si>
+  <si>
+    <t>RT-ISP -&gt; RT-INTERNET</t>
+  </si>
+  <si>
+    <t>RT-INTERNET -&gt; RT-ISP</t>
+  </si>
+  <si>
+    <t>RT-CLOUD -&gt; RT-ISP</t>
+  </si>
+  <si>
+    <t>Next-hop</t>
+  </si>
+  <si>
+    <t>10.10.10.17</t>
+  </si>
+  <si>
+    <t>10.10.10.22</t>
+  </si>
+  <si>
+    <t>10.10.10.13</t>
+  </si>
+  <si>
+    <t>10.10.10.9</t>
+  </si>
+  <si>
+    <t>10.10.10.1</t>
+  </si>
+  <si>
+    <t>10.10.10.2</t>
+  </si>
+  <si>
+    <t>10.10.10.6</t>
+  </si>
+  <si>
+    <t>Rota</t>
+  </si>
+  <si>
+    <t>Rotas Estaticas</t>
+  </si>
+  <si>
+    <t>ID Rede</t>
+  </si>
+  <si>
+    <t>Mascara</t>
+  </si>
+  <si>
+    <t>S.A.</t>
+  </si>
+  <si>
+    <t>Dep-S.A.</t>
+  </si>
+  <si>
+    <t>C-Gestao</t>
+  </si>
+  <si>
+    <t>G.E.R</t>
+  </si>
+  <si>
+    <t>Prof</t>
+  </si>
+  <si>
+    <t>Dep.Informatica</t>
+  </si>
+  <si>
+    <t>Guest</t>
+  </si>
+  <si>
+    <t>192.168.2.0</t>
+  </si>
+  <si>
+    <t>192.168.3.0</t>
+  </si>
+  <si>
+    <t>192.168.3.64</t>
+  </si>
+  <si>
+    <t>192.168.3.96</t>
+  </si>
+  <si>
+    <t>192.168.3.112</t>
+  </si>
+  <si>
+    <t>192.168.3.128</t>
+  </si>
+  <si>
+    <t>192.168.3.144</t>
+  </si>
+  <si>
+    <t>192.168.3.160</t>
+  </si>
+  <si>
+    <t>192.168.3.168</t>
+  </si>
+  <si>
+    <t>255.255.255.128</t>
+  </si>
+  <si>
+    <t>255.255.255.192</t>
+  </si>
+  <si>
+    <t>255.255.255.224</t>
+  </si>
+  <si>
+    <t>255.255.255.240</t>
+  </si>
+  <si>
+    <t>255.255.255.248</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>10.10.10.25</t>
+  </si>
+  <si>
+    <t>10.10.10.26</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R3 -&gt; R2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(6)</t>
+    </r>
+  </si>
+  <si>
+    <t>192.168.0.0</t>
+  </si>
+  <si>
+    <t>192.168.1.0</t>
+  </si>
+  <si>
+    <t>192.168.1.16</t>
+  </si>
+  <si>
+    <t>192.168.1.32</t>
+  </si>
+  <si>
+    <t>192.168.1.40</t>
+  </si>
+  <si>
+    <t>192.168.1.48</t>
+  </si>
+  <si>
+    <t>255.255.255.0</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R2 -&gt; R1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <t>192.168.9.0</t>
+  </si>
+  <si>
+    <t>192.168.9.16</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R3 -&gt; R1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(2)</t>
+    </r>
+  </si>
+  <si>
+    <t>10.10.10.18</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R1 -&gt; R3 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(9)</t>
+    </r>
+  </si>
+  <si>
+    <t>10.10.10.21</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">R1 -&gt; R2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(6)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RT-WAN -&gt; R1 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(6+9+2)</t>
+    </r>
+  </si>
+  <si>
+    <t>10.10.10.14</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RT-ISP -&gt; RT-WAN </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(6+9+2)</t>
+    </r>
+  </si>
+  <si>
+    <t>10.10.10.10</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">RT-ISP -&gt; RT-CLOUD </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(1)</t>
+    </r>
+  </si>
+  <si>
+    <t>Cloud</t>
+  </si>
+  <si>
+    <t>30.30.30.1</t>
+  </si>
+  <si>
+    <t>10.10.10.5</t>
+  </si>
+  <si>
+    <t>R2 -&gt; R3 (9)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -595,13 +899,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="47">
@@ -1197,10 +1521,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1484,15 +1809,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1508,29 +1854,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Correto" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4399,8 +4747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5406,6 +5754,1250 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1380A9C-95C5-45BF-8285-FFA878714CDE}">
+  <dimension ref="A1:V54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="112" t="s">
+        <v>174</v>
+      </c>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="115"/>
+      <c r="T1" s="115"/>
+      <c r="U1" s="115"/>
+      <c r="V1" s="115"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A2" s="113" t="s">
+        <v>190</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A3" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="12" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+      <c r="A11" s="111" t="s">
+        <v>191</v>
+      </c>
+      <c r="B11" s="111"/>
+      <c r="C11" s="111"/>
+      <c r="D11" s="111"/>
+      <c r="E11" s="111"/>
+      <c r="F11" s="111"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="111"/>
+      <c r="I11" s="111"/>
+      <c r="J11" s="111"/>
+      <c r="K11" s="111"/>
+      <c r="L11" s="111"/>
+      <c r="M11" s="111"/>
+      <c r="N11" s="111"/>
+      <c r="O11" s="111"/>
+      <c r="P11" s="111"/>
+      <c r="Q11" s="111"/>
+      <c r="R11" s="111"/>
+      <c r="S11" s="116"/>
+      <c r="T11" s="116"/>
+      <c r="U11" s="116"/>
+      <c r="V11" s="116"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="117" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="117"/>
+      <c r="C12" s="117"/>
+      <c r="D12" s="117"/>
+      <c r="F12" s="110" t="s">
+        <v>218</v>
+      </c>
+      <c r="G12" s="110"/>
+      <c r="H12" s="110"/>
+      <c r="I12" s="110"/>
+      <c r="K12" s="110" t="s">
+        <v>226</v>
+      </c>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="C13" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="D13" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="F13" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="G13" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="H13" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="I13" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="K13" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="M13" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="N13" s="114" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K14" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K17" s="110" t="s">
+        <v>229</v>
+      </c>
+      <c r="L17" s="110"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="110"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K18" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="M18" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="N18" s="114" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F19" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="K19" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="L19" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="N19" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D20" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F20" s="73"/>
+      <c r="G20" s="73"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="73"/>
+      <c r="K20" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="L20" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="N20" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B21" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F21" s="73"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="73"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B22" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="F22" s="73"/>
+      <c r="G22" s="73"/>
+      <c r="H22" s="73"/>
+      <c r="I22" s="73"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="110" t="s">
+        <v>231</v>
+      </c>
+      <c r="B24" s="110"/>
+      <c r="C24" s="110"/>
+      <c r="D24" s="110"/>
+      <c r="F24" s="110" t="s">
+        <v>233</v>
+      </c>
+      <c r="G24" s="110"/>
+      <c r="H24" s="110"/>
+      <c r="I24" s="110"/>
+      <c r="K24" s="110" t="s">
+        <v>238</v>
+      </c>
+      <c r="L24" s="110"/>
+      <c r="M24" s="110"/>
+      <c r="N24" s="110"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="C25" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="D25" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="F25" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="G25" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="H25" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="I25" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="L25" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="N25" s="114" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I27" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F30" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A36" s="110" t="s">
+        <v>234</v>
+      </c>
+      <c r="B36" s="110"/>
+      <c r="C36" s="110"/>
+      <c r="D36" s="110"/>
+      <c r="F36" s="110" t="s">
+        <v>236</v>
+      </c>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A37" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="C37" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="D37" s="114" t="s">
+        <v>182</v>
+      </c>
+      <c r="F37" s="114" t="s">
+        <v>1</v>
+      </c>
+      <c r="G37" s="114" t="s">
+        <v>192</v>
+      </c>
+      <c r="H37" s="114" t="s">
+        <v>193</v>
+      </c>
+      <c r="I37" s="114" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F38" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I39" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F40" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A41" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A42" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A44" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A45" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D45" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I45" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A46" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A47" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C47" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D47" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F47" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A48" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B48" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B49" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D50" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I50" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B51" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B52" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C52" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I52" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B53" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F53" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B54" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>237</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K24:N24"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A11:R11"/>
+    <mergeCell ref="K17:N17"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46D577-AC6F-4505-860C-EE5869797CC5}">
   <dimension ref="A1:M61"/>
   <sheetViews>
@@ -6014,7 +7606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD07F0D-FAEC-4973-B07B-39B1A9A12CE8}">
   <dimension ref="B1:H26"/>
   <sheetViews>
@@ -6031,312 +7623,320 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="105" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="99"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="99" t="s">
+      <c r="C2" s="106"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="106" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="100"/>
+      <c r="F2" s="107"/>
       <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="101">
+      <c r="B3" s="108">
         <v>1</v>
       </c>
-      <c r="C3" s="102"/>
-      <c r="D3" s="103"/>
-      <c r="E3" s="108" t="s">
+      <c r="C3" s="109"/>
+      <c r="D3" s="102"/>
+      <c r="E3" s="101" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="103"/>
+      <c r="F3" s="102"/>
       <c r="H3" s="41" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="95">
+      <c r="B4" s="103">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="96"/>
-      <c r="D4" s="97"/>
-      <c r="E4" s="104" t="s">
+      <c r="C4" s="104"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="97"/>
+      <c r="F4" s="96"/>
       <c r="H4" s="42" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="95">
+      <c r="B5" s="103">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="96"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="104" t="s">
+      <c r="C5" s="104"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="95" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="97"/>
+      <c r="F5" s="96"/>
       <c r="H5" s="42" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="95">
+      <c r="B6" s="103">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="104" t="s">
+      <c r="C6" s="104"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="95" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="97"/>
+      <c r="F6" s="96"/>
       <c r="H6" s="42" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="95">
+      <c r="B7" s="103">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="104" t="s">
+      <c r="C7" s="104"/>
+      <c r="D7" s="96"/>
+      <c r="E7" s="95" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="97"/>
+      <c r="F7" s="96"/>
       <c r="H7" s="42" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="95">
+      <c r="B8" s="103">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="96"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="104"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="95" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="97"/>
+      <c r="F8" s="96"/>
       <c r="H8" s="42" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="95">
+      <c r="B9" s="103">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="96"/>
-      <c r="D9" s="97"/>
-      <c r="E9" s="104" t="s">
+      <c r="C9" s="104"/>
+      <c r="D9" s="96"/>
+      <c r="E9" s="95" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="97"/>
+      <c r="F9" s="96"/>
       <c r="H9" s="42" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="95">
+      <c r="B10" s="103">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="96"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="97"/>
+      <c r="C10" s="104"/>
+      <c r="D10" s="96"/>
+      <c r="E10" s="95"/>
+      <c r="F10" s="96"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="95">
+      <c r="B11" s="103">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="96"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="97"/>
+      <c r="C11" s="104"/>
+      <c r="D11" s="96"/>
+      <c r="E11" s="95"/>
+      <c r="F11" s="96"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="95">
+      <c r="B12" s="103">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="96"/>
-      <c r="D12" s="97"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="97"/>
+      <c r="C12" s="104"/>
+      <c r="D12" s="96"/>
+      <c r="E12" s="95"/>
+      <c r="F12" s="96"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="95">
+      <c r="B13" s="103">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="96"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="97"/>
+      <c r="C13" s="104"/>
+      <c r="D13" s="96"/>
+      <c r="E13" s="95"/>
+      <c r="F13" s="96"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="95">
+      <c r="B14" s="103">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="96"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="97"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="96"/>
+      <c r="E14" s="95"/>
+      <c r="F14" s="96"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="95">
+      <c r="B15" s="103">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="96"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="97"/>
+      <c r="C15" s="104"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="96"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="95">
+      <c r="B16" s="103">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="96"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="97"/>
+      <c r="C16" s="104"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="95"/>
+      <c r="F16" s="96"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="95">
+      <c r="B17" s="103">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="96"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="97"/>
+      <c r="C17" s="104"/>
+      <c r="D17" s="96"/>
+      <c r="E17" s="95"/>
+      <c r="F17" s="96"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="95">
+      <c r="B18" s="103">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="96"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="97"/>
+      <c r="C18" s="104"/>
+      <c r="D18" s="96"/>
+      <c r="E18" s="95"/>
+      <c r="F18" s="96"/>
       <c r="H18" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="95">
+      <c r="B19" s="103">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="96"/>
-      <c r="D19" s="97"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="97"/>
+      <c r="C19" s="104"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="96"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="95">
+      <c r="B20" s="103">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="96"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="97"/>
+      <c r="C20" s="104"/>
+      <c r="D20" s="96"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="96"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="95">
+      <c r="B21" s="103">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="96"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="97"/>
+      <c r="C21" s="104"/>
+      <c r="D21" s="96"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="96"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="95">
+      <c r="B22" s="103">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="96"/>
-      <c r="D22" s="97"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="97"/>
+      <c r="C22" s="104"/>
+      <c r="D22" s="96"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="96"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="95">
+      <c r="B23" s="103">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="96"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="97"/>
+      <c r="C23" s="104"/>
+      <c r="D23" s="96"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="96"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="95">
+      <c r="B24" s="103">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="96"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="97"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="96"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="95">
+      <c r="B25" s="103">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="96"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="97"/>
+      <c r="C25" s="104"/>
+      <c r="D25" s="96"/>
+      <c r="E25" s="95"/>
+      <c r="F25" s="96"/>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="105">
+      <c r="B26" s="99">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="106"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="109"/>
-      <c r="F26" s="107"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="98"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -6353,27 +7953,19 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRII\PBL\PBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19BC2822-FAEE-40DF-A58F-10670445458B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE6A610-E6CA-4422-B20F-5A331F1F51EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -695,21 +695,6 @@
     <t>10.10.10.26</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">R3 -&gt; R2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(6)</t>
-    </r>
-  </si>
-  <si>
     <t>192.168.0.0</t>
   </si>
   <si>
@@ -731,129 +716,24 @@
     <t>255.255.255.0</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">R2 -&gt; R1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2)</t>
-    </r>
-  </si>
-  <si>
     <t>192.168.9.0</t>
   </si>
   <si>
     <t>192.168.9.16</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">R3 -&gt; R1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(2)</t>
-    </r>
-  </si>
-  <si>
     <t>10.10.10.18</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">R1 -&gt; R3 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(9)</t>
-    </r>
-  </si>
-  <si>
     <t>10.10.10.21</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">R1 -&gt; R2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(6)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">RT-WAN -&gt; R1 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(6+9+2)</t>
-    </r>
-  </si>
-  <si>
     <t>10.10.10.14</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">RT-ISP -&gt; RT-WAN </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(6+9+2)</t>
-    </r>
-  </si>
-  <si>
     <t>10.10.10.10</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">RT-ISP -&gt; RT-CLOUD </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(1)</t>
-    </r>
-  </si>
-  <si>
     <t>Cloud</t>
   </si>
   <si>
@@ -864,6 +744,30 @@
   </si>
   <si>
     <t>R2 -&gt; R3 (9)</t>
+  </si>
+  <si>
+    <t>R2 -&gt; R1 (2)</t>
+  </si>
+  <si>
+    <t>R3 -&gt; R2 (6)</t>
+  </si>
+  <si>
+    <t>R3 -&gt; R1 (2)</t>
+  </si>
+  <si>
+    <t>R1 -&gt; R3 (9)</t>
+  </si>
+  <si>
+    <t>R1 -&gt; R2 (6)</t>
+  </si>
+  <si>
+    <t>RT-WAN -&gt; R1 (6+9+2)</t>
+  </si>
+  <si>
+    <t>RT-ISP -&gt; RT-WAN (6+9+2)</t>
+  </si>
+  <si>
+    <t>RT-ISP -&gt; RT-CLOUD (1)</t>
   </si>
 </sst>
 </file>
@@ -1779,6 +1683,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1800,6 +1717,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1808,73 +1734,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2224,24 +2128,24 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="90" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="87"/>
-      <c r="J2" s="85" t="s">
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
+      <c r="F2" s="91"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="92"/>
+      <c r="J2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="86"/>
-      <c r="L2" s="86"/>
-      <c r="M2" s="86"/>
-      <c r="N2" s="86"/>
-      <c r="O2" s="86"/>
-      <c r="P2" s="87"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="91"/>
+      <c r="M2" s="91"/>
+      <c r="N2" s="91"/>
+      <c r="O2" s="91"/>
+      <c r="P2" s="92"/>
     </row>
     <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -2537,31 +2441,31 @@
       <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="86"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="86"/>
-      <c r="H15" s="87"/>
-      <c r="J15" s="85" t="s">
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
+      <c r="E15" s="91"/>
+      <c r="F15" s="91"/>
+      <c r="G15" s="91"/>
+      <c r="H15" s="92"/>
+      <c r="J15" s="90" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="88"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="88"/>
-      <c r="N15" s="88"/>
-      <c r="O15" s="88"/>
-      <c r="P15" s="89"/>
-      <c r="R15" s="90"/>
-      <c r="S15" s="90"/>
-      <c r="T15" s="90"/>
-      <c r="U15" s="90"/>
-      <c r="V15" s="90"/>
-      <c r="W15" s="90"/>
-      <c r="X15" s="90"/>
+      <c r="K15" s="93"/>
+      <c r="L15" s="93"/>
+      <c r="M15" s="93"/>
+      <c r="N15" s="93"/>
+      <c r="O15" s="93"/>
+      <c r="P15" s="94"/>
+      <c r="R15" s="95"/>
+      <c r="S15" s="95"/>
+      <c r="T15" s="95"/>
+      <c r="U15" s="95"/>
+      <c r="V15" s="95"/>
+      <c r="W15" s="95"/>
+      <c r="X15" s="95"/>
       <c r="Y15" s="32"/>
     </row>
     <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4747,7 +4651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
@@ -4770,21 +4674,21 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="F2" s="85" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="F2" s="90" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
-      <c r="J2" s="85" t="s">
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
+      <c r="J2" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="88"/>
-      <c r="L2" s="89"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="94"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -4971,10 +4875,10 @@
       <c r="H9" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="85" t="s">
+      <c r="J9" s="90" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="89"/>
+      <c r="K9" s="94"/>
       <c r="L9" s="49"/>
       <c r="M9" s="48"/>
     </row>
@@ -5105,18 +5009,18 @@
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="90" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="88"/>
-      <c r="E20" s="88"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="88"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="88"/>
-      <c r="J20" s="88"/>
-      <c r="K20" s="89"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+      <c r="F20" s="93"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="93"/>
+      <c r="I20" s="93"/>
+      <c r="J20" s="93"/>
+      <c r="K20" s="94"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
@@ -5473,17 +5377,17 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="91"/>
-      <c r="D33" s="91"/>
+      <c r="B33" s="96"/>
+      <c r="C33" s="96"/>
+      <c r="D33" s="96"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="91"/>
-      <c r="G33" s="91"/>
-      <c r="H33" s="91"/>
+      <c r="F33" s="96"/>
+      <c r="G33" s="96"/>
+      <c r="H33" s="96"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="91"/>
-      <c r="K33" s="91"/>
-      <c r="L33" s="91"/>
+      <c r="J33" s="96"/>
+      <c r="K33" s="96"/>
+      <c r="L33" s="96"/>
       <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -5757,8 +5661,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1380A9C-95C5-45BF-8285-FFA878714CDE}">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5778,41 +5682,41 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="98" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
-      <c r="F1" s="112"/>
-      <c r="G1" s="112"/>
-      <c r="H1" s="112"/>
-      <c r="I1" s="112"/>
-      <c r="J1" s="112"/>
-      <c r="K1" s="112"/>
-      <c r="L1" s="112"/>
-      <c r="M1" s="112"/>
-      <c r="N1" s="112"/>
-      <c r="O1" s="112"/>
-      <c r="P1" s="112"/>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="112"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="98"/>
+      <c r="O1" s="98"/>
+      <c r="P1" s="98"/>
+      <c r="Q1" s="98"/>
+      <c r="R1" s="98"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A2" s="113" t="s">
+      <c r="A2" s="85" t="s">
         <v>190</v>
       </c>
-      <c r="B2" s="113" t="s">
+      <c r="B2" s="85" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="89" t="s">
         <v>175</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -5820,7 +5724,7 @@
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="89" t="s">
         <v>176</v>
       </c>
       <c r="B4" s="12" t="s">
@@ -5828,7 +5732,7 @@
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="89" t="s">
         <v>177</v>
       </c>
       <c r="B5" s="12" t="s">
@@ -5836,7 +5740,7 @@
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="89" t="s">
         <v>178</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -5844,7 +5748,7 @@
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="89" t="s">
         <v>179</v>
       </c>
       <c r="B7" s="12" t="s">
@@ -5852,7 +5756,7 @@
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="89" t="s">
         <v>180</v>
       </c>
       <c r="B8" s="12" t="s">
@@ -5868,86 +5772,86 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="111" t="s">
+      <c r="A11" s="99" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="111"/>
-      <c r="C11" s="111"/>
-      <c r="D11" s="111"/>
-      <c r="E11" s="111"/>
-      <c r="F11" s="111"/>
-      <c r="G11" s="111"/>
-      <c r="H11" s="111"/>
-      <c r="I11" s="111"/>
-      <c r="J11" s="111"/>
-      <c r="K11" s="111"/>
-      <c r="L11" s="111"/>
-      <c r="M11" s="111"/>
-      <c r="N11" s="111"/>
-      <c r="O11" s="111"/>
-      <c r="P11" s="111"/>
-      <c r="Q11" s="111"/>
-      <c r="R11" s="111"/>
-      <c r="S11" s="116"/>
-      <c r="T11" s="116"/>
-      <c r="U11" s="116"/>
-      <c r="V11" s="116"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="99"/>
+      <c r="D11" s="99"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="99"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="99"/>
+      <c r="L11" s="99"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="99"/>
+      <c r="P11" s="99"/>
+      <c r="Q11" s="99"/>
+      <c r="R11" s="99"/>
+      <c r="S11" s="88"/>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="117" t="s">
-        <v>242</v>
-      </c>
-      <c r="B12" s="117"/>
-      <c r="C12" s="117"/>
-      <c r="D12" s="117"/>
-      <c r="F12" s="110" t="s">
-        <v>218</v>
-      </c>
-      <c r="G12" s="110"/>
-      <c r="H12" s="110"/>
-      <c r="I12" s="110"/>
-      <c r="K12" s="110" t="s">
-        <v>226</v>
-      </c>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
+      <c r="A12" s="97" t="s">
+        <v>234</v>
+      </c>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="97"/>
+      <c r="F12" s="97" t="s">
+        <v>236</v>
+      </c>
+      <c r="G12" s="97"/>
+      <c r="H12" s="97"/>
+      <c r="I12" s="97"/>
+      <c r="K12" s="97" t="s">
+        <v>235</v>
+      </c>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A13" s="114" t="s">
+      <c r="A13" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="114" t="s">
+      <c r="B13" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="114" t="s">
+      <c r="C13" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="D13" s="114" t="s">
+      <c r="D13" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="F13" s="114" t="s">
+      <c r="F13" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="G13" s="114" t="s">
+      <c r="G13" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="H13" s="114" t="s">
+      <c r="H13" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="I13" s="114" t="s">
+      <c r="I13" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="K13" s="114" t="s">
+      <c r="K13" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="114" t="s">
+      <c r="L13" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="M13" s="114" t="s">
+      <c r="M13" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="N13" s="114" t="s">
+      <c r="N13" s="86" t="s">
         <v>182</v>
       </c>
     </row>
@@ -5968,10 +5872,10 @@
         <v>3</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I14" s="12" t="s">
         <v>216</v>
@@ -5980,7 +5884,7 @@
         <v>71</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M14" s="12" t="s">
         <v>213</v>
@@ -6006,7 +5910,7 @@
         <v>194</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H15" s="12" t="s">
         <v>213</v>
@@ -6018,7 +5922,7 @@
         <v>197</v>
       </c>
       <c r="L15" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M15" s="12" t="s">
         <v>214</v>
@@ -6044,7 +5948,7 @@
         <v>197</v>
       </c>
       <c r="G16" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H16" s="12" t="s">
         <v>213</v>
@@ -6070,7 +5974,7 @@
         <v>200</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H17" s="12" t="s">
         <v>214</v>
@@ -6078,12 +5982,12 @@
       <c r="I17" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K17" s="110" t="s">
-        <v>229</v>
-      </c>
-      <c r="L17" s="110"/>
-      <c r="M17" s="110"/>
-      <c r="N17" s="110"/>
+      <c r="K17" s="97" t="s">
+        <v>237</v>
+      </c>
+      <c r="L17" s="97"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="97"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
@@ -6102,7 +6006,7 @@
         <v>6</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H18" s="12" t="s">
         <v>214</v>
@@ -6110,16 +6014,16 @@
       <c r="I18" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K18" s="114" t="s">
+      <c r="K18" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="L18" s="114" t="s">
+      <c r="L18" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="M18" s="114" t="s">
+      <c r="M18" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="N18" s="114" t="s">
+      <c r="N18" s="86" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6140,7 +6044,7 @@
         <v>198</v>
       </c>
       <c r="G19" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H19" s="12" t="s">
         <v>214</v>
@@ -6152,7 +6056,7 @@
         <v>71</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="M19" s="12" t="s">
         <v>213</v>
@@ -6182,7 +6086,7 @@
         <v>197</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="M20" s="12" t="s">
         <v>214</v>
@@ -6228,60 +6132,60 @@
       <c r="I22" s="73"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="110" t="s">
-        <v>231</v>
-      </c>
-      <c r="B24" s="110"/>
-      <c r="C24" s="110"/>
-      <c r="D24" s="110"/>
-      <c r="F24" s="110" t="s">
-        <v>233</v>
-      </c>
-      <c r="G24" s="110"/>
-      <c r="H24" s="110"/>
-      <c r="I24" s="110"/>
-      <c r="K24" s="110" t="s">
+      <c r="A24" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="L24" s="110"/>
-      <c r="M24" s="110"/>
-      <c r="N24" s="110"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="F24" s="97" t="s">
+        <v>239</v>
+      </c>
+      <c r="G24" s="97"/>
+      <c r="H24" s="97"/>
+      <c r="I24" s="97"/>
+      <c r="K24" s="97" t="s">
+        <v>242</v>
+      </c>
+      <c r="L24" s="97"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="114" t="s">
+      <c r="A25" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="114" t="s">
+      <c r="B25" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="114" t="s">
+      <c r="C25" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="D25" s="114" t="s">
+      <c r="D25" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="F25" s="114" t="s">
+      <c r="F25" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="G25" s="114" t="s">
+      <c r="G25" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="H25" s="114" t="s">
+      <c r="H25" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="I25" s="114" t="s">
+      <c r="I25" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="K25" s="114" t="s">
+      <c r="K25" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="L25" s="114" t="s">
+      <c r="L25" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="M25" s="114" t="s">
+      <c r="M25" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="N25" s="114" t="s">
+      <c r="N25" s="86" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6296,31 +6200,31 @@
         <v>210</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="K26" s="12" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="L26" s="12" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="M26" s="12" t="s">
         <v>215</v>
       </c>
       <c r="N26" s="12" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
@@ -6334,19 +6238,19 @@
         <v>211</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F27" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H27" s="12" t="s">
         <v>213</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
@@ -6360,19 +6264,19 @@
         <v>212</v>
       </c>
       <c r="D28" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F28" s="12" t="s">
         <v>197</v>
       </c>
       <c r="G28" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H28" s="12" t="s">
         <v>213</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
@@ -6386,19 +6290,19 @@
         <v>213</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F29" s="12" t="s">
         <v>200</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H29" s="12" t="s">
         <v>214</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
@@ -6412,19 +6316,19 @@
         <v>213</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H30" s="12" t="s">
         <v>214</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
@@ -6438,19 +6342,19 @@
         <v>213</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>198</v>
       </c>
       <c r="G31" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H31" s="12" t="s">
         <v>214</v>
       </c>
       <c r="I31" s="12" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
@@ -6464,7 +6368,7 @@
         <v>213</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.3">
@@ -6478,7 +6382,7 @@
         <v>214</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.3">
@@ -6492,46 +6396,46 @@
         <v>215</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="110" t="s">
-        <v>234</v>
-      </c>
-      <c r="B36" s="110"/>
-      <c r="C36" s="110"/>
-      <c r="D36" s="110"/>
-      <c r="F36" s="110" t="s">
-        <v>236</v>
-      </c>
-      <c r="G36" s="110"/>
-      <c r="H36" s="110"/>
-      <c r="I36" s="110"/>
+      <c r="A36" s="97" t="s">
+        <v>240</v>
+      </c>
+      <c r="B36" s="97"/>
+      <c r="C36" s="97"/>
+      <c r="D36" s="97"/>
+      <c r="F36" s="97" t="s">
+        <v>241</v>
+      </c>
+      <c r="G36" s="97"/>
+      <c r="H36" s="97"/>
+      <c r="I36" s="97"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="114" t="s">
+      <c r="A37" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="114" t="s">
+      <c r="B37" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="114" t="s">
+      <c r="C37" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="D37" s="114" t="s">
+      <c r="D37" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="F37" s="114" t="s">
+      <c r="F37" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="G37" s="114" t="s">
+      <c r="G37" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="H37" s="114" t="s">
+      <c r="H37" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="I37" s="114" t="s">
+      <c r="I37" s="86" t="s">
         <v>182</v>
       </c>
     </row>
@@ -6546,7 +6450,7 @@
         <v>210</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>3</v>
@@ -6558,7 +6462,7 @@
         <v>210</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.3">
@@ -6572,7 +6476,7 @@
         <v>211</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>194</v>
@@ -6584,7 +6488,7 @@
         <v>211</v>
       </c>
       <c r="I39" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.3">
@@ -6598,7 +6502,7 @@
         <v>212</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>6</v>
@@ -6610,7 +6514,7 @@
         <v>212</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.3">
@@ -6624,7 +6528,7 @@
         <v>213</v>
       </c>
       <c r="D41" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F41" s="12" t="s">
         <v>195</v>
@@ -6636,7 +6540,7 @@
         <v>213</v>
       </c>
       <c r="I41" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.3">
@@ -6650,7 +6554,7 @@
         <v>213</v>
       </c>
       <c r="D42" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F42" s="12" t="s">
         <v>196</v>
@@ -6662,7 +6566,7 @@
         <v>213</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.3">
@@ -6676,7 +6580,7 @@
         <v>213</v>
       </c>
       <c r="D43" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F43" s="12" t="s">
         <v>197</v>
@@ -6688,7 +6592,7 @@
         <v>213</v>
       </c>
       <c r="I43" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.3">
@@ -6702,7 +6606,7 @@
         <v>213</v>
       </c>
       <c r="D44" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>198</v>
@@ -6714,7 +6618,7 @@
         <v>213</v>
       </c>
       <c r="I44" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.3">
@@ -6728,7 +6632,7 @@
         <v>214</v>
       </c>
       <c r="D45" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F45" s="12" t="s">
         <v>199</v>
@@ -6740,7 +6644,7 @@
         <v>214</v>
       </c>
       <c r="I45" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.3">
@@ -6754,7 +6658,7 @@
         <v>215</v>
       </c>
       <c r="D46" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F46" s="12" t="s">
         <v>200</v>
@@ -6766,7 +6670,7 @@
         <v>215</v>
       </c>
       <c r="I46" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.3">
@@ -6774,25 +6678,25 @@
         <v>3</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.3">
@@ -6800,25 +6704,25 @@
         <v>194</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C48" s="12" t="s">
         <v>213</v>
       </c>
       <c r="D48" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F48" s="12" t="s">
         <v>194</v>
       </c>
       <c r="G48" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H48" s="12" t="s">
         <v>213</v>
       </c>
       <c r="I48" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.3">
@@ -6826,25 +6730,25 @@
         <v>197</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C49" s="12" t="s">
         <v>213</v>
       </c>
       <c r="D49" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F49" s="12" t="s">
         <v>197</v>
       </c>
       <c r="G49" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H49" s="12" t="s">
         <v>213</v>
       </c>
       <c r="I49" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.3">
@@ -6852,25 +6756,25 @@
         <v>200</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C50" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D50" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F50" s="12" t="s">
         <v>200</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H50" s="12" t="s">
         <v>214</v>
       </c>
       <c r="I50" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.3">
@@ -6878,25 +6782,25 @@
         <v>6</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H51" s="12" t="s">
         <v>214</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.3">
@@ -6904,25 +6808,25 @@
         <v>198</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F52" s="12" t="s">
         <v>198</v>
       </c>
       <c r="G52" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H52" s="12" t="s">
         <v>214</v>
       </c>
       <c r="I52" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.3">
@@ -6930,25 +6834,25 @@
         <v>71</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>213</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>71</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="H53" s="12" t="s">
         <v>213</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.3">
@@ -6956,40 +6860,40 @@
         <v>197</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>214</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F54" s="12" t="s">
         <v>197</v>
       </c>
       <c r="G54" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H54" s="12" t="s">
         <v>214</v>
       </c>
       <c r="I54" s="12" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="K17:N17"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="F12:I12"/>
+    <mergeCell ref="K12:N12"/>
+    <mergeCell ref="A1:R1"/>
+    <mergeCell ref="A11:R11"/>
     <mergeCell ref="A24:D24"/>
     <mergeCell ref="F24:I24"/>
     <mergeCell ref="A36:D36"/>
     <mergeCell ref="F36:I36"/>
     <mergeCell ref="K24:N24"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="F12:I12"/>
-    <mergeCell ref="K12:N12"/>
-    <mergeCell ref="A1:R1"/>
-    <mergeCell ref="A11:R11"/>
-    <mergeCell ref="K17:N17"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7018,16 +6922,16 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="85" t="s">
+      <c r="B2" s="90" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="89"/>
-      <c r="F2" s="85" t="s">
+      <c r="C2" s="93"/>
+      <c r="D2" s="94"/>
+      <c r="F2" s="90" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="88"/>
-      <c r="H2" s="89"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="94"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="71" t="s">
@@ -7055,19 +6959,19 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="92">
+      <c r="B4" s="100">
         <v>11</v>
       </c>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="100" t="s">
         <v>166</v>
       </c>
       <c r="D4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="92">
+      <c r="F4" s="100">
         <v>21</v>
       </c>
-      <c r="G4" s="92" t="s">
+      <c r="G4" s="100" t="s">
         <v>166</v>
       </c>
       <c r="H4" s="77" t="s">
@@ -7080,13 +6984,13 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
       <c r="D5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="93"/>
-      <c r="G5" s="93"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
       <c r="H5" s="67" t="s">
         <v>9</v>
       </c>
@@ -7097,13 +7001,13 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="94"/>
-      <c r="C6" s="94"/>
+      <c r="B6" s="102"/>
+      <c r="C6" s="102"/>
       <c r="D6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
+      <c r="F6" s="102"/>
+      <c r="G6" s="102"/>
       <c r="H6" s="78" t="s">
         <v>10</v>
       </c>
@@ -7174,10 +7078,10 @@
       <c r="D10" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="92">
+      <c r="F10" s="100">
         <v>23</v>
       </c>
-      <c r="G10" s="92" t="s">
+      <c r="G10" s="100" t="s">
         <v>169</v>
       </c>
       <c r="H10" s="77" t="s">
@@ -7193,8 +7097,8 @@
       <c r="B11" s="23"/>
       <c r="C11" s="73"/>
       <c r="D11" s="80"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
+      <c r="F11" s="102"/>
+      <c r="G11" s="102"/>
       <c r="H11" s="75" t="s">
         <v>13</v>
       </c>
@@ -7243,10 +7147,10 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="92">
+      <c r="B14" s="100">
         <v>15</v>
       </c>
-      <c r="C14" s="92" t="s">
+      <c r="C14" s="100" t="s">
         <v>169</v>
       </c>
       <c r="D14" s="79" t="s">
@@ -7262,8 +7166,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="94"/>
-      <c r="C15" s="94"/>
+      <c r="B15" s="102"/>
+      <c r="C15" s="102"/>
       <c r="D15" s="43" t="s">
         <v>13</v>
       </c>
@@ -7296,10 +7200,10 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="92">
+      <c r="B17" s="100">
         <v>16</v>
       </c>
-      <c r="C17" s="92" t="s">
+      <c r="C17" s="100" t="s">
         <v>170</v>
       </c>
       <c r="D17" s="77" t="s">
@@ -7321,8 +7225,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="94"/>
-      <c r="C18" s="94"/>
+      <c r="B18" s="102"/>
+      <c r="C18" s="102"/>
       <c r="D18" s="75" t="s">
         <v>11</v>
       </c>
@@ -7341,10 +7245,10 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="92">
+      <c r="F19" s="100">
         <v>27</v>
       </c>
-      <c r="G19" s="92" t="s">
+      <c r="G19" s="100" t="s">
         <v>170</v>
       </c>
       <c r="H19" s="77" t="s">
@@ -7362,19 +7266,19 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="94"/>
-      <c r="G20" s="94"/>
+      <c r="F20" s="102"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="75" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="90" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="88"/>
-      <c r="D21" s="89"/>
+      <c r="C21" s="93"/>
+      <c r="D21" s="94"/>
       <c r="E21" s="2"/>
       <c r="F21" s="23"/>
       <c r="G21" s="73"/>
@@ -7623,29 +7527,29 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="106" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="106"/>
-      <c r="D2" s="107"/>
-      <c r="E2" s="106" t="s">
+      <c r="C2" s="107"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="107" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="107"/>
+      <c r="F2" s="108"/>
       <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="108">
+      <c r="B3" s="109">
         <v>1</v>
       </c>
-      <c r="C3" s="109"/>
-      <c r="D3" s="102"/>
-      <c r="E3" s="101" t="s">
+      <c r="C3" s="110"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="116" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="102"/>
+      <c r="F3" s="111"/>
       <c r="H3" s="41" t="s">
         <v>157</v>
       </c>
@@ -7656,11 +7560,11 @@
         <v>2</v>
       </c>
       <c r="C4" s="104"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="95" t="s">
+      <c r="D4" s="105"/>
+      <c r="E4" s="112" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="96"/>
+      <c r="F4" s="105"/>
       <c r="H4" s="42" t="s">
         <v>158</v>
       </c>
@@ -7671,11 +7575,11 @@
         <v>3</v>
       </c>
       <c r="C5" s="104"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="95" t="s">
+      <c r="D5" s="105"/>
+      <c r="E5" s="112" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="96"/>
+      <c r="F5" s="105"/>
       <c r="H5" s="42" t="s">
         <v>159</v>
       </c>
@@ -7686,11 +7590,11 @@
         <v>4</v>
       </c>
       <c r="C6" s="104"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="95" t="s">
+      <c r="D6" s="105"/>
+      <c r="E6" s="112" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="96"/>
+      <c r="F6" s="105"/>
       <c r="H6" s="42" t="s">
         <v>160</v>
       </c>
@@ -7701,11 +7605,11 @@
         <v>5</v>
       </c>
       <c r="C7" s="104"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="95" t="s">
+      <c r="D7" s="105"/>
+      <c r="E7" s="112" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="96"/>
+      <c r="F7" s="105"/>
       <c r="H7" s="42" t="s">
         <v>161</v>
       </c>
@@ -7716,11 +7620,11 @@
         <v>6</v>
       </c>
       <c r="C8" s="104"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="95" t="s">
+      <c r="D8" s="105"/>
+      <c r="E8" s="112" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="96"/>
+      <c r="F8" s="105"/>
       <c r="H8" s="42" t="s">
         <v>162</v>
       </c>
@@ -7731,11 +7635,11 @@
         <v>7</v>
       </c>
       <c r="C9" s="104"/>
-      <c r="D9" s="96"/>
-      <c r="E9" s="95" t="s">
+      <c r="D9" s="105"/>
+      <c r="E9" s="112" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="96"/>
+      <c r="F9" s="105"/>
       <c r="H9" s="42" t="s">
         <v>163</v>
       </c>
@@ -7746,9 +7650,9 @@
         <v>8</v>
       </c>
       <c r="C10" s="104"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="95"/>
-      <c r="F10" s="96"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="112"/>
+      <c r="F10" s="105"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
@@ -7757,9 +7661,9 @@
         <v>9</v>
       </c>
       <c r="C11" s="104"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="95"/>
-      <c r="F11" s="96"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="112"/>
+      <c r="F11" s="105"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="103">
@@ -7767,9 +7671,9 @@
         <v>10</v>
       </c>
       <c r="C12" s="104"/>
-      <c r="D12" s="96"/>
-      <c r="E12" s="95"/>
-      <c r="F12" s="96"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="105"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="103">
@@ -7777,9 +7681,9 @@
         <v>11</v>
       </c>
       <c r="C13" s="104"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="95"/>
-      <c r="F13" s="96"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="105"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="103">
@@ -7787,9 +7691,9 @@
         <v>12</v>
       </c>
       <c r="C14" s="104"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="95"/>
-      <c r="F14" s="96"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="105"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="103">
@@ -7797,9 +7701,9 @@
         <v>13</v>
       </c>
       <c r="C15" s="104"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="96"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="105"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="103">
@@ -7807,9 +7711,9 @@
         <v>14</v>
       </c>
       <c r="C16" s="104"/>
-      <c r="D16" s="96"/>
-      <c r="E16" s="95"/>
-      <c r="F16" s="96"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="105"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="103">
@@ -7817,9 +7721,9 @@
         <v>15</v>
       </c>
       <c r="C17" s="104"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="95"/>
-      <c r="F17" s="96"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="105"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="103">
@@ -7827,9 +7731,9 @@
         <v>16</v>
       </c>
       <c r="C18" s="104"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="95"/>
-      <c r="F18" s="96"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="105"/>
       <c r="H18" t="s">
         <v>139</v>
       </c>
@@ -7840,9 +7744,9 @@
         <v>17</v>
       </c>
       <c r="C19" s="104"/>
-      <c r="D19" s="96"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="96"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="112"/>
+      <c r="F19" s="105"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="103">
@@ -7850,9 +7754,9 @@
         <v>18</v>
       </c>
       <c r="C20" s="104"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="96"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="105"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="103">
@@ -7860,9 +7764,9 @@
         <v>19</v>
       </c>
       <c r="C21" s="104"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="96"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="105"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="103">
@@ -7870,9 +7774,9 @@
         <v>20</v>
       </c>
       <c r="C22" s="104"/>
-      <c r="D22" s="96"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="96"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="112"/>
+      <c r="F22" s="105"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="103">
@@ -7880,9 +7784,9 @@
         <v>21</v>
       </c>
       <c r="C23" s="104"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="96"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="112"/>
+      <c r="F23" s="105"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="103">
@@ -7890,9 +7794,9 @@
         <v>22</v>
       </c>
       <c r="C24" s="104"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="95"/>
-      <c r="F24" s="96"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="105"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="103">
@@ -7900,43 +7804,35 @@
         <v>23</v>
       </c>
       <c r="C25" s="104"/>
-      <c r="D25" s="96"/>
-      <c r="E25" s="95"/>
-      <c r="F25" s="96"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="105"/>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="99">
+      <c r="B26" s="113">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="100"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="98"/>
+      <c r="C26" s="114"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -7953,19 +7849,27 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRII\PBL\PBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE6A610-E6CA-4422-B20F-5A331F1F51EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BAC33A-1C09-47F2-B4C5-E2792E4C6C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -1429,7 +1429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1696,6 +1696,9 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1735,15 +1738,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1757,27 +1781,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2128,24 +2131,24 @@
   <sheetData>
     <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>63</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="92"/>
-      <c r="J2" s="90" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
+      <c r="J2" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="91"/>
-      <c r="N2" s="91"/>
-      <c r="O2" s="91"/>
-      <c r="P2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="93"/>
     </row>
     <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
@@ -2441,31 +2444,31 @@
       <c r="Y14" s="32"/>
     </row>
     <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="90" t="s">
+      <c r="B15" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="91"/>
-      <c r="H15" s="92"/>
-      <c r="J15" s="90" t="s">
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="93"/>
+      <c r="J15" s="91" t="s">
         <v>31</v>
       </c>
-      <c r="K15" s="93"/>
-      <c r="L15" s="93"/>
-      <c r="M15" s="93"/>
-      <c r="N15" s="93"/>
-      <c r="O15" s="93"/>
-      <c r="P15" s="94"/>
-      <c r="R15" s="95"/>
-      <c r="S15" s="95"/>
-      <c r="T15" s="95"/>
-      <c r="U15" s="95"/>
-      <c r="V15" s="95"/>
-      <c r="W15" s="95"/>
-      <c r="X15" s="95"/>
+      <c r="K15" s="94"/>
+      <c r="L15" s="94"/>
+      <c r="M15" s="94"/>
+      <c r="N15" s="94"/>
+      <c r="O15" s="94"/>
+      <c r="P15" s="95"/>
+      <c r="R15" s="96"/>
+      <c r="S15" s="96"/>
+      <c r="T15" s="96"/>
+      <c r="U15" s="96"/>
+      <c r="V15" s="96"/>
+      <c r="W15" s="96"/>
+      <c r="X15" s="96"/>
       <c r="Y15" s="32"/>
     </row>
     <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -4651,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4674,21 +4677,21 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="F2" s="90" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="F2" s="91" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
-      <c r="J2" s="90" t="s">
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
+      <c r="J2" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="93"/>
-      <c r="L2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="95"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
@@ -4875,10 +4878,10 @@
       <c r="H9" s="33" t="s">
         <v>118</v>
       </c>
-      <c r="J9" s="90" t="s">
+      <c r="J9" s="91" t="s">
         <v>126</v>
       </c>
-      <c r="K9" s="94"/>
+      <c r="K9" s="95"/>
       <c r="L9" s="49"/>
       <c r="M9" s="48"/>
     </row>
@@ -5009,18 +5012,18 @@
     </row>
     <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="90" t="s">
+      <c r="B20" s="91" t="s">
         <v>85</v>
       </c>
-      <c r="C20" s="93"/>
-      <c r="D20" s="93"/>
-      <c r="E20" s="93"/>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
-      <c r="I20" s="93"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="94"/>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="94"/>
+      <c r="H20" s="94"/>
+      <c r="I20" s="94"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
@@ -5377,17 +5380,17 @@
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
-      <c r="B33" s="96"/>
-      <c r="C33" s="96"/>
-      <c r="D33" s="96"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="97"/>
+      <c r="D33" s="97"/>
       <c r="E33" s="17"/>
-      <c r="F33" s="96"/>
-      <c r="G33" s="96"/>
-      <c r="H33" s="96"/>
+      <c r="F33" s="97"/>
+      <c r="G33" s="97"/>
+      <c r="H33" s="97"/>
       <c r="I33" s="17"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="96"/>
-      <c r="L33" s="96"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="97"/>
+      <c r="L33" s="97"/>
       <c r="M33" s="17"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.3">
@@ -5662,7 +5665,7 @@
   <dimension ref="A1:V54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5682,26 +5685,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="99" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
-      <c r="H1" s="98"/>
-      <c r="I1" s="98"/>
-      <c r="J1" s="98"/>
-      <c r="K1" s="98"/>
-      <c r="L1" s="98"/>
-      <c r="M1" s="98"/>
-      <c r="N1" s="98"/>
-      <c r="O1" s="98"/>
-      <c r="P1" s="98"/>
-      <c r="Q1" s="98"/>
-      <c r="R1" s="98"/>
+      <c r="B1" s="99"/>
+      <c r="C1" s="99"/>
+      <c r="D1" s="99"/>
+      <c r="E1" s="99"/>
+      <c r="F1" s="99"/>
+      <c r="G1" s="99"/>
+      <c r="H1" s="99"/>
+      <c r="I1" s="99"/>
+      <c r="J1" s="99"/>
+      <c r="K1" s="99"/>
+      <c r="L1" s="99"/>
+      <c r="M1" s="99"/>
+      <c r="N1" s="99"/>
+      <c r="O1" s="99"/>
+      <c r="P1" s="99"/>
+      <c r="Q1" s="99"/>
+      <c r="R1" s="99"/>
       <c r="S1" s="87"/>
       <c r="T1" s="87"/>
       <c r="U1" s="87"/>
@@ -5764,7 +5767,7 @@
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="90" t="s">
         <v>181</v>
       </c>
       <c r="B9" s="12" t="s">
@@ -5772,50 +5775,50 @@
       </c>
     </row>
     <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="99" t="s">
+      <c r="A11" s="100" t="s">
         <v>191</v>
       </c>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="99"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="99"/>
-      <c r="K11" s="99"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="99"/>
-      <c r="N11" s="99"/>
-      <c r="O11" s="99"/>
-      <c r="P11" s="99"/>
-      <c r="Q11" s="99"/>
-      <c r="R11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="100"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="100"/>
+      <c r="M11" s="100"/>
+      <c r="N11" s="100"/>
+      <c r="O11" s="100"/>
+      <c r="P11" s="100"/>
+      <c r="Q11" s="100"/>
+      <c r="R11" s="100"/>
       <c r="S11" s="88"/>
       <c r="T11" s="88"/>
       <c r="U11" s="88"/>
       <c r="V11" s="88"/>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="98" t="s">
         <v>234</v>
       </c>
-      <c r="B12" s="97"/>
-      <c r="C12" s="97"/>
-      <c r="D12" s="97"/>
-      <c r="F12" s="97" t="s">
+      <c r="B12" s="98"/>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="F12" s="98" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
-      <c r="K12" s="97" t="s">
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="K12" s="98" t="s">
         <v>235</v>
       </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
@@ -5982,12 +5985,12 @@
       <c r="I17" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="K17" s="97" t="s">
+      <c r="K17" s="98" t="s">
         <v>237</v>
       </c>
-      <c r="L17" s="97"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="97"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="98"/>
+      <c r="N17" s="98"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
@@ -6132,24 +6135,24 @@
       <c r="I22" s="73"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="97" t="s">
+      <c r="A24" s="98" t="s">
         <v>238</v>
       </c>
-      <c r="B24" s="97"/>
-      <c r="C24" s="97"/>
-      <c r="D24" s="97"/>
-      <c r="F24" s="97" t="s">
+      <c r="B24" s="98"/>
+      <c r="C24" s="98"/>
+      <c r="D24" s="98"/>
+      <c r="F24" s="98" t="s">
         <v>239</v>
       </c>
-      <c r="G24" s="97"/>
-      <c r="H24" s="97"/>
-      <c r="I24" s="97"/>
-      <c r="K24" s="97" t="s">
+      <c r="G24" s="98"/>
+      <c r="H24" s="98"/>
+      <c r="I24" s="98"/>
+      <c r="K24" s="98" t="s">
         <v>242</v>
       </c>
-      <c r="L24" s="97"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="97"/>
+      <c r="L24" s="98"/>
+      <c r="M24" s="98"/>
+      <c r="N24" s="98"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="86" t="s">
@@ -6400,18 +6403,18 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="98" t="s">
         <v>240</v>
       </c>
-      <c r="B36" s="97"/>
-      <c r="C36" s="97"/>
-      <c r="D36" s="97"/>
-      <c r="F36" s="97" t="s">
+      <c r="B36" s="98"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
+      <c r="F36" s="98" t="s">
         <v>241</v>
       </c>
-      <c r="G36" s="97"/>
-      <c r="H36" s="97"/>
-      <c r="I36" s="97"/>
+      <c r="G36" s="98"/>
+      <c r="H36" s="98"/>
+      <c r="I36" s="98"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="86" t="s">
@@ -6883,17 +6886,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K24:N24"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K24:N24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6922,16 +6925,16 @@
   <sheetData>
     <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="93"/>
-      <c r="D2" s="94"/>
-      <c r="F2" s="90" t="s">
+      <c r="C2" s="94"/>
+      <c r="D2" s="95"/>
+      <c r="F2" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="G2" s="93"/>
-      <c r="H2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="95"/>
     </row>
     <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="71" t="s">
@@ -6959,19 +6962,19 @@
       <c r="M3" s="2"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="100">
+      <c r="B4" s="101">
         <v>11</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="101" t="s">
         <v>166</v>
       </c>
       <c r="D4" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="100">
+      <c r="F4" s="101">
         <v>21</v>
       </c>
-      <c r="G4" s="100" t="s">
+      <c r="G4" s="101" t="s">
         <v>166</v>
       </c>
       <c r="H4" s="77" t="s">
@@ -6984,13 +6987,13 @@
       <c r="M4" s="2"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="102"/>
       <c r="D5" s="67" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="F5" s="102"/>
+      <c r="G5" s="102"/>
       <c r="H5" s="67" t="s">
         <v>9</v>
       </c>
@@ -7001,13 +7004,13 @@
       <c r="M5" s="2"/>
     </row>
     <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="102"/>
-      <c r="C6" s="102"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
       <c r="D6" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
       <c r="H6" s="78" t="s">
         <v>10</v>
       </c>
@@ -7078,10 +7081,10 @@
       <c r="D10" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="F10" s="100">
+      <c r="F10" s="101">
         <v>23</v>
       </c>
-      <c r="G10" s="100" t="s">
+      <c r="G10" s="101" t="s">
         <v>169</v>
       </c>
       <c r="H10" s="77" t="s">
@@ -7097,8 +7100,8 @@
       <c r="B11" s="23"/>
       <c r="C11" s="73"/>
       <c r="D11" s="80"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="103"/>
       <c r="H11" s="75" t="s">
         <v>13</v>
       </c>
@@ -7147,10 +7150,10 @@
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="100">
+      <c r="B14" s="101">
         <v>15</v>
       </c>
-      <c r="C14" s="100" t="s">
+      <c r="C14" s="101" t="s">
         <v>169</v>
       </c>
       <c r="D14" s="79" t="s">
@@ -7166,8 +7169,8 @@
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="102"/>
-      <c r="C15" s="102"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
       <c r="D15" s="43" t="s">
         <v>13</v>
       </c>
@@ -7200,10 +7203,10 @@
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="100">
+      <c r="B17" s="101">
         <v>16</v>
       </c>
-      <c r="C17" s="100" t="s">
+      <c r="C17" s="101" t="s">
         <v>170</v>
       </c>
       <c r="D17" s="77" t="s">
@@ -7225,8 +7228,8 @@
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="102"/>
-      <c r="C18" s="102"/>
+      <c r="B18" s="103"/>
+      <c r="C18" s="103"/>
       <c r="D18" s="75" t="s">
         <v>11</v>
       </c>
@@ -7245,10 +7248,10 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="100">
+      <c r="F19" s="101">
         <v>27</v>
       </c>
-      <c r="G19" s="100" t="s">
+      <c r="G19" s="101" t="s">
         <v>170</v>
       </c>
       <c r="H19" s="77" t="s">
@@ -7266,19 +7269,19 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="103"/>
       <c r="H20" s="75" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
-      <c r="B21" s="90" t="s">
+      <c r="B21" s="91" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="93"/>
-      <c r="D21" s="94"/>
+      <c r="C21" s="94"/>
+      <c r="D21" s="95"/>
       <c r="E21" s="2"/>
       <c r="F21" s="23"/>
       <c r="G21" s="73"/>
@@ -7527,26 +7530,26 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="107"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="107" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="108"/>
+      <c r="F2" s="116"/>
       <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="109">
+      <c r="B3" s="117">
         <v>1</v>
       </c>
-      <c r="C3" s="110"/>
+      <c r="C3" s="118"/>
       <c r="D3" s="111"/>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="110" t="s">
         <v>149</v>
       </c>
       <c r="F3" s="111"/>
@@ -7555,13 +7558,13 @@
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="103">
+      <c r="B4" s="112">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="104"/>
+      <c r="C4" s="113"/>
       <c r="D4" s="105"/>
-      <c r="E4" s="112" t="s">
+      <c r="E4" s="104" t="s">
         <v>150</v>
       </c>
       <c r="F4" s="105"/>
@@ -7570,13 +7573,13 @@
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="103">
+      <c r="B5" s="112">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="104"/>
+      <c r="C5" s="113"/>
       <c r="D5" s="105"/>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="104" t="s">
         <v>151</v>
       </c>
       <c r="F5" s="105"/>
@@ -7585,13 +7588,13 @@
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="103">
+      <c r="B6" s="112">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="104"/>
+      <c r="C6" s="113"/>
       <c r="D6" s="105"/>
-      <c r="E6" s="112" t="s">
+      <c r="E6" s="104" t="s">
         <v>152</v>
       </c>
       <c r="F6" s="105"/>
@@ -7600,13 +7603,13 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="103">
+      <c r="B7" s="112">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="104"/>
+      <c r="C7" s="113"/>
       <c r="D7" s="105"/>
-      <c r="E7" s="112" t="s">
+      <c r="E7" s="104" t="s">
         <v>153</v>
       </c>
       <c r="F7" s="105"/>
@@ -7615,13 +7618,13 @@
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="103">
+      <c r="B8" s="112">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="104"/>
+      <c r="C8" s="113"/>
       <c r="D8" s="105"/>
-      <c r="E8" s="112" t="s">
+      <c r="E8" s="104" t="s">
         <v>164</v>
       </c>
       <c r="F8" s="105"/>
@@ -7630,13 +7633,13 @@
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="103">
+      <c r="B9" s="112">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="113"/>
       <c r="D9" s="105"/>
-      <c r="E9" s="112" t="s">
+      <c r="E9" s="104" t="s">
         <v>165</v>
       </c>
       <c r="F9" s="105"/>
@@ -7645,194 +7648,202 @@
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="103">
+      <c r="B10" s="112">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="104"/>
+      <c r="C10" s="113"/>
       <c r="D10" s="105"/>
-      <c r="E10" s="112"/>
+      <c r="E10" s="104"/>
       <c r="F10" s="105"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="103">
+      <c r="B11" s="112">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="104"/>
+      <c r="C11" s="113"/>
       <c r="D11" s="105"/>
-      <c r="E11" s="112"/>
+      <c r="E11" s="104"/>
       <c r="F11" s="105"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="103">
+      <c r="B12" s="112">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="104"/>
+      <c r="C12" s="113"/>
       <c r="D12" s="105"/>
-      <c r="E12" s="112"/>
+      <c r="E12" s="104"/>
       <c r="F12" s="105"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="103">
+      <c r="B13" s="112">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="104"/>
+      <c r="C13" s="113"/>
       <c r="D13" s="105"/>
-      <c r="E13" s="112"/>
+      <c r="E13" s="104"/>
       <c r="F13" s="105"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="103">
+      <c r="B14" s="112">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="104"/>
+      <c r="C14" s="113"/>
       <c r="D14" s="105"/>
-      <c r="E14" s="112"/>
+      <c r="E14" s="104"/>
       <c r="F14" s="105"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="103">
+      <c r="B15" s="112">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="104"/>
+      <c r="C15" s="113"/>
       <c r="D15" s="105"/>
-      <c r="E15" s="112"/>
+      <c r="E15" s="104"/>
       <c r="F15" s="105"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="103">
+      <c r="B16" s="112">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="104"/>
+      <c r="C16" s="113"/>
       <c r="D16" s="105"/>
-      <c r="E16" s="112"/>
+      <c r="E16" s="104"/>
       <c r="F16" s="105"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="103">
+      <c r="B17" s="112">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="104"/>
+      <c r="C17" s="113"/>
       <c r="D17" s="105"/>
-      <c r="E17" s="112"/>
+      <c r="E17" s="104"/>
       <c r="F17" s="105"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="103">
+      <c r="B18" s="112">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="104"/>
+      <c r="C18" s="113"/>
       <c r="D18" s="105"/>
-      <c r="E18" s="112"/>
+      <c r="E18" s="104"/>
       <c r="F18" s="105"/>
       <c r="H18" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="103">
+      <c r="B19" s="112">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="104"/>
+      <c r="C19" s="113"/>
       <c r="D19" s="105"/>
-      <c r="E19" s="112"/>
+      <c r="E19" s="104"/>
       <c r="F19" s="105"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="103">
+      <c r="B20" s="112">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="104"/>
+      <c r="C20" s="113"/>
       <c r="D20" s="105"/>
-      <c r="E20" s="112"/>
+      <c r="E20" s="104"/>
       <c r="F20" s="105"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="103">
+      <c r="B21" s="112">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="104"/>
+      <c r="C21" s="113"/>
       <c r="D21" s="105"/>
-      <c r="E21" s="112"/>
+      <c r="E21" s="104"/>
       <c r="F21" s="105"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="103">
+      <c r="B22" s="112">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="104"/>
+      <c r="C22" s="113"/>
       <c r="D22" s="105"/>
-      <c r="E22" s="112"/>
+      <c r="E22" s="104"/>
       <c r="F22" s="105"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="103">
+      <c r="B23" s="112">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="104"/>
+      <c r="C23" s="113"/>
       <c r="D23" s="105"/>
-      <c r="E23" s="112"/>
+      <c r="E23" s="104"/>
       <c r="F23" s="105"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="103">
+      <c r="B24" s="112">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="104"/>
+      <c r="C24" s="113"/>
       <c r="D24" s="105"/>
-      <c r="E24" s="112"/>
+      <c r="E24" s="104"/>
       <c r="F24" s="105"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="103">
+      <c r="B25" s="112">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="104"/>
+      <c r="C25" s="113"/>
       <c r="D25" s="105"/>
-      <c r="E25" s="112"/>
+      <c r="E25" s="104"/>
       <c r="F25" s="105"/>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="113">
+      <c r="B26" s="108">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="114"/>
-      <c r="D26" s="115"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="115"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -7849,27 +7860,19 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRII\PBL\PBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BAC33A-1C09-47F2-B4C5-E2792E4C6C1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45665767-C467-48F0-B59C-A0A69C5036D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="8880" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -1738,49 +1738,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4654,7 +4654,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -6886,17 +6886,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K24:N24"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A11:R11"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K24:N24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7517,8 +7517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD07F0D-FAEC-4973-B07B-39B1A9A12CE8}">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7530,320 +7530,312 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="115" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="116"/>
+      <c r="F2" s="109"/>
       <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="117">
+      <c r="B3" s="110">
         <v>1</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="110" t="s">
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="111"/>
+      <c r="F3" s="112"/>
       <c r="H3" s="41" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="112">
+      <c r="B4" s="104">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="104" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="105"/>
+      <c r="F4" s="106"/>
       <c r="H4" s="42" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="112">
+      <c r="B5" s="104">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="104" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="H5" s="42" t="s">
-        <v>159</v>
-      </c>
+      <c r="F5" s="106"/>
+      <c r="H5" s="42"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="112">
+      <c r="B6" s="104">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="104" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="105"/>
+      <c r="F6" s="106"/>
       <c r="H6" s="42" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="112">
+      <c r="B7" s="104">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="104" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="105"/>
+      <c r="F7" s="106"/>
       <c r="H7" s="42" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="112">
+      <c r="B8" s="104">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="105"/>
+      <c r="F8" s="106"/>
       <c r="H8" s="42" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="112">
+      <c r="B9" s="104">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="104" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="105"/>
+      <c r="F9" s="106"/>
       <c r="H9" s="42" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="112">
+      <c r="B10" s="104">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="105"/>
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="106"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="112">
+      <c r="B11" s="104">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="106"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="112">
+      <c r="B12" s="104">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="106"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="112">
+      <c r="B13" s="104">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="106"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="112">
+      <c r="B14" s="104">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="106"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="112">
+      <c r="B15" s="104">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="106"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="112">
+      <c r="B16" s="104">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="106"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="112">
+      <c r="B17" s="104">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="106"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="112">
+      <c r="B18" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="106"/>
       <c r="H18" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="112">
+      <c r="B19" s="104">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="106"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="112">
+      <c r="B20" s="104">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="106"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="112">
+      <c r="B21" s="104">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="106"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="112">
+      <c r="B22" s="104">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="106"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="112">
+      <c r="B23" s="104">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="106"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="112">
+      <c r="B24" s="104">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="106"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="112">
+      <c r="B25" s="104">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="106"/>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="108">
+      <c r="B26" s="114">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="107"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -7860,19 +7852,27 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRII\PBL\PBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45665767-C467-48F0-B59C-A0A69C5036D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1030B-6CEE-49C5-AE60-078A0C52C97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-26385" yWindow="2400" windowWidth="17250" windowHeight="8865" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -1738,15 +1738,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1760,27 +1781,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4654,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6886,17 +6886,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K24:N24"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K24:N24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7517,8 +7517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD07F0D-FAEC-4973-B07B-39B1A9A12CE8}">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7530,312 +7530,320 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="108" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="116"/>
       <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="110">
+      <c r="B3" s="117">
         <v>1</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="117" t="s">
+      <c r="C3" s="118"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="112"/>
+      <c r="F3" s="111"/>
       <c r="H3" s="41" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="104">
+      <c r="B4" s="112">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="113" t="s">
+      <c r="C4" s="113"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="106"/>
+      <c r="F4" s="105"/>
       <c r="H4" s="42" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="104">
+      <c r="B5" s="112">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="113" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="105"/>
       <c r="H5" s="42"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="104">
+      <c r="B6" s="112">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="113" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="106"/>
+      <c r="F6" s="105"/>
       <c r="H6" s="42" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="104">
+      <c r="B7" s="112">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="113" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="106"/>
+      <c r="F7" s="105"/>
       <c r="H7" s="42" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="104">
+      <c r="B8" s="112">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="113" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="106"/>
+      <c r="F8" s="105"/>
       <c r="H8" s="42" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="104">
+      <c r="B9" s="112">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="113" t="s">
+      <c r="C9" s="113"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="106"/>
+      <c r="F9" s="105"/>
       <c r="H9" s="42" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="104">
+      <c r="B10" s="112">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="113" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="105"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="104">
+      <c r="B11" s="112">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="106"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="104">
+      <c r="B12" s="112">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="106"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="104">
+      <c r="B13" s="112">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="106"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="104">
+      <c r="B14" s="112">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="106"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="104">
+      <c r="B15" s="112">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="106"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="104">
+      <c r="B16" s="112">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="106"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="105"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="104">
+      <c r="B17" s="112">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="106"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="104">
+      <c r="B18" s="112">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="106"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105"/>
       <c r="H18" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="104">
+      <c r="B19" s="112">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="106"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="104">
+      <c r="B20" s="112">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="106"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="104">
+      <c r="B21" s="112">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="106"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="104">
+      <c r="B22" s="112">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="106"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="104">
+      <c r="B23" s="112">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="106"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="105"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="104">
+      <c r="B24" s="112">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="106"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="104">
+      <c r="B25" s="112">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="106"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105"/>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="114">
+      <c r="B26" s="108">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="116"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -7852,27 +7860,19 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRII\PBL\PBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1030B-6CEE-49C5-AE60-078A0C52C97D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEB6FE5-1E58-4F11-861B-D72A9D2C8191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26385" yWindow="2400" windowWidth="17250" windowHeight="8865" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -1738,49 +1738,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4654,8 +4654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6886,17 +6886,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K24:N24"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A11:R11"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K24:N24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7530,320 +7530,312 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="114" t="s">
+      <c r="B2" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="115" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="116"/>
+      <c r="F2" s="109"/>
       <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="117">
+      <c r="B3" s="110">
         <v>1</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="110" t="s">
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="111"/>
+      <c r="F3" s="112"/>
       <c r="H3" s="41" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="112">
+      <c r="B4" s="104">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="104" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="105"/>
+      <c r="F4" s="106"/>
       <c r="H4" s="42" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="112">
+      <c r="B5" s="104">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="104" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="105"/>
+      <c r="F5" s="106"/>
       <c r="H5" s="42"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="112">
+      <c r="B6" s="104">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="104" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="105"/>
+      <c r="F6" s="106"/>
       <c r="H6" s="42" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="112">
+      <c r="B7" s="104">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="104" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="105"/>
+      <c r="F7" s="106"/>
       <c r="H7" s="42" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="112">
+      <c r="B8" s="104">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="105"/>
+      <c r="F8" s="106"/>
       <c r="H8" s="42" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="112">
+      <c r="B9" s="104">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="104" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="105"/>
+      <c r="F9" s="106"/>
       <c r="H9" s="42" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="112">
+      <c r="B10" s="104">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="104" t="s">
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="105"/>
+      <c r="F10" s="106"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="112">
+      <c r="B11" s="104">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="106"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="112">
+      <c r="B12" s="104">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="106"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="112">
+      <c r="B13" s="104">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="106"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="112">
+      <c r="B14" s="104">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="106"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="112">
+      <c r="B15" s="104">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="106"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="112">
+      <c r="B16" s="104">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="105"/>
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="106"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="112">
+      <c r="B17" s="104">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="106"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="112">
+      <c r="B18" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="106"/>
       <c r="H18" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="112">
+      <c r="B19" s="104">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105"/>
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="106"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="112">
+      <c r="B20" s="104">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="105"/>
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="106"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="112">
+      <c r="B21" s="104">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="105"/>
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="106"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="112">
+      <c r="B22" s="104">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105"/>
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="106"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="112">
+      <c r="B23" s="104">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="105"/>
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="106"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="112">
+      <c r="B24" s="104">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105"/>
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="106"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="112">
+      <c r="B25" s="104">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105"/>
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="106"/>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="108">
+      <c r="B26" s="114">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="107"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -7860,19 +7852,27 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRII\PBL\PBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEB6FE5-1E58-4F11-861B-D72A9D2C8191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501D4BF4-555C-4A3B-993F-0CFD31D64468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -1738,15 +1738,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1760,27 +1781,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6886,17 +6886,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K24:N24"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K24:N24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7530,312 +7530,320 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="108" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="116"/>
       <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="110">
+      <c r="B3" s="117">
         <v>1</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="117" t="s">
+      <c r="C3" s="118"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="112"/>
+      <c r="F3" s="111"/>
       <c r="H3" s="41" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="104">
+      <c r="B4" s="112">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="113" t="s">
+      <c r="C4" s="113"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="106"/>
+      <c r="F4" s="105"/>
       <c r="H4" s="42" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="104">
+      <c r="B5" s="112">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="113" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="105"/>
       <c r="H5" s="42"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="104">
+      <c r="B6" s="112">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="113" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="106"/>
+      <c r="F6" s="105"/>
       <c r="H6" s="42" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="104">
+      <c r="B7" s="112">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="113" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="106"/>
+      <c r="F7" s="105"/>
       <c r="H7" s="42" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="104">
+      <c r="B8" s="112">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="113" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="106"/>
+      <c r="F8" s="105"/>
       <c r="H8" s="42" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="104">
+      <c r="B9" s="112">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="113" t="s">
+      <c r="C9" s="113"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="106"/>
+      <c r="F9" s="105"/>
       <c r="H9" s="42" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="104">
+      <c r="B10" s="112">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="113" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="106"/>
+      <c r="F10" s="105"/>
       <c r="H10" s="35"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="104">
+      <c r="B11" s="112">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="113"/>
-      <c r="F11" s="106"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="104"/>
+      <c r="F11" s="105"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="104">
+      <c r="B12" s="112">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="113"/>
-      <c r="F12" s="106"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="104"/>
+      <c r="F12" s="105"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="104">
+      <c r="B13" s="112">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="106"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="104"/>
+      <c r="F13" s="105"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="104">
+      <c r="B14" s="112">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="106"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="104">
+      <c r="B15" s="112">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="106"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="104">
+      <c r="B16" s="112">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="106"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="105"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="104">
+      <c r="B17" s="112">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="106"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="104">
+      <c r="B18" s="112">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="106"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105"/>
       <c r="H18" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="104">
+      <c r="B19" s="112">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="106"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="104">
+      <c r="B20" s="112">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="106"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="104">
+      <c r="B21" s="112">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="106"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="104">
+      <c r="B22" s="112">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="106"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="104">
+      <c r="B23" s="112">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="106"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="105"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="104">
+      <c r="B24" s="112">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="106"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="104">
+      <c r="B25" s="112">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="106"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105"/>
     </row>
     <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="114">
+      <c r="B26" s="108">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="116"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -7852,27 +7860,19 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRII\PBL\PBL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{501D4BF4-555C-4A3B-993F-0CFD31D64468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{501D4BF4-555C-4A3B-993F-0CFD31D64468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{780C2536-72F6-4217-82B2-979A89D8F979}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -1429,7 +1429,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1738,50 +1738,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2104,33 +2110,33 @@
       <selection activeCell="J2" sqref="J2:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="21"/>
+    <col min="1" max="1" width="8.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="21"/>
     <col min="6" max="6" width="11" style="21" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="21"/>
-    <col min="10" max="10" width="12.33203125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="21"/>
+    <col min="10" max="10" width="12.28515625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="21" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="21"/>
-    <col min="14" max="14" width="11.44140625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="21" customWidth="1"/>
-    <col min="17" max="18" width="9.109375" style="21"/>
-    <col min="19" max="19" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.109375" style="21"/>
-    <col min="23" max="23" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="21"/>
+    <col min="13" max="13" width="9.140625" style="21"/>
+    <col min="14" max="14" width="11.42578125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="21" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="21"/>
+    <col min="19" max="19" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.140625" style="21"/>
+    <col min="23" max="23" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="91" t="s">
         <v>63</v>
       </c>
@@ -2150,7 +2156,7 @@
       <c r="O2" s="92"/>
       <c r="P2" s="93"/>
     </row>
-    <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2190,7 +2196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
@@ -2270,7 +2276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
@@ -2310,7 +2316,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
@@ -2350,7 +2356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
@@ -2372,7 +2378,7 @@
       </c>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
@@ -2393,7 +2399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
@@ -2414,8 +2420,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -2424,7 +2430,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
@@ -2433,7 +2439,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
       <c r="T14" s="32"/>
@@ -2443,7 +2449,7 @@
       <c r="X14" s="32"/>
       <c r="Y14" s="32"/>
     </row>
-    <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="91" t="s">
         <v>64</v>
       </c>
@@ -2471,7 +2477,7 @@
       <c r="X15" s="96"/>
       <c r="Y15" s="32"/>
     </row>
-    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2519,7 +2525,7 @@
       <c r="X16" s="19"/>
       <c r="Y16" s="32"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>1</v>
       </c>
@@ -2570,7 +2576,7 @@
       <c r="X17" s="32"/>
       <c r="Y17" s="32"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <f>A17+1</f>
         <v>2</v>
@@ -2622,7 +2628,7 @@
       <c r="X18" s="32"/>
       <c r="Y18" s="32"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <f t="shared" ref="A19:A58" si="0">A18+1</f>
         <v>3</v>
@@ -2674,7 +2680,7 @@
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2726,7 +2732,7 @@
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2778,7 +2784,7 @@
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2830,7 +2836,7 @@
       <c r="X22" s="32"/>
       <c r="Y22" s="32"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2882,7 +2888,7 @@
       <c r="X23" s="32"/>
       <c r="Y23" s="32"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2934,7 +2940,7 @@
       <c r="X24" s="32"/>
       <c r="Y24" s="32"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2986,7 +2992,7 @@
       <c r="X25" s="32"/>
       <c r="Y25" s="32"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3038,7 +3044,7 @@
       <c r="X26" s="32"/>
       <c r="Y26" s="32"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3090,7 +3096,7 @@
       <c r="X27" s="32"/>
       <c r="Y27" s="32"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3142,7 +3148,7 @@
       <c r="X28" s="32"/>
       <c r="Y28" s="32"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3194,7 +3200,7 @@
       <c r="X29" s="32"/>
       <c r="Y29" s="32"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3234,7 +3240,7 @@
       <c r="X30" s="32"/>
       <c r="Y30" s="32"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3262,7 +3268,7 @@
       <c r="X31" s="32"/>
       <c r="Y31" s="32"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3290,7 +3296,7 @@
       <c r="X32" s="32"/>
       <c r="Y32" s="32"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3318,7 +3324,7 @@
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3346,7 +3352,7 @@
       <c r="X34" s="32"/>
       <c r="Y34" s="32"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3374,7 +3380,7 @@
       <c r="X35" s="32"/>
       <c r="Y35" s="32"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3402,7 +3408,7 @@
       <c r="X36" s="32"/>
       <c r="Y36" s="32"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3430,7 +3436,7 @@
       <c r="X37" s="32"/>
       <c r="Y37" s="32"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3458,7 +3464,7 @@
       <c r="X38" s="32"/>
       <c r="Y38" s="32"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3486,7 +3492,7 @@
       <c r="X39" s="32"/>
       <c r="Y39" s="32"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3514,7 +3520,7 @@
       <c r="X40" s="32"/>
       <c r="Y40" s="32"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3542,7 +3548,7 @@
       <c r="X41" s="32"/>
       <c r="Y41" s="32"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3570,7 +3576,7 @@
       <c r="X42" s="32"/>
       <c r="Y42" s="32"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3598,7 +3604,7 @@
       <c r="X43" s="32"/>
       <c r="Y43" s="32"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3619,7 +3625,7 @@
       <c r="X44" s="32"/>
       <c r="Y44" s="32"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3640,7 +3646,7 @@
       <c r="X45" s="32"/>
       <c r="Y45" s="32"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3661,7 +3667,7 @@
       <c r="X46" s="32"/>
       <c r="Y46" s="32"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3682,7 +3688,7 @@
       <c r="X47" s="32"/>
       <c r="Y47" s="32"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3703,7 +3709,7 @@
       <c r="X48" s="32"/>
       <c r="Y48" s="32"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3724,7 +3730,7 @@
       <c r="X49" s="32"/>
       <c r="Y49" s="32"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3745,7 +3751,7 @@
       <c r="X50" s="32"/>
       <c r="Y50" s="32"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3766,7 +3772,7 @@
       <c r="X51" s="32"/>
       <c r="Y51" s="32"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3787,7 +3793,7 @@
       <c r="X52" s="32"/>
       <c r="Y52" s="32"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3808,7 +3814,7 @@
       <c r="X53" s="32"/>
       <c r="Y53" s="32"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3829,7 +3835,7 @@
       <c r="X54" s="32"/>
       <c r="Y54" s="32"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3851,7 +3857,7 @@
       <c r="X55" s="32"/>
       <c r="Y55" s="32"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3873,7 +3879,7 @@
       <c r="X56" s="32"/>
       <c r="Y56" s="32"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3895,7 +3901,7 @@
       <c r="X57" s="32"/>
       <c r="Y57" s="32"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3924,7 +3930,7 @@
       <c r="X58" s="32"/>
       <c r="Y58" s="32"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3950,7 +3956,7 @@
       <c r="X59" s="32"/>
       <c r="Y59" s="32"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3972,7 +3978,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3987,7 +3993,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -4002,7 +4008,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -4014,14 +4020,14 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
@@ -4041,7 +4047,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
@@ -4061,7 +4067,7 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
@@ -4081,7 +4087,7 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
@@ -4101,7 +4107,7 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
@@ -4121,7 +4127,7 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
@@ -4141,7 +4147,7 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
@@ -4161,7 +4167,7 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
@@ -4181,7 +4187,7 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
@@ -4201,7 +4207,7 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
@@ -4221,7 +4227,7 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
@@ -4241,7 +4247,7 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -4261,7 +4267,7 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -4281,7 +4287,7 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -4301,7 +4307,7 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
@@ -4321,7 +4327,7 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
@@ -4341,7 +4347,7 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="B81" s="32"/>
       <c r="C81" s="32"/>
@@ -4361,7 +4367,7 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
@@ -4381,7 +4387,7 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="32"/>
       <c r="C83" s="32"/>
@@ -4401,7 +4407,7 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
@@ -4421,7 +4427,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
@@ -4442,7 +4448,7 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
       <c r="B86" s="32"/>
       <c r="C86" s="32"/>
@@ -4463,7 +4469,7 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="B87" s="32"/>
       <c r="C87" s="32"/>
@@ -4484,7 +4490,7 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="32"/>
       <c r="C88" s="32"/>
@@ -4505,7 +4511,7 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
@@ -4526,7 +4532,7 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="32"/>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
@@ -4546,7 +4552,7 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
@@ -4566,7 +4572,7 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
@@ -4586,7 +4592,7 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
@@ -4606,7 +4612,7 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -4626,7 +4632,7 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
@@ -4654,29 +4660,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1029A54-A935-4079-BD88-8A8D14179AC0}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="48" customWidth="1"/>
-    <col min="10" max="10" width="36.109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="21"/>
+    <col min="13" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="91" t="s">
         <v>64</v>
       </c>
@@ -4693,7 +4699,7 @@
       <c r="K2" s="94"/>
       <c r="L2" s="95"/>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>79</v>
       </c>
@@ -4724,7 +4730,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>3</v>
       </c>
@@ -4754,7 +4760,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
         <v>65</v>
       </c>
@@ -4784,7 +4790,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>70</v>
       </c>
@@ -4812,7 +4818,7 @@
       </c>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
@@ -4835,7 +4841,7 @@
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="42" t="s">
         <v>6</v>
       </c>
@@ -4858,7 +4864,7 @@
       <c r="L8" s="68"/>
       <c r="M8" s="48"/>
     </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="47" t="s">
         <v>4</v>
       </c>
@@ -4885,7 +4891,7 @@
       <c r="L9" s="49"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="49" t="s">
         <v>78</v>
       </c>
@@ -4910,7 +4916,7 @@
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F11" s="54" t="s">
         <v>67</v>
       </c>
@@ -4929,7 +4935,7 @@
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="59" t="s">
         <v>5</v>
       </c>
@@ -4949,7 +4955,7 @@
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F13" s="49" t="s">
         <v>78</v>
       </c>
@@ -4965,7 +4971,7 @@
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F14" s="49"/>
       <c r="J14" s="58" t="s">
         <v>130</v>
@@ -4976,7 +4982,7 @@
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F15" s="49"/>
       <c r="I15" s="48" t="s">
         <v>139</v>
@@ -4990,7 +4996,7 @@
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F16" s="49"/>
       <c r="J16" s="58" t="s">
         <v>132</v>
@@ -5001,7 +5007,7 @@
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="49"/>
       <c r="J17" s="43" t="s">
         <v>133</v>
@@ -5010,8 +5016,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="91" t="s">
         <v>85</v>
       </c>
@@ -5025,7 +5031,7 @@
       <c r="J20" s="94"/>
       <c r="K20" s="95"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>128</v>
       </c>
@@ -5057,7 +5063,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="69">
         <v>1</v>
       </c>
@@ -5089,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="54">
         <v>1</v>
       </c>
@@ -5122,7 +5128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="54">
         <v>1</v>
       </c>
@@ -5155,7 +5161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="54">
         <v>1</v>
       </c>
@@ -5188,7 +5194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="54">
         <v>1</v>
       </c>
@@ -5221,7 +5227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="54">
         <v>1</v>
       </c>
@@ -5254,7 +5260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="54">
         <v>1</v>
       </c>
@@ -5287,7 +5293,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="54">
         <v>1</v>
       </c>
@@ -5320,7 +5326,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="70">
         <v>0</v>
       </c>
@@ -5353,7 +5359,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -5363,7 +5369,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -5378,7 +5384,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="97"/>
       <c r="C33" s="97"/>
@@ -5393,7 +5399,7 @@
       <c r="L33" s="97"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -5408,7 +5414,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="17"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -5423,7 +5429,7 @@
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -5438,7 +5444,7 @@
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -5453,7 +5459,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -5468,7 +5474,7 @@
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -5483,7 +5489,7 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -5498,7 +5504,7 @@
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="17"/>
@@ -5513,7 +5519,7 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -5528,7 +5534,7 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -5543,7 +5549,7 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -5558,7 +5564,7 @@
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -5573,7 +5579,7 @@
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -5588,7 +5594,7 @@
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -5603,42 +5609,42 @@
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E48" s="48"/>
       <c r="F48" s="60"/>
       <c r="G48" s="48"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52" s="48"/>
       <c r="F52" s="17"/>
       <c r="G52" s="48"/>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
@@ -5664,27 +5670,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1380A9C-95C5-45BF-8285-FFA878714CDE}">
   <dimension ref="A1:V54"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
         <v>174</v>
       </c>
@@ -5710,7 +5716,7 @@
       <c r="U1" s="87"/>
       <c r="V1" s="87"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
         <v>190</v>
       </c>
@@ -5718,7 +5724,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
         <v>175</v>
       </c>
@@ -5726,7 +5732,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
         <v>176</v>
       </c>
@@ -5734,7 +5740,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
         <v>177</v>
       </c>
@@ -5742,7 +5748,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
         <v>178</v>
       </c>
@@ -5750,7 +5756,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="89" t="s">
         <v>179</v>
       </c>
@@ -5758,7 +5764,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="89" t="s">
         <v>180</v>
       </c>
@@ -5766,7 +5772,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
         <v>181</v>
       </c>
@@ -5774,7 +5780,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="100" t="s">
         <v>191</v>
       </c>
@@ -5800,7 +5806,7 @@
       <c r="U11" s="88"/>
       <c r="V11" s="88"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
         <v>234</v>
       </c>
@@ -5820,7 +5826,7 @@
       <c r="M12" s="98"/>
       <c r="N12" s="98"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
         <v>1</v>
       </c>
@@ -5858,7 +5864,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -5896,7 +5902,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
         <v>194</v>
       </c>
@@ -5934,7 +5940,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
@@ -5960,7 +5966,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
         <v>195</v>
       </c>
@@ -5992,7 +5998,7 @@
       <c r="M17" s="98"/>
       <c r="N17" s="98"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
         <v>196</v>
       </c>
@@ -6030,7 +6036,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
         <v>197</v>
       </c>
@@ -6068,7 +6074,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>198</v>
       </c>
@@ -6098,7 +6104,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
         <v>199</v>
       </c>
@@ -6116,7 +6122,7 @@
       <c r="H21" s="73"/>
       <c r="I21" s="73"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
         <v>200</v>
       </c>
@@ -6134,7 +6140,7 @@
       <c r="H22" s="73"/>
       <c r="I22" s="73"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="98" t="s">
         <v>238</v>
       </c>
@@ -6154,7 +6160,7 @@
       <c r="M24" s="98"/>
       <c r="N24" s="98"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="86" t="s">
         <v>1</v>
       </c>
@@ -6192,7 +6198,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>3</v>
       </c>
@@ -6230,7 +6236,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>194</v>
       </c>
@@ -6256,7 +6262,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
@@ -6282,7 +6288,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>195</v>
       </c>
@@ -6308,7 +6314,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>196</v>
       </c>
@@ -6334,7 +6340,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>197</v>
       </c>
@@ -6360,7 +6366,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>198</v>
       </c>
@@ -6374,7 +6380,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
         <v>199</v>
       </c>
@@ -6388,7 +6394,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
         <v>200</v>
       </c>
@@ -6402,7 +6408,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="98" t="s">
         <v>240</v>
       </c>
@@ -6416,7 +6422,7 @@
       <c r="H36" s="98"/>
       <c r="I36" s="98"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="86" t="s">
         <v>1</v>
       </c>
@@ -6442,7 +6448,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>3</v>
       </c>
@@ -6468,7 +6474,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
         <v>194</v>
       </c>
@@ -6494,7 +6500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>6</v>
       </c>
@@ -6520,7 +6526,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
         <v>195</v>
       </c>
@@ -6546,7 +6552,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
         <v>196</v>
       </c>
@@ -6572,7 +6578,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
         <v>197</v>
       </c>
@@ -6598,7 +6604,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
         <v>198</v>
       </c>
@@ -6624,7 +6630,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
         <v>199</v>
       </c>
@@ -6650,7 +6656,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
         <v>200</v>
       </c>
@@ -6676,7 +6682,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -6702,7 +6708,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
         <v>194</v>
       </c>
@@ -6728,7 +6734,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
         <v>197</v>
       </c>
@@ -6754,7 +6760,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
         <v>200</v>
       </c>
@@ -6780,7 +6786,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>6</v>
       </c>
@@ -6806,7 +6812,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
         <v>198</v>
       </c>
@@ -6832,7 +6838,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>71</v>
       </c>
@@ -6858,7 +6864,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
         <v>197</v>
       </c>
@@ -6886,17 +6892,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K24:N24"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A11:R11"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K24:N24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6908,23 +6914,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46D577-AC6F-4505-860C-EE5869797CC5}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="21"/>
-    <col min="3" max="3" width="23.33203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="58.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="21"/>
-    <col min="7" max="7" width="36.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.44140625" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="21"/>
+    <col min="1" max="2" width="9.140625" style="21"/>
+    <col min="3" max="3" width="23.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="21"/>
+    <col min="7" max="7" width="36.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="91" t="s">
         <v>75</v>
       </c>
@@ -6936,7 +6942,7 @@
       <c r="G2" s="94"/>
       <c r="H2" s="95"/>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="71" t="s">
         <v>0</v>
       </c>
@@ -6961,7 +6967,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="101">
         <v>11</v>
       </c>
@@ -6986,7 +6992,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="102"/>
       <c r="C5" s="102"/>
       <c r="D5" s="67" t="s">
@@ -7003,7 +7009,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="103"/>
       <c r="C6" s="103"/>
       <c r="D6" s="78" t="s">
@@ -7020,7 +7026,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23"/>
       <c r="C7" s="73"/>
       <c r="D7" s="80"/>
@@ -7033,7 +7039,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>12</v>
       </c>
@@ -7058,7 +7064,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="73"/>
       <c r="D9" s="80"/>
@@ -7071,7 +7077,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>13</v>
       </c>
@@ -7096,7 +7102,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="73"/>
       <c r="D11" s="80"/>
@@ -7111,7 +7117,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="34">
         <v>14</v>
       </c>
@@ -7130,7 +7136,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="73"/>
       <c r="D13" s="80"/>
@@ -7149,7 +7155,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="101">
         <v>15</v>
       </c>
@@ -7168,7 +7174,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="103"/>
       <c r="C15" s="103"/>
       <c r="D15" s="43" t="s">
@@ -7189,7 +7195,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="23"/>
       <c r="C16" s="73"/>
       <c r="D16" s="80"/>
@@ -7202,7 +7208,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="101">
         <v>16</v>
       </c>
@@ -7227,7 +7233,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="103"/>
       <c r="C18" s="103"/>
       <c r="D18" s="75" t="s">
@@ -7242,7 +7248,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -7263,7 +7269,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -7275,7 +7281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="91" t="s">
         <v>77</v>
@@ -7287,7 +7293,7 @@
       <c r="G21" s="73"/>
       <c r="H21" s="80"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="24" t="s">
         <v>0</v>
@@ -7309,7 +7315,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="34">
         <v>91</v>
@@ -7326,7 +7332,7 @@
       <c r="H23" s="80"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="23"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -7340,7 +7346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34">
         <v>92</v>
       </c>
@@ -7352,12 +7358,12 @@
       </c>
       <c r="H25" s="82"/>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23"/>
       <c r="C26" s="73"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="73"/>
       <c r="B27" s="34">
         <v>99</v>
@@ -7369,13 +7375,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="73"/>
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="73"/>
       <c r="B29" s="73"/>
       <c r="C29" s="76"/>
@@ -7386,7 +7392,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="73"/>
       <c r="B30" s="73"/>
       <c r="C30" s="76"/>
@@ -7397,7 +7403,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="73"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
@@ -7408,7 +7414,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
@@ -7418,7 +7424,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="73"/>
       <c r="B33" s="17"/>
       <c r="C33" s="73"/>
@@ -7428,7 +7434,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="73"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
@@ -7438,7 +7444,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="73"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
@@ -7448,46 +7454,46 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="73"/>
       <c r="B36" s="17"/>
       <c r="C36" s="73"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="73"/>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="73"/>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="73"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="73"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="73"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="73"/>
       <c r="E59" s="73"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="73"/>
       <c r="E60" s="73"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="73"/>
       <c r="E61" s="73"/>
     </row>
@@ -7518,332 +7524,320 @@
   <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:F7"/>
+      <selection activeCell="E12" sqref="E12:F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="24.33203125" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.140625" customWidth="1"/>
+    <col min="6" max="6" width="19.140625" customWidth="1"/>
+    <col min="8" max="8" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="114" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="115" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="116"/>
+      <c r="F2" s="109"/>
       <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="117">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="110">
         <v>1</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="110" t="s">
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="117" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="111"/>
+      <c r="F3" s="112"/>
       <c r="H3" s="41" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="112">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="104">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="104" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="113" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="105"/>
+      <c r="F4" s="106"/>
       <c r="H4" s="42" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="112">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="104">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="104" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="113" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="H5" s="42"/>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B6" s="112">
+      <c r="F5" s="106"/>
+      <c r="H5" s="42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="104">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="104" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="113" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="H6" s="42" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="112">
+      <c r="F6" s="106"/>
+      <c r="H6" s="35" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="104">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="104" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="113" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="105"/>
-      <c r="H7" s="42" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="112">
+      <c r="F7" s="106"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="104">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="104" t="s">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="113" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="105"/>
-      <c r="H8" s="42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="112">
+      <c r="F8" s="106"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="104">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="104" t="s">
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="113" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="105"/>
-      <c r="H9" s="42" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="112">
+      <c r="F9" s="106"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="104">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="104" t="s">
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="105"/>
-      <c r="H10" s="35"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="112">
+      <c r="F10" s="106"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="104">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="105"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="112">
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="119" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="120"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="104">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="105"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="112">
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="F12" s="120"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="104">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="105"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="112">
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="106"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="104">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="112">
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="106"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="104">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="112">
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="106"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="104">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="105"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="112">
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="113"/>
+      <c r="F16" s="106"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="104">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="112">
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="113"/>
+      <c r="F17" s="106"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="113"/>
+      <c r="F18" s="106"/>
       <c r="H18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="112">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="104">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="112">
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="113"/>
+      <c r="F19" s="106"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="104">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="105"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="112">
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="106"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="104">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="105"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="112">
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="113"/>
+      <c r="F21" s="106"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="104">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="112">
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="113"/>
+      <c r="F22" s="106"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="104">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="105"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="112">
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="113"/>
+      <c r="F23" s="106"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="104">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="112">
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="113"/>
+      <c r="F24" s="106"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="104">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105"/>
-    </row>
-    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="108">
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="113"/>
+      <c r="F25" s="106"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="114">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="107"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="118"/>
+      <c r="F26" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -7860,19 +7854,27 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRII\PBL\PBL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{501D4BF4-555C-4A3B-993F-0CFD31D64468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{780C2536-72F6-4217-82B2-979A89D8F979}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0655B1D4-B2F6-4524-A1F3-A3307B122660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -1738,15 +1738,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1760,27 +1781,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2110,33 +2110,33 @@
       <selection activeCell="J2" sqref="J2:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.140625" style="21"/>
+    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.109375" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="21"/>
     <col min="6" max="6" width="11" style="21" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="21" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" style="21"/>
-    <col min="10" max="10" width="12.28515625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="23.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.44140625" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" style="21"/>
+    <col min="10" max="10" width="12.33203125" style="21" customWidth="1"/>
+    <col min="11" max="11" width="23.6640625" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="21" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="21"/>
-    <col min="14" max="14" width="11.42578125" style="21" customWidth="1"/>
-    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.42578125" style="21" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="21"/>
-    <col min="19" max="19" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.140625" style="21"/>
-    <col min="23" max="23" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="21"/>
+    <col min="13" max="13" width="9.109375" style="21"/>
+    <col min="14" max="14" width="11.44140625" style="21" customWidth="1"/>
+    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.44140625" style="21" customWidth="1"/>
+    <col min="17" max="18" width="9.109375" style="21"/>
+    <col min="19" max="19" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.109375" style="21"/>
+    <col min="23" max="23" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="91" t="s">
         <v>63</v>
       </c>
@@ -2156,7 +2156,7 @@
       <c r="O2" s="92"/>
       <c r="P2" s="93"/>
     </row>
-    <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
@@ -2276,7 +2276,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
@@ -2316,7 +2316,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
@@ -2356,7 +2356,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2378,7 @@
       </c>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
@@ -2420,8 +2420,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -2430,7 +2430,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
@@ -2439,7 +2439,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
       <c r="T14" s="32"/>
@@ -2449,7 +2449,7 @@
       <c r="X14" s="32"/>
       <c r="Y14" s="32"/>
     </row>
-    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="91" t="s">
         <v>64</v>
       </c>
@@ -2477,7 +2477,7 @@
       <c r="X15" s="96"/>
       <c r="Y15" s="32"/>
     </row>
-    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2525,7 +2525,7 @@
       <c r="X16" s="19"/>
       <c r="Y16" s="32"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="21">
         <v>1</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="X17" s="32"/>
       <c r="Y17" s="32"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="21">
         <f>A17+1</f>
         <v>2</v>
@@ -2628,7 +2628,7 @@
       <c r="X18" s="32"/>
       <c r="Y18" s="32"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="21">
         <f t="shared" ref="A19:A58" si="0">A18+1</f>
         <v>3</v>
@@ -2680,7 +2680,7 @@
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2732,7 +2732,7 @@
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2784,7 +2784,7 @@
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2836,7 +2836,7 @@
       <c r="X22" s="32"/>
       <c r="Y22" s="32"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2888,7 +2888,7 @@
       <c r="X23" s="32"/>
       <c r="Y23" s="32"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2940,7 +2940,7 @@
       <c r="X24" s="32"/>
       <c r="Y24" s="32"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2992,7 +2992,7 @@
       <c r="X25" s="32"/>
       <c r="Y25" s="32"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3044,7 +3044,7 @@
       <c r="X26" s="32"/>
       <c r="Y26" s="32"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3096,7 +3096,7 @@
       <c r="X27" s="32"/>
       <c r="Y27" s="32"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3148,7 +3148,7 @@
       <c r="X28" s="32"/>
       <c r="Y28" s="32"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3200,7 +3200,7 @@
       <c r="X29" s="32"/>
       <c r="Y29" s="32"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3240,7 +3240,7 @@
       <c r="X30" s="32"/>
       <c r="Y30" s="32"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3268,7 +3268,7 @@
       <c r="X31" s="32"/>
       <c r="Y31" s="32"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3296,7 +3296,7 @@
       <c r="X32" s="32"/>
       <c r="Y32" s="32"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3324,7 +3324,7 @@
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3352,7 +3352,7 @@
       <c r="X34" s="32"/>
       <c r="Y34" s="32"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3380,7 +3380,7 @@
       <c r="X35" s="32"/>
       <c r="Y35" s="32"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3408,7 +3408,7 @@
       <c r="X36" s="32"/>
       <c r="Y36" s="32"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3436,7 +3436,7 @@
       <c r="X37" s="32"/>
       <c r="Y37" s="32"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3464,7 +3464,7 @@
       <c r="X38" s="32"/>
       <c r="Y38" s="32"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3492,7 +3492,7 @@
       <c r="X39" s="32"/>
       <c r="Y39" s="32"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3520,7 +3520,7 @@
       <c r="X40" s="32"/>
       <c r="Y40" s="32"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3548,7 +3548,7 @@
       <c r="X41" s="32"/>
       <c r="Y41" s="32"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3576,7 +3576,7 @@
       <c r="X42" s="32"/>
       <c r="Y42" s="32"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3604,7 +3604,7 @@
       <c r="X43" s="32"/>
       <c r="Y43" s="32"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3625,7 +3625,7 @@
       <c r="X44" s="32"/>
       <c r="Y44" s="32"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3646,7 +3646,7 @@
       <c r="X45" s="32"/>
       <c r="Y45" s="32"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3667,7 +3667,7 @@
       <c r="X46" s="32"/>
       <c r="Y46" s="32"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3688,7 +3688,7 @@
       <c r="X47" s="32"/>
       <c r="Y47" s="32"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3709,7 +3709,7 @@
       <c r="X48" s="32"/>
       <c r="Y48" s="32"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3730,7 +3730,7 @@
       <c r="X49" s="32"/>
       <c r="Y49" s="32"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3751,7 +3751,7 @@
       <c r="X50" s="32"/>
       <c r="Y50" s="32"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3772,7 +3772,7 @@
       <c r="X51" s="32"/>
       <c r="Y51" s="32"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="21">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3793,7 +3793,7 @@
       <c r="X52" s="32"/>
       <c r="Y52" s="32"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3814,7 +3814,7 @@
       <c r="X53" s="32"/>
       <c r="Y53" s="32"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3835,7 +3835,7 @@
       <c r="X54" s="32"/>
       <c r="Y54" s="32"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3857,7 +3857,7 @@
       <c r="X55" s="32"/>
       <c r="Y55" s="32"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3879,7 +3879,7 @@
       <c r="X56" s="32"/>
       <c r="Y56" s="32"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3901,7 +3901,7 @@
       <c r="X57" s="32"/>
       <c r="Y57" s="32"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3930,7 +3930,7 @@
       <c r="X58" s="32"/>
       <c r="Y58" s="32"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3956,7 +3956,7 @@
       <c r="X59" s="32"/>
       <c r="Y59" s="32"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3978,7 +3978,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3993,7 +3993,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -4008,7 +4008,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -4020,14 +4020,14 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A65" s="32"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
@@ -4047,7 +4047,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
@@ -4067,7 +4067,7 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A67" s="32"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
@@ -4087,7 +4087,7 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
@@ -4107,7 +4107,7 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
@@ -4127,7 +4127,7 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
@@ -4147,7 +4147,7 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
@@ -4167,7 +4167,7 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
@@ -4187,7 +4187,7 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
@@ -4207,7 +4207,7 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
@@ -4227,7 +4227,7 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A75" s="32"/>
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
@@ -4247,7 +4247,7 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A76" s="32"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -4267,7 +4267,7 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A77" s="32"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -4287,7 +4287,7 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A78" s="32"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -4307,7 +4307,7 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A79" s="32"/>
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
@@ -4327,7 +4327,7 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
@@ -4347,7 +4347,7 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A81" s="32"/>
       <c r="B81" s="32"/>
       <c r="C81" s="32"/>
@@ -4367,7 +4367,7 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A82" s="32"/>
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
@@ -4387,7 +4387,7 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A83" s="32"/>
       <c r="B83" s="32"/>
       <c r="C83" s="32"/>
@@ -4407,7 +4407,7 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
@@ -4427,7 +4427,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A85" s="32"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
@@ -4448,7 +4448,7 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A86" s="32"/>
       <c r="B86" s="32"/>
       <c r="C86" s="32"/>
@@ -4469,7 +4469,7 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A87" s="32"/>
       <c r="B87" s="32"/>
       <c r="C87" s="32"/>
@@ -4490,7 +4490,7 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A88" s="32"/>
       <c r="B88" s="32"/>
       <c r="C88" s="32"/>
@@ -4511,7 +4511,7 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A89" s="32"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
@@ -4532,7 +4532,7 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A90" s="32"/>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
@@ -4552,7 +4552,7 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A91" s="32"/>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
@@ -4572,7 +4572,7 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A92" s="32"/>
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
@@ -4592,7 +4592,7 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A93" s="32"/>
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
@@ -4612,7 +4612,7 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A94" s="32"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -4632,7 +4632,7 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A95" s="32"/>
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
@@ -4664,25 +4664,25 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="33.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85546875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="37.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="37.5546875" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.109375" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="48" customWidth="1"/>
-    <col min="10" max="10" width="36.140625" style="21" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.109375" style="21" customWidth="1"/>
+    <col min="11" max="11" width="18.109375" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="21"/>
+    <col min="13" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="91" t="s">
         <v>64</v>
       </c>
@@ -4699,7 +4699,7 @@
       <c r="K2" s="94"/>
       <c r="L2" s="95"/>
     </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
         <v>79</v>
       </c>
@@ -4730,7 +4730,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="41" t="s">
         <v>3</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B5" s="42" t="s">
         <v>65</v>
       </c>
@@ -4790,7 +4790,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B6" s="42" t="s">
         <v>70</v>
       </c>
@@ -4818,7 +4818,7 @@
       </c>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
@@ -4841,7 +4841,7 @@
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="42" t="s">
         <v>6</v>
       </c>
@@ -4864,7 +4864,7 @@
       <c r="L8" s="68"/>
       <c r="M8" s="48"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="47" t="s">
         <v>4</v>
       </c>
@@ -4891,7 +4891,7 @@
       <c r="L9" s="49"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="49" t="s">
         <v>78</v>
       </c>
@@ -4916,7 +4916,7 @@
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F11" s="54" t="s">
         <v>67</v>
       </c>
@@ -4935,7 +4935,7 @@
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F12" s="59" t="s">
         <v>5</v>
       </c>
@@ -4955,7 +4955,7 @@
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F13" s="49" t="s">
         <v>78</v>
       </c>
@@ -4971,7 +4971,7 @@
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F14" s="49"/>
       <c r="J14" s="58" t="s">
         <v>130</v>
@@ -4982,7 +4982,7 @@
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F15" s="49"/>
       <c r="I15" s="48" t="s">
         <v>139</v>
@@ -4996,7 +4996,7 @@
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="F16" s="49"/>
       <c r="J16" s="58" t="s">
         <v>132</v>
@@ -5007,7 +5007,7 @@
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F17" s="49"/>
       <c r="J17" s="43" t="s">
         <v>133</v>
@@ -5016,8 +5016,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B20" s="91" t="s">
         <v>85</v>
       </c>
@@ -5031,7 +5031,7 @@
       <c r="J20" s="94"/>
       <c r="K20" s="95"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B21" s="3">
         <v>128</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B22" s="69">
         <v>1</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B23" s="54">
         <v>1</v>
       </c>
@@ -5128,7 +5128,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B24" s="54">
         <v>1</v>
       </c>
@@ -5161,7 +5161,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B25" s="54">
         <v>1</v>
       </c>
@@ -5194,7 +5194,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B26" s="54">
         <v>1</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B27" s="54">
         <v>1</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B28" s="54">
         <v>1</v>
       </c>
@@ -5293,7 +5293,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B29" s="54">
         <v>1</v>
       </c>
@@ -5326,7 +5326,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B30" s="70">
         <v>0</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -5369,7 +5369,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -5384,7 +5384,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="97"/>
       <c r="C33" s="97"/>
@@ -5399,7 +5399,7 @@
       <c r="L33" s="97"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -5414,7 +5414,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="17"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -5429,7 +5429,7 @@
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -5444,7 +5444,7 @@
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -5459,7 +5459,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -5474,7 +5474,7 @@
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -5489,7 +5489,7 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -5504,7 +5504,7 @@
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="17"/>
@@ -5519,7 +5519,7 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -5534,7 +5534,7 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -5549,7 +5549,7 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -5564,7 +5564,7 @@
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -5579,7 +5579,7 @@
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -5594,7 +5594,7 @@
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -5609,42 +5609,42 @@
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E48" s="48"/>
       <c r="F48" s="60"/>
       <c r="G48" s="48"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E52" s="48"/>
       <c r="F52" s="17"/>
       <c r="G52" s="48"/>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
@@ -5674,23 +5674,23 @@
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.3">
       <c r="A1" s="99" t="s">
         <v>174</v>
       </c>
@@ -5716,7 +5716,7 @@
       <c r="U1" s="87"/>
       <c r="V1" s="87"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="85" t="s">
         <v>190</v>
       </c>
@@ -5724,7 +5724,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="89" t="s">
         <v>175</v>
       </c>
@@ -5732,7 +5732,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="89" t="s">
         <v>176</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" s="89" t="s">
         <v>177</v>
       </c>
@@ -5748,7 +5748,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" s="89" t="s">
         <v>178</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" s="89" t="s">
         <v>179</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" s="89" t="s">
         <v>180</v>
       </c>
@@ -5772,7 +5772,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" s="90" t="s">
         <v>181</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="100" t="s">
         <v>191</v>
       </c>
@@ -5806,7 +5806,7 @@
       <c r="U11" s="88"/>
       <c r="V11" s="88"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" s="98" t="s">
         <v>234</v>
       </c>
@@ -5826,7 +5826,7 @@
       <c r="M12" s="98"/>
       <c r="N12" s="98"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" s="86" t="s">
         <v>1</v>
       </c>
@@ -5864,7 +5864,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
@@ -5902,7 +5902,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" s="12" t="s">
         <v>194</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
@@ -5966,7 +5966,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17" s="12" t="s">
         <v>195</v>
       </c>
@@ -5998,7 +5998,7 @@
       <c r="M17" s="98"/>
       <c r="N17" s="98"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18" s="12" t="s">
         <v>196</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19" s="12" t="s">
         <v>197</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>198</v>
       </c>
@@ -6104,7 +6104,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21" s="12" t="s">
         <v>199</v>
       </c>
@@ -6122,7 +6122,7 @@
       <c r="H21" s="73"/>
       <c r="I21" s="73"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
         <v>200</v>
       </c>
@@ -6140,7 +6140,7 @@
       <c r="H22" s="73"/>
       <c r="I22" s="73"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24" s="98" t="s">
         <v>238</v>
       </c>
@@ -6160,7 +6160,7 @@
       <c r="M24" s="98"/>
       <c r="N24" s="98"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25" s="86" t="s">
         <v>1</v>
       </c>
@@ -6198,7 +6198,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26" s="12" t="s">
         <v>3</v>
       </c>
@@ -6236,7 +6236,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27" s="12" t="s">
         <v>194</v>
       </c>
@@ -6262,7 +6262,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
@@ -6288,7 +6288,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29" s="12" t="s">
         <v>195</v>
       </c>
@@ -6314,7 +6314,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30" s="12" t="s">
         <v>196</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31" s="12" t="s">
         <v>197</v>
       </c>
@@ -6366,7 +6366,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32" s="12" t="s">
         <v>198</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="12" t="s">
         <v>199</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="12" t="s">
         <v>200</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="98" t="s">
         <v>240</v>
       </c>
@@ -6422,7 +6422,7 @@
       <c r="H36" s="98"/>
       <c r="I36" s="98"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="86" t="s">
         <v>1</v>
       </c>
@@ -6448,7 +6448,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="12" t="s">
         <v>3</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="12" t="s">
         <v>194</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="12" t="s">
         <v>6</v>
       </c>
@@ -6526,7 +6526,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="12" t="s">
         <v>195</v>
       </c>
@@ -6552,7 +6552,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="12" t="s">
         <v>196</v>
       </c>
@@ -6578,7 +6578,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="12" t="s">
         <v>197</v>
       </c>
@@ -6604,7 +6604,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="12" t="s">
         <v>198</v>
       </c>
@@ -6630,7 +6630,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="12" t="s">
         <v>199</v>
       </c>
@@ -6656,7 +6656,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="12" t="s">
         <v>200</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
@@ -6708,7 +6708,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="12" t="s">
         <v>194</v>
       </c>
@@ -6734,7 +6734,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="12" t="s">
         <v>197</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="12" t="s">
         <v>200</v>
       </c>
@@ -6786,7 +6786,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="12" t="s">
         <v>6</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="12" t="s">
         <v>198</v>
       </c>
@@ -6838,7 +6838,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="12" t="s">
         <v>71</v>
       </c>
@@ -6864,7 +6864,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="12" t="s">
         <v>197</v>
       </c>
@@ -6892,17 +6892,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K24:N24"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K24:N24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6914,23 +6914,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46D577-AC6F-4505-860C-EE5869797CC5}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="21"/>
-    <col min="3" max="3" width="23.28515625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="58.42578125" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.140625" style="21"/>
-    <col min="7" max="7" width="36.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.42578125" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="2" width="9.109375" style="21"/>
+    <col min="3" max="3" width="23.33203125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="58.44140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.109375" style="21"/>
+    <col min="7" max="7" width="36.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.44140625" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B2" s="91" t="s">
         <v>75</v>
       </c>
@@ -6942,7 +6942,7 @@
       <c r="G2" s="94"/>
       <c r="H2" s="95"/>
     </row>
-    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="71" t="s">
         <v>0</v>
       </c>
@@ -6967,7 +6967,7 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="101">
         <v>11</v>
       </c>
@@ -6992,7 +6992,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B5" s="102"/>
       <c r="C5" s="102"/>
       <c r="D5" s="67" t="s">
@@ -7009,7 +7009,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B6" s="103"/>
       <c r="C6" s="103"/>
       <c r="D6" s="78" t="s">
@@ -7026,7 +7026,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B7" s="23"/>
       <c r="C7" s="73"/>
       <c r="D7" s="80"/>
@@ -7039,7 +7039,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B8" s="34">
         <v>12</v>
       </c>
@@ -7064,7 +7064,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="23"/>
       <c r="C9" s="73"/>
       <c r="D9" s="80"/>
@@ -7077,7 +7077,7 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="34">
         <v>13</v>
       </c>
@@ -7102,7 +7102,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="23"/>
       <c r="C11" s="73"/>
       <c r="D11" s="80"/>
@@ -7117,7 +7117,7 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="34">
         <v>14</v>
       </c>
@@ -7136,7 +7136,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="23"/>
       <c r="C13" s="73"/>
       <c r="D13" s="80"/>
@@ -7155,7 +7155,7 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="101">
         <v>15</v>
       </c>
@@ -7174,7 +7174,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="103"/>
       <c r="C15" s="103"/>
       <c r="D15" s="43" t="s">
@@ -7195,7 +7195,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="23"/>
       <c r="C16" s="73"/>
       <c r="D16" s="80"/>
@@ -7208,7 +7208,7 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="101">
         <v>16</v>
       </c>
@@ -7233,7 +7233,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B18" s="103"/>
       <c r="C18" s="103"/>
       <c r="D18" s="75" t="s">
@@ -7248,7 +7248,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -7269,7 +7269,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -7281,7 +7281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2"/>
       <c r="B21" s="91" t="s">
         <v>77</v>
@@ -7293,7 +7293,7 @@
       <c r="G21" s="73"/>
       <c r="H21" s="80"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2"/>
       <c r="B22" s="24" t="s">
         <v>0</v>
@@ -7315,7 +7315,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2"/>
       <c r="B23" s="34">
         <v>91</v>
@@ -7332,7 +7332,7 @@
       <c r="H23" s="80"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B24" s="23"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -7346,7 +7346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B25" s="34">
         <v>92</v>
       </c>
@@ -7358,12 +7358,12 @@
       </c>
       <c r="H25" s="82"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B26" s="23"/>
       <c r="C26" s="73"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="73"/>
       <c r="B27" s="34">
         <v>99</v>
@@ -7375,13 +7375,13 @@
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" s="73"/>
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" s="73"/>
       <c r="B29" s="73"/>
       <c r="C29" s="76"/>
@@ -7392,7 +7392,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" s="73"/>
       <c r="B30" s="73"/>
       <c r="C30" s="76"/>
@@ -7403,7 +7403,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" s="73"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
@@ -7414,7 +7414,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" s="73"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
@@ -7424,7 +7424,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="73"/>
       <c r="B33" s="17"/>
       <c r="C33" s="73"/>
@@ -7434,7 +7434,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="73"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
@@ -7444,7 +7444,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="73"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
@@ -7454,46 +7454,46 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="73"/>
       <c r="B36" s="17"/>
       <c r="C36" s="73"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="73"/>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="73"/>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="73"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="73"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="73"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="73"/>
       <c r="E59" s="73"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="73"/>
       <c r="E60" s="73"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="73"/>
       <c r="E61" s="73"/>
     </row>
@@ -7523,321 +7523,329 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AD07F0D-FAEC-4973-B07B-39B1A9A12CE8}">
   <dimension ref="B1:H26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12:F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="26.140625" customWidth="1"/>
-    <col min="6" max="6" width="19.140625" customWidth="1"/>
-    <col min="8" max="8" width="55.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" customWidth="1"/>
+    <col min="6" max="6" width="19.109375" customWidth="1"/>
+    <col min="8" max="8" width="55.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="107" t="s">
+    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="108" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="116"/>
       <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="110">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B3" s="117">
         <v>1</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="117" t="s">
+      <c r="C3" s="118"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="112"/>
-      <c r="H3" s="41" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="104">
+      <c r="F3" s="111"/>
+      <c r="H3" s="41"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B4" s="112">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="113" t="s">
+      <c r="C4" s="113"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="106"/>
+      <c r="F4" s="105"/>
       <c r="H4" s="42" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="104">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B5" s="112">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="113" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="105"/>
       <c r="H5" s="42" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="104">
+    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="112">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="113" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="106"/>
+      <c r="F6" s="105"/>
       <c r="H6" s="35" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="104">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B7" s="112">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="113" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="106"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="104">
+      <c r="F7" s="105"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B8" s="112">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="113" t="s">
+      <c r="C8" s="113"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="104" t="s">
         <v>164</v>
       </c>
-      <c r="F8" s="106"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="104">
+      <c r="F8" s="105"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B9" s="112">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="113" t="s">
+      <c r="C9" s="113"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="104" t="s">
         <v>165</v>
       </c>
-      <c r="F9" s="106"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="104">
+      <c r="F9" s="105"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B10" s="112">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="113" t="s">
+      <c r="C10" s="113"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="104" t="s">
         <v>159</v>
       </c>
-      <c r="F10" s="106"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="104">
+      <c r="F10" s="105"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B11" s="112">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="105"/>
       <c r="E11" s="119" t="s">
         <v>160</v>
       </c>
       <c r="F11" s="120"/>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="104">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B12" s="112">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="105"/>
       <c r="E12" s="119" t="s">
         <v>161</v>
       </c>
       <c r="F12" s="120"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="104">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B13" s="112">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="106"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="104">
+      <c r="C13" s="113"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="F13" s="105"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B14" s="112">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="113"/>
-      <c r="F14" s="106"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="104">
+      <c r="C14" s="113"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="104"/>
+      <c r="F14" s="105"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B15" s="112">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="106"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="104">
+      <c r="C15" s="113"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="104"/>
+      <c r="F15" s="105"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B16" s="112">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="113"/>
-      <c r="F16" s="106"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="104">
+      <c r="C16" s="113"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="104"/>
+      <c r="F16" s="105"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" s="112">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="113"/>
-      <c r="F17" s="106"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="104">
+      <c r="C17" s="113"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="104"/>
+      <c r="F17" s="105"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" s="112">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="113"/>
-      <c r="F18" s="106"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="104"/>
+      <c r="F18" s="105"/>
       <c r="H18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="104">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" s="112">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="113"/>
-      <c r="F19" s="106"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="104">
+      <c r="C19" s="113"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B20" s="112">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="113"/>
-      <c r="F20" s="106"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="104">
+      <c r="C20" s="113"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B21" s="112">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="113"/>
-      <c r="F21" s="106"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="104">
+      <c r="C21" s="113"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B22" s="112">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="113"/>
-      <c r="F22" s="106"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="104">
+      <c r="C22" s="113"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="112">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="113"/>
-      <c r="F23" s="106"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="104">
+      <c r="C23" s="113"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="105"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B24" s="112">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="113"/>
-      <c r="F24" s="106"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="104">
+      <c r="C24" s="113"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B25" s="112">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="113"/>
-      <c r="F25" s="106"/>
-    </row>
-    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="114">
+      <c r="C25" s="113"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105"/>
+    </row>
+    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="108">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="115"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="116"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -7854,27 +7862,19 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CDRII\PBL\PBL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0655B1D4-B2F6-4524-A1F3-A3307B122660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0655B1D4-B2F6-4524-A1F3-A3307B122660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8B6128-5398-4946-926A-A6F9AF94C003}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="242">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -513,9 +513,6 @@
   </si>
   <si>
     <t>Native VLAN Trunks</t>
-  </si>
-  <si>
-    <t>Native Router</t>
   </si>
   <si>
     <t>Static Routing</t>
@@ -1738,56 +1735,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2110,33 +2107,33 @@
       <selection activeCell="J2" sqref="J2:P7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="11.33203125" style="21" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="12.109375" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.109375" style="21"/>
+    <col min="1" max="1" width="8.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" style="21" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="21"/>
     <col min="6" max="6" width="11" style="21" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="21" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" style="21" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" style="21"/>
-    <col min="10" max="10" width="12.33203125" style="21" customWidth="1"/>
-    <col min="11" max="11" width="23.6640625" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="21" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" style="21" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" style="21"/>
+    <col min="10" max="10" width="12.28515625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="23.7109375" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12" style="21" customWidth="1"/>
-    <col min="13" max="13" width="9.109375" style="21"/>
-    <col min="14" max="14" width="11.44140625" style="21" customWidth="1"/>
-    <col min="15" max="15" width="22.6640625" style="21" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.44140625" style="21" customWidth="1"/>
-    <col min="17" max="18" width="9.109375" style="21"/>
-    <col min="19" max="19" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="9.109375" style="21"/>
-    <col min="23" max="23" width="22.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.109375" style="21"/>
+    <col min="13" max="13" width="9.140625" style="21"/>
+    <col min="14" max="14" width="11.42578125" style="21" customWidth="1"/>
+    <col min="15" max="15" width="22.7109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.42578125" style="21" customWidth="1"/>
+    <col min="17" max="18" width="9.140625" style="21"/>
+    <col min="19" max="19" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="9.140625" style="21"/>
+    <col min="23" max="23" width="22.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="91" t="s">
         <v>63</v>
       </c>
@@ -2156,7 +2153,7 @@
       <c r="O2" s="92"/>
       <c r="P2" s="93"/>
     </row>
-    <row r="3" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>15</v>
       </c>
@@ -2196,7 +2193,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>17</v>
       </c>
@@ -2236,7 +2233,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B5" s="12" t="s">
         <v>17</v>
       </c>
@@ -2276,7 +2273,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B6" s="12" t="s">
         <v>17</v>
       </c>
@@ -2316,7 +2313,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B7" s="12" t="s">
         <v>17</v>
       </c>
@@ -2356,7 +2353,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B8" s="12" t="s">
         <v>17</v>
       </c>
@@ -2378,7 +2375,7 @@
       </c>
       <c r="M8" s="30"/>
     </row>
-    <row r="9" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B9" s="12" t="s">
         <v>17</v>
       </c>
@@ -2399,7 +2396,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B10" s="12" t="s">
         <v>17</v>
       </c>
@@ -2420,8 +2417,8 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B12" s="19"/>
       <c r="C12" s="19"/>
       <c r="D12" s="19"/>
@@ -2430,7 +2427,7 @@
       <c r="G12" s="19"/>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:25" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18"/>
       <c r="C13" s="18"/>
       <c r="D13" s="19"/>
@@ -2439,7 +2436,7 @@
       <c r="G13" s="18"/>
       <c r="H13" s="19"/>
     </row>
-    <row r="14" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
       <c r="T14" s="32"/>
@@ -2449,7 +2446,7 @@
       <c r="X14" s="32"/>
       <c r="Y14" s="32"/>
     </row>
-    <row r="15" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="91" t="s">
         <v>64</v>
       </c>
@@ -2477,7 +2474,7 @@
       <c r="X15" s="96"/>
       <c r="Y15" s="32"/>
     </row>
-    <row r="16" spans="2:25" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="6" t="s">
         <v>15</v>
       </c>
@@ -2525,7 +2522,7 @@
       <c r="X16" s="19"/>
       <c r="Y16" s="32"/>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A17" s="21">
         <v>1</v>
       </c>
@@ -2576,7 +2573,7 @@
       <c r="X17" s="32"/>
       <c r="Y17" s="32"/>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A18" s="21">
         <f>A17+1</f>
         <v>2</v>
@@ -2628,7 +2625,7 @@
       <c r="X18" s="32"/>
       <c r="Y18" s="32"/>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A19" s="21">
         <f t="shared" ref="A19:A58" si="0">A18+1</f>
         <v>3</v>
@@ -2680,7 +2677,7 @@
       <c r="X19" s="32"/>
       <c r="Y19" s="32"/>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2732,7 +2729,7 @@
       <c r="X20" s="32"/>
       <c r="Y20" s="32"/>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2784,7 +2781,7 @@
       <c r="X21" s="32"/>
       <c r="Y21" s="32"/>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -2836,7 +2833,7 @@
       <c r="X22" s="32"/>
       <c r="Y22" s="32"/>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A23" s="21">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -2888,7 +2885,7 @@
       <c r="X23" s="32"/>
       <c r="Y23" s="32"/>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -2940,7 +2937,7 @@
       <c r="X24" s="32"/>
       <c r="Y24" s="32"/>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -2992,7 +2989,7 @@
       <c r="X25" s="32"/>
       <c r="Y25" s="32"/>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A26" s="21">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -3044,7 +3041,7 @@
       <c r="X26" s="32"/>
       <c r="Y26" s="32"/>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A27" s="21">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -3096,7 +3093,7 @@
       <c r="X27" s="32"/>
       <c r="Y27" s="32"/>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A28" s="21">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -3148,7 +3145,7 @@
       <c r="X28" s="32"/>
       <c r="Y28" s="32"/>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A29" s="21">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -3200,7 +3197,7 @@
       <c r="X29" s="32"/>
       <c r="Y29" s="32"/>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A30" s="21">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -3240,7 +3237,7 @@
       <c r="X30" s="32"/>
       <c r="Y30" s="32"/>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A31" s="21">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -3268,7 +3265,7 @@
       <c r="X31" s="32"/>
       <c r="Y31" s="32"/>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A32" s="21">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -3296,7 +3293,7 @@
       <c r="X32" s="32"/>
       <c r="Y32" s="32"/>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A33" s="21">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -3324,7 +3321,7 @@
       <c r="X33" s="32"/>
       <c r="Y33" s="32"/>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A34" s="21">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -3352,7 +3349,7 @@
       <c r="X34" s="32"/>
       <c r="Y34" s="32"/>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A35" s="21">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -3380,7 +3377,7 @@
       <c r="X35" s="32"/>
       <c r="Y35" s="32"/>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A36" s="21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -3408,7 +3405,7 @@
       <c r="X36" s="32"/>
       <c r="Y36" s="32"/>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A37" s="21">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -3436,7 +3433,7 @@
       <c r="X37" s="32"/>
       <c r="Y37" s="32"/>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A38" s="21">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -3464,7 +3461,7 @@
       <c r="X38" s="32"/>
       <c r="Y38" s="32"/>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A39" s="21">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -3492,7 +3489,7 @@
       <c r="X39" s="32"/>
       <c r="Y39" s="32"/>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A40" s="21">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -3520,7 +3517,7 @@
       <c r="X40" s="32"/>
       <c r="Y40" s="32"/>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A41" s="21">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -3548,7 +3545,7 @@
       <c r="X41" s="32"/>
       <c r="Y41" s="32"/>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A42" s="21">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -3576,7 +3573,7 @@
       <c r="X42" s="32"/>
       <c r="Y42" s="32"/>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A43" s="21">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -3604,7 +3601,7 @@
       <c r="X43" s="32"/>
       <c r="Y43" s="32"/>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A44" s="21">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -3625,7 +3622,7 @@
       <c r="X44" s="32"/>
       <c r="Y44" s="32"/>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A45" s="21">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -3646,7 +3643,7 @@
       <c r="X45" s="32"/>
       <c r="Y45" s="32"/>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A46" s="21">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -3667,7 +3664,7 @@
       <c r="X46" s="32"/>
       <c r="Y46" s="32"/>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A47" s="21">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -3688,7 +3685,7 @@
       <c r="X47" s="32"/>
       <c r="Y47" s="32"/>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A48" s="21">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -3709,7 +3706,7 @@
       <c r="X48" s="32"/>
       <c r="Y48" s="32"/>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A49" s="21">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -3730,7 +3727,7 @@
       <c r="X49" s="32"/>
       <c r="Y49" s="32"/>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A50" s="21">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -3751,7 +3748,7 @@
       <c r="X50" s="32"/>
       <c r="Y50" s="32"/>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A51" s="21">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -3772,7 +3769,7 @@
       <c r="X51" s="32"/>
       <c r="Y51" s="32"/>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A52" s="21">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -3793,7 +3790,7 @@
       <c r="X52" s="32"/>
       <c r="Y52" s="32"/>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A53" s="21">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -3814,7 +3811,7 @@
       <c r="X53" s="32"/>
       <c r="Y53" s="32"/>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A54" s="21">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -3835,7 +3832,7 @@
       <c r="X54" s="32"/>
       <c r="Y54" s="32"/>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A55" s="21">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -3857,7 +3854,7 @@
       <c r="X55" s="32"/>
       <c r="Y55" s="32"/>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A56" s="21">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -3879,7 +3876,7 @@
       <c r="X56" s="32"/>
       <c r="Y56" s="32"/>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A57" s="21">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -3901,7 +3898,7 @@
       <c r="X57" s="32"/>
       <c r="Y57" s="32"/>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A58" s="21">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -3930,7 +3927,7 @@
       <c r="X58" s="32"/>
       <c r="Y58" s="32"/>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -3956,7 +3953,7 @@
       <c r="X59" s="32"/>
       <c r="Y59" s="32"/>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -3978,7 +3975,7 @@
       <c r="T60" s="2"/>
       <c r="U60" s="2"/>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -3993,7 +3990,7 @@
       <c r="T61" s="2"/>
       <c r="U61" s="2"/>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -4008,7 +4005,7 @@
       <c r="T62" s="2"/>
       <c r="U62" s="2"/>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.25">
       <c r="L63" s="2"/>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -4020,14 +4017,14 @@
       <c r="T63" s="2"/>
       <c r="U63" s="2"/>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.25">
       <c r="Q64" s="2"/>
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
       <c r="T64" s="2"/>
       <c r="U64" s="2"/>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="32"/>
       <c r="B65" s="32"/>
       <c r="C65" s="32"/>
@@ -4047,7 +4044,7 @@
       <c r="T65" s="2"/>
       <c r="U65" s="2"/>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="32"/>
       <c r="B66" s="32"/>
       <c r="C66" s="32"/>
@@ -4067,7 +4064,7 @@
       <c r="T66" s="2"/>
       <c r="U66" s="2"/>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="32"/>
       <c r="B67" s="32"/>
       <c r="C67" s="32"/>
@@ -4087,7 +4084,7 @@
       <c r="T67" s="2"/>
       <c r="U67" s="2"/>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="32"/>
       <c r="B68" s="32"/>
       <c r="C68" s="32"/>
@@ -4107,7 +4104,7 @@
       <c r="T68" s="2"/>
       <c r="U68" s="2"/>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="32"/>
       <c r="B69" s="32"/>
       <c r="C69" s="32"/>
@@ -4127,7 +4124,7 @@
       <c r="T69" s="2"/>
       <c r="U69" s="2"/>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="32"/>
       <c r="B70" s="32"/>
       <c r="C70" s="32"/>
@@ -4147,7 +4144,7 @@
       <c r="T70" s="2"/>
       <c r="U70" s="2"/>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="32"/>
       <c r="B71" s="32"/>
       <c r="C71" s="32"/>
@@ -4167,7 +4164,7 @@
       <c r="T71" s="2"/>
       <c r="U71" s="2"/>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="32"/>
       <c r="B72" s="32"/>
       <c r="C72" s="32"/>
@@ -4187,7 +4184,7 @@
       <c r="T72" s="2"/>
       <c r="U72" s="2"/>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="32"/>
       <c r="B73" s="32"/>
       <c r="C73" s="32"/>
@@ -4207,7 +4204,7 @@
       <c r="T73" s="2"/>
       <c r="U73" s="2"/>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="32"/>
       <c r="B74" s="32"/>
       <c r="C74" s="32"/>
@@ -4227,7 +4224,7 @@
       <c r="T74" s="2"/>
       <c r="U74" s="2"/>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="32"/>
       <c r="B75" s="32"/>
       <c r="C75" s="32"/>
@@ -4247,7 +4244,7 @@
       <c r="T75" s="2"/>
       <c r="U75" s="2"/>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="32"/>
       <c r="B76" s="17"/>
       <c r="C76" s="17"/>
@@ -4267,7 +4264,7 @@
       <c r="T76" s="2"/>
       <c r="U76" s="2"/>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="32"/>
       <c r="B77" s="17"/>
       <c r="C77" s="17"/>
@@ -4287,7 +4284,7 @@
       <c r="T77" s="2"/>
       <c r="U77" s="2"/>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="32"/>
       <c r="B78" s="17"/>
       <c r="C78" s="17"/>
@@ -4307,7 +4304,7 @@
       <c r="T78" s="2"/>
       <c r="U78" s="2"/>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="32"/>
       <c r="B79" s="32"/>
       <c r="C79" s="32"/>
@@ -4327,7 +4324,7 @@
       <c r="T79" s="2"/>
       <c r="U79" s="2"/>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="32"/>
       <c r="B80" s="32"/>
       <c r="C80" s="32"/>
@@ -4347,7 +4344,7 @@
       <c r="T80" s="2"/>
       <c r="U80" s="2"/>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="32"/>
       <c r="B81" s="32"/>
       <c r="C81" s="32"/>
@@ -4367,7 +4364,7 @@
       <c r="T81" s="2"/>
       <c r="U81" s="2"/>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="32"/>
       <c r="B82" s="32"/>
       <c r="C82" s="32"/>
@@ -4387,7 +4384,7 @@
       <c r="T82" s="2"/>
       <c r="U82" s="2"/>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="32"/>
       <c r="B83" s="32"/>
       <c r="C83" s="32"/>
@@ -4407,7 +4404,7 @@
       <c r="T83" s="2"/>
       <c r="U83" s="2"/>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="32"/>
       <c r="B84" s="32"/>
       <c r="C84" s="32"/>
@@ -4427,7 +4424,7 @@
       <c r="T84" s="2"/>
       <c r="U84" s="2"/>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="32"/>
       <c r="B85" s="32"/>
       <c r="C85" s="32"/>
@@ -4448,7 +4445,7 @@
       <c r="T85" s="2"/>
       <c r="U85" s="2"/>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="32"/>
       <c r="B86" s="32"/>
       <c r="C86" s="32"/>
@@ -4469,7 +4466,7 @@
       <c r="T86" s="2"/>
       <c r="U86" s="2"/>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="32"/>
       <c r="B87" s="32"/>
       <c r="C87" s="32"/>
@@ -4490,7 +4487,7 @@
       <c r="T87" s="2"/>
       <c r="U87" s="2"/>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="32"/>
       <c r="B88" s="32"/>
       <c r="C88" s="32"/>
@@ -4511,7 +4508,7 @@
       <c r="T88" s="2"/>
       <c r="U88" s="2"/>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="32"/>
       <c r="B89" s="32"/>
       <c r="C89" s="32"/>
@@ -4532,7 +4529,7 @@
       <c r="T89" s="2"/>
       <c r="U89" s="2"/>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="32"/>
       <c r="B90" s="32"/>
       <c r="C90" s="32"/>
@@ -4552,7 +4549,7 @@
       <c r="T90" s="2"/>
       <c r="U90" s="2"/>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="32"/>
       <c r="B91" s="32"/>
       <c r="C91" s="32"/>
@@ -4572,7 +4569,7 @@
       <c r="T91" s="2"/>
       <c r="U91" s="2"/>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="32"/>
       <c r="B92" s="32"/>
       <c r="C92" s="32"/>
@@ -4592,7 +4589,7 @@
       <c r="T92" s="2"/>
       <c r="U92" s="2"/>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="32"/>
       <c r="B93" s="32"/>
       <c r="C93" s="32"/>
@@ -4612,7 +4609,7 @@
       <c r="T93" s="2"/>
       <c r="U93" s="2"/>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="32"/>
       <c r="B94" s="32"/>
       <c r="C94" s="32"/>
@@ -4632,7 +4629,7 @@
       <c r="T94" s="2"/>
       <c r="U94" s="2"/>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="32"/>
       <c r="B95" s="32"/>
       <c r="C95" s="32"/>
@@ -4661,28 +4658,28 @@
   <dimension ref="A1:M55"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="21" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="21" customWidth="1"/>
-    <col min="6" max="6" width="37.5546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="21.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="21" customWidth="1"/>
+    <col min="2" max="2" width="33.28515625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" style="21" customWidth="1"/>
+    <col min="6" max="6" width="37.5703125" style="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="21.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" style="48" customWidth="1"/>
-    <col min="10" max="10" width="36.109375" style="21" customWidth="1"/>
-    <col min="11" max="11" width="18.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="36.140625" style="21" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" style="21" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="21" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="21"/>
+    <col min="13" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="91" t="s">
         <v>64</v>
       </c>
@@ -4699,7 +4696,7 @@
       <c r="K2" s="94"/>
       <c r="L2" s="95"/>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>79</v>
       </c>
@@ -4730,7 +4727,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="41" t="s">
         <v>3</v>
       </c>
@@ -4760,7 +4757,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="42" t="s">
         <v>65</v>
       </c>
@@ -4790,7 +4787,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="42" t="s">
         <v>70</v>
       </c>
@@ -4818,7 +4815,7 @@
       </c>
       <c r="L6" s="48"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B7" s="42" t="s">
         <v>5</v>
       </c>
@@ -4841,7 +4838,7 @@
       <c r="L7" s="48"/>
       <c r="M7" s="48"/>
     </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="42" t="s">
         <v>6</v>
       </c>
@@ -4864,7 +4861,7 @@
       <c r="L8" s="68"/>
       <c r="M8" s="48"/>
     </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="47" t="s">
         <v>4</v>
       </c>
@@ -4891,7 +4888,7 @@
       <c r="L9" s="49"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="49" t="s">
         <v>78</v>
       </c>
@@ -4916,7 +4913,7 @@
       <c r="L10" s="48"/>
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F11" s="54" t="s">
         <v>67</v>
       </c>
@@ -4935,7 +4932,7 @@
       <c r="L11" s="48"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F12" s="59" t="s">
         <v>5</v>
       </c>
@@ -4955,7 +4952,7 @@
       <c r="L12" s="48"/>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F13" s="49" t="s">
         <v>78</v>
       </c>
@@ -4971,7 +4968,7 @@
       <c r="L13" s="48"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F14" s="49"/>
       <c r="J14" s="58" t="s">
         <v>130</v>
@@ -4982,7 +4979,7 @@
       <c r="L14" s="48"/>
       <c r="M14" s="48"/>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F15" s="49"/>
       <c r="I15" s="48" t="s">
         <v>139</v>
@@ -4996,7 +4993,7 @@
       <c r="L15" s="48"/>
       <c r="M15" s="48"/>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
       <c r="F16" s="49"/>
       <c r="J16" s="58" t="s">
         <v>132</v>
@@ -5007,7 +5004,7 @@
       <c r="L16" s="48"/>
       <c r="M16" s="48"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F17" s="49"/>
       <c r="J17" s="43" t="s">
         <v>133</v>
@@ -5016,8 +5013,8 @@
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B20" s="91" t="s">
         <v>85</v>
       </c>
@@ -5031,7 +5028,7 @@
       <c r="J20" s="94"/>
       <c r="K20" s="95"/>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="3">
         <v>128</v>
       </c>
@@ -5063,7 +5060,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22" s="69">
         <v>1</v>
       </c>
@@ -5095,7 +5092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B23" s="54">
         <v>1</v>
       </c>
@@ -5128,7 +5125,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B24" s="54">
         <v>1</v>
       </c>
@@ -5161,7 +5158,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25" s="54">
         <v>1</v>
       </c>
@@ -5194,7 +5191,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26" s="54">
         <v>1</v>
       </c>
@@ -5227,7 +5224,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27" s="54">
         <v>1</v>
       </c>
@@ -5260,7 +5257,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28" s="54">
         <v>1</v>
       </c>
@@ -5293,7 +5290,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29" s="54">
         <v>1</v>
       </c>
@@ -5326,7 +5323,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B30" s="70">
         <v>0</v>
       </c>
@@ -5359,7 +5356,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" s="46"/>
       <c r="C31" s="46"/>
       <c r="D31" s="46"/>
@@ -5369,7 +5366,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="17"/>
       <c r="B32" s="18"/>
       <c r="C32" s="18"/>
@@ -5384,7 +5381,7 @@
       <c r="L32" s="17"/>
       <c r="M32" s="17"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="17"/>
       <c r="B33" s="97"/>
       <c r="C33" s="97"/>
@@ -5399,7 +5396,7 @@
       <c r="L33" s="97"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="17"/>
       <c r="B34" s="18"/>
       <c r="C34" s="18"/>
@@ -5414,7 +5411,7 @@
       <c r="L34" s="18"/>
       <c r="M34" s="17"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="17"/>
       <c r="B35" s="17"/>
       <c r="C35" s="17"/>
@@ -5429,7 +5426,7 @@
       <c r="L35" s="17"/>
       <c r="M35" s="17"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="17"/>
       <c r="B36" s="17"/>
       <c r="C36" s="17"/>
@@ -5444,7 +5441,7 @@
       <c r="L36" s="17"/>
       <c r="M36" s="17"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="17"/>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
@@ -5459,7 +5456,7 @@
       <c r="L37" s="17"/>
       <c r="M37" s="17"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -5474,7 +5471,7 @@
       <c r="L38" s="17"/>
       <c r="M38" s="17"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="17"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -5489,7 +5486,7 @@
       <c r="L39" s="17"/>
       <c r="M39" s="17"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17"/>
       <c r="C40" s="17"/>
@@ -5504,7 +5501,7 @@
       <c r="L40" s="17"/>
       <c r="M40" s="17"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="17"/>
       <c r="B41" s="18"/>
       <c r="C41" s="17"/>
@@ -5519,7 +5516,7 @@
       <c r="L41" s="17"/>
       <c r="M41" s="17"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="17"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -5534,7 +5531,7 @@
       <c r="L42" s="17"/>
       <c r="M42" s="17"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="17"/>
       <c r="B43" s="17"/>
       <c r="C43" s="17"/>
@@ -5549,7 +5546,7 @@
       <c r="L43" s="17"/>
       <c r="M43" s="17"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="17"/>
       <c r="B44" s="17"/>
       <c r="C44" s="17"/>
@@ -5564,7 +5561,7 @@
       <c r="L44" s="17"/>
       <c r="M44" s="17"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="17"/>
       <c r="B45" s="17"/>
       <c r="C45" s="17"/>
@@ -5579,7 +5576,7 @@
       <c r="L45" s="17"/>
       <c r="M45" s="17"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="17"/>
       <c r="C46" s="17"/>
@@ -5594,7 +5591,7 @@
       <c r="L46" s="17"/>
       <c r="M46" s="17"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="17"/>
       <c r="B47" s="17"/>
       <c r="C47" s="17"/>
@@ -5609,42 +5606,42 @@
       <c r="L47" s="17"/>
       <c r="M47" s="17"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="E48" s="48"/>
       <c r="F48" s="60"/>
       <c r="G48" s="48"/>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E49" s="48"/>
       <c r="F49" s="48"/>
       <c r="G49" s="48"/>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E50" s="48"/>
       <c r="F50" s="48"/>
       <c r="G50" s="48"/>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E51" s="48"/>
       <c r="F51" s="48"/>
       <c r="G51" s="48"/>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E52" s="48"/>
       <c r="F52" s="17"/>
       <c r="G52" s="48"/>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E53" s="48"/>
       <c r="F53" s="48"/>
       <c r="G53" s="48"/>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E54" s="48"/>
       <c r="F54" s="48"/>
       <c r="G54" s="48"/>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.25">
       <c r="E55" s="48"/>
       <c r="F55" s="48"/>
       <c r="G55" s="48"/>
@@ -5674,25 +5671,25 @@
       <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -5716,73 +5713,73 @@
       <c r="U1" s="87"/>
       <c r="V1" s="87"/>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="85" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="89" t="s">
+        <v>174</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="89" t="s">
+        <v>175</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="89" t="s">
+        <v>177</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="89" t="s">
+        <v>178</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="89" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="90" t="s">
+        <v>180</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="100" t="s">
         <v>190</v>
-      </c>
-      <c r="B2" s="85" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A3" s="89" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A4" s="89" t="s">
-        <v>176</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A5" s="89" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A6" s="89" t="s">
-        <v>178</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A7" s="89" t="s">
-        <v>179</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A8" s="89" t="s">
-        <v>180</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A9" s="90" t="s">
-        <v>181</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" ht="18" x14ac:dyDescent="0.35">
-      <c r="A11" s="100" t="s">
-        <v>191</v>
       </c>
       <c r="B11" s="100"/>
       <c r="C11" s="100"/>
@@ -5806,1103 +5803,1103 @@
       <c r="U11" s="88"/>
       <c r="V11" s="88"/>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B12" s="98"/>
       <c r="C12" s="98"/>
       <c r="D12" s="98"/>
       <c r="F12" s="98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G12" s="98"/>
       <c r="H12" s="98"/>
       <c r="I12" s="98"/>
       <c r="K12" s="98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L12" s="98"/>
       <c r="M12" s="98"/>
       <c r="N12" s="98"/>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A13" s="86" t="s">
         <v>1</v>
       </c>
       <c r="B13" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C13" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>193</v>
-      </c>
       <c r="D13" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F13" s="86" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="H13" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="H13" s="86" t="s">
-        <v>193</v>
-      </c>
       <c r="I13" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K13" s="86" t="s">
         <v>1</v>
       </c>
       <c r="L13" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="M13" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="M13" s="86" t="s">
-        <v>193</v>
-      </c>
       <c r="N13" s="86" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>71</v>
       </c>
       <c r="L14" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="M14" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="L15" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="M14" s="12" t="s">
+      <c r="M15" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="N14" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="F15" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G15" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I15" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>214</v>
-      </c>
       <c r="N15" s="12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A16" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B16" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I16" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C17" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G16" s="12" t="s">
+      <c r="D17" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H17" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I16" s="12" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>214</v>
-      </c>
       <c r="I17" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K17" s="98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="L17" s="98"/>
       <c r="M17" s="98"/>
       <c r="N17" s="98"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K18" s="86" t="s">
         <v>1</v>
       </c>
       <c r="L18" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="M18" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="M18" s="86" t="s">
-        <v>193</v>
-      </c>
       <c r="N18" s="86" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>216</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="G19" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>217</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>214</v>
-      </c>
       <c r="I19" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>71</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F20" s="73"/>
       <c r="G20" s="73"/>
       <c r="H20" s="73"/>
       <c r="I20" s="73"/>
       <c r="K20" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F21" s="73"/>
       <c r="G21" s="73"/>
       <c r="H21" s="73"/>
       <c r="I21" s="73"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F22" s="73"/>
       <c r="G22" s="73"/>
       <c r="H22" s="73"/>
       <c r="I22" s="73"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B24" s="98"/>
       <c r="C24" s="98"/>
       <c r="D24" s="98"/>
       <c r="F24" s="98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G24" s="98"/>
       <c r="H24" s="98"/>
       <c r="I24" s="98"/>
       <c r="K24" s="98" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="L24" s="98"/>
       <c r="M24" s="98"/>
       <c r="N24" s="98"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25" s="86" t="s">
         <v>1</v>
       </c>
       <c r="B25" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C25" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C25" s="86" t="s">
-        <v>193</v>
-      </c>
       <c r="D25" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F25" s="86" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="H25" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="H25" s="86" t="s">
-        <v>193</v>
-      </c>
       <c r="I25" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K25" s="86" t="s">
         <v>1</v>
       </c>
       <c r="L25" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="M25" s="86" t="s">
-        <v>193</v>
-      </c>
       <c r="N25" s="86" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I26" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="K26" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="L26" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="M26" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="N26" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="H26" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="I26" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="K26" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="L26" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="D27" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="F27" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G27" s="12" t="s">
-        <v>219</v>
-      </c>
       <c r="H27" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I28" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C29" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G28" s="12" t="s">
+      <c r="D29" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G29" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H29" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I28" s="12" t="s">
+      <c r="I29" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" s="12" t="s">
         <v>227</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D29" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" s="12" t="s">
-        <v>228</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G30" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F31" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H31" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I31" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C34" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="I30" s="12" t="s">
+      <c r="D34" s="12" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C31" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D31" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="I31" s="12" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C34" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D34" s="12" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B36" s="98"/>
       <c r="C36" s="98"/>
       <c r="D36" s="98"/>
       <c r="F36" s="98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G36" s="98"/>
       <c r="H36" s="98"/>
       <c r="I36" s="98"/>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="86" t="s">
         <v>1</v>
       </c>
       <c r="B37" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="C37" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="C37" s="86" t="s">
-        <v>193</v>
-      </c>
       <c r="D37" s="86" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="F37" s="86" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="86" t="s">
+        <v>191</v>
+      </c>
+      <c r="H37" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="H37" s="86" t="s">
-        <v>193</v>
-      </c>
       <c r="I37" s="86" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G38" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I38" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="I38" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>211</v>
-      </c>
       <c r="D39" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="I39" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="F39" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>202</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I40" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="C41" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="I40" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+      <c r="D41" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I41" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="B41" s="12" t="s">
+      <c r="B42" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C41" s="12" t="s">
+      <c r="C42" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I42" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I43" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I44" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C45" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D41" s="12" t="s">
+      <c r="D45" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="F41" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D42" s="12" t="s">
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D46" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="F42" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D43" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="C44" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D44" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="C45" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D45" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="C46" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="D46" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>209</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="12" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G47" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="H47" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="I47" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="B48" s="12" t="s">
+      <c r="C48" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D48" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I48" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C49" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="D49" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I49" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="B50" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D50" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>220</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I50" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="F48" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="D49" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="D50" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>221</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G51" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I51" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="H51" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A52" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>223</v>
-      </c>
       <c r="C52" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D52" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>222</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="F52" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>223</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="12" t="s">
         <v>71</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>71</v>
       </c>
       <c r="G53" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I53" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H53" s="12" t="s">
+      <c r="C54" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="I53" s="12" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A54" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C54" s="12" t="s">
-        <v>214</v>
-      </c>
       <c r="D54" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I54" s="12" t="s">
         <v>229</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K24:N24"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A11:R11"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K24:N24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6914,23 +6911,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B46D577-AC6F-4505-860C-EE5869797CC5}">
   <dimension ref="A1:M61"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.109375" style="21"/>
-    <col min="3" max="3" width="23.33203125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="58.44140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="9.109375" style="21"/>
-    <col min="7" max="7" width="36.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="58.44140625" style="21" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="21"/>
+    <col min="1" max="2" width="9.140625" style="21"/>
+    <col min="3" max="3" width="23.28515625" style="21" customWidth="1"/>
+    <col min="4" max="4" width="58.42578125" style="21" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.140625" style="21"/>
+    <col min="7" max="7" width="36.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="58.42578125" style="21" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="91" t="s">
         <v>75</v>
       </c>
@@ -6942,7 +6939,7 @@
       <c r="G2" s="94"/>
       <c r="H2" s="95"/>
     </row>
-    <row r="3" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="71" t="s">
         <v>0</v>
       </c>
@@ -6967,12 +6964,12 @@
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="101">
         <v>11</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D4" s="77" t="s">
         <v>8</v>
@@ -6981,7 +6978,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H4" s="77" t="s">
         <v>8</v>
@@ -6992,7 +6989,7 @@
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="102"/>
       <c r="C5" s="102"/>
       <c r="D5" s="67" t="s">
@@ -7009,7 +7006,7 @@
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
     </row>
-    <row r="6" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="103"/>
       <c r="C6" s="103"/>
       <c r="D6" s="78" t="s">
@@ -7026,7 +7023,7 @@
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
-    <row r="7" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="23"/>
       <c r="C7" s="73"/>
       <c r="D7" s="80"/>
@@ -7039,7 +7036,7 @@
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="34">
         <v>12</v>
       </c>
@@ -7064,7 +7061,7 @@
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
-    <row r="9" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="23"/>
       <c r="C9" s="73"/>
       <c r="D9" s="80"/>
@@ -7077,12 +7074,12 @@
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
-    <row r="10" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="34">
         <v>13</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" s="81" t="s">
         <v>14</v>
@@ -7091,7 +7088,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H10" s="77" t="s">
         <v>8</v>
@@ -7102,7 +7099,7 @@
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
-    <row r="11" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23"/>
       <c r="C11" s="73"/>
       <c r="D11" s="80"/>
@@ -7117,12 +7114,12 @@
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
     </row>
-    <row r="12" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B12" s="34">
         <v>14</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D12" s="81" t="s">
         <v>12</v>
@@ -7136,7 +7133,7 @@
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
-    <row r="13" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="23"/>
       <c r="C13" s="73"/>
       <c r="D13" s="80"/>
@@ -7155,12 +7152,12 @@
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
-    <row r="14" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="101">
         <v>15</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D14" s="79" t="s">
         <v>8</v>
@@ -7174,7 +7171,7 @@
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
-    <row r="15" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="103"/>
       <c r="C15" s="103"/>
       <c r="D15" s="43" t="s">
@@ -7195,7 +7192,7 @@
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
-    <row r="16" spans="2:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="23"/>
       <c r="C16" s="73"/>
       <c r="D16" s="80"/>
@@ -7208,12 +7205,12 @@
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="101">
         <v>16</v>
       </c>
       <c r="C17" s="101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D17" s="77" t="s">
         <v>8</v>
@@ -7222,7 +7219,7 @@
         <v>26</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H17" s="81" t="s">
         <v>13</v>
@@ -7233,7 +7230,7 @@
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
-    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B18" s="103"/>
       <c r="C18" s="103"/>
       <c r="D18" s="75" t="s">
@@ -7248,7 +7245,7 @@
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -7258,7 +7255,7 @@
         <v>27</v>
       </c>
       <c r="G19" s="101" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H19" s="77" t="s">
         <v>8</v>
@@ -7269,7 +7266,7 @@
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
-    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -7281,7 +7278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="2"/>
       <c r="B21" s="91" t="s">
         <v>77</v>
@@ -7293,7 +7290,7 @@
       <c r="G21" s="73"/>
       <c r="H21" s="80"/>
     </row>
-    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="2"/>
       <c r="B22" s="24" t="s">
         <v>0</v>
@@ -7309,19 +7306,19 @@
         <v>28</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H22" s="81" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="2"/>
       <c r="B23" s="34">
         <v>91</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D23" s="81" t="s">
         <v>146</v>
@@ -7332,7 +7329,7 @@
       <c r="H23" s="80"/>
       <c r="I23" s="2"/>
     </row>
-    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B24" s="23"/>
       <c r="C24" s="2"/>
       <c r="D24" s="1"/>
@@ -7340,48 +7337,48 @@
         <v>29</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H24" s="81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B25" s="34">
         <v>92</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D25" s="81" t="s">
         <v>13</v>
       </c>
       <c r="H25" s="82"/>
     </row>
-    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="23"/>
       <c r="C26" s="73"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="73"/>
       <c r="B27" s="34">
         <v>99</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D27" s="81" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="73"/>
       <c r="B28" s="73"/>
       <c r="C28" s="73"/>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="73"/>
       <c r="B29" s="73"/>
       <c r="C29" s="76"/>
@@ -7392,7 +7389,7 @@
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="73"/>
       <c r="B30" s="73"/>
       <c r="C30" s="76"/>
@@ -7403,7 +7400,7 @@
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="73"/>
       <c r="B31" s="73"/>
       <c r="C31" s="73"/>
@@ -7414,7 +7411,7 @@
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
       <c r="B32" s="73"/>
       <c r="C32" s="73"/>
@@ -7424,7 +7421,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="73"/>
       <c r="B33" s="17"/>
       <c r="C33" s="73"/>
@@ -7434,7 +7431,7 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="73"/>
       <c r="B34" s="73"/>
       <c r="C34" s="73"/>
@@ -7444,7 +7441,7 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="73"/>
       <c r="B35" s="73"/>
       <c r="C35" s="73"/>
@@ -7454,46 +7451,46 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="73"/>
       <c r="B36" s="17"/>
       <c r="C36" s="73"/>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="73"/>
       <c r="B37" s="73"/>
       <c r="C37" s="73"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="73"/>
       <c r="B38" s="73"/>
       <c r="C38" s="73"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="73"/>
       <c r="B39" s="73"/>
       <c r="C39" s="73"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="73"/>
       <c r="B40" s="73"/>
       <c r="C40" s="73"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="73"/>
       <c r="B41" s="73"/>
       <c r="C41" s="73"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="73"/>
       <c r="E59" s="73"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="73"/>
       <c r="E60" s="73"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="73"/>
       <c r="E61" s="73"/>
     </row>
@@ -7524,328 +7521,315 @@
   <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="19.109375" customWidth="1"/>
-    <col min="8" max="8" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.140625" customWidth="1"/>
+    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="8" max="8" width="55.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="114" t="s">
+    <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="107" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="115"/>
-      <c r="D2" s="116"/>
-      <c r="E2" s="115" t="s">
+      <c r="C2" s="108"/>
+      <c r="D2" s="109"/>
+      <c r="E2" s="108" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="116"/>
+      <c r="F2" s="109"/>
       <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" s="117">
+    <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="110">
         <v>1</v>
       </c>
-      <c r="C3" s="118"/>
-      <c r="D3" s="111"/>
-      <c r="E3" s="110" t="s">
+      <c r="C3" s="111"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="118" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="111"/>
-      <c r="H3" s="41"/>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B4" s="112">
+      <c r="F3" s="112"/>
+      <c r="H3" s="35" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="104">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="113"/>
-      <c r="D4" s="105"/>
-      <c r="E4" s="104" t="s">
+      <c r="C4" s="105"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="119" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="105"/>
-      <c r="H4" s="42" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B5" s="112">
+      <c r="F4" s="106"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="104">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="113"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="104" t="s">
+      <c r="C5" s="105"/>
+      <c r="D5" s="106"/>
+      <c r="E5" s="119" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="105"/>
-      <c r="H5" s="42" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="112">
+      <c r="F5" s="106"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="104">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="113"/>
-      <c r="D6" s="105"/>
-      <c r="E6" s="104" t="s">
+      <c r="C6" s="105"/>
+      <c r="D6" s="106"/>
+      <c r="E6" s="119" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="105"/>
-      <c r="H6" s="35" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B7" s="112">
+      <c r="F6" s="106"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="104">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="113"/>
-      <c r="D7" s="105"/>
-      <c r="E7" s="104" t="s">
+      <c r="C7" s="105"/>
+      <c r="D7" s="106"/>
+      <c r="E7" s="119" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="105"/>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B8" s="112">
+      <c r="F7" s="106"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="104">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="113"/>
-      <c r="D8" s="105"/>
-      <c r="E8" s="104" t="s">
-        <v>164</v>
-      </c>
-      <c r="F8" s="105"/>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B9" s="112">
+      <c r="C8" s="105"/>
+      <c r="D8" s="106"/>
+      <c r="E8" s="119" t="s">
+        <v>163</v>
+      </c>
+      <c r="F8" s="106"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="104">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="113"/>
-      <c r="D9" s="105"/>
-      <c r="E9" s="104" t="s">
-        <v>165</v>
-      </c>
-      <c r="F9" s="105"/>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B10" s="112">
+      <c r="C9" s="105"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="119" t="s">
+        <v>164</v>
+      </c>
+      <c r="F9" s="106"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="104">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="113"/>
-      <c r="D10" s="105"/>
-      <c r="E10" s="104" t="s">
-        <v>159</v>
-      </c>
-      <c r="F10" s="105"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B11" s="112">
+      <c r="C10" s="105"/>
+      <c r="D10" s="106"/>
+      <c r="E10" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="106"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="104">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="113"/>
-      <c r="D11" s="105"/>
-      <c r="E11" s="119" t="s">
-        <v>160</v>
-      </c>
-      <c r="F11" s="120"/>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B12" s="112">
+      <c r="C11" s="105"/>
+      <c r="D11" s="106"/>
+      <c r="E11" s="113" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" s="114"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="104">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="113"/>
-      <c r="D12" s="105"/>
-      <c r="E12" s="119" t="s">
-        <v>161</v>
-      </c>
-      <c r="F12" s="120"/>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B13" s="112">
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="113" t="s">
+        <v>160</v>
+      </c>
+      <c r="F12" s="114"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="104">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="113"/>
-      <c r="D13" s="105"/>
-      <c r="E13" s="104" t="s">
+      <c r="C13" s="105"/>
+      <c r="D13" s="106"/>
+      <c r="E13" s="119" t="s">
         <v>157</v>
       </c>
-      <c r="F13" s="105"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B14" s="112">
+      <c r="F13" s="106"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="104">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="113"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="105"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B15" s="112">
+      <c r="C14" s="105"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="F14" s="106"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="104">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="113"/>
-      <c r="D15" s="105"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="105"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B16" s="112">
+      <c r="C15" s="105"/>
+      <c r="D15" s="106"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="106"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="104">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="113"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="105"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B17" s="112">
+      <c r="C16" s="105"/>
+      <c r="D16" s="106"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="106"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="104">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="113"/>
-      <c r="D17" s="105"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B18" s="112">
+      <c r="C17" s="105"/>
+      <c r="D17" s="106"/>
+      <c r="E17" s="119"/>
+      <c r="F17" s="106"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="104">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="113"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="105"/>
+      <c r="C18" s="105"/>
+      <c r="D18" s="106"/>
+      <c r="E18" s="119"/>
+      <c r="F18" s="106"/>
       <c r="H18" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="112">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="104">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="113"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="105"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" s="112">
+      <c r="C19" s="105"/>
+      <c r="D19" s="106"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="106"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="104">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="113"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="105"/>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B21" s="112">
+      <c r="C20" s="105"/>
+      <c r="D20" s="106"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="106"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="104">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="113"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="105"/>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B22" s="112">
+      <c r="C21" s="105"/>
+      <c r="D21" s="106"/>
+      <c r="E21" s="119"/>
+      <c r="F21" s="106"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="104">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="113"/>
-      <c r="D22" s="105"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="105"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B23" s="112">
+      <c r="C22" s="105"/>
+      <c r="D22" s="106"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="106"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="104">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="113"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="105"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B24" s="112">
+      <c r="C23" s="105"/>
+      <c r="D23" s="106"/>
+      <c r="E23" s="119"/>
+      <c r="F23" s="106"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="104">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="113"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="105"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="112">
+      <c r="C24" s="105"/>
+      <c r="D24" s="106"/>
+      <c r="E24" s="119"/>
+      <c r="F24" s="106"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="104">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="113"/>
-      <c r="D25" s="105"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="105"/>
-    </row>
-    <row r="26" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="108">
+      <c r="C25" s="105"/>
+      <c r="D25" s="106"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="106"/>
+    </row>
+    <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="115">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="109"/>
-      <c r="D26" s="107"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="107"/>
+      <c r="C26" s="116"/>
+      <c r="D26" s="117"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -7862,19 +7846,27 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/Tabela Apoio.xlsx
+++ b/Tabela Apoio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ismaipt-my.sharepoint.com/personal/a039132_ismai_pt/Documents/2ºAno/2º Semestre/PBL/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{0655B1D4-B2F6-4524-A1F3-A3307B122660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DF8B6128-5398-4946-926A-A6F9AF94C003}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{0655B1D4-B2F6-4524-A1F3-A3307B122660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D55F6DC9-915E-4C4B-9B15-ACF4E752CBB8}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{6E2D315F-7B3D-4AFE-B7D6-9DF4C983705B}"/>
   </bookViews>
   <sheets>
     <sheet name="Portas" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="764" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="768" uniqueCount="246">
   <si>
     <t>Vlan ID</t>
   </si>
@@ -512,9 +512,6 @@
     <t>O que falta</t>
   </si>
   <si>
-    <t>Native VLAN Trunks</t>
-  </si>
-  <si>
     <t>Static Routing</t>
   </si>
   <si>
@@ -765,6 +762,21 @@
   </si>
   <si>
     <t>RT-ISP -&gt; RT-CLOUD (1)</t>
+  </si>
+  <si>
+    <t>Native VLAN Trunks (Convidados = Native VLAN)</t>
+  </si>
+  <si>
+    <t>Servidor TFTP</t>
+  </si>
+  <si>
+    <t>Servidor HTTP/HTTPS</t>
+  </si>
+  <si>
+    <t>Servidor de email</t>
+  </si>
+  <si>
+    <t>Servidor FTP</t>
   </si>
 </sst>
 </file>
@@ -1735,15 +1747,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1759,32 +1792,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5689,7 +5701,7 @@
   <sheetData>
     <row r="1" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A1" s="99" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B1" s="99"/>
       <c r="C1" s="99"/>
@@ -5715,71 +5727,71 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A2" s="85" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B2" s="85" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="89" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" s="89" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="89" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="89" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="89" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="100" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B11" s="100"/>
       <c r="C11" s="100"/>
@@ -5805,19 +5817,19 @@
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="98" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B12" s="98"/>
       <c r="C12" s="98"/>
       <c r="D12" s="98"/>
       <c r="F12" s="98" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G12" s="98"/>
       <c r="H12" s="98"/>
       <c r="I12" s="98"/>
       <c r="K12" s="98" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L12" s="98"/>
       <c r="M12" s="98"/>
@@ -5828,37 +5840,37 @@
         <v>1</v>
       </c>
       <c r="B13" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="C13" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="C13" s="86" t="s">
-        <v>192</v>
-      </c>
       <c r="D13" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F13" s="86" t="s">
         <v>1</v>
       </c>
       <c r="G13" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="H13" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="H13" s="86" t="s">
-        <v>192</v>
-      </c>
       <c r="I13" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K13" s="86" t="s">
         <v>1</v>
       </c>
       <c r="L13" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="M13" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="M13" s="86" t="s">
-        <v>192</v>
-      </c>
       <c r="N13" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -5866,75 +5878,75 @@
         <v>3</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K14" s="12" t="s">
         <v>71</v>
       </c>
       <c r="L14" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N14" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G15" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H15" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="K15" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="L15" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="M15" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="I15" s="12" t="s">
-        <v>215</v>
-      </c>
-      <c r="K15" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="L15" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="N15" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -5942,54 +5954,54 @@
         <v>6</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H16" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D16" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="I16" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C17" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H17" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F17" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G17" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="I17" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K17" s="98" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="L17" s="98"/>
       <c r="M17" s="98"/>
@@ -5997,122 +6009,122 @@
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D18" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G18" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K18" s="86" t="s">
         <v>1</v>
       </c>
       <c r="L18" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="M18" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="M18" s="86" t="s">
-        <v>192</v>
-      </c>
       <c r="N18" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>215</v>
+      </c>
+      <c r="F19" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B19" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="G19" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H19" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="H19" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="I19" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K19" s="12" t="s">
         <v>71</v>
       </c>
       <c r="L19" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="N19" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D20" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F20" s="73"/>
       <c r="G20" s="73"/>
       <c r="H20" s="73"/>
       <c r="I20" s="73"/>
       <c r="K20" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="L20" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="N20" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F21" s="73"/>
       <c r="G21" s="73"/>
@@ -6121,16 +6133,16 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F22" s="73"/>
       <c r="G22" s="73"/>
@@ -6139,19 +6151,19 @@
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24" s="98" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B24" s="98"/>
       <c r="C24" s="98"/>
       <c r="D24" s="98"/>
       <c r="F24" s="98" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G24" s="98"/>
       <c r="H24" s="98"/>
       <c r="I24" s="98"/>
       <c r="K24" s="98" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="L24" s="98"/>
       <c r="M24" s="98"/>
@@ -6162,37 +6174,37 @@
         <v>1</v>
       </c>
       <c r="B25" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="C25" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="C25" s="86" t="s">
-        <v>192</v>
-      </c>
       <c r="D25" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F25" s="86" t="s">
         <v>1</v>
       </c>
       <c r="G25" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="H25" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="H25" s="86" t="s">
-        <v>192</v>
-      </c>
       <c r="I25" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K25" s="86" t="s">
         <v>1</v>
       </c>
       <c r="L25" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="M25" s="86" t="s">
-        <v>192</v>
-      </c>
       <c r="N25" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -6200,63 +6212,63 @@
         <v>3</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F26" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G26" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H26" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="K26" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="L26" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="L26" s="12" t="s">
+      <c r="M26" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="N26" s="12" t="s">
         <v>231</v>
-      </c>
-      <c r="M26" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="N26" s="12" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F27" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G27" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="H27" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -6264,156 +6276,156 @@
         <v>6</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C28" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F28" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H28" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="D28" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F28" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G28" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="H28" s="12" t="s">
-        <v>212</v>
-      </c>
       <c r="I28" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C29" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F29" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H29" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D29" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F29" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G29" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="H29" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="I29" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F30" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H30" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="B31" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="F31" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="C31" s="12" t="s">
+      <c r="G31" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="D31" s="12" t="s">
-        <v>227</v>
-      </c>
-      <c r="F31" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G31" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="H31" s="12" t="s">
-        <v>213</v>
-      </c>
       <c r="I31" s="12" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D32" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C33" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D33" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="98" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B36" s="98"/>
       <c r="C36" s="98"/>
       <c r="D36" s="98"/>
       <c r="F36" s="98" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G36" s="98"/>
       <c r="H36" s="98"/>
@@ -6424,25 +6436,25 @@
         <v>1</v>
       </c>
       <c r="B37" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="C37" s="86" t="s">
-        <v>192</v>
-      </c>
       <c r="D37" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F37" s="86" t="s">
         <v>1</v>
       </c>
       <c r="G37" s="86" t="s">
+        <v>190</v>
+      </c>
+      <c r="H37" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="H37" s="86" t="s">
-        <v>192</v>
-      </c>
       <c r="I37" s="86" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -6450,51 +6462,51 @@
         <v>3</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C38" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D38" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G38" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H38" s="12" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I38" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D39" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F39" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="I39" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F39" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G39" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="H39" s="12" t="s">
-        <v>210</v>
-      </c>
-      <c r="I39" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -6502,181 +6514,181 @@
         <v>6</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C40" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D40" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F40" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H40" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="I40" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C41" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D41" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F41" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>202</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I41" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F41" s="12" t="s">
-        <v>194</v>
-      </c>
-      <c r="G41" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="H41" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="I41" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D42" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F42" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>203</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I42" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F42" s="12" t="s">
-        <v>195</v>
-      </c>
-      <c r="G42" s="12" t="s">
-        <v>204</v>
-      </c>
-      <c r="H42" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="I42" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D43" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F43" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I43" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F43" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G43" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="H43" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="I43" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C44" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D44" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F44" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I44" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F44" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G44" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="H44" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="I44" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="12" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C45" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D45" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F45" s="12" t="s">
+        <v>197</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I45" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F45" s="12" t="s">
-        <v>198</v>
-      </c>
-      <c r="G45" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="H45" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I45" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D46" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F46" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="I46" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F46" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G46" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="H46" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="I46" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -6684,103 +6696,103 @@
         <v>3</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D47" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F47" s="12" t="s">
         <v>3</v>
       </c>
       <c r="G47" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H47" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="I47" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D48" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F48" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>217</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I48" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F48" s="12" t="s">
-        <v>193</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>218</v>
-      </c>
-      <c r="H48" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="I48" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C49" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D49" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F49" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="I49" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F49" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>219</v>
-      </c>
-      <c r="H49" s="12" t="s">
-        <v>212</v>
-      </c>
-      <c r="I49" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D50" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F50" s="12" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I50" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F50" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="G50" s="12" t="s">
-        <v>220</v>
-      </c>
-      <c r="H50" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
@@ -6788,51 +6800,51 @@
         <v>6</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F51" s="12" t="s">
         <v>6</v>
       </c>
       <c r="G51" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H51" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="I51" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="12" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D52" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>196</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I52" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F52" s="12" t="s">
-        <v>197</v>
-      </c>
-      <c r="G52" s="12" t="s">
-        <v>222</v>
-      </c>
-      <c r="H52" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I52" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -6840,66 +6852,66 @@
         <v>71</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F53" s="12" t="s">
         <v>71</v>
       </c>
       <c r="G53" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H53" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="I53" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="12" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C54" s="12" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D54" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>212</v>
+      </c>
+      <c r="I54" s="12" t="s">
         <v>228</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>196</v>
-      </c>
-      <c r="G54" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="H54" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="I54" s="12" t="s">
-        <v>229</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="F24:I24"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="F36:I36"/>
+    <mergeCell ref="K24:N24"/>
     <mergeCell ref="K17:N17"/>
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="K12:N12"/>
     <mergeCell ref="A1:R1"/>
     <mergeCell ref="A11:R11"/>
-    <mergeCell ref="A24:D24"/>
-    <mergeCell ref="F24:I24"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="F36:I36"/>
-    <mergeCell ref="K24:N24"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6912,7 +6924,7 @@
   <dimension ref="A1:M61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C14" sqref="C14:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6969,7 +6981,7 @@
         <v>11</v>
       </c>
       <c r="C4" s="101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D4" s="77" t="s">
         <v>8</v>
@@ -6978,7 +6990,7 @@
         <v>21</v>
       </c>
       <c r="G4" s="101" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H4" s="77" t="s">
         <v>8</v>
@@ -7079,7 +7091,7 @@
         <v>13</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D10" s="81" t="s">
         <v>14</v>
@@ -7088,7 +7100,7 @@
         <v>23</v>
       </c>
       <c r="G10" s="101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H10" s="77" t="s">
         <v>8</v>
@@ -7119,7 +7131,7 @@
         <v>14</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D12" s="81" t="s">
         <v>12</v>
@@ -7157,7 +7169,7 @@
         <v>15</v>
       </c>
       <c r="C14" s="101" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D14" s="79" t="s">
         <v>8</v>
@@ -7210,7 +7222,7 @@
         <v>16</v>
       </c>
       <c r="C17" s="101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" s="77" t="s">
         <v>8</v>
@@ -7219,7 +7231,7 @@
         <v>26</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H17" s="81" t="s">
         <v>13</v>
@@ -7255,7 +7267,7 @@
         <v>27</v>
       </c>
       <c r="G19" s="101" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H19" s="77" t="s">
         <v>8</v>
@@ -7306,7 +7318,7 @@
         <v>28</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H22" s="81" t="s">
         <v>144</v>
@@ -7318,7 +7330,7 @@
         <v>91</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D23" s="81" t="s">
         <v>146</v>
@@ -7337,7 +7349,7 @@
         <v>29</v>
       </c>
       <c r="G24" s="34" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H24" s="81" t="s">
         <v>12</v>
@@ -7348,7 +7360,7 @@
         <v>92</v>
       </c>
       <c r="C25" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D25" s="81" t="s">
         <v>13</v>
@@ -7366,7 +7378,7 @@
         <v>99</v>
       </c>
       <c r="C27" s="34" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D27" s="81" t="s">
         <v>146</v>
@@ -7521,7 +7533,7 @@
   <dimension ref="B1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7533,303 +7545,319 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="107" t="s">
+      <c r="B2" s="114" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="109"/>
-      <c r="E2" s="108" t="s">
+      <c r="C2" s="115"/>
+      <c r="D2" s="116"/>
+      <c r="E2" s="115" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="109"/>
+      <c r="F2" s="116"/>
       <c r="H2" s="3" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="3" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="110">
+      <c r="B3" s="117">
         <v>1</v>
       </c>
-      <c r="C3" s="111"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="118" t="s">
+      <c r="C3" s="118"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="110" t="s">
         <v>149</v>
       </c>
-      <c r="F3" s="112"/>
+      <c r="F3" s="111"/>
       <c r="H3" s="35" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="104">
+      <c r="B4" s="112">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="105"/>
-      <c r="D4" s="106"/>
-      <c r="E4" s="119" t="s">
+      <c r="C4" s="113"/>
+      <c r="D4" s="105"/>
+      <c r="E4" s="104" t="s">
         <v>150</v>
       </c>
-      <c r="F4" s="106"/>
+      <c r="F4" s="105"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="104">
+      <c r="B5" s="112">
         <f t="shared" ref="B5:B26" si="0">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="105"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="119" t="s">
+      <c r="C5" s="113"/>
+      <c r="D5" s="105"/>
+      <c r="E5" s="104" t="s">
         <v>151</v>
       </c>
-      <c r="F5" s="106"/>
+      <c r="F5" s="105"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="104">
+      <c r="B6" s="112">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C6" s="105"/>
-      <c r="D6" s="106"/>
-      <c r="E6" s="119" t="s">
+      <c r="C6" s="113"/>
+      <c r="D6" s="105"/>
+      <c r="E6" s="104" t="s">
         <v>152</v>
       </c>
-      <c r="F6" s="106"/>
+      <c r="F6" s="105"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="104">
+      <c r="B7" s="112">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C7" s="105"/>
-      <c r="D7" s="106"/>
-      <c r="E7" s="119" t="s">
+      <c r="C7" s="113"/>
+      <c r="D7" s="105"/>
+      <c r="E7" s="104" t="s">
         <v>153</v>
       </c>
-      <c r="F7" s="106"/>
+      <c r="F7" s="105"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="104">
+      <c r="B8" s="112">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C8" s="105"/>
-      <c r="D8" s="106"/>
-      <c r="E8" s="119" t="s">
-        <v>163</v>
-      </c>
-      <c r="F8" s="106"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="105"/>
+      <c r="E8" s="104" t="s">
+        <v>162</v>
+      </c>
+      <c r="F8" s="105"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="104">
+      <c r="B9" s="112">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C9" s="105"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="119" t="s">
-        <v>164</v>
-      </c>
-      <c r="F9" s="106"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="105"/>
+      <c r="E9" s="104" t="s">
+        <v>163</v>
+      </c>
+      <c r="F9" s="105"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="104">
+      <c r="B10" s="112">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C10" s="105"/>
-      <c r="D10" s="106"/>
-      <c r="E10" s="119" t="s">
-        <v>158</v>
-      </c>
-      <c r="F10" s="106"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="105"/>
+      <c r="E10" s="104" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="105"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="104">
+      <c r="B11" s="112">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C11" s="105"/>
-      <c r="D11" s="106"/>
-      <c r="E11" s="113" t="s">
-        <v>159</v>
-      </c>
-      <c r="F11" s="114"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="119" t="s">
+        <v>158</v>
+      </c>
+      <c r="F11" s="120"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="104">
+      <c r="B12" s="112">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C12" s="105"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="113" t="s">
-        <v>160</v>
-      </c>
-      <c r="F12" s="114"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="105"/>
+      <c r="E12" s="119" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" s="120"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="104">
+      <c r="B13" s="112">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C13" s="105"/>
-      <c r="D13" s="106"/>
-      <c r="E13" s="119" t="s">
-        <v>157</v>
-      </c>
-      <c r="F13" s="106"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="105"/>
+      <c r="E13" s="104" t="s">
+        <v>241</v>
+      </c>
+      <c r="F13" s="105"/>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="104">
+      <c r="B14" s="112">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C14" s="105"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="119" t="s">
-        <v>161</v>
-      </c>
-      <c r="F14" s="106"/>
+      <c r="C14" s="113"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="104" t="s">
+        <v>160</v>
+      </c>
+      <c r="F14" s="105"/>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="104">
+      <c r="B15" s="112">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C15" s="105"/>
-      <c r="D15" s="106"/>
-      <c r="E15" s="119"/>
-      <c r="F15" s="106"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="105"/>
+      <c r="E15" s="104" t="s">
+        <v>242</v>
+      </c>
+      <c r="F15" s="105"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="104">
+      <c r="B16" s="112">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C16" s="105"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="106"/>
+      <c r="C16" s="113"/>
+      <c r="D16" s="105"/>
+      <c r="E16" s="104" t="s">
+        <v>243</v>
+      </c>
+      <c r="F16" s="105"/>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="104">
+      <c r="B17" s="112">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C17" s="105"/>
-      <c r="D17" s="106"/>
-      <c r="E17" s="119"/>
-      <c r="F17" s="106"/>
+      <c r="C17" s="113"/>
+      <c r="D17" s="105"/>
+      <c r="E17" s="104" t="s">
+        <v>244</v>
+      </c>
+      <c r="F17" s="105"/>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="104">
+      <c r="B18" s="112">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C18" s="105"/>
-      <c r="D18" s="106"/>
-      <c r="E18" s="119"/>
-      <c r="F18" s="106"/>
+      <c r="C18" s="113"/>
+      <c r="D18" s="105"/>
+      <c r="E18" s="104" t="s">
+        <v>245</v>
+      </c>
+      <c r="F18" s="105"/>
       <c r="H18" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="104">
+      <c r="B19" s="112">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C19" s="105"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="106"/>
+      <c r="C19" s="113"/>
+      <c r="D19" s="105"/>
+      <c r="E19" s="104"/>
+      <c r="F19" s="105"/>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="104">
+      <c r="B20" s="112">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C20" s="105"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="119"/>
-      <c r="F20" s="106"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="105"/>
+      <c r="E20" s="104"/>
+      <c r="F20" s="105"/>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="104">
+      <c r="B21" s="112">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C21" s="105"/>
-      <c r="D21" s="106"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="106"/>
+      <c r="C21" s="113"/>
+      <c r="D21" s="105"/>
+      <c r="E21" s="104"/>
+      <c r="F21" s="105"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="104">
+      <c r="B22" s="112">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C22" s="105"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="106"/>
+      <c r="C22" s="113"/>
+      <c r="D22" s="105"/>
+      <c r="E22" s="104"/>
+      <c r="F22" s="105"/>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="104">
+      <c r="B23" s="112">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C23" s="105"/>
-      <c r="D23" s="106"/>
-      <c r="E23" s="119"/>
-      <c r="F23" s="106"/>
+      <c r="C23" s="113"/>
+      <c r="D23" s="105"/>
+      <c r="E23" s="104"/>
+      <c r="F23" s="105"/>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="104">
+      <c r="B24" s="112">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C24" s="105"/>
-      <c r="D24" s="106"/>
-      <c r="E24" s="119"/>
-      <c r="F24" s="106"/>
+      <c r="C24" s="113"/>
+      <c r="D24" s="105"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="105"/>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="104">
+      <c r="B25" s="112">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C25" s="105"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="106"/>
+      <c r="C25" s="113"/>
+      <c r="D25" s="105"/>
+      <c r="E25" s="104"/>
+      <c r="F25" s="105"/>
     </row>
     <row r="26" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="115">
+      <c r="B26" s="108">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C26" s="116"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="117"/>
+      <c r="C26" s="109"/>
+      <c r="D26" s="107"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B18:D18"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="E4:F4"/>
@@ -7846,27 +7874,19 @@
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="B24:D24"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
